--- a/specifications/1_Fire/ScriptRules_Fire.xlsx
+++ b/specifications/1_Fire/ScriptRules_Fire.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\landfiredisturbance\specifications\1_Fire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\LANDFIRE\landfiredisturbance-clone\specifications\1_Fire\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,15 +33,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="408">
-  <si>
-    <t xml:space="preserve">Low Severity Fire </t>
-  </si>
-  <si>
-    <t>Moderate Severity Fire</t>
-  </si>
-  <si>
-    <t>High Severity Fire</t>
-  </si>
   <si>
     <t>* = 0.9</t>
   </si>
@@ -1257,6 +1248,15 @@
   <si>
     <t xml:space="preserve"> * = 0.75</t>
   </si>
+  <si>
+    <t>Low Severity Fire (11)</t>
+  </si>
+  <si>
+    <t>Moderate Severity Fire (12)</t>
+  </si>
+  <si>
+    <t>High Severity Fire (13)</t>
+  </si>
 </sst>
 </file>
 
@@ -1853,167 +1853,167 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2039,13 +2039,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2061,10 +2061,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2072,24 +2072,24 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,10 +2097,10 @@
         <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2111,10 +2111,10 @@
         <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2125,10 +2125,10 @@
         <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -2139,10 +2139,10 @@
         <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2153,10 +2153,10 @@
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2167,10 +2167,10 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -2181,10 +2181,10 @@
         <v>131</v>
       </c>
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2195,10 +2195,10 @@
         <v>132</v>
       </c>
       <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2209,10 +2209,10 @@
         <v>133</v>
       </c>
       <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -2220,47 +2220,47 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2284,102 +2284,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2394,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K952"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,2186 +2417,2186 @@
     <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1"/>
       <c r="C1" s="17" t="s">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
       <c r="F1" s="20" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="27"/>
       <c r="I1" s="20" t="s">
-        <v>2</v>
+        <v>407</v>
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G35" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J35" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G36" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J36" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G37" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J37" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G38" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J38" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G39" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J39" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G40" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J40" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E49" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="24" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E50" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J50" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="24" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E51" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="24" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E52" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J52" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="24" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E53" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J53" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="24" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B54" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C54" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E54" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="F54" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B55" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C55" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="F55" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B56" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C56" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E56" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="F56" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C57" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="I57" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>6</v>
-      </c>
       <c r="J57" s="31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C58" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="I58" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>6</v>
-      </c>
       <c r="J58" s="31" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C59" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="I59" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="I59" s="22" t="s">
-        <v>6</v>
-      </c>
       <c r="J59" s="31" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B60" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C63" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C64" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C65" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="F65" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C66" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C67" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C68" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G79" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I79" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J79" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K79" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G80" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I80" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J80" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K80" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G81" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I81" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H81" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I81" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J81" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K81" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G82" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H82" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I82" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J82" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K82" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G83" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H83" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I83" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J83" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K83" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G84" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H84" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I84" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J84" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K84" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I85" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I87" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B88" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I89" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B92" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5480,54 +5480,54 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>9.6</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F8">
         <v>7.5</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F10">
         <v>44</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F12">
         <v>150</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E13">
         <v>0.5</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E15">
         <v>1.5</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E17">
         <v>1000</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <v>3.5</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E19">
         <v>25</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F21">
         <v>33.35</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F22">
         <v>9</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F23">
         <v>50</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F24">
         <v>0.5071</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E26">
         <v>3.5</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E27">
         <v>20</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E28">
         <v>150</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B30">
         <v>60</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B34">
         <v>2.2000000000000002</v>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B35">
         <v>21.6</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B36">
         <v>85</v>
@@ -6428,12 +6428,12 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B38">
         <v>0.3</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B39">
         <v>1.2</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B40">
         <v>95</v>
@@ -6502,12 +6502,12 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B42">
         <v>0.9</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B43">
         <v>0.1</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B44">
         <v>0.7</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B45">
         <v>95</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B46">
         <v>0.9</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B47">
         <v>0.1</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B48">
         <v>0.2</v>
@@ -6752,7 +6752,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B49">
         <v>85</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B51">
         <v>70</v>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B53">
         <v>1.5</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B56">
         <v>12</v>
@@ -7041,7 +7041,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B59">
         <v>11</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B61">
         <v>9.6</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B62">
         <v>0.4</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B63">
         <v>115</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B64">
         <v>9.6</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B65">
         <v>0.4</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B66">
         <v>115</v>
@@ -7268,22 +7268,22 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B70">
         <v>7.8118999999999994E-2</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="72" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F73">
         <v>90</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C74">
         <v>100</v>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D75">
         <v>100</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B76" s="1">
         <v>50</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B77" s="1">
         <v>50</v>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G78">
         <v>60</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M79">
         <v>5</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -7562,12 +7562,12 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B83">
         <v>0.2</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B84">
         <v>70</v>
@@ -7661,12 +7661,12 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E86">
         <v>2.5</v>
@@ -7683,7 +7683,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E87">
         <v>80</v>
@@ -7700,12 +7700,12 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C89">
         <v>0.2</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C90">
         <v>60</v>
@@ -7739,12 +7739,12 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B92">
         <v>0.5</v>
@@ -7788,7 +7788,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B93">
         <v>70</v>
@@ -7832,12 +7832,12 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I96">
         <v>2.5499999999999998</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I97">
         <v>0.5</v>
@@ -7888,12 +7888,12 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E99">
         <v>18</v>
@@ -7901,7 +7901,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -7909,7 +7909,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E101">
         <v>5</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7965,22 +7965,22 @@
   <sheetData>
     <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G1" s="8">
         <v>111</v>
@@ -7992,7 +7992,7 @@
         <v>113</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K1" s="8">
         <v>111</v>
@@ -8004,7 +8004,7 @@
         <v>113</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O1" s="8">
         <v>111</v>
@@ -8016,7 +8016,7 @@
         <v>113</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S1" s="8">
         <v>111</v>
@@ -8028,7 +8028,7 @@
         <v>113</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="W1" s="8">
         <v>111</v>
@@ -8040,7 +8040,7 @@
         <v>113</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA1" s="8">
         <v>111</v>
@@ -8058,7 +8058,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C2" s="33">
         <v>0.9</v>
@@ -8156,7 +8156,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="37"/>
@@ -8252,7 +8252,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C4" s="33">
         <v>1.1000000000000001</v>
@@ -8350,7 +8350,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="37"/>
@@ -8446,7 +8446,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C6" s="33">
         <v>0.9</v>
@@ -8544,7 +8544,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C7" s="33">
         <v>0.9</v>
@@ -8642,7 +8642,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="37"/>
@@ -8729,7 +8729,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C9" s="33">
         <v>1.1000000000000001</v>
@@ -8818,7 +8818,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="37"/>
@@ -8905,7 +8905,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C11" s="33">
         <v>0.9</v>
@@ -8994,7 +8994,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C12" s="33">
         <v>0.9</v>
@@ -9083,7 +9083,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="37"/>
@@ -9176,7 +9176,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="37"/>
@@ -9269,7 +9269,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="37"/>
@@ -9362,7 +9362,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C16" s="33">
         <v>0.8</v>
@@ -9457,7 +9457,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C17" s="33">
         <v>0.8</v>
@@ -9552,11 +9552,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="39" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E18" s="38">
         <v>0</v>
@@ -9646,11 +9646,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="39" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E19" s="38">
         <v>0</v>
@@ -9740,11 +9740,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="39" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E20" s="38">
         <v>0</v>
@@ -9834,10 +9834,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D21" s="37">
         <v>0</v>
@@ -9925,10 +9925,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D22" s="37">
         <v>0</v>
@@ -10016,10 +10016,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D23" s="37">
         <v>0</v>
@@ -10107,10 +10107,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D24" s="37">
         <v>0</v>
@@ -10198,10 +10198,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D25" s="37">
         <v>0</v>
@@ -10289,14 +10289,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="39" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ref="G26:G33" si="17">F26</f>
@@ -10386,14 +10386,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="39" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="17"/>
@@ -10483,14 +10483,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="39" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="17"/>
@@ -10580,14 +10580,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="39" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F29" s="4">
         <v>9</v>
@@ -10680,14 +10680,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="39" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F30" s="4">
         <v>60</v>
@@ -10780,14 +10780,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="39" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F31" s="4">
         <v>3</v>
@@ -10880,7 +10880,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="37"/>
@@ -10970,7 +10970,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="37"/>
@@ -11060,7 +11060,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C34" s="33">
         <v>0.5</v>
@@ -11169,7 +11169,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C35" s="33">
         <v>0.5</v>
@@ -11278,7 +11278,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C36" s="33">
         <v>0.5</v>
@@ -11387,7 +11387,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C37" s="33">
         <v>0.5</v>
@@ -11487,7 +11487,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C38" s="33">
         <v>0.5</v>
@@ -11587,7 +11587,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C39" s="33">
         <v>0.5</v>
@@ -11687,7 +11687,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C40" s="33">
         <v>0.5</v>
@@ -11791,7 +11791,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C41" s="33">
         <v>0.5</v>
@@ -11895,7 +11895,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C42" s="33">
         <v>0.5</v>
@@ -11999,7 +11999,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C43" s="33">
         <v>0.5</v>
@@ -12103,7 +12103,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C44" s="33">
         <v>0.5</v>
@@ -12204,7 +12204,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C45" s="33">
         <v>0.5</v>
@@ -12305,7 +12305,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C46" s="33">
         <v>0.5</v>
@@ -12406,7 +12406,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C47" s="33">
         <v>0.5</v>
@@ -12507,7 +12507,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C48" s="33">
         <v>0.5</v>
@@ -12613,7 +12613,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C49" s="33">
         <v>0.5</v>
@@ -12719,7 +12719,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C50" s="33">
         <v>0.5</v>
@@ -12825,7 +12825,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C51" s="33">
         <v>0.5</v>
@@ -12931,7 +12931,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C52" s="33">
         <v>0.5</v>
@@ -13037,7 +13037,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C53" s="33">
         <v>0.9</v>
@@ -13142,7 +13142,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C54" s="33">
         <v>0.9</v>
@@ -13247,7 +13247,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C55" s="33">
         <v>0.9</v>
@@ -13352,16 +13352,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C56" s="33">
         <v>0.9</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -13451,16 +13451,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C57" s="33">
         <v>0.9</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F57" s="4">
         <v>11</v>
@@ -13550,16 +13550,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C58" s="33">
         <v>0.9</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -13649,7 +13649,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="37"/>
@@ -13739,7 +13739,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C60" s="33"/>
       <c r="D60" s="37"/>
@@ -13829,7 +13829,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="37"/>
@@ -13919,7 +13919,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C62" s="33">
         <v>0.9</v>
@@ -14017,7 +14017,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C63" s="33">
         <v>0.9</v>
@@ -14115,7 +14115,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C64" s="33">
         <v>0.9</v>
@@ -14213,7 +14213,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C65" s="33">
         <v>0.9</v>
@@ -14299,7 +14299,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C66" s="33">
         <v>0.9</v>
@@ -14385,7 +14385,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C67" s="33">
         <v>0.9</v>
@@ -14471,7 +14471,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C68" s="33">
         <v>0.75</v>
@@ -14575,7 +14575,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C69" s="33">
         <v>0.75</v>
@@ -14679,7 +14679,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C70" s="33">
         <v>0.75</v>
@@ -14783,7 +14783,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="37"/>
@@ -14870,7 +14870,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="37"/>
@@ -14957,7 +14957,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="37"/>
@@ -15044,7 +15044,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C74" s="33"/>
       <c r="D74" s="37"/>
@@ -15137,7 +15137,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C75" s="33"/>
       <c r="D75" s="37"/>
@@ -15227,7 +15227,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C76" s="33"/>
       <c r="D76" s="37"/>
@@ -15314,7 +15314,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C77" s="33"/>
       <c r="D77" s="37"/>
@@ -15398,7 +15398,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C78" s="33">
         <v>0.75</v>
@@ -15490,7 +15490,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C79" s="33">
         <v>0.75</v>
@@ -15582,7 +15582,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C80" s="33">
         <v>0.75</v>
@@ -15689,7 +15689,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C81" s="33">
         <v>0.75</v>
@@ -15796,7 +15796,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C82" s="33">
         <v>0.75</v>
@@ -15891,7 +15891,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C83" s="33">
         <v>0.75</v>
@@ -15986,7 +15986,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C84" s="33">
         <v>0.75</v>
@@ -16081,7 +16081,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C85" s="33">
         <v>0.75</v>
@@ -16176,7 +16176,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C86" s="33">
         <v>0.75</v>
@@ -16283,7 +16283,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C87" s="33">
         <v>0.75</v>
@@ -16390,7 +16390,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C88" s="33">
         <v>0.75</v>
@@ -16479,7 +16479,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C89" s="33">
         <v>0.75</v>
@@ -16568,7 +16568,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C90" s="33">
         <v>0.75</v>
@@ -16657,7 +16657,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C91" s="33">
         <v>0.75</v>
@@ -16749,7 +16749,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C92" s="33">
         <v>0.75</v>
@@ -16841,7 +16841,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C93" s="33">
         <v>0.75</v>
@@ -16969,22 +16969,22 @@
   <sheetData>
     <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G1" s="8">
         <v>121</v>
@@ -16996,7 +16996,7 @@
         <v>123</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K1" s="8">
         <v>121</v>
@@ -17008,7 +17008,7 @@
         <v>123</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O1" s="8">
         <v>121</v>
@@ -17020,7 +17020,7 @@
         <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S1" s="8">
         <v>121</v>
@@ -17032,7 +17032,7 @@
         <v>123</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="W1" s="8">
         <v>121</v>
@@ -17044,7 +17044,7 @@
         <v>123</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA1" s="8">
         <v>121</v>
@@ -17062,7 +17062,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C2" s="46">
         <v>0.6</v>
@@ -17162,7 +17162,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="37"/>
@@ -17258,7 +17258,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C4" s="46">
         <v>1.2</v>
@@ -17356,7 +17356,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="37"/>
@@ -17452,7 +17452,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C6" s="46">
         <v>0.6</v>
@@ -17552,7 +17552,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C7" s="46">
         <v>0.6</v>
@@ -17652,7 +17652,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="37"/>
@@ -17739,7 +17739,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C9" s="46">
         <v>1.2</v>
@@ -17828,7 +17828,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="37"/>
@@ -17915,7 +17915,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C11" s="46">
         <v>0.6</v>
@@ -18006,7 +18006,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C12" s="46">
         <v>0.6</v>
@@ -18097,7 +18097,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="37"/>
@@ -18190,7 +18190,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C14" s="46">
         <v>1.3</v>
@@ -18285,7 +18285,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="37"/>
@@ -18378,7 +18378,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C16" s="46">
         <v>0.4</v>
@@ -18475,7 +18475,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C17" s="46">
         <v>0.4</v>
@@ -18572,11 +18572,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="39" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E18" s="38">
         <v>0</v>
@@ -18666,11 +18666,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="39" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E19" s="38">
         <v>0</v>
@@ -18760,11 +18760,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="39" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E20" s="38">
         <v>0</v>
@@ -18854,13 +18854,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E21" s="38">
         <v>0</v>
@@ -18947,13 +18947,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E22" s="38">
         <v>0</v>
@@ -19040,13 +19040,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E23" s="38">
         <v>0</v>
@@ -19133,13 +19133,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E24" s="38">
         <v>0</v>
@@ -19226,13 +19226,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E25" s="38">
         <v>0</v>
@@ -19319,14 +19319,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="39" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ref="G26:H33" si="33">F26</f>
@@ -19416,14 +19416,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="39" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="33"/>
@@ -19513,14 +19513,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="39" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="33"/>
@@ -19610,14 +19610,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="39" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F29" s="4">
         <v>9</v>
@@ -19710,14 +19710,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="39" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F30" s="4">
         <v>60</v>
@@ -19810,14 +19810,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="39" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F31" s="4">
         <v>3</v>
@@ -19910,7 +19910,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="37"/>
@@ -20000,7 +20000,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C33" s="46"/>
       <c r="D33" s="37"/>
@@ -20090,7 +20090,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C34" s="46">
         <v>0.25</v>
@@ -20199,7 +20199,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C35" s="46">
         <v>0.25</v>
@@ -20308,7 +20308,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C36" s="46">
         <v>0.25</v>
@@ -20417,7 +20417,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C37" s="46">
         <v>0.25</v>
@@ -20517,7 +20517,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C38" s="46">
         <v>0.25</v>
@@ -20617,7 +20617,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C39" s="46">
         <v>0.25</v>
@@ -20717,7 +20717,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C40" s="46">
         <v>0.25</v>
@@ -20821,7 +20821,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C41" s="46">
         <v>0.25</v>
@@ -20927,7 +20927,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C42" s="46">
         <v>0.25</v>
@@ -21033,7 +21033,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C43" s="46">
         <v>0.25</v>
@@ -21139,7 +21139,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C44" s="46">
         <v>0.25</v>
@@ -21240,7 +21240,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C45" s="46">
         <v>0.25</v>
@@ -21343,7 +21343,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C46" s="46">
         <v>0.25</v>
@@ -21446,7 +21446,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C47" s="46">
         <v>0.25</v>
@@ -21549,7 +21549,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C48" s="46">
         <v>0.25</v>
@@ -21655,7 +21655,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C49" s="46">
         <v>0.25</v>
@@ -21761,7 +21761,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C50" s="46">
         <v>0.25</v>
@@ -21867,7 +21867,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C51" s="46">
         <v>0.25</v>
@@ -21973,7 +21973,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C52" s="46">
         <v>0.25</v>
@@ -22079,7 +22079,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C53" s="46">
         <v>0.75</v>
@@ -22184,7 +22184,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C54" s="46">
         <v>0.75</v>
@@ -22289,7 +22289,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C55" s="46">
         <v>0.75</v>
@@ -22394,16 +22394,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C56" s="46">
         <v>0.75</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -22493,16 +22493,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C57" s="46">
         <v>0.75</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F57" s="4">
         <v>11</v>
@@ -22592,16 +22592,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C58" s="46">
         <v>0.75</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C59" s="46"/>
       <c r="D59" s="37"/>
@@ -22781,7 +22781,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C60" s="46"/>
       <c r="D60" s="37"/>
@@ -22871,7 +22871,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C61" s="46"/>
       <c r="D61" s="37"/>
@@ -22961,7 +22961,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C62" s="46">
         <v>0.75</v>
@@ -23059,7 +23059,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C63" s="46">
         <v>0.75</v>
@@ -23157,7 +23157,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C64" s="46">
         <v>0.75</v>
@@ -23255,7 +23255,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C65" s="46">
         <v>0.75</v>
@@ -23341,7 +23341,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C66" s="46">
         <v>0.75</v>
@@ -23427,7 +23427,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C67" s="46">
         <v>0.75</v>
@@ -23513,7 +23513,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C68" s="46">
         <v>0.9</v>
@@ -23617,7 +23617,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C69" s="46">
         <v>0.9</v>
@@ -23721,7 +23721,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C70" s="46">
         <v>0.9</v>
@@ -23825,7 +23825,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C71" s="46"/>
       <c r="D71" s="37"/>
@@ -23912,7 +23912,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C72" s="46"/>
       <c r="D72" s="37"/>
@@ -23999,7 +23999,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C73" s="46"/>
       <c r="D73" s="37"/>
@@ -24086,7 +24086,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C74" s="46"/>
       <c r="D74" s="37"/>
@@ -24179,7 +24179,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C75" s="46"/>
       <c r="D75" s="37"/>
@@ -24269,7 +24269,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C76" s="46"/>
       <c r="D76" s="37"/>
@@ -24356,7 +24356,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C77" s="46"/>
       <c r="D77" s="37"/>
@@ -24440,7 +24440,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C78" s="46">
         <v>0.25</v>
@@ -24534,7 +24534,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C79" s="46">
         <v>0.25</v>
@@ -24628,7 +24628,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C80" s="46">
         <v>0.25</v>
@@ -24737,7 +24737,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C81" s="46">
         <v>0.25</v>
@@ -24846,7 +24846,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C82" s="46">
         <v>0.25</v>
@@ -24943,7 +24943,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C83" s="46">
         <v>0.25</v>
@@ -25040,7 +25040,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C84" s="46">
         <v>0.25</v>
@@ -25132,7 +25132,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C85" s="46">
         <v>0.25</v>
@@ -25224,7 +25224,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C86" s="46">
         <v>0.25</v>
@@ -25328,7 +25328,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C87" s="46">
         <v>0.25</v>
@@ -25432,7 +25432,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C88" s="46">
         <v>0.25</v>
@@ -25518,7 +25518,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C89" s="46">
         <v>0.25</v>
@@ -25604,7 +25604,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C90" s="46">
         <v>0.25</v>
@@ -25690,7 +25690,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C91" s="46">
         <v>0.25</v>
@@ -25779,7 +25779,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C92" s="46">
         <v>0.25</v>
@@ -25868,7 +25868,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C93" s="46">
         <v>0.25</v>
@@ -25993,22 +25993,22 @@
   <sheetData>
     <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G1" s="8">
         <v>131</v>
@@ -26020,7 +26020,7 @@
         <v>133</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K1" s="8">
         <v>131</v>
@@ -26032,7 +26032,7 @@
         <v>133</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O1" s="8">
         <v>131</v>
@@ -26044,7 +26044,7 @@
         <v>133</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S1" s="8">
         <v>131</v>
@@ -26056,7 +26056,7 @@
         <v>133</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="W1" s="8">
         <v>131</v>
@@ -26068,7 +26068,7 @@
         <v>133</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA1" s="8">
         <v>131</v>
@@ -26086,7 +26086,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C2" s="46">
         <v>0.25</v>
@@ -26186,7 +26186,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="37"/>
@@ -26282,7 +26282,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C4" s="46">
         <v>1.5</v>
@@ -26380,7 +26380,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="37"/>
@@ -26476,7 +26476,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C6" s="46">
         <v>0.25</v>
@@ -26576,7 +26576,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C7" s="46">
         <v>0.25</v>
@@ -26676,7 +26676,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="37"/>
@@ -26763,7 +26763,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C9" s="46">
         <v>1.5</v>
@@ -26852,7 +26852,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="37"/>
@@ -26939,7 +26939,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C11" s="46">
         <v>0.25</v>
@@ -27030,7 +27030,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C12" s="46">
         <v>0.25</v>
@@ -27121,7 +27121,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="37"/>
@@ -27214,7 +27214,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C14" s="46">
         <v>1.8</v>
@@ -27309,7 +27309,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="37"/>
@@ -27402,7 +27402,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C16" s="46">
         <v>0.05</v>
@@ -27499,7 +27499,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C17" s="46">
         <v>0.05</v>
@@ -27596,11 +27596,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="39" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E18" s="38">
         <v>0</v>
@@ -27690,11 +27690,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="39" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E19" s="38">
         <v>0</v>
@@ -27784,11 +27784,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="39" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E20" s="38">
         <v>0</v>
@@ -27878,13 +27878,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E21" s="38">
         <v>0</v>
@@ -27971,13 +27971,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E22" s="38">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E23" s="38">
         <v>0</v>
@@ -28157,13 +28157,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E24" s="38">
         <v>0</v>
@@ -28250,13 +28250,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E25" s="38">
         <v>0</v>
@@ -28343,14 +28343,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="39" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ref="G26:H33" si="33">F26</f>
@@ -28440,14 +28440,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="39" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="33"/>
@@ -28537,14 +28537,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="39" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="33"/>
@@ -28634,14 +28634,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="39" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F29" s="4">
         <v>9</v>
@@ -28734,14 +28734,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="39" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F30" s="4">
         <v>60</v>
@@ -28834,14 +28834,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="39" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F31" s="4">
         <v>3</v>
@@ -28934,7 +28934,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="37"/>
@@ -29024,7 +29024,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C33" s="46"/>
       <c r="D33" s="37"/>
@@ -29114,7 +29114,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C34" s="46">
         <v>0.05</v>
@@ -29221,7 +29221,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C35" s="46">
         <v>0.05</v>
@@ -29331,7 +29331,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C36" s="46">
         <v>0.05</v>
@@ -29441,7 +29441,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C37" s="46">
         <v>0.05</v>
@@ -29539,7 +29539,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C38" s="46">
         <v>0.05</v>
@@ -29640,7 +29640,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C39" s="46">
         <v>0.05</v>
@@ -29741,7 +29741,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C40" s="46">
         <v>0.05</v>
@@ -29845,7 +29845,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C41" s="46">
         <v>0.05</v>
@@ -29952,7 +29952,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C42" s="46">
         <v>0.05</v>
@@ -30059,7 +30059,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C43" s="46">
         <v>0.05</v>
@@ -30166,7 +30166,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C44" s="46">
         <v>0.05</v>
@@ -30267,7 +30267,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C45" s="46">
         <v>0.05</v>
@@ -30371,7 +30371,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C46" s="46">
         <v>0.05</v>
@@ -30475,7 +30475,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C47" s="46">
         <v>0.05</v>
@@ -30579,7 +30579,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C48" s="46">
         <v>0.05</v>
@@ -30686,7 +30686,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C49" s="46">
         <v>0.05</v>
@@ -30793,7 +30793,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C50" s="46">
         <v>0.05</v>
@@ -30900,7 +30900,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C51" s="46">
         <v>0.05</v>
@@ -31007,7 +31007,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C52" s="46">
         <v>0.05</v>
@@ -31114,7 +31114,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C53" s="46">
         <v>0.5</v>
@@ -31219,7 +31219,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C54" s="46">
         <v>0.5</v>
@@ -31324,7 +31324,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C55" s="46">
         <v>0.5</v>
@@ -31429,16 +31429,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C56" s="46">
         <v>0.5</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -31528,16 +31528,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C57" s="46">
         <v>0.5</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F57" s="4">
         <v>11</v>
@@ -31627,16 +31627,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C58" s="46">
         <v>0.5</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -31726,7 +31726,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C59" s="46"/>
       <c r="D59" s="37"/>
@@ -31816,7 +31816,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C60" s="46"/>
       <c r="D60" s="37"/>
@@ -31906,7 +31906,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C61" s="46"/>
       <c r="D61" s="37"/>
@@ -31996,7 +31996,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C62" s="46">
         <v>0.5</v>
@@ -32094,7 +32094,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C63" s="46">
         <v>0.5</v>
@@ -32192,7 +32192,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C64" s="46">
         <v>0.5</v>
@@ -32290,7 +32290,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C65" s="46">
         <v>0.5</v>
@@ -32376,7 +32376,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C66" s="46">
         <v>0.5</v>
@@ -32462,7 +32462,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C67" s="46">
         <v>0.5</v>
@@ -32548,7 +32548,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C68" s="46">
         <v>0.9</v>
@@ -32652,7 +32652,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C69" s="46">
         <v>0.9</v>
@@ -32756,7 +32756,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C70" s="46">
         <v>0.9</v>
@@ -32860,7 +32860,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C71" s="46"/>
       <c r="D71" s="37"/>
@@ -32947,7 +32947,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C72" s="46"/>
       <c r="D72" s="37"/>
@@ -33034,7 +33034,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C73" s="46"/>
       <c r="D73" s="37"/>
@@ -33121,7 +33121,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C74" s="46"/>
       <c r="D74" s="37"/>
@@ -33214,7 +33214,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C75" s="46"/>
       <c r="D75" s="37"/>
@@ -33304,7 +33304,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C76" s="46"/>
       <c r="D76" s="37"/>
@@ -33391,7 +33391,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C77" s="46"/>
       <c r="D77" s="37"/>
@@ -33475,7 +33475,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C78" s="46">
         <v>0.05</v>
@@ -33570,7 +33570,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C79" s="46">
         <v>0.05</v>
@@ -33665,7 +33665,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C80" s="46">
         <v>0.05</v>
@@ -33775,7 +33775,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C81" s="46">
         <v>0.05</v>
@@ -33885,7 +33885,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C82" s="46">
         <v>0.05</v>
@@ -33983,7 +33983,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C83" s="46">
         <v>0.05</v>
@@ -34081,7 +34081,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C84" s="46">
         <v>0.05</v>
@@ -34173,7 +34173,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C85" s="46">
         <v>0.05</v>
@@ -34265,7 +34265,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C86" s="46">
         <v>0.05</v>
@@ -34369,7 +34369,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C87" s="46">
         <v>0.05</v>
@@ -34473,7 +34473,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C88" s="46">
         <v>0.05</v>
@@ -34559,7 +34559,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C89" s="46">
         <v>0.05</v>
@@ -34645,7 +34645,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C90" s="46">
         <v>0.05</v>
@@ -34731,7 +34731,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C91" s="46">
         <v>0.05</v>
@@ -34820,7 +34820,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C92" s="46">
         <v>0.05</v>
@@ -34909,7 +34909,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C93" s="46">
         <v>0.05</v>
@@ -35024,187 +35024,187 @@
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
         <v>214</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
         <v>215</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>216</v>
       </c>
-      <c r="F1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>250</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>251</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>252</v>
       </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>253</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>254</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>255</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z1" t="s">
         <v>256</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>257</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>258</v>
       </c>
-      <c r="V1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" t="s">
         <v>202</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AH1" t="s">
         <v>203</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AI1" t="s">
         <v>204</v>
       </c>
-      <c r="Z1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AJ1" t="s">
         <v>262</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AK1" t="s">
         <v>263</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AL1" t="s">
         <v>264</v>
       </c>
-      <c r="AF1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AM1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>205</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AR1" t="s">
         <v>206</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AS1" t="s">
         <v>207</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AT1" t="s">
         <v>268</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AU1" t="s">
         <v>269</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AV1" t="s">
         <v>270</v>
       </c>
-      <c r="AP1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ1" t="s">
+      <c r="AW1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" t="s">
         <v>208</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BB1" t="s">
         <v>209</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BC1" t="s">
         <v>210</v>
       </c>
-      <c r="AT1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW1" t="s">
+      <c r="BD1" t="s">
         <v>274</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BE1" t="s">
         <v>275</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BF1" t="s">
         <v>276</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>277</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>278</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>279</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>280</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>281</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">

--- a/specifications/1_Fire/ScriptRules_Fire.xlsx
+++ b/specifications/1_Fire/ScriptRules_Fire.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -2417,20 +2417,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K952"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="101.28515625" style="27" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="21" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="25" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="26" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="21" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" style="26" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="44.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48" style="25" customWidth="1"/>
     <col min="11" max="11" width="36.5703125" style="26" customWidth="1"/>
@@ -11126,7 +11126,7 @@
         <v>3.125</v>
       </c>
       <c r="M34" s="13">
-        <f t="shared" ref="M34:M37" si="57">$E34*L34</f>
+        <f t="shared" ref="M34" si="57">$E34*L34</f>
         <v>5</v>
       </c>
       <c r="N34" s="4">
@@ -11141,7 +11141,7 @@
         <v>1.875</v>
       </c>
       <c r="Q34" s="13">
-        <f t="shared" ref="Q34:Q37" si="60">$E34*P34</f>
+        <f t="shared" ref="Q34" si="60">$E34*P34</f>
         <v>3</v>
       </c>
       <c r="R34" s="4">
@@ -11156,7 +11156,7 @@
         <v>3.125</v>
       </c>
       <c r="U34" s="13">
-        <f t="shared" ref="U34:U37" si="63">$E34*T34</f>
+        <f t="shared" ref="U34" si="63">$E34*T34</f>
         <v>5</v>
       </c>
       <c r="V34" s="4">
@@ -11171,7 +11171,7 @@
         <v>3.75</v>
       </c>
       <c r="Y34" s="13">
-        <f t="shared" ref="Y34:Y37" si="66">$E34*X34</f>
+        <f t="shared" ref="Y34" si="66">$E34*X34</f>
         <v>6</v>
       </c>
       <c r="Z34" s="4">
@@ -11186,7 +11186,7 @@
         <v>3.125</v>
       </c>
       <c r="AC34" s="13">
-        <f t="shared" ref="AC34:AC37" si="69">$E34*AB34</f>
+        <f t="shared" ref="AC34" si="69">$E34*AB34</f>
         <v>5</v>
       </c>
     </row>
@@ -11453,7 +11453,7 @@
         <v>1.25</v>
       </c>
       <c r="M37" s="13">
-        <f t="shared" ref="M37:M40" si="70">$E37*L37</f>
+        <f t="shared" ref="M37" si="70">$E37*L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="5">
@@ -11465,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="13">
-        <f t="shared" ref="Q37:Q40" si="71">$E37*P37</f>
+        <f t="shared" ref="Q37" si="71">$E37*P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="4">
@@ -11480,7 +11480,7 @@
         <v>0.625</v>
       </c>
       <c r="U37" s="13">
-        <f t="shared" ref="U37:U40" si="72">$E37*T37</f>
+        <f t="shared" ref="U37" si="72">$E37*T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="5">
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="13">
-        <f t="shared" ref="Y37:Y40" si="73">$E37*X37</f>
+        <f t="shared" ref="Y37" si="73">$E37*X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="5">
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="13">
-        <f t="shared" ref="AC37:AC40" si="74">$E37*AB37</f>
+        <f t="shared" ref="AC37" si="74">$E37*AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -13795,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" ref="M60:M80" si="101">L60</f>
+        <f t="shared" ref="M60:M77" si="101">L60</f>
         <v>0</v>
       </c>
       <c r="O60" s="5">
@@ -13807,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="9">
-        <f t="shared" ref="Q60:Q80" si="102">P60</f>
+        <f t="shared" ref="Q60:Q77" si="102">P60</f>
         <v>0</v>
       </c>
       <c r="R60" s="4">
@@ -13822,7 +13822,7 @@
         <v>2</v>
       </c>
       <c r="U60" s="9">
-        <f t="shared" ref="U60:U80" si="103">T60</f>
+        <f t="shared" ref="U60:U77" si="103">T60</f>
         <v>2</v>
       </c>
       <c r="W60" s="5">
@@ -13834,7 +13834,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="9">
-        <f t="shared" ref="Y60:Y80" si="104">X60</f>
+        <f t="shared" ref="Y60:Y77" si="104">X60</f>
         <v>0</v>
       </c>
       <c r="AA60" s="5">
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="9">
-        <f t="shared" ref="AC60:AC80" si="105">AB60</f>
+        <f t="shared" ref="AC60:AC77" si="105">AB60</f>
         <v>0</v>
       </c>
     </row>
@@ -15642,11 +15642,11 @@
         <v>0.75</v>
       </c>
       <c r="L80" s="8">
-        <f t="shared" ref="L80:L93" si="132">$D80*K80</f>
+        <f t="shared" ref="L80:L81" si="132">$D80*K80</f>
         <v>1</v>
       </c>
       <c r="M80" s="9">
-        <f t="shared" ref="M80:M93" si="133">L80</f>
+        <f t="shared" ref="M80:M81" si="133">L80</f>
         <v>1</v>
       </c>
       <c r="N80" s="4">
@@ -15657,11 +15657,11 @@
         <v>1.875</v>
       </c>
       <c r="P80" s="8">
-        <f t="shared" ref="P80:P93" si="134">$D80*O80</f>
+        <f t="shared" ref="P80:P81" si="134">$D80*O80</f>
         <v>2.5</v>
       </c>
       <c r="Q80" s="9">
-        <f t="shared" ref="Q80:Q93" si="135">P80</f>
+        <f t="shared" ref="Q80:Q81" si="135">P80</f>
         <v>2.5</v>
       </c>
       <c r="R80" s="4">
@@ -15672,11 +15672,11 @@
         <v>0.75</v>
       </c>
       <c r="T80" s="8">
-        <f t="shared" ref="T80:T93" si="136">$D80*S80</f>
+        <f t="shared" ref="T80:T81" si="136">$D80*S80</f>
         <v>1</v>
       </c>
       <c r="U80" s="9">
-        <f t="shared" ref="U80:U93" si="137">T80</f>
+        <f t="shared" ref="U80:U81" si="137">T80</f>
         <v>1</v>
       </c>
       <c r="V80" s="4">
@@ -15687,11 +15687,11 @@
         <v>1.125</v>
       </c>
       <c r="X80" s="8">
-        <f t="shared" ref="X80:X93" si="138">$D80*W80</f>
+        <f t="shared" ref="X80:X81" si="138">$D80*W80</f>
         <v>1.5</v>
       </c>
       <c r="Y80" s="9">
-        <f t="shared" ref="Y80:Y93" si="139">X80</f>
+        <f t="shared" ref="Y80:Y81" si="139">X80</f>
         <v>1.5</v>
       </c>
       <c r="Z80" s="4">
@@ -15702,11 +15702,11 @@
         <v>1.5</v>
       </c>
       <c r="AB80" s="8">
-        <f t="shared" ref="AB80:AB93" si="140">$D80*AA80</f>
+        <f t="shared" ref="AB80:AB81" si="140">$D80*AA80</f>
         <v>2</v>
       </c>
       <c r="AC80" s="9">
-        <f t="shared" ref="AC80:AC93" si="141">AB80</f>
+        <f t="shared" ref="AC80:AC81" si="141">AB80</f>
         <v>2</v>
       </c>
     </row>
@@ -17226,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L17" si="1">K3</f>
+        <f t="shared" ref="L3:L5" si="1">K3</f>
         <v>0</v>
       </c>
       <c r="M3" s="49">
@@ -17238,7 +17238,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f t="shared" ref="P3:P17" si="3">O3</f>
+        <f t="shared" ref="P3:P5" si="3">O3</f>
         <v>0</v>
       </c>
       <c r="Q3" s="49">
@@ -17253,7 +17253,7 @@
         <v>2.9</v>
       </c>
       <c r="T3" s="8">
-        <f t="shared" ref="T3:T17" si="5">S3</f>
+        <f t="shared" ref="T3:T5" si="5">S3</f>
         <v>2.9</v>
       </c>
       <c r="U3" s="49">
@@ -17268,7 +17268,7 @@
         <v>14</v>
       </c>
       <c r="X3" s="8">
-        <f t="shared" ref="X3:X17" si="7">W3</f>
+        <f t="shared" ref="X3:X5" si="7">W3</f>
         <v>14</v>
       </c>
       <c r="Y3" s="49">
@@ -17283,7 +17283,7 @@
         <v>12</v>
       </c>
       <c r="AB3" s="8">
-        <f t="shared" ref="AB3:AB17" si="9">AA3</f>
+        <f t="shared" ref="AB3:AB5" si="9">AA3</f>
         <v>12</v>
       </c>
       <c r="AC3" s="49">
@@ -17713,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" ref="L8:L22" si="11">K8</f>
+        <f t="shared" ref="L8:L10" si="11">K8</f>
         <v>0</v>
       </c>
       <c r="M8" s="49">
@@ -17725,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" ref="P8:P22" si="12">O8</f>
+        <f t="shared" ref="P8:P10" si="12">O8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="49">
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="8">
-        <f t="shared" ref="T8:T22" si="13">S8</f>
+        <f t="shared" ref="T8:T10" si="13">S8</f>
         <v>0</v>
       </c>
       <c r="U8" s="49">
@@ -17752,7 +17752,7 @@
         <v>7.5</v>
       </c>
       <c r="X8" s="8">
-        <f t="shared" ref="X8:X22" si="14">W8</f>
+        <f t="shared" ref="X8:X10" si="14">W8</f>
         <v>7.5</v>
       </c>
       <c r="Y8" s="49">
@@ -17764,7 +17764,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="8">
-        <f t="shared" ref="AB8:AB22" si="15">AA8</f>
+        <f t="shared" ref="AB8:AB10" si="15">AA8</f>
         <v>0</v>
       </c>
       <c r="AC8" s="49">
@@ -18158,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" ref="L13:L27" si="16">K13</f>
+        <f t="shared" ref="L13:L15" si="16">K13</f>
         <v>0</v>
       </c>
       <c r="M13" s="49">
@@ -18170,7 +18170,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="8">
-        <f t="shared" ref="P13:P27" si="17">O13</f>
+        <f t="shared" ref="P13:P15" si="17">O13</f>
         <v>0</v>
       </c>
       <c r="Q13" s="49">
@@ -18185,7 +18185,7 @@
         <v>0.5</v>
       </c>
       <c r="T13" s="8">
-        <f t="shared" ref="T13:T27" si="18">S13</f>
+        <f t="shared" ref="T13:T15" si="18">S13</f>
         <v>0.5</v>
       </c>
       <c r="U13" s="49">
@@ -18200,7 +18200,7 @@
         <v>1.7</v>
       </c>
       <c r="X13" s="8">
-        <f t="shared" ref="X13:X27" si="19">W13</f>
+        <f t="shared" ref="X13:X15" si="19">W13</f>
         <v>1.7</v>
       </c>
       <c r="Y13" s="49">
@@ -18215,7 +18215,7 @@
         <v>1</v>
       </c>
       <c r="AB13" s="8">
-        <f t="shared" ref="AB13:AB27" si="20">AA13</f>
+        <f t="shared" ref="AB13:AB15" si="20">AA13</f>
         <v>1</v>
       </c>
       <c r="AC13" s="49">
@@ -19485,7 +19485,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="49">
-        <f t="shared" ref="M27:M29" si="45">L19</f>
+        <f t="shared" ref="M27" si="45">L19</f>
         <v>0</v>
       </c>
       <c r="O27" s="5">
@@ -19497,7 +19497,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="49">
-        <f t="shared" ref="Q27:Q29" si="46">P19</f>
+        <f t="shared" ref="Q27" si="46">P19</f>
         <v>0</v>
       </c>
       <c r="R27" s="4">
@@ -19512,7 +19512,7 @@
         <v>25</v>
       </c>
       <c r="U27" s="49">
-        <f t="shared" ref="U27:U29" si="47">T19</f>
+        <f t="shared" ref="U27" si="47">T19</f>
         <v>25</v>
       </c>
       <c r="V27" s="4">
@@ -19527,7 +19527,7 @@
         <v>55</v>
       </c>
       <c r="Y27" s="49">
-        <f t="shared" ref="Y27:Y29" si="48">X19</f>
+        <f t="shared" ref="Y27" si="48">X19</f>
         <v>50</v>
       </c>
       <c r="Z27" s="4">
@@ -19542,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="49">
-        <f t="shared" ref="AC27:AC29" si="49">AB19</f>
+        <f t="shared" ref="AC27" si="49">AB19</f>
         <v>78</v>
       </c>
     </row>
@@ -19971,7 +19971,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" ref="L32:L39" si="61">K32</f>
+        <f t="shared" ref="L32:L33" si="61">K32</f>
         <v>0</v>
       </c>
       <c r="M32" s="49">
@@ -19983,7 +19983,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" ref="P32:P39" si="62">O32</f>
+        <f t="shared" ref="P32:P33" si="62">O32</f>
         <v>0</v>
       </c>
       <c r="Q32" s="49">
@@ -19998,7 +19998,7 @@
         <v>4</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" ref="T32:T39" si="63">S32</f>
+        <f t="shared" ref="T32:T33" si="63">S32</f>
         <v>4</v>
       </c>
       <c r="U32" s="49">
@@ -20013,7 +20013,7 @@
         <v>15</v>
       </c>
       <c r="X32" s="8">
-        <f t="shared" ref="X32:X39" si="64">W32</f>
+        <f t="shared" ref="X32:X33" si="64">W32</f>
         <v>15</v>
       </c>
       <c r="Y32" s="49">
@@ -20025,7 +20025,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="8">
-        <f t="shared" ref="AB32:AB39" si="65">AA32</f>
+        <f t="shared" ref="AB32:AB33" si="65">AA32</f>
         <v>0</v>
       </c>
       <c r="AC32" s="49">
@@ -20160,75 +20160,75 @@
         <v>5</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" ref="K34:K58" si="70">$C34*J34</f>
+        <f t="shared" ref="K34:K39" si="70">$C34*J34</f>
         <v>1.25</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" ref="L34:L37" si="71">$D34*K34</f>
+        <f t="shared" ref="L34" si="71">$D34*K34</f>
         <v>1.875</v>
       </c>
       <c r="M34" s="50">
-        <f t="shared" ref="M34:M55" si="72">$E34*L34</f>
+        <f t="shared" ref="M34" si="72">$E34*L34</f>
         <v>5</v>
       </c>
       <c r="N34" s="4">
         <v>3</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34:O58" si="73">$C34*N34</f>
+        <f t="shared" ref="O34:O39" si="73">$C34*N34</f>
         <v>0.75</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" ref="P34:P37" si="74">$D34*O34</f>
+        <f t="shared" ref="P34" si="74">$D34*O34</f>
         <v>1.125</v>
       </c>
       <c r="Q34" s="50">
-        <f t="shared" ref="Q34:Q55" si="75">$E34*P34</f>
+        <f t="shared" ref="Q34" si="75">$E34*P34</f>
         <v>3</v>
       </c>
       <c r="R34" s="4">
         <v>5</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" ref="S34:S58" si="76">$C34*R34</f>
+        <f t="shared" ref="S34:S39" si="76">$C34*R34</f>
         <v>1.25</v>
       </c>
       <c r="T34" s="8">
-        <f t="shared" ref="T34:T37" si="77">$D34*S34</f>
+        <f t="shared" ref="T34" si="77">$D34*S34</f>
         <v>1.875</v>
       </c>
       <c r="U34" s="50">
-        <f t="shared" ref="U34:U55" si="78">$E34*T34</f>
+        <f t="shared" ref="U34" si="78">$E34*T34</f>
         <v>5</v>
       </c>
       <c r="V34" s="4">
         <v>6</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" ref="W34:W58" si="79">$C34*V34</f>
+        <f t="shared" ref="W34:W39" si="79">$C34*V34</f>
         <v>1.5</v>
       </c>
       <c r="X34" s="8">
-        <f t="shared" ref="X34:X37" si="80">$D34*W34</f>
+        <f t="shared" ref="X34" si="80">$D34*W34</f>
         <v>2.25</v>
       </c>
       <c r="Y34" s="50">
-        <f t="shared" ref="Y34:Y55" si="81">$E34*X34</f>
+        <f t="shared" ref="Y34" si="81">$E34*X34</f>
         <v>6</v>
       </c>
       <c r="Z34" s="4">
         <v>5</v>
       </c>
       <c r="AA34" s="5">
-        <f t="shared" ref="AA34:AA58" si="82">$C34*Z34</f>
+        <f t="shared" ref="AA34:AA39" si="82">$C34*Z34</f>
         <v>1.25</v>
       </c>
       <c r="AB34" s="8">
-        <f t="shared" ref="AB34:AB37" si="83">$D34*AA34</f>
+        <f t="shared" ref="AB34" si="83">$D34*AA34</f>
         <v>1.875</v>
       </c>
       <c r="AC34" s="50">
-        <f t="shared" ref="AC34:AC55" si="84">$E34*AB34</f>
+        <f t="shared" ref="AC34" si="84">$E34*AB34</f>
         <v>5</v>
       </c>
     </row>
@@ -20491,11 +20491,11 @@
         <v>0.5</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" ref="L37:L40" si="85">$D37*K37</f>
+        <f t="shared" ref="L37" si="85">$D37*K37</f>
         <v>0.75</v>
       </c>
       <c r="M37" s="50">
-        <f t="shared" ref="M37:M58" si="86">$E37*L37</f>
+        <f t="shared" ref="M37" si="86">$E37*L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="5">
@@ -20503,11 +20503,11 @@
         <v>0</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" ref="P37:P40" si="87">$D37*O37</f>
+        <f t="shared" ref="P37" si="87">$D37*O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="50">
-        <f t="shared" ref="Q37:Q58" si="88">$E37*P37</f>
+        <f t="shared" ref="Q37" si="88">$E37*P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="4">
@@ -20518,11 +20518,11 @@
         <v>0.25</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" ref="T37:T40" si="89">$D37*S37</f>
+        <f t="shared" ref="T37" si="89">$D37*S37</f>
         <v>0.375</v>
       </c>
       <c r="U37" s="50">
-        <f t="shared" ref="U37:U58" si="90">$E37*T37</f>
+        <f t="shared" ref="U37" si="90">$E37*T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="5">
@@ -20530,11 +20530,11 @@
         <v>0</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" ref="X37:X40" si="91">$D37*W37</f>
+        <f t="shared" ref="X37" si="91">$D37*W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="50">
-        <f t="shared" ref="Y37:Y58" si="92">$E37*X37</f>
+        <f t="shared" ref="Y37" si="92">$E37*X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="5">
@@ -20542,11 +20542,11 @@
         <v>0</v>
       </c>
       <c r="AB37" s="8">
-        <f t="shared" ref="AB37:AB40" si="93">$D37*AA37</f>
+        <f t="shared" ref="AB37" si="93">$D37*AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="50">
-        <f t="shared" ref="AC37:AC58" si="94">$E37*AB37</f>
+        <f t="shared" ref="AC37" si="94">$E37*AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -20890,75 +20890,75 @@
         <v>0.125</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" ref="K41:K65" si="97">$C41*J41</f>
+        <f t="shared" ref="K41:K47" si="97">$C41*J41</f>
         <v>0</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" ref="L41:L46" si="98">$D41*K41</f>
+        <f t="shared" ref="L41:L42" si="98">$D41*K41</f>
         <v>0</v>
       </c>
       <c r="M41" s="50">
-        <f t="shared" ref="M41:M62" si="99">$E41*L41</f>
+        <f t="shared" ref="M41" si="99">$E41*L41</f>
         <v>0</v>
       </c>
       <c r="N41" s="4">
         <v>1</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" ref="O41:O65" si="100">$C41*N41</f>
+        <f t="shared" ref="O41:O47" si="100">$C41*N41</f>
         <v>0.25</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" ref="P41:P46" si="101">$D41*O41</f>
+        <f t="shared" ref="P41:P42" si="101">$D41*O41</f>
         <v>1</v>
       </c>
       <c r="Q41" s="50">
-        <f t="shared" ref="Q41:Q62" si="102">$E41*P41</f>
+        <f t="shared" ref="Q41" si="102">$E41*P41</f>
         <v>1.25</v>
       </c>
       <c r="R41" s="4">
         <v>0.01</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" ref="S41:S65" si="103">$C41*R41</f>
+        <f t="shared" ref="S41:S47" si="103">$C41*R41</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" ref="T41:T46" si="104">$D41*S41</f>
+        <f t="shared" ref="T41:T42" si="104">$D41*S41</f>
         <v>0.01</v>
       </c>
       <c r="U41" s="50">
-        <f t="shared" ref="U41:U62" si="105">$E41*T41</f>
+        <f t="shared" ref="U41" si="105">$E41*T41</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="V41" s="4">
         <v>0.4</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" ref="W41:W65" si="106">$C41*V41</f>
+        <f t="shared" ref="W41:W47" si="106">$C41*V41</f>
         <v>0.1</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" ref="X41:X46" si="107">$D41*W41</f>
+        <f t="shared" ref="X41:X42" si="107">$D41*W41</f>
         <v>0.4</v>
       </c>
       <c r="Y41" s="50">
-        <f t="shared" ref="Y41:Y62" si="108">$E41*X41</f>
+        <f t="shared" ref="Y41" si="108">$E41*X41</f>
         <v>0.5</v>
       </c>
       <c r="Z41" s="4">
         <v>0.1</v>
       </c>
       <c r="AA41" s="5">
-        <f t="shared" ref="AA41:AA65" si="109">$C41*Z41</f>
+        <f t="shared" ref="AA41:AA47" si="109">$C41*Z41</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" ref="AB41:AB46" si="110">$D41*AA41</f>
+        <f t="shared" ref="AB41:AB42" si="110">$D41*AA41</f>
         <v>0.1</v>
       </c>
       <c r="AC41" s="50">
-        <f t="shared" ref="AC41:AC62" si="111">$E41*AB41</f>
+        <f t="shared" ref="AC41" si="111">$E41*AB41</f>
         <v>0.125</v>
       </c>
     </row>
@@ -21212,7 +21212,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="8">
-        <f t="shared" ref="L44:L49" si="112">$D44*K44</f>
+        <f t="shared" ref="L44:L46" si="112">$D44*K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="50">
@@ -21227,7 +21227,7 @@
         <v>0.25</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" ref="P44:P49" si="113">$D44*O44</f>
+        <f t="shared" ref="P44:P46" si="113">$D44*O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="50">
@@ -21242,7 +21242,7 @@
         <v>0.125</v>
       </c>
       <c r="T44" s="8">
-        <f t="shared" ref="T44:T49" si="114">$D44*S44</f>
+        <f t="shared" ref="T44:T46" si="114">$D44*S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="50">
@@ -21254,7 +21254,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="8">
-        <f t="shared" ref="X44:X49" si="115">$D44*W44</f>
+        <f t="shared" ref="X44:X46" si="115">$D44*W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="50">
@@ -21269,7 +21269,7 @@
         <v>0.25</v>
       </c>
       <c r="AB44" s="8">
-        <f t="shared" ref="AB44:AB49" si="116">$D44*AA44</f>
+        <f t="shared" ref="AB44:AB46" si="116">$D44*AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="50">
@@ -21319,7 +21319,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="50">
-        <f t="shared" ref="M45:M66" si="117">$E45*L45</f>
+        <f t="shared" ref="M45" si="117">$E45*L45</f>
         <v>0</v>
       </c>
       <c r="N45" s="4">
@@ -21334,7 +21334,7 @@
         <v>0.01</v>
       </c>
       <c r="Q45" s="50">
-        <f t="shared" ref="Q45:Q66" si="118">$E45*P45</f>
+        <f t="shared" ref="Q45" si="118">$E45*P45</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="R45" s="4">
@@ -21349,7 +21349,7 @@
         <v>0.02</v>
       </c>
       <c r="U45" s="50">
-        <f t="shared" ref="U45:U66" si="119">$E45*T45</f>
+        <f t="shared" ref="U45" si="119">$E45*T45</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="W45" s="5">
@@ -21361,7 +21361,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="50">
-        <f t="shared" ref="Y45:Y66" si="120">$E45*X45</f>
+        <f t="shared" ref="Y45" si="120">$E45*X45</f>
         <v>0</v>
       </c>
       <c r="Z45" s="4">
@@ -21376,7 +21376,7 @@
         <v>0.1</v>
       </c>
       <c r="AC45" s="50">
-        <f t="shared" ref="AC45:AC66" si="121">$E45*AB45</f>
+        <f t="shared" ref="AC45" si="121">$E45*AB45</f>
         <v>0.125</v>
       </c>
     </row>
@@ -21631,7 +21631,7 @@
         <v>0.3125</v>
       </c>
       <c r="M48" s="50">
-        <f t="shared" ref="M48:M69" si="124">$E48*L48</f>
+        <f t="shared" ref="M48:M55" si="124">$E48*L48</f>
         <v>1</v>
       </c>
       <c r="O48" s="5">
@@ -21643,7 +21643,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="50">
-        <f t="shared" ref="Q48:Q69" si="126">$E48*P48</f>
+        <f t="shared" ref="Q48:Q55" si="126">$E48*P48</f>
         <v>0</v>
       </c>
       <c r="R48" s="4">
@@ -21658,7 +21658,7 @@
         <v>0.15625</v>
       </c>
       <c r="U48" s="50">
-        <f t="shared" ref="U48:U69" si="128">$E48*T48</f>
+        <f t="shared" ref="U48:U55" si="128">$E48*T48</f>
         <v>0.5</v>
       </c>
       <c r="V48" s="4">
@@ -21673,7 +21673,7 @@
         <v>0.3125</v>
       </c>
       <c r="Y48" s="50">
-        <f t="shared" ref="Y48:Y69" si="130">$E48*X48</f>
+        <f t="shared" ref="Y48:Y55" si="130">$E48*X48</f>
         <v>1</v>
       </c>
       <c r="Z48" s="4">
@@ -21688,7 +21688,7 @@
         <v>0.15625</v>
       </c>
       <c r="AC48" s="50">
-        <f t="shared" ref="AC48:AC69" si="132">$E48*AB48</f>
+        <f t="shared" ref="AC48:AC55" si="132">$E48*AB48</f>
         <v>0.5</v>
       </c>
     </row>
@@ -21729,7 +21729,7 @@
         <v>50</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" ref="K49:K73" si="133">$C49*J49</f>
+        <f t="shared" ref="K49:K58" si="133">$C49*J49</f>
         <v>12.5</v>
       </c>
       <c r="L49" s="8">
@@ -21741,7 +21741,7 @@
         <v>50</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" ref="O49:O73" si="134">$C49*N49</f>
+        <f t="shared" ref="O49:O58" si="134">$C49*N49</f>
         <v>0</v>
       </c>
       <c r="P49" s="8">
@@ -21756,7 +21756,7 @@
         <v>30</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" ref="S49:S73" si="135">$C49*R49</f>
+        <f t="shared" ref="S49:S58" si="135">$C49*R49</f>
         <v>7.5</v>
       </c>
       <c r="T49" s="8">
@@ -21771,7 +21771,7 @@
         <v>40</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" ref="W49:W73" si="136">$C49*V49</f>
+        <f t="shared" ref="W49:W58" si="136">$C49*V49</f>
         <v>10</v>
       </c>
       <c r="X49" s="8">
@@ -21786,7 +21786,7 @@
         <v>15</v>
       </c>
       <c r="AA49" s="5">
-        <f t="shared" ref="AA49:AA73" si="137">$C49*Z49</f>
+        <f t="shared" ref="AA49:AA58" si="137">$C49*Z49</f>
         <v>3.75</v>
       </c>
       <c r="AB49" s="8">
@@ -22853,7 +22853,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="49">
-        <f t="shared" ref="M60:M78" si="144">L60</f>
+        <f t="shared" ref="M60:M77" si="144">L60</f>
         <v>0</v>
       </c>
       <c r="O60" s="5">
@@ -22865,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="49">
-        <f t="shared" ref="Q60:Q78" si="145">P60</f>
+        <f t="shared" ref="Q60:Q77" si="145">P60</f>
         <v>0</v>
       </c>
       <c r="R60" s="4">
@@ -22880,7 +22880,7 @@
         <v>2</v>
       </c>
       <c r="U60" s="49">
-        <f t="shared" ref="U60:U78" si="146">T60</f>
+        <f t="shared" ref="U60:U77" si="146">T60</f>
         <v>2</v>
       </c>
       <c r="W60" s="5">
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="49">
-        <f t="shared" ref="Y60:Y78" si="147">X60</f>
+        <f t="shared" ref="Y60:Y77" si="147">X60</f>
         <v>0</v>
       </c>
       <c r="AA60" s="5">
@@ -22904,7 +22904,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="49">
-        <f t="shared" ref="AC60:AC78" si="148">AB60</f>
+        <f t="shared" ref="AC60:AC77" si="148">AB60</f>
         <v>0</v>
       </c>
     </row>
@@ -26003,7 +26003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
@@ -27663,8 +27663,8 @@
         <v>9.6</v>
       </c>
       <c r="I18" s="42">
-        <f>H22</f>
-        <v>9.6</v>
+        <f>$E18*H18</f>
+        <v>0</v>
       </c>
       <c r="K18" s="5">
         <f>J18</f>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="42">
-        <f>L22</f>
+        <f>$E18*L18</f>
         <v>0</v>
       </c>
       <c r="O18" s="5">
@@ -27687,7 +27687,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="42">
-        <f>P22</f>
+        <f>$E18*P18</f>
         <v>0</v>
       </c>
       <c r="R18" s="4">
@@ -27702,8 +27702,8 @@
         <v>2.9</v>
       </c>
       <c r="U18" s="42">
-        <f>T22</f>
-        <v>2.9</v>
+        <f>$E18*T18</f>
+        <v>0</v>
       </c>
       <c r="V18" s="4">
         <v>13</v>
@@ -27717,8 +27717,8 @@
         <v>9</v>
       </c>
       <c r="Y18" s="42">
-        <f>X22</f>
-        <v>9</v>
+        <f>$E18*X18</f>
+        <v>0</v>
       </c>
       <c r="AA18" s="5">
         <f>Z18</f>
@@ -27729,8 +27729,8 @@
         <v>12</v>
       </c>
       <c r="AC18" s="42">
-        <f>AB22</f>
-        <v>12</v>
+        <f>$E18*AB18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -27757,8 +27757,8 @@
         <v>100</v>
       </c>
       <c r="I19" s="42">
-        <f>H23</f>
-        <v>100</v>
+        <f>$E19*H19</f>
+        <v>0</v>
       </c>
       <c r="K19" s="5">
         <f>J19</f>
@@ -27769,7 +27769,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="42">
-        <f>L23</f>
+        <f>$E19*L19</f>
         <v>0</v>
       </c>
       <c r="O19" s="5">
@@ -27781,7 +27781,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="42">
-        <f>P23</f>
+        <f>$E19*P19</f>
         <v>0</v>
       </c>
       <c r="R19" s="4">
@@ -27796,8 +27796,8 @@
         <v>25</v>
       </c>
       <c r="U19" s="42">
-        <f>T23</f>
-        <v>25</v>
+        <f>$E19*T19</f>
+        <v>0</v>
       </c>
       <c r="V19" s="4">
         <v>55</v>
@@ -27811,8 +27811,8 @@
         <v>50</v>
       </c>
       <c r="Y19" s="42">
-        <f>X23</f>
-        <v>50</v>
+        <f>$E19*X19</f>
+        <v>0</v>
       </c>
       <c r="AA19" s="5">
         <f>Z19</f>
@@ -27823,8 +27823,8 @@
         <v>78</v>
       </c>
       <c r="AC19" s="42">
-        <f>AB23</f>
-        <v>78</v>
+        <f>$E19*AB19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -27851,8 +27851,8 @@
         <v>9</v>
       </c>
       <c r="I20" s="42">
-        <f>H25</f>
-        <v>9.3000000000000007</v>
+        <f>$E20*H20</f>
+        <v>0</v>
       </c>
       <c r="K20" s="5">
         <f>J20</f>
@@ -27863,7 +27863,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="42">
-        <f>L25</f>
+        <f>$E20*L20</f>
         <v>0</v>
       </c>
       <c r="O20" s="5">
@@ -27875,7 +27875,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="42">
-        <f>P25</f>
+        <f>$E20*P20</f>
         <v>0</v>
       </c>
       <c r="R20" s="4">
@@ -27890,8 +27890,8 @@
         <v>2625</v>
       </c>
       <c r="U20" s="42">
-        <f>T25</f>
-        <v>2712.5</v>
+        <f>$E20*T20</f>
+        <v>0</v>
       </c>
       <c r="V20" s="4">
         <v>5</v>
@@ -27905,8 +27905,8 @@
         <v>151.25</v>
       </c>
       <c r="Y20" s="42">
-        <f>X25</f>
-        <v>156.125</v>
+        <f>$E20*X20</f>
+        <v>0</v>
       </c>
       <c r="AA20" s="5">
         <f>Z20</f>
@@ -27917,8 +27917,8 @@
         <v>75</v>
       </c>
       <c r="AC20" s="42">
-        <f>AB25</f>
-        <v>77.5</v>
+        <f>$E20*AB20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K18">
         <f>'13_Fire_HighSeverity'!I18</f>
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <f>'11_Fire_LowSeverity'!J18</f>
@@ -39355,7 +39355,7 @@
       </c>
       <c r="AO18">
         <f>'13_Fire_HighSeverity'!U18</f>
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AP18">
         <f>'11_Fire_LowSeverity'!V18</f>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="AY18">
         <f>'13_Fire_HighSeverity'!Y18</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
         <f>'11_Fire_LowSeverity'!Z18</f>
@@ -39435,7 +39435,7 @@
       </c>
       <c r="BI18">
         <f>'13_Fire_HighSeverity'!AC18</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
@@ -39481,7 +39481,7 @@
       </c>
       <c r="K19">
         <f>'13_Fire_HighSeverity'!I19</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <f>'11_Fire_LowSeverity'!J19</f>
@@ -39601,7 +39601,7 @@
       </c>
       <c r="AO19">
         <f>'13_Fire_HighSeverity'!U19</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AP19">
         <f>'11_Fire_LowSeverity'!V19</f>
@@ -39641,7 +39641,7 @@
       </c>
       <c r="AY19">
         <f>'13_Fire_HighSeverity'!Y19</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AZ19">
         <f>'11_Fire_LowSeverity'!Z19</f>
@@ -39681,7 +39681,7 @@
       </c>
       <c r="BI19">
         <f>'13_Fire_HighSeverity'!AC19</f>
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.25">
@@ -39727,7 +39727,7 @@
       </c>
       <c r="K20">
         <f>'13_Fire_HighSeverity'!I20</f>
-        <v>9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <f>'11_Fire_LowSeverity'!J20</f>
@@ -39847,7 +39847,7 @@
       </c>
       <c r="AO20">
         <f>'13_Fire_HighSeverity'!U20</f>
-        <v>2712.5</v>
+        <v>0</v>
       </c>
       <c r="AP20">
         <f>'11_Fire_LowSeverity'!V20</f>
@@ -39887,7 +39887,7 @@
       </c>
       <c r="AY20">
         <f>'13_Fire_HighSeverity'!Y20</f>
-        <v>156.125</v>
+        <v>0</v>
       </c>
       <c r="AZ20">
         <f>'11_Fire_LowSeverity'!Z20</f>
@@ -39927,7 +39927,7 @@
       </c>
       <c r="BI20">
         <f>'13_Fire_HighSeverity'!AC20</f>
-        <v>77.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.25">

--- a/specifications/1_Fire/ScriptRules_Fire.xlsx
+++ b/specifications/1_Fire/ScriptRules_Fire.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -7953,8 +7953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="X20" s="8">
         <f>W25</f>
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="Y20" s="9">
         <f>$E20*X20</f>
@@ -10235,7 +10235,7 @@
       </c>
       <c r="E25" s="36"/>
       <c r="G25" s="5">
-        <f>(0.1*F7)+(0.1*F12)</f>
+        <f>F25+(0.1*F7)+(0.1*F12)</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="H25" s="8">
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="5">
-        <f>(0.1*J7)+(0.1*J12)</f>
+        <f>J25+(0.1*J7)+(0.1*J12)</f>
         <v>0</v>
       </c>
       <c r="L25" s="8">
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="5">
-        <f>(0.1*N7)+(0.1*N12)</f>
+        <f>N25+(0.1*N7)+(0.1*N12)</f>
         <v>0</v>
       </c>
       <c r="P25" s="8">
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="5">
-        <f>(0.1*R7)+(0.1*R12)</f>
+        <f>R25+(0.1*R7)+(0.1*R12)</f>
         <v>350</v>
       </c>
       <c r="T25" s="8">
@@ -10286,8 +10286,8 @@
         <v>5</v>
       </c>
       <c r="W25" s="5">
-        <f>(0.1*V7)+(0.1*V12)</f>
-        <v>19.5</v>
+        <f>V25+(0.1*V7)+(0.1*V12)</f>
+        <v>24.5</v>
       </c>
       <c r="X25" s="8">
         <f>$D25*W25</f>
@@ -10298,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="5">
-        <f>(0.1*Z7)+(0.1*Z12)</f>
+        <f>Z25+(0.1*Z7)+(0.1*Z12)</f>
         <v>10</v>
       </c>
       <c r="AB25" s="8">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="Y28" s="9">
         <f t="shared" si="30"/>
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="Z28" s="4">
         <v>3</v>
@@ -16969,8 +16969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26003,8 +26003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26260,7 +26260,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L17" si="1">K3</f>
+        <f t="shared" ref="L3:L5" si="1">K3</f>
         <v>0</v>
       </c>
       <c r="M3" s="9">
@@ -26272,7 +26272,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f t="shared" ref="P3:P17" si="3">O3</f>
+        <f t="shared" ref="P3:P5" si="3">O3</f>
         <v>0</v>
       </c>
       <c r="Q3" s="9">
@@ -26287,7 +26287,7 @@
         <v>2.9</v>
       </c>
       <c r="T3" s="8">
-        <f t="shared" ref="T3:T17" si="5">S3</f>
+        <f t="shared" ref="T3:T5" si="5">S3</f>
         <v>2.9</v>
       </c>
       <c r="U3" s="9">
@@ -26302,7 +26302,7 @@
         <v>14</v>
       </c>
       <c r="X3" s="8">
-        <f t="shared" ref="X3:X17" si="7">W3</f>
+        <f t="shared" ref="X3:X5" si="7">W3</f>
         <v>14</v>
       </c>
       <c r="Y3" s="9">
@@ -26317,7 +26317,7 @@
         <v>12</v>
       </c>
       <c r="AB3" s="8">
-        <f t="shared" ref="AB3:AB17" si="9">AA3</f>
+        <f t="shared" ref="AB3:AB5" si="9">AA3</f>
         <v>12</v>
       </c>
       <c r="AC3" s="9">
@@ -26747,7 +26747,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" ref="L8:L22" si="11">K8</f>
+        <f t="shared" ref="L8:L10" si="11">K8</f>
         <v>0</v>
       </c>
       <c r="M8" s="9">
@@ -26759,7 +26759,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" ref="P8:P22" si="12">O8</f>
+        <f t="shared" ref="P8:P10" si="12">O8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="9">
@@ -26771,7 +26771,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="8">
-        <f t="shared" ref="T8:T22" si="13">S8</f>
+        <f t="shared" ref="T8:T10" si="13">S8</f>
         <v>0</v>
       </c>
       <c r="U8" s="9">
@@ -26786,7 +26786,7 @@
         <v>7.5</v>
       </c>
       <c r="X8" s="8">
-        <f t="shared" ref="X8:X22" si="14">W8</f>
+        <f t="shared" ref="X8:X10" si="14">W8</f>
         <v>7.5</v>
       </c>
       <c r="Y8" s="9">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="8">
-        <f t="shared" ref="AB8:AB22" si="15">AA8</f>
+        <f t="shared" ref="AB8:AB10" si="15">AA8</f>
         <v>0</v>
       </c>
       <c r="AC8" s="9">
@@ -27192,7 +27192,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" ref="L13:L27" si="16">K13</f>
+        <f t="shared" ref="L13:L15" si="16">K13</f>
         <v>0</v>
       </c>
       <c r="M13" s="9">
@@ -27204,7 +27204,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="8">
-        <f t="shared" ref="P13:P27" si="17">O13</f>
+        <f t="shared" ref="P13:P15" si="17">O13</f>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -27219,7 +27219,7 @@
         <v>0.5</v>
       </c>
       <c r="T13" s="8">
-        <f t="shared" ref="T13:T27" si="18">S13</f>
+        <f t="shared" ref="T13:T15" si="18">S13</f>
         <v>0.5</v>
       </c>
       <c r="U13" s="9">
@@ -27234,7 +27234,7 @@
         <v>1.7</v>
       </c>
       <c r="X13" s="8">
-        <f t="shared" ref="X13:X27" si="19">W13</f>
+        <f t="shared" ref="X13:X15" si="19">W13</f>
         <v>1.7</v>
       </c>
       <c r="Y13" s="9">
@@ -27249,7 +27249,7 @@
         <v>1</v>
       </c>
       <c r="AB13" s="8">
-        <f t="shared" ref="AB13:AB27" si="20">AA13</f>
+        <f t="shared" ref="AB13:AB15" si="20">AA13</f>
         <v>1</v>
       </c>
       <c r="AC13" s="9">
@@ -28519,7 +28519,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" ref="M27:M29" si="45">L19</f>
+        <f t="shared" ref="M27" si="45">L19</f>
         <v>0</v>
       </c>
       <c r="O27" s="5">
@@ -28531,7 +28531,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" ref="Q27:Q29" si="46">P19</f>
+        <f t="shared" ref="Q27" si="46">P19</f>
         <v>0</v>
       </c>
       <c r="R27" s="4">
@@ -28546,7 +28546,7 @@
         <v>25</v>
       </c>
       <c r="U27" s="9">
-        <f t="shared" ref="U27:U29" si="47">T19</f>
+        <f t="shared" ref="U27" si="47">T19</f>
         <v>25</v>
       </c>
       <c r="V27" s="4">
@@ -28561,7 +28561,7 @@
         <v>55</v>
       </c>
       <c r="Y27" s="9">
-        <f t="shared" ref="Y27:Y29" si="48">X19</f>
+        <f t="shared" ref="Y27" si="48">X19</f>
         <v>50</v>
       </c>
       <c r="Z27" s="4">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="9">
-        <f t="shared" ref="AC27:AC29" si="49">AB19</f>
+        <f t="shared" ref="AC27" si="49">AB19</f>
         <v>78</v>
       </c>
     </row>
@@ -29005,7 +29005,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" ref="L32:L39" si="61">K32</f>
+        <f t="shared" ref="L32:L33" si="61">K32</f>
         <v>0</v>
       </c>
       <c r="M32" s="9">
@@ -29017,7 +29017,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" ref="P32:P39" si="62">O32</f>
+        <f t="shared" ref="P32:P33" si="62">O32</f>
         <v>0</v>
       </c>
       <c r="Q32" s="9">
@@ -29032,7 +29032,7 @@
         <v>4</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" ref="T32:T39" si="63">S32</f>
+        <f t="shared" ref="T32:T33" si="63">S32</f>
         <v>4</v>
       </c>
       <c r="U32" s="9">
@@ -29047,7 +29047,7 @@
         <v>15</v>
       </c>
       <c r="X32" s="8">
-        <f t="shared" ref="X32:X39" si="64">W32</f>
+        <f t="shared" ref="X32:X33" si="64">W32</f>
         <v>15</v>
       </c>
       <c r="Y32" s="9">
@@ -29059,7 +29059,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="8">
-        <f t="shared" ref="AB32:AB39" si="65">AA32</f>
+        <f t="shared" ref="AB32:AB33" si="65">AA32</f>
         <v>0</v>
       </c>
       <c r="AC32" s="9">
@@ -29192,11 +29192,11 @@
         <v>5</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" ref="K34:K58" si="68">$C34*J34</f>
+        <f t="shared" ref="K34:K39" si="68">$C34*J34</f>
         <v>0.25</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" ref="L34:L37" si="69">$D34*K34</f>
+        <f t="shared" ref="L34" si="69">$D34*K34</f>
         <v>2.5</v>
       </c>
       <c r="M34" s="13">
@@ -29207,11 +29207,11 @@
         <v>3</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34:O58" si="70">$C34*N34</f>
+        <f t="shared" ref="O34:O39" si="70">$C34*N34</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" ref="P34:P37" si="71">$D34*O34</f>
+        <f t="shared" ref="P34" si="71">$D34*O34</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="Q34" s="13">
@@ -29222,11 +29222,11 @@
         <v>5</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" ref="S34:S58" si="72">$C34*R34</f>
+        <f t="shared" ref="S34:S39" si="72">$C34*R34</f>
         <v>0.25</v>
       </c>
       <c r="T34" s="8">
-        <f t="shared" ref="T34:T37" si="73">$D34*S34</f>
+        <f t="shared" ref="T34" si="73">$D34*S34</f>
         <v>2.5</v>
       </c>
       <c r="U34" s="13">
@@ -29237,11 +29237,11 @@
         <v>6</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" ref="W34:W58" si="74">$C34*V34</f>
+        <f t="shared" ref="W34:W39" si="74">$C34*V34</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="X34" s="8">
-        <f t="shared" ref="X34:X37" si="75">$D34*W34</f>
+        <f t="shared" ref="X34" si="75">$D34*W34</f>
         <v>3.0000000000000004</v>
       </c>
       <c r="Y34" s="13">
@@ -29252,11 +29252,11 @@
         <v>5</v>
       </c>
       <c r="AA34" s="5">
-        <f t="shared" ref="AA34:AA58" si="76">$C34*Z34</f>
+        <f t="shared" ref="AA34:AA39" si="76">$C34*Z34</f>
         <v>0.25</v>
       </c>
       <c r="AB34" s="8">
-        <f t="shared" ref="AB34:AB37" si="77">$D34*AA34</f>
+        <f t="shared" ref="AB34" si="77">$D34*AA34</f>
         <v>2.5</v>
       </c>
       <c r="AC34" s="13">
@@ -29523,7 +29523,7 @@
         <v>0.1</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" ref="L37:L40" si="79">$D37*K37</f>
+        <f t="shared" ref="L37" si="79">$D37*K37</f>
         <v>1</v>
       </c>
       <c r="M37" s="13">
@@ -29535,7 +29535,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" ref="P37:P40" si="80">$D37*O37</f>
+        <f t="shared" ref="P37" si="80">$D37*O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="13">
@@ -29550,7 +29550,7 @@
         <v>0.05</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" ref="T37:T40" si="81">$D37*S37</f>
+        <f t="shared" ref="T37" si="81">$D37*S37</f>
         <v>0.5</v>
       </c>
       <c r="U37" s="13">
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" ref="X37:X40" si="82">$D37*W37</f>
+        <f t="shared" ref="X37" si="82">$D37*W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="13">
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="8">
-        <f t="shared" ref="AB37:AB40" si="83">$D37*AA37</f>
+        <f t="shared" ref="AB37" si="83">$D37*AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="13">
@@ -29923,75 +29923,75 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" ref="K41:K65" si="87">$C41*J41</f>
+        <f t="shared" ref="K41:K47" si="87">$C41*J41</f>
         <v>0</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" ref="L41:L45" si="88">$D41*K41</f>
+        <f t="shared" ref="L41" si="88">$D41*K41</f>
         <v>0</v>
       </c>
       <c r="M41" s="13">
-        <f t="shared" ref="M41:M52" si="89">$E41*L41</f>
+        <f t="shared" ref="M41" si="89">$E41*L41</f>
         <v>0</v>
       </c>
       <c r="N41" s="4">
         <v>1</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" ref="O41:O65" si="90">$C41*N41</f>
+        <f t="shared" ref="O41:O47" si="90">$C41*N41</f>
         <v>0.05</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" ref="P41:P45" si="91">$D41*O41</f>
+        <f t="shared" ref="P41" si="91">$D41*O41</f>
         <v>0.5</v>
       </c>
       <c r="Q41" s="13">
-        <f t="shared" ref="Q41:Q52" si="92">$E41*P41</f>
+        <f t="shared" ref="Q41" si="92">$E41*P41</f>
         <v>1.5</v>
       </c>
       <c r="R41" s="4">
         <v>0.01</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" ref="S41:S65" si="93">$C41*R41</f>
+        <f t="shared" ref="S41:S47" si="93">$C41*R41</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" ref="T41:T45" si="94">$D41*S41</f>
+        <f t="shared" ref="T41" si="94">$D41*S41</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="U41" s="13">
-        <f t="shared" ref="U41:U52" si="95">$E41*T41</f>
+        <f t="shared" ref="U41" si="95">$E41*T41</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="V41" s="4">
         <v>0.4</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" ref="W41:W65" si="96">$C41*V41</f>
+        <f t="shared" ref="W41:W47" si="96">$C41*V41</f>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" ref="X41:X45" si="97">$D41*W41</f>
+        <f t="shared" ref="X41" si="97">$D41*W41</f>
         <v>0.20000000000000004</v>
       </c>
       <c r="Y41" s="13">
-        <f t="shared" ref="Y41:Y52" si="98">$E41*X41</f>
+        <f t="shared" ref="Y41" si="98">$E41*X41</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="Z41" s="4">
         <v>0.1</v>
       </c>
       <c r="AA41" s="5">
-        <f t="shared" ref="AA41:AA65" si="99">$C41*Z41</f>
+        <f t="shared" ref="AA41:AA47" si="99">$C41*Z41</f>
         <v>5.000000000000001E-3</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" ref="AB41:AB45" si="100">$D41*AA41</f>
+        <f t="shared" ref="AB41" si="100">$D41*AA41</f>
         <v>5.000000000000001E-2</v>
       </c>
       <c r="AC41" s="13">
-        <f t="shared" ref="AC41:AC52" si="101">$E41*AB41</f>
+        <f t="shared" ref="AC41" si="101">$E41*AB41</f>
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -30245,7 +30245,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="8">
-        <f t="shared" ref="L44:L48" si="102">$D44*K44</f>
+        <f t="shared" ref="L44:L45" si="102">$D44*K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="13">
@@ -30260,7 +30260,7 @@
         <v>0.05</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" ref="P44:P48" si="103">$D44*O44</f>
+        <f t="shared" ref="P44:P45" si="103">$D44*O44</f>
         <v>0.5</v>
       </c>
       <c r="Q44" s="13">
@@ -30275,7 +30275,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="T44" s="8">
-        <f t="shared" ref="T44:T48" si="104">$D44*S44</f>
+        <f t="shared" ref="T44:T45" si="104">$D44*S44</f>
         <v>0.25</v>
       </c>
       <c r="U44" s="13">
@@ -30287,7 +30287,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="8">
-        <f t="shared" ref="X44:X48" si="105">$D44*W44</f>
+        <f t="shared" ref="X44:X45" si="105">$D44*W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="13">
@@ -30302,7 +30302,7 @@
         <v>0.05</v>
       </c>
       <c r="AB44" s="8">
-        <f t="shared" ref="AB44:AB48" si="106">$D44*AA44</f>
+        <f t="shared" ref="AB44:AB45" si="106">$D44*AA44</f>
         <v>0.5</v>
       </c>
       <c r="AC44" s="13">
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="13">
-        <f t="shared" ref="M45:M56" si="107">$E45*L45</f>
+        <f t="shared" ref="M45" si="107">$E45*L45</f>
         <v>0</v>
       </c>
       <c r="N45" s="4">
@@ -30368,7 +30368,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q45" s="13">
-        <f t="shared" ref="Q45:Q56" si="108">$E45*P45</f>
+        <f t="shared" ref="Q45" si="108">$E45*P45</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="R45" s="4">
@@ -30383,7 +30383,7 @@
         <v>0.01</v>
       </c>
       <c r="U45" s="13">
-        <f t="shared" ref="U45:U56" si="109">$E45*T45</f>
+        <f t="shared" ref="U45" si="109">$E45*T45</f>
         <v>0.03</v>
       </c>
       <c r="W45" s="5">
@@ -30395,7 +30395,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="13">
-        <f t="shared" ref="Y45:Y56" si="110">$E45*X45</f>
+        <f t="shared" ref="Y45" si="110">$E45*X45</f>
         <v>0</v>
       </c>
       <c r="Z45" s="4">
@@ -30410,7 +30410,7 @@
         <v>5.000000000000001E-2</v>
       </c>
       <c r="AC45" s="13">
-        <f t="shared" ref="AC45:AC56" si="111">$E45*AB45</f>
+        <f t="shared" ref="AC45" si="111">$E45*AB45</f>
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -30668,7 +30668,7 @@
         <v>0.5</v>
       </c>
       <c r="M48" s="13">
-        <f t="shared" ref="M48:M59" si="114">$E48*L48</f>
+        <f t="shared" ref="M48:M52" si="114">$E48*L48</f>
         <v>1</v>
       </c>
       <c r="O48" s="5">
@@ -30680,7 +30680,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="13">
-        <f t="shared" ref="Q48:Q59" si="116">$E48*P48</f>
+        <f t="shared" ref="Q48:Q52" si="116">$E48*P48</f>
         <v>0</v>
       </c>
       <c r="R48" s="4">
@@ -30695,7 +30695,7 @@
         <v>0.25</v>
       </c>
       <c r="U48" s="13">
-        <f t="shared" ref="U48:U59" si="118">$E48*T48</f>
+        <f t="shared" ref="U48:U52" si="118">$E48*T48</f>
         <v>0.5</v>
       </c>
       <c r="V48" s="4">
@@ -30710,7 +30710,7 @@
         <v>0.5</v>
       </c>
       <c r="Y48" s="13">
-        <f t="shared" ref="Y48:Y59" si="120">$E48*X48</f>
+        <f t="shared" ref="Y48:Y52" si="120">$E48*X48</f>
         <v>1</v>
       </c>
       <c r="Z48" s="4">
@@ -30725,7 +30725,7 @@
         <v>0.25</v>
       </c>
       <c r="AC48" s="13">
-        <f t="shared" ref="AC48:AC59" si="122">$E48*AB48</f>
+        <f t="shared" ref="AC48:AC52" si="122">$E48*AB48</f>
         <v>0.5</v>
       </c>
     </row>
@@ -30767,7 +30767,7 @@
         <v>50</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" ref="K49:K73" si="123">$C49*J49</f>
+        <f t="shared" ref="K49:K58" si="123">$C49*J49</f>
         <v>2.5</v>
       </c>
       <c r="L49" s="8">
@@ -30779,7 +30779,7 @@
         <v>50</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" ref="O49:O73" si="124">$C49*N49</f>
+        <f t="shared" ref="O49:O58" si="124">$C49*N49</f>
         <v>0</v>
       </c>
       <c r="P49" s="8">
@@ -30794,7 +30794,7 @@
         <v>30</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" ref="S49:S73" si="125">$C49*R49</f>
+        <f t="shared" ref="S49:S58" si="125">$C49*R49</f>
         <v>1.5</v>
       </c>
       <c r="T49" s="8">
@@ -30809,7 +30809,7 @@
         <v>40</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" ref="W49:W73" si="126">$C49*V49</f>
+        <f t="shared" ref="W49:W58" si="126">$C49*V49</f>
         <v>2</v>
       </c>
       <c r="X49" s="8">
@@ -30824,7 +30824,7 @@
         <v>15</v>
       </c>
       <c r="AA49" s="5">
-        <f t="shared" ref="AA49:AA73" si="127">$C49*Z49</f>
+        <f t="shared" ref="AA49:AA58" si="127">$C49*Z49</f>
         <v>0.75</v>
       </c>
       <c r="AB49" s="8">
@@ -31894,7 +31894,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" ref="M60:M78" si="140">L60</f>
+        <f t="shared" ref="M60:M77" si="140">L60</f>
         <v>0</v>
       </c>
       <c r="O60" s="5">
@@ -31906,7 +31906,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="9">
-        <f t="shared" ref="Q60:Q78" si="141">P60</f>
+        <f t="shared" ref="Q60:Q77" si="141">P60</f>
         <v>0</v>
       </c>
       <c r="R60" s="4">
@@ -31921,7 +31921,7 @@
         <v>2</v>
       </c>
       <c r="U60" s="9">
-        <f t="shared" ref="U60:U78" si="142">T60</f>
+        <f t="shared" ref="U60:U77" si="142">T60</f>
         <v>2</v>
       </c>
       <c r="W60" s="5">
@@ -31933,7 +31933,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="9">
-        <f t="shared" ref="Y60:Y78" si="143">X60</f>
+        <f t="shared" ref="Y60:Y77" si="143">X60</f>
         <v>0</v>
       </c>
       <c r="AA60" s="5">
@@ -31945,7 +31945,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="9">
-        <f t="shared" ref="AC60:AC78" si="144">AB60</f>
+        <f t="shared" ref="AC60:AC77" si="144">AB60</f>
         <v>0</v>
       </c>
     </row>
@@ -33558,7 +33558,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="13">
-        <f t="shared" ref="M78:M82" si="160">$E78*L78</f>
+        <f t="shared" ref="M78" si="160">$E78*L78</f>
         <v>0</v>
       </c>
       <c r="O78" s="5">
@@ -33570,7 +33570,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="13">
-        <f t="shared" ref="Q78:Q82" si="162">$E78*P78</f>
+        <f t="shared" ref="Q78" si="162">$E78*P78</f>
         <v>0</v>
       </c>
       <c r="R78" s="4">
@@ -33585,7 +33585,7 @@
         <v>1</v>
       </c>
       <c r="U78" s="13">
-        <f t="shared" ref="U78:U82" si="164">$E78*T78</f>
+        <f t="shared" ref="U78" si="164">$E78*T78</f>
         <v>15</v>
       </c>
       <c r="W78" s="5">
@@ -33597,7 +33597,7 @@
         <v>0</v>
       </c>
       <c r="Y78" s="13">
-        <f t="shared" ref="Y78:Y82" si="166">$E78*X78</f>
+        <f t="shared" ref="Y78" si="166">$E78*X78</f>
         <v>0</v>
       </c>
       <c r="AA78" s="5">
@@ -33609,7 +33609,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="13">
-        <f t="shared" ref="AC78:AC82" si="168">$E78*AB78</f>
+        <f t="shared" ref="AC78" si="168">$E78*AB78</f>
         <v>0</v>
       </c>
     </row>
@@ -33750,11 +33750,11 @@
         <v>0.05</v>
       </c>
       <c r="L80" s="8">
-        <f t="shared" ref="L80:L82" si="170">$D80*K80</f>
+        <f t="shared" ref="L80" si="170">$D80*K80</f>
         <v>0.5</v>
       </c>
       <c r="M80" s="13">
-        <f t="shared" ref="M80:M84" si="171">$E80*L80</f>
+        <f t="shared" ref="M80" si="171">$E80*L80</f>
         <v>7.5</v>
       </c>
       <c r="N80" s="4">
@@ -33765,11 +33765,11 @@
         <v>0.125</v>
       </c>
       <c r="P80" s="8">
-        <f t="shared" ref="P80:P82" si="172">$D80*O80</f>
+        <f t="shared" ref="P80" si="172">$D80*O80</f>
         <v>1.25</v>
       </c>
       <c r="Q80" s="13">
-        <f t="shared" ref="Q80:Q84" si="173">$E80*P80</f>
+        <f t="shared" ref="Q80" si="173">$E80*P80</f>
         <v>18.75</v>
       </c>
       <c r="R80" s="4">
@@ -33780,11 +33780,11 @@
         <v>0.05</v>
       </c>
       <c r="T80" s="8">
-        <f t="shared" ref="T80:T82" si="174">$D80*S80</f>
+        <f t="shared" ref="T80" si="174">$D80*S80</f>
         <v>0.5</v>
       </c>
       <c r="U80" s="13">
-        <f t="shared" ref="U80:U84" si="175">$E80*T80</f>
+        <f t="shared" ref="U80" si="175">$E80*T80</f>
         <v>7.5</v>
       </c>
       <c r="V80" s="4">
@@ -33795,11 +33795,11 @@
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="X80" s="8">
-        <f t="shared" ref="X80:X82" si="176">$D80*W80</f>
+        <f t="shared" ref="X80" si="176">$D80*W80</f>
         <v>0.75000000000000011</v>
       </c>
       <c r="Y80" s="13">
-        <f t="shared" ref="Y80:Y84" si="177">$E80*X80</f>
+        <f t="shared" ref="Y80" si="177">$E80*X80</f>
         <v>11.250000000000002</v>
       </c>
       <c r="Z80" s="4">
@@ -33810,11 +33810,11 @@
         <v>0.1</v>
       </c>
       <c r="AB80" s="8">
-        <f t="shared" ref="AB80:AB82" si="178">$D80*AA80</f>
+        <f t="shared" ref="AB80" si="178">$D80*AA80</f>
         <v>1</v>
       </c>
       <c r="AC80" s="13">
-        <f t="shared" ref="AC80:AC84" si="179">$E80*AB80</f>
+        <f t="shared" ref="AC80" si="179">$E80*AB80</f>
         <v>15</v>
       </c>
     </row>
@@ -33964,11 +33964,11 @@
         <v>0</v>
       </c>
       <c r="L82" s="8">
-        <f t="shared" ref="L82:L84" si="180">$D82*K82</f>
+        <f t="shared" ref="L82" si="180">$D82*K82</f>
         <v>0</v>
       </c>
       <c r="M82" s="13">
-        <f t="shared" ref="M82:M86" si="181">$E82*L82</f>
+        <f t="shared" ref="M82" si="181">$E82*L82</f>
         <v>0</v>
       </c>
       <c r="O82" s="5">
@@ -33976,11 +33976,11 @@
         <v>0</v>
       </c>
       <c r="P82" s="8">
-        <f t="shared" ref="P82:P84" si="182">$D82*O82</f>
+        <f t="shared" ref="P82" si="182">$D82*O82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="13">
-        <f t="shared" ref="Q82:Q86" si="183">$E82*P82</f>
+        <f t="shared" ref="Q82" si="183">$E82*P82</f>
         <v>0</v>
       </c>
       <c r="R82" s="4">
@@ -33991,11 +33991,11 @@
         <v>0.125</v>
       </c>
       <c r="T82" s="8">
-        <f t="shared" ref="T82:T84" si="184">$D82*S82</f>
+        <f t="shared" ref="T82" si="184">$D82*S82</f>
         <v>1.25</v>
       </c>
       <c r="U82" s="13">
-        <f t="shared" ref="U82:U86" si="185">$E82*T82</f>
+        <f t="shared" ref="U82" si="185">$E82*T82</f>
         <v>18.75</v>
       </c>
       <c r="V82" s="4">
@@ -34006,11 +34006,11 @@
         <v>0.05</v>
       </c>
       <c r="X82" s="8">
-        <f t="shared" ref="X82:X84" si="186">$D82*W82</f>
+        <f t="shared" ref="X82" si="186">$D82*W82</f>
         <v>0.5</v>
       </c>
       <c r="Y82" s="13">
-        <f t="shared" ref="Y82:Y86" si="187">$E82*X82</f>
+        <f t="shared" ref="Y82" si="187">$E82*X82</f>
         <v>7.5</v>
       </c>
       <c r="AA82" s="5">
@@ -34018,11 +34018,11 @@
         <v>0</v>
       </c>
       <c r="AB82" s="8">
-        <f t="shared" ref="AB82:AB84" si="188">$D82*AA82</f>
+        <f t="shared" ref="AB82" si="188">$D82*AA82</f>
         <v>0</v>
       </c>
       <c r="AC82" s="13">
-        <f t="shared" ref="AC82:AC86" si="189">$E82*AB82</f>
+        <f t="shared" ref="AC82" si="189">$E82*AB82</f>
         <v>0</v>
       </c>
     </row>
@@ -39859,7 +39859,7 @@
       </c>
       <c r="AR20">
         <f>'11_Fire_LowSeverity'!X20</f>
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="AS20">
         <f>'11_Fire_LowSeverity'!Y20</f>
@@ -41085,7 +41085,7 @@
       </c>
       <c r="AQ25">
         <f>'11_Fire_LowSeverity'!W25</f>
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="AR25">
         <f>'11_Fire_LowSeverity'!X25</f>
@@ -41831,7 +41831,7 @@
       </c>
       <c r="AS28">
         <f>'11_Fire_LowSeverity'!Y28</f>
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="AT28">
         <f>'12_Fire_ModSeverity'!W28</f>

--- a/specifications/1_Fire/ScriptRules_Fire.xlsx
+++ b/specifications/1_Fire/ScriptRules_Fire.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="432">
   <si>
     <t>* = 0.9</t>
   </si>
@@ -850,9 +850,6 @@
     <t>FB_0291_FCCS_133</t>
   </si>
   <si>
-    <t>* = 0</t>
-  </si>
-  <si>
     <t>2) How to best apply to non-forest vegetation (new scripts likely needed)</t>
   </si>
   <si>
@@ -1244,6 +1241,93 @@
   </si>
   <si>
     <t xml:space="preserve"> + = OTree_Density * 0.75 + MidTree_Density * 0.75</t>
+  </si>
+  <si>
+    <t>|If not present * = Otree_HeightLiveCrown</t>
+  </si>
+  <si>
+    <t>|If not present * = OTree_Diameter</t>
+  </si>
+  <si>
+    <t>|If not present * = OTree_Height</t>
+  </si>
+  <si>
+    <t>| + = Canopy_TotalCover * 0.1</t>
+  </si>
+  <si>
+    <t>|+ = OTree_Density * 0.1 + MidTree_Density * 0.1</t>
+  </si>
+  <si>
+    <t>|= C1Snag_Diameter</t>
+  </si>
+  <si>
+    <t>|= C1Snag_Height</t>
+  </si>
+  <si>
+    <t>| = C1FSnag_Height</t>
+  </si>
+  <si>
+    <t>| = C1FSnag_Density</t>
+  </si>
+  <si>
+    <t>| = 0</t>
+  </si>
+  <si>
+    <t>| = C1Snag_Diameter</t>
+  </si>
+  <si>
+    <t>| = C1Snag_Height</t>
+  </si>
+  <si>
+    <t>| = C1Snag_Density</t>
+  </si>
+  <si>
+    <t>| = C2Snag_Diameter</t>
+  </si>
+  <si>
+    <t>| = C2Snag_Density</t>
+  </si>
+  <si>
+    <t>|+ = Canopy_TotalCover * 0.4</t>
+  </si>
+  <si>
+    <t>| + = OTree_Density * 0.4 + MidTree_Density * 0.4</t>
+  </si>
+  <si>
+    <t>| + = OTree_Density * 0.1 + MidTree_Density * 0.1</t>
+  </si>
+  <si>
+    <t>| + = Canopy_TotalCover * 0.75</t>
+  </si>
+  <si>
+    <t>| + = OTree_Density * 0.75 + MidTree_Density * 0.75</t>
+  </si>
+  <si>
+    <t>| + = OTree_Density * 0.1 + OTree_Density * 0.1</t>
+  </si>
+  <si>
+    <t>| = C1FSnag_Diameter</t>
+  </si>
+  <si>
+    <t>|= C1FSnag_Diameter</t>
+  </si>
+  <si>
+    <t>| + = SWood_1000hr * 0.25</t>
+  </si>
+  <si>
+    <t>| + = SWood_10_000hr * 0.25</t>
+  </si>
+  <si>
+    <t>| + = SWood_GT10_000hr * 0.25</t>
+  </si>
+  <si>
+    <t>| + = SWood_1000hr * 0.5</t>
+  </si>
+  <si>
+    <t>| + = SWood_10_000hr * 0.5</t>
+  </si>
+  <si>
+    <t>| + = SWood_GT10_000hr * 0.5</t>
   </si>
 </sst>
 </file>
@@ -2212,42 +2296,42 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2381,27 +2465,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="101.28515625" style="21" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="15" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="33" style="19" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="44.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48" style="19" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="19" customWidth="1"/>
     <col min="11" max="11" width="36.5703125" style="20" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1">
         <v>111</v>
@@ -2436,7 +2522,7 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>0</v>
@@ -2459,7 +2545,7 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2467,7 +2553,7 @@
         <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>1</v>
@@ -2484,7 +2570,7 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2492,7 +2578,7 @@
         <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>0</v>
@@ -2515,7 +2601,7 @@
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>0</v>
@@ -2538,7 +2624,7 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2546,7 +2632,7 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>1</v>
@@ -2563,7 +2649,7 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2571,7 +2657,7 @@
         <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>0</v>
@@ -2594,7 +2680,7 @@
         <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>0</v>
@@ -2617,7 +2703,7 @@
         <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2625,7 +2711,7 @@
         <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>20</v>
@@ -2639,7 +2725,7 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2647,7 +2733,7 @@
         <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>2</v>
@@ -2670,7 +2756,7 @@
         <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>2</v>
@@ -2693,25 +2779,25 @@
         <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>272</v>
+        <v>425</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>412</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>272</v>
+        <v>425</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>412</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>272</v>
+        <v>424</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2719,25 +2805,25 @@
         <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>272</v>
+        <v>410</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>412</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>272</v>
+        <v>410</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>412</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>272</v>
+        <v>410</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2745,25 +2831,25 @@
         <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>272</v>
+        <v>411</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>412</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>272</v>
+        <v>411</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>412</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>272</v>
+        <v>411</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2771,31 +2857,31 @@
         <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>272</v>
+        <v>403</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>412</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>272</v>
+        <v>403</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2803,31 +2889,31 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>272</v>
+        <v>404</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>412</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>272</v>
+        <v>404</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2835,31 +2921,31 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>272</v>
+        <v>405</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>412</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>272</v>
+        <v>405</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2867,31 +2953,31 @@
         <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>272</v>
+        <v>406</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>412</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>272</v>
+        <v>406</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2899,31 +2985,31 @@
         <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>272</v>
+        <v>420</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>412</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>272</v>
+        <v>423</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2931,25 +3017,25 @@
         <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2957,25 +3043,25 @@
         <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2983,25 +3069,25 @@
         <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3009,25 +3095,25 @@
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3035,25 +3121,25 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3061,25 +3147,25 @@
         <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3087,7 +3173,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3095,7 +3181,7 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3103,7 +3189,7 @@
         <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>3</v>
@@ -3112,7 +3198,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>5</v>
@@ -3136,7 +3222,7 @@
         <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>3</v>
@@ -3145,7 +3231,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>5</v>
@@ -3163,7 +3249,7 @@
         <v>25</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3171,7 +3257,7 @@
         <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>3</v>
@@ -3180,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>5</v>
@@ -3198,7 +3284,7 @@
         <v>25</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3206,7 +3292,7 @@
         <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>3</v>
@@ -3215,7 +3301,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>5</v>
@@ -3239,7 +3325,7 @@
         <v>155</v>
       </c>
       <c r="B38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>3</v>
@@ -3248,7 +3334,7 @@
         <v>14</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>5</v>
@@ -3266,7 +3352,7 @@
         <v>25</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3274,7 +3360,7 @@
         <v>156</v>
       </c>
       <c r="B39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>3</v>
@@ -3283,7 +3369,7 @@
         <v>14</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>5</v>
@@ -3301,7 +3387,7 @@
         <v>25</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3309,22 +3395,22 @@
         <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>22</v>
@@ -3339,22 +3425,22 @@
         <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I41" s="15" t="s">
         <v>22</v>
@@ -3363,7 +3449,7 @@
         <v>25</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3371,22 +3457,22 @@
         <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>22</v>
@@ -3395,7 +3481,7 @@
         <v>25</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3403,22 +3489,22 @@
         <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I43" s="15" t="s">
         <v>22</v>
@@ -3427,7 +3513,7 @@
         <v>25</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3435,22 +3521,22 @@
         <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>22</v>
@@ -3465,22 +3551,22 @@
         <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>22</v>
@@ -3489,7 +3575,7 @@
         <v>25</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3497,22 +3583,22 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I46" s="15" t="s">
         <v>22</v>
@@ -3521,7 +3607,7 @@
         <v>25</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3529,22 +3615,22 @@
         <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>22</v>
@@ -3553,7 +3639,7 @@
         <v>25</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3561,7 +3647,7 @@
         <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>3</v>
@@ -3570,7 +3656,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>5</v>
@@ -3579,7 +3665,7 @@
         <v>14</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>22</v>
@@ -3588,7 +3674,7 @@
         <v>25</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3596,7 +3682,7 @@
         <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>3</v>
@@ -3605,7 +3691,7 @@
         <v>14</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>5</v>
@@ -3614,7 +3700,7 @@
         <v>14</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I49" s="15" t="s">
         <v>22</v>
@@ -3623,7 +3709,7 @@
         <v>25</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3631,7 +3717,7 @@
         <v>162</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>3</v>
@@ -3640,7 +3726,7 @@
         <v>14</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>5</v>
@@ -3649,7 +3735,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I50" s="15" t="s">
         <v>22</v>
@@ -3658,7 +3744,7 @@
         <v>25</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3666,7 +3752,7 @@
         <v>163</v>
       </c>
       <c r="B51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>3</v>
@@ -3675,7 +3761,7 @@
         <v>14</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>5</v>
@@ -3684,7 +3770,7 @@
         <v>14</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I51" s="15" t="s">
         <v>22</v>
@@ -3693,7 +3779,7 @@
         <v>25</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3701,7 +3787,7 @@
         <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>3</v>
@@ -3710,7 +3796,7 @@
         <v>14</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>5</v>
@@ -3719,7 +3805,7 @@
         <v>14</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>22</v>
@@ -3728,7 +3814,7 @@
         <v>25</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3736,13 +3822,13 @@
         <v>230</v>
       </c>
       <c r="B53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>3</v>
@@ -3751,7 +3837,7 @@
         <v>4</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>3</v>
@@ -3760,7 +3846,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K53" s="17" t="s">
         <v>3</v>
@@ -3771,13 +3857,13 @@
         <v>231</v>
       </c>
       <c r="B54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>3</v>
@@ -3786,7 +3872,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>3</v>
@@ -3795,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K54" s="17" t="s">
         <v>3</v>
@@ -3806,13 +3892,13 @@
         <v>232</v>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>3</v>
@@ -3821,7 +3907,7 @@
         <v>4</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H55" s="17" t="s">
         <v>3</v>
@@ -3830,7 +3916,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K55" s="17" t="s">
         <v>3</v>
@@ -3841,34 +3927,34 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="I56" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3876,34 +3962,34 @@
         <v>234</v>
       </c>
       <c r="B57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="I57" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3911,34 +3997,34 @@
         <v>235</v>
       </c>
       <c r="B58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="I58" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3946,7 +4032,7 @@
         <v>171</v>
       </c>
       <c r="B59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3954,7 +4040,7 @@
         <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3962,7 +4048,7 @@
         <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3970,7 +4056,7 @@
         <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>0</v>
@@ -3987,7 +4073,7 @@
         <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>0</v>
@@ -4004,7 +4090,7 @@
         <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>0</v>
@@ -4021,7 +4107,7 @@
         <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>0</v>
@@ -4038,7 +4124,7 @@
         <v>166</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>0</v>
@@ -4055,7 +4141,7 @@
         <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>0</v>
@@ -4072,7 +4158,7 @@
         <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>4</v>
@@ -4089,7 +4175,7 @@
         <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>4</v>
@@ -4106,7 +4192,7 @@
         <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>4</v>
@@ -4123,7 +4209,7 @@
         <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4131,7 +4217,7 @@
         <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4139,7 +4225,7 @@
         <v>139</v>
       </c>
       <c r="B73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4147,7 +4233,7 @@
         <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4155,7 +4241,7 @@
         <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4163,7 +4249,7 @@
         <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4171,7 +4257,7 @@
         <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4179,7 +4265,7 @@
         <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>4</v>
@@ -4194,7 +4280,7 @@
         <v>19</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I78" s="15" t="s">
         <v>22</v>
@@ -4211,7 +4297,7 @@
         <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>4</v>
@@ -4226,7 +4312,7 @@
         <v>19</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I79" s="15" t="s">
         <v>22</v>
@@ -4243,7 +4329,7 @@
         <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>4</v>
@@ -4258,7 +4344,7 @@
         <v>19</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I80" s="15" t="s">
         <v>22</v>
@@ -4275,7 +4361,7 @@
         <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>4</v>
@@ -4290,7 +4376,7 @@
         <v>19</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I81" s="15" t="s">
         <v>22</v>
@@ -4307,7 +4393,7 @@
         <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>4</v>
@@ -4322,7 +4408,7 @@
         <v>19</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I82" s="15" t="s">
         <v>22</v>
@@ -4339,7 +4425,7 @@
         <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>4</v>
@@ -4354,7 +4440,7 @@
         <v>19</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I83" s="15" t="s">
         <v>22</v>
@@ -4371,7 +4457,7 @@
         <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>4</v>
@@ -4391,7 +4477,7 @@
         <v>123</v>
       </c>
       <c r="B85" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>4</v>
@@ -4411,7 +4497,7 @@
         <v>124</v>
       </c>
       <c r="B86" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>4</v>
@@ -4431,7 +4517,7 @@
         <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>4</v>
@@ -4451,7 +4537,7 @@
         <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>4</v>
@@ -4471,7 +4557,7 @@
         <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>4</v>
@@ -4491,7 +4577,7 @@
         <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>4</v>
@@ -4511,7 +4597,7 @@
         <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>4</v>
@@ -4531,7 +4617,7 @@
         <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>4</v>
@@ -4551,7 +4637,7 @@
         <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>4</v>
@@ -7939,7 +8025,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>82</v>
@@ -8029,7 +8115,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C2" s="26">
         <v>0.9</v>
@@ -8127,7 +8213,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="29"/>
@@ -8223,7 +8309,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="26">
         <v>1.1000000000000001</v>
@@ -8321,7 +8407,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="29"/>
@@ -8417,7 +8503,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="26">
         <v>0.9</v>
@@ -8515,7 +8601,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="26">
         <v>0.9</v>
@@ -8613,7 +8699,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="29"/>
@@ -8700,7 +8786,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="26">
         <v>1.1000000000000001</v>
@@ -8789,7 +8875,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="29"/>
@@ -8876,7 +8962,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C11" s="26">
         <v>0.9</v>
@@ -8965,7 +9051,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" s="26">
         <v>0.9</v>
@@ -9054,7 +9140,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="29"/>
@@ -9147,7 +9233,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="29"/>
@@ -9240,7 +9326,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="29"/>
@@ -9333,7 +9419,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="26">
         <v>0.8</v>
@@ -9428,7 +9514,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="26">
         <v>0.8</v>
@@ -9523,11 +9609,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E18" s="30">
         <v>0</v>
@@ -9617,11 +9703,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E19" s="30">
         <v>0</v>
@@ -9711,11 +9797,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E20" s="30">
         <v>0</v>
@@ -9805,10 +9891,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="29">
         <v>0</v>
@@ -9896,10 +9982,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D22" s="29">
         <v>0</v>
@@ -9987,10 +10073,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D23" s="29">
         <v>0</v>
@@ -10078,10 +10164,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D24" s="29">
         <v>0</v>
@@ -10169,10 +10255,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D25" s="29">
         <v>0</v>
@@ -10260,14 +10346,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ref="G26:G33" si="17">F26</f>
@@ -10357,14 +10443,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="17"/>
@@ -10454,14 +10540,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="17"/>
@@ -10551,14 +10637,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F29" s="4">
         <v>9</v>
@@ -10651,14 +10737,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F30" s="4">
         <v>60</v>
@@ -10751,14 +10837,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F31" s="4">
         <v>3</v>
@@ -10851,7 +10937,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="29"/>
@@ -10941,7 +11027,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="29"/>
@@ -11031,7 +11117,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="26">
         <v>0.5</v>
@@ -11140,7 +11226,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35" s="26">
         <v>0.5</v>
@@ -11249,7 +11335,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C36" s="26">
         <v>0.5</v>
@@ -11358,7 +11444,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C37" s="26">
         <v>0.5</v>
@@ -11458,7 +11544,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C38" s="26">
         <v>0.5</v>
@@ -11558,7 +11644,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C39" s="26">
         <v>0.5</v>
@@ -11658,7 +11744,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C40" s="26">
         <v>0.5</v>
@@ -11762,7 +11848,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C41" s="26">
         <v>0.5</v>
@@ -11866,7 +11952,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C42" s="26">
         <v>0.5</v>
@@ -11970,7 +12056,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" s="26">
         <v>0.5</v>
@@ -12074,7 +12160,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C44" s="26">
         <v>0.5</v>
@@ -12175,7 +12261,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C45" s="26">
         <v>0.5</v>
@@ -12276,7 +12362,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C46" s="26">
         <v>0.5</v>
@@ -12377,7 +12463,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C47" s="26">
         <v>0.5</v>
@@ -12478,7 +12564,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" s="26">
         <v>0.5</v>
@@ -12584,7 +12670,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C49" s="26">
         <v>0.5</v>
@@ -12690,7 +12776,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C50" s="26">
         <v>0.5</v>
@@ -12796,7 +12882,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C51" s="26">
         <v>0.5</v>
@@ -12902,7 +12988,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" s="26">
         <v>0.5</v>
@@ -13008,7 +13094,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C53" s="26">
         <v>0.9</v>
@@ -13113,7 +13199,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C54" s="26">
         <v>0.9</v>
@@ -13218,7 +13304,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C55" s="26">
         <v>0.9</v>
@@ -13323,16 +13409,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C56" s="26">
         <v>0.9</v>
       </c>
       <c r="D56" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" s="33" t="s">
         <v>389</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>390</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -13422,16 +13508,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C57" s="26">
         <v>0.9</v>
       </c>
       <c r="D57" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>391</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>392</v>
       </c>
       <c r="F57" s="4">
         <v>11</v>
@@ -13521,16 +13607,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C58" s="26">
         <v>0.9</v>
       </c>
       <c r="D58" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>393</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>394</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -13620,7 +13706,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="29"/>
@@ -13710,7 +13796,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="29"/>
@@ -13800,7 +13886,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="29"/>
@@ -13890,7 +13976,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C62" s="26">
         <v>0.9</v>
@@ -13988,7 +14074,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C63" s="26">
         <v>0.9</v>
@@ -14086,7 +14172,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C64" s="26">
         <v>0.9</v>
@@ -14184,7 +14270,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C65" s="26">
         <v>0.9</v>
@@ -14270,7 +14356,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C66" s="26">
         <v>0.9</v>
@@ -14356,7 +14442,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C67" s="26">
         <v>0.9</v>
@@ -14442,7 +14528,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C68" s="26">
         <v>0.75</v>
@@ -14546,7 +14632,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C69" s="26">
         <v>0.75</v>
@@ -14650,7 +14736,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C70" s="26">
         <v>0.75</v>
@@ -14754,7 +14840,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C71" s="26"/>
       <c r="D71" s="29"/>
@@ -14841,7 +14927,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C72" s="26"/>
       <c r="D72" s="29"/>
@@ -14928,7 +15014,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C73" s="26"/>
       <c r="D73" s="29"/>
@@ -15015,7 +15101,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C74" s="26"/>
       <c r="D74" s="29"/>
@@ -15108,7 +15194,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C75" s="26"/>
       <c r="D75" s="29"/>
@@ -15198,7 +15284,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="29"/>
@@ -15285,7 +15371,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C77" s="26"/>
       <c r="D77" s="29"/>
@@ -15369,7 +15455,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C78" s="26">
         <v>0.75</v>
@@ -15461,7 +15547,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C79" s="26">
         <v>0.75</v>
@@ -15553,7 +15639,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C80" s="26">
         <v>0.75</v>
@@ -15660,7 +15746,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C81" s="26">
         <v>0.75</v>
@@ -15767,7 +15853,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C82" s="26">
         <v>0.75</v>
@@ -15865,7 +15951,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C83" s="26">
         <v>0.75</v>
@@ -15963,7 +16049,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C84" s="26">
         <v>0.75</v>
@@ -16058,7 +16144,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C85" s="26">
         <v>0.75</v>
@@ -16153,7 +16239,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C86" s="26">
         <v>0.75</v>
@@ -16260,7 +16346,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C87" s="26">
         <v>0.75</v>
@@ -16367,7 +16453,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C88" s="26">
         <v>0.75</v>
@@ -16456,7 +16542,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C89" s="26">
         <v>0.75</v>
@@ -16545,7 +16631,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C90" s="26">
         <v>0.75</v>
@@ -16634,7 +16720,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C91" s="26">
         <v>0.75</v>
@@ -16726,7 +16812,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C92" s="26">
         <v>0.75</v>
@@ -16818,7 +16904,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C93" s="26">
         <v>0.75</v>
@@ -16955,7 +17041,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>224</v>
@@ -17045,7 +17131,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C2" s="38">
         <v>0.6</v>
@@ -17145,7 +17231,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="29"/>
@@ -17241,7 +17327,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="38">
         <v>1.2</v>
@@ -17339,7 +17425,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="29"/>
@@ -17435,7 +17521,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="38">
         <v>0.6</v>
@@ -17535,7 +17621,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="38">
         <v>0.6</v>
@@ -17635,7 +17721,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="29"/>
@@ -17722,7 +17808,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="38">
         <v>1.2</v>
@@ -17811,7 +17897,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="29"/>
@@ -17898,7 +17984,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C11" s="38">
         <v>0.6</v>
@@ -17989,7 +18075,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" s="38">
         <v>0.6</v>
@@ -18080,7 +18166,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="29"/>
@@ -18173,7 +18259,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" s="38">
         <v>1.3</v>
@@ -18268,7 +18354,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="29"/>
@@ -18361,7 +18447,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="38">
         <v>0.4</v>
@@ -18458,7 +18544,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="38">
         <v>0.4</v>
@@ -18555,14 +18641,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G18" s="5">
         <f>F18</f>
@@ -18649,14 +18735,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G19" s="5">
         <f>F19</f>
@@ -18743,14 +18829,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G20" s="5">
         <f>F20</f>
@@ -18837,13 +18923,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E21" s="30">
         <v>0</v>
@@ -18930,13 +19016,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E22" s="30">
         <v>0</v>
@@ -19023,13 +19109,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E23" s="30">
         <v>0</v>
@@ -19116,13 +19202,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E24" s="30">
         <v>0</v>
@@ -19209,13 +19295,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E25" s="30">
         <v>0</v>
@@ -19302,14 +19388,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ref="G26:H33" si="33">F26</f>
@@ -19399,14 +19485,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="33"/>
@@ -19496,14 +19582,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="33"/>
@@ -19593,14 +19679,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F29" s="4">
         <v>9</v>
@@ -19693,14 +19779,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F30" s="4">
         <v>60</v>
@@ -19793,14 +19879,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F31" s="4">
         <v>3</v>
@@ -19893,7 +19979,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="29"/>
@@ -19983,7 +20069,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="29"/>
@@ -20073,7 +20159,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="38">
         <v>0.25</v>
@@ -20182,7 +20268,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35" s="38">
         <v>0.25</v>
@@ -20291,7 +20377,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C36" s="38">
         <v>0.25</v>
@@ -20400,7 +20486,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C37" s="38">
         <v>0.25</v>
@@ -20500,7 +20586,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C38" s="38">
         <v>0.25</v>
@@ -20600,7 +20686,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C39" s="38">
         <v>0.25</v>
@@ -20700,7 +20786,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C40" s="38">
         <v>0.25</v>
@@ -20806,7 +20892,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C41" s="38">
         <v>0.25</v>
@@ -20912,7 +20998,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C42" s="38">
         <v>0.25</v>
@@ -21018,7 +21104,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" s="38">
         <v>0.25</v>
@@ -21124,7 +21210,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C44" s="38">
         <v>0.25</v>
@@ -21227,7 +21313,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C45" s="38">
         <v>0.25</v>
@@ -21330,7 +21416,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C46" s="38">
         <v>0.25</v>
@@ -21433,7 +21519,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C47" s="38">
         <v>0.25</v>
@@ -21536,7 +21622,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" s="38">
         <v>0.25</v>
@@ -21642,7 +21728,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C49" s="38">
         <v>0.25</v>
@@ -21748,7 +21834,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C50" s="38">
         <v>0.25</v>
@@ -21854,7 +21940,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C51" s="38">
         <v>0.25</v>
@@ -21960,7 +22046,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" s="38">
         <v>0.25</v>
@@ -22066,7 +22152,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C53" s="38">
         <v>0.75</v>
@@ -22171,7 +22257,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C54" s="38">
         <v>0.75</v>
@@ -22276,7 +22362,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C55" s="38">
         <v>0.75</v>
@@ -22381,16 +22467,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C56" s="38">
         <v>0.75</v>
       </c>
       <c r="D56" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" s="33" t="s">
         <v>389</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>390</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -22480,16 +22566,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C57" s="38">
         <v>0.75</v>
       </c>
       <c r="D57" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>391</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>392</v>
       </c>
       <c r="F57" s="4">
         <v>11</v>
@@ -22579,16 +22665,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C58" s="38">
         <v>0.75</v>
       </c>
       <c r="D58" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>393</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>394</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -22678,7 +22764,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="29"/>
@@ -22768,7 +22854,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="29"/>
@@ -22858,7 +22944,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="29"/>
@@ -22948,7 +23034,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C62" s="38">
         <v>0.75</v>
@@ -23046,7 +23132,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C63" s="38">
         <v>0.75</v>
@@ -23144,7 +23230,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C64" s="38">
         <v>0.75</v>
@@ -23242,7 +23328,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C65" s="38">
         <v>0.75</v>
@@ -23328,7 +23414,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C66" s="38">
         <v>0.75</v>
@@ -23414,7 +23500,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C67" s="38">
         <v>0.75</v>
@@ -23500,7 +23586,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C68" s="38">
         <v>0.9</v>
@@ -23604,7 +23690,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C69" s="38">
         <v>0.9</v>
@@ -23708,7 +23794,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C70" s="38">
         <v>0.9</v>
@@ -23812,7 +23898,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C71" s="38"/>
       <c r="D71" s="29"/>
@@ -23899,7 +23985,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C72" s="38"/>
       <c r="D72" s="29"/>
@@ -23986,7 +24072,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C73" s="38"/>
       <c r="D73" s="29"/>
@@ -24073,7 +24159,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="29"/>
@@ -24166,7 +24252,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C75" s="38"/>
       <c r="D75" s="29"/>
@@ -24256,7 +24342,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="29"/>
@@ -24343,7 +24429,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C77" s="38"/>
       <c r="D77" s="29"/>
@@ -24427,7 +24513,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C78" s="38">
         <v>0.25</v>
@@ -24521,7 +24607,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C79" s="38">
         <v>0.25</v>
@@ -24615,7 +24701,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C80" s="38">
         <v>0.25</v>
@@ -24724,7 +24810,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C81" s="38">
         <v>0.25</v>
@@ -24833,7 +24919,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C82" s="38">
         <v>0.25</v>
@@ -24930,7 +25016,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C83" s="38">
         <v>0.25</v>
@@ -25027,7 +25113,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C84" s="38">
         <v>0.25</v>
@@ -25119,7 +25205,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C85" s="38">
         <v>0.25</v>
@@ -25211,7 +25297,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C86" s="38">
         <v>0.25</v>
@@ -25315,7 +25401,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C87" s="38">
         <v>0.25</v>
@@ -25419,7 +25505,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C88" s="38">
         <v>0.25</v>
@@ -25505,7 +25591,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C89" s="38">
         <v>0.25</v>
@@ -25591,7 +25677,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C90" s="38">
         <v>0.25</v>
@@ -25677,7 +25763,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C91" s="38">
         <v>0.25</v>
@@ -25766,7 +25852,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C92" s="38">
         <v>0.25</v>
@@ -25855,7 +25941,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C93" s="38">
         <v>0.25</v>
@@ -25989,7 +26075,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>227</v>
@@ -26079,7 +26165,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C2" s="38">
         <v>0.25</v>
@@ -26179,7 +26265,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="29"/>
@@ -26275,7 +26361,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="38">
         <v>1.5</v>
@@ -26373,7 +26459,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="29"/>
@@ -26469,7 +26555,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="38">
         <v>0.25</v>
@@ -26569,7 +26655,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="38">
         <v>0.25</v>
@@ -26669,7 +26755,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="29"/>
@@ -26756,7 +26842,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="38">
         <v>1.5</v>
@@ -26845,7 +26931,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="29"/>
@@ -26932,7 +27018,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C11" s="38">
         <v>0.25</v>
@@ -27023,7 +27109,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" s="38">
         <v>0.25</v>
@@ -27114,7 +27200,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="29"/>
@@ -27207,7 +27293,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" s="38">
         <v>1.8</v>
@@ -27302,7 +27388,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="29"/>
@@ -27395,7 +27481,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="38">
         <v>0.05</v>
@@ -27492,7 +27578,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="38">
         <v>0.05</v>
@@ -27589,11 +27675,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E18" s="30">
         <v>0</v>
@@ -27683,11 +27769,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E19" s="30">
         <v>0</v>
@@ -27777,11 +27863,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E20" s="30">
         <v>0</v>
@@ -27871,13 +27957,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E21" s="30">
         <v>0</v>
@@ -27964,13 +28050,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E22" s="30">
         <v>0</v>
@@ -28057,13 +28143,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E23" s="30">
         <v>0</v>
@@ -28150,13 +28236,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E24" s="30">
         <v>0</v>
@@ -28243,13 +28329,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E25" s="30">
         <v>0</v>
@@ -28336,14 +28422,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ref="G26:H33" si="33">F26</f>
@@ -28433,14 +28519,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="33"/>
@@ -28530,14 +28616,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="33"/>
@@ -28627,14 +28713,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F29" s="4">
         <v>9</v>
@@ -28727,14 +28813,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F30" s="4">
         <v>60</v>
@@ -28827,14 +28913,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F31" s="4">
         <v>3</v>
@@ -28927,7 +29013,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="29"/>
@@ -29017,7 +29103,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="29"/>
@@ -29107,7 +29193,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="38">
         <v>0.05</v>
@@ -29214,7 +29300,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35" s="38">
         <v>0.05</v>
@@ -29324,7 +29410,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C36" s="38">
         <v>0.05</v>
@@ -29434,7 +29520,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C37" s="38">
         <v>0.05</v>
@@ -29532,7 +29618,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C38" s="38">
         <v>0.05</v>
@@ -29633,7 +29719,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C39" s="38">
         <v>0.05</v>
@@ -29734,7 +29820,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C40" s="38">
         <v>0.05</v>
@@ -29838,7 +29924,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C41" s="38">
         <v>0.05</v>
@@ -29945,7 +30031,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C42" s="38">
         <v>0.05</v>
@@ -30052,7 +30138,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" s="38">
         <v>0.05</v>
@@ -30159,7 +30245,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C44" s="38">
         <v>0.05</v>
@@ -30260,7 +30346,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C45" s="38">
         <v>0.05</v>
@@ -30364,7 +30450,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C46" s="38">
         <v>0.05</v>
@@ -30468,7 +30554,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C47" s="38">
         <v>0.05</v>
@@ -30572,7 +30658,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" s="38">
         <v>0.05</v>
@@ -30679,7 +30765,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C49" s="38">
         <v>0.05</v>
@@ -30786,7 +30872,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C50" s="38">
         <v>0.05</v>
@@ -30893,7 +30979,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C51" s="38">
         <v>0.05</v>
@@ -31000,7 +31086,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" s="38">
         <v>0.05</v>
@@ -31107,7 +31193,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C53" s="38">
         <v>0.5</v>
@@ -31212,7 +31298,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C54" s="38">
         <v>0.5</v>
@@ -31317,7 +31403,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C55" s="38">
         <v>0.5</v>
@@ -31422,16 +31508,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C56" s="38">
         <v>0.5</v>
       </c>
       <c r="D56" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" s="33" t="s">
         <v>389</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>390</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -31521,16 +31607,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C57" s="38">
         <v>0.5</v>
       </c>
       <c r="D57" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>391</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>392</v>
       </c>
       <c r="F57" s="4">
         <v>11</v>
@@ -31620,16 +31706,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C58" s="38">
         <v>0.5</v>
       </c>
       <c r="D58" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>393</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>394</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -31719,7 +31805,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="29"/>
@@ -31809,7 +31895,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="29"/>
@@ -31899,7 +31985,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="29"/>
@@ -31989,7 +32075,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C62" s="38">
         <v>0.5</v>
@@ -32087,7 +32173,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C63" s="38">
         <v>0.5</v>
@@ -32185,7 +32271,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C64" s="38">
         <v>0.5</v>
@@ -32283,7 +32369,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C65" s="38">
         <v>0.5</v>
@@ -32369,7 +32455,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C66" s="38">
         <v>0.5</v>
@@ -32455,7 +32541,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C67" s="38">
         <v>0.5</v>
@@ -32541,7 +32627,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C68" s="38">
         <v>0.9</v>
@@ -32645,7 +32731,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C69" s="38">
         <v>0.9</v>
@@ -32749,7 +32835,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C70" s="38">
         <v>0.9</v>
@@ -32853,7 +32939,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C71" s="38"/>
       <c r="D71" s="29"/>
@@ -32940,7 +33026,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C72" s="38"/>
       <c r="D72" s="29"/>
@@ -33027,7 +33113,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C73" s="38"/>
       <c r="D73" s="29"/>
@@ -33114,7 +33200,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="29"/>
@@ -33207,7 +33293,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C75" s="38"/>
       <c r="D75" s="29"/>
@@ -33297,7 +33383,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="29"/>
@@ -33384,7 +33470,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C77" s="38"/>
       <c r="D77" s="29"/>
@@ -33468,7 +33554,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C78" s="38">
         <v>0.05</v>
@@ -33563,7 +33649,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C79" s="38">
         <v>0.05</v>
@@ -33658,7 +33744,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C80" s="38">
         <v>0.05</v>
@@ -33768,7 +33854,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C81" s="38">
         <v>0.05</v>
@@ -33878,7 +33964,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C82" s="38">
         <v>0.05</v>
@@ -33976,7 +34062,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C83" s="38">
         <v>0.05</v>
@@ -34074,7 +34160,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C84" s="38">
         <v>0.05</v>
@@ -34166,7 +34252,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C85" s="38">
         <v>0.05</v>
@@ -34258,7 +34344,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C86" s="38">
         <v>0.05</v>
@@ -34362,7 +34448,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C87" s="38">
         <v>0.05</v>
@@ -34466,7 +34552,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C88" s="38">
         <v>0.05</v>
@@ -34552,7 +34638,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C89" s="38">
         <v>0.05</v>
@@ -34638,7 +34724,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C90" s="38">
         <v>0.05</v>
@@ -34724,7 +34810,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C91" s="38">
         <v>0.05</v>
@@ -34813,7 +34899,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C92" s="38">
         <v>0.05</v>
@@ -34902,7 +34988,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C93" s="38">
         <v>0.05</v>

--- a/specifications/1_Fire/ScriptRules_Fire.xlsx
+++ b/specifications/1_Fire/ScriptRules_Fire.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="431">
   <si>
     <t>* = 0.9</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>* = 0.4</t>
-  </si>
-  <si>
-    <t>* 0.05</t>
   </si>
   <si>
     <t>* = 1.5</t>
@@ -1924,167 +1921,167 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
         <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
         <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2151,16 +2148,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2168,10 +2165,10 @@
         <v>111</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2182,10 +2179,10 @@
         <v>112</v>
       </c>
       <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2196,10 +2193,10 @@
         <v>113</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -2210,10 +2207,10 @@
         <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2224,10 +2221,10 @@
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2238,10 +2235,10 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -2252,10 +2249,10 @@
         <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2266,10 +2263,10 @@
         <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2280,10 +2277,10 @@
         <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -2291,47 +2288,47 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2355,102 +2352,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2465,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1">
         <v>111</v>
@@ -2519,10 +2516,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>0</v>
@@ -2542,18 +2539,18 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>1</v>
@@ -2562,23 +2559,23 @@
         <v>16</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>0</v>
@@ -2598,10 +2595,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>0</v>
@@ -2621,18 +2618,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>1</v>
@@ -2641,23 +2638,23 @@
         <v>16</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>0</v>
@@ -2677,10 +2674,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>0</v>
@@ -2700,40 +2697,40 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>2</v>
@@ -2745,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>0</v>
@@ -2753,10 +2750,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>2</v>
@@ -2768,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>0</v>
@@ -2776,420 +2773,420 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D20" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>412</v>
-      </c>
       <c r="G20" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>412</v>
-      </c>
       <c r="J20" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>411</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F25" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="G25" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="G25" s="23" t="s">
-        <v>420</v>
-      </c>
       <c r="H25" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I25" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J25" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="J25" s="16" t="s">
-        <v>423</v>
-      </c>
       <c r="K25" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>3</v>
@@ -3198,31 +3195,31 @@
         <v>14</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>3</v>
@@ -3231,33 +3228,33 @@
         <v>14</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H35" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="K35" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>3</v>
@@ -3266,33 +3263,33 @@
         <v>14</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I36" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="K36" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>3</v>
@@ -3301,31 +3298,31 @@
         <v>14</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>3</v>
@@ -3334,33 +3331,33 @@
         <v>14</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H38" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="K38" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>3</v>
@@ -3369,285 +3366,285 @@
         <v>14</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="K39" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K40" s="17"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K45" s="17" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>3</v>
@@ -3656,7 +3653,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>5</v>
@@ -3665,24 +3662,24 @@
         <v>14</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>3</v>
@@ -3691,7 +3688,7 @@
         <v>14</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>5</v>
@@ -3700,24 +3697,24 @@
         <v>14</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>3</v>
@@ -3726,7 +3723,7 @@
         <v>14</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>5</v>
@@ -3735,24 +3732,24 @@
         <v>14</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>3</v>
@@ -3761,7 +3758,7 @@
         <v>14</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>5</v>
@@ -3770,24 +3767,24 @@
         <v>14</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>3</v>
@@ -3796,7 +3793,7 @@
         <v>14</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>5</v>
@@ -3805,30 +3802,30 @@
         <v>14</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>3</v>
@@ -3837,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>3</v>
@@ -3846,7 +3843,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K53" s="17" t="s">
         <v>3</v>
@@ -3854,16 +3851,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>3</v>
@@ -3872,7 +3869,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>3</v>
@@ -3881,7 +3878,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K54" s="17" t="s">
         <v>3</v>
@@ -3889,16 +3886,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>3</v>
@@ -3907,7 +3904,7 @@
         <v>4</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H55" s="17" t="s">
         <v>3</v>
@@ -3916,7 +3913,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K55" s="17" t="s">
         <v>3</v>
@@ -3924,139 +3921,139 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I56" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I57" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I58" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>0</v>
@@ -4070,10 +4067,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>0</v>
@@ -4087,10 +4084,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>0</v>
@@ -4104,10 +4101,10 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>0</v>
@@ -4121,10 +4118,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>0</v>
@@ -4138,10 +4135,10 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>0</v>
@@ -4155,10 +4152,10 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>4</v>
@@ -4172,10 +4169,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>4</v>
@@ -4189,10 +4186,10 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>4</v>
@@ -4206,450 +4203,450 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J78" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="K78" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J79" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="K79" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J80" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="K80" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J81" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="K81" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K82" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="K82" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J83" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="K83" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F88" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F89" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F90" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5533,54 +5530,54 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>39</v>
-      </c>
-      <c r="P1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -5618,7 +5615,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>9.6</v>
@@ -5656,7 +5653,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -5694,7 +5691,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -5732,7 +5729,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -5770,7 +5767,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -5808,7 +5805,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>7.5</v>
@@ -5828,7 +5825,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -5848,7 +5845,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <v>44</v>
@@ -5868,7 +5865,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -5888,7 +5885,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12">
         <v>150</v>
@@ -5908,7 +5905,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13">
         <v>0.5</v>
@@ -5934,7 +5931,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -5960,7 +5957,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15">
         <v>1.5</v>
@@ -5986,7 +5983,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -6012,7 +6009,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17">
         <v>1000</v>
@@ -6038,7 +6035,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18">
         <v>3.5</v>
@@ -6052,7 +6049,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19">
         <v>25</v>
@@ -6066,7 +6063,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -6080,7 +6077,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21">
         <v>33.35</v>
@@ -6094,7 +6091,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22">
         <v>9</v>
@@ -6108,7 +6105,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23">
         <v>50</v>
@@ -6122,7 +6119,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24">
         <v>0.5071</v>
@@ -6136,7 +6133,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -6150,7 +6147,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26">
         <v>3.5</v>
@@ -6176,7 +6173,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27">
         <v>20</v>
@@ -6202,7 +6199,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28">
         <v>150</v>
@@ -6228,7 +6225,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -6257,7 +6254,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>60</v>
@@ -6286,7 +6283,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -6315,7 +6312,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -6332,7 +6329,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -6349,7 +6346,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34">
         <v>2.2000000000000002</v>
@@ -6393,7 +6390,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35">
         <v>21.6</v>
@@ -6437,7 +6434,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B36">
         <v>85</v>
@@ -6481,12 +6478,12 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38">
         <v>0.3</v>
@@ -6509,7 +6506,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39">
         <v>1.2</v>
@@ -6532,7 +6529,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40">
         <v>95</v>
@@ -6555,12 +6552,12 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42">
         <v>0.9</v>
@@ -6604,7 +6601,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43">
         <v>0.1</v>
@@ -6648,7 +6645,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44">
         <v>0.7</v>
@@ -6692,7 +6689,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45">
         <v>95</v>
@@ -6736,7 +6733,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46">
         <v>0.9</v>
@@ -6759,7 +6756,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47">
         <v>0.1</v>
@@ -6782,7 +6779,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48">
         <v>0.2</v>
@@ -6805,7 +6802,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49">
         <v>85</v>
@@ -6828,7 +6825,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -6866,7 +6863,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B51">
         <v>70</v>
@@ -6904,7 +6901,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -6942,7 +6939,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53">
         <v>1.5</v>
@@ -6980,7 +6977,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -7018,7 +7015,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -7056,7 +7053,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B56">
         <v>12</v>
@@ -7094,7 +7091,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7132,7 +7129,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -7158,7 +7155,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59">
         <v>11</v>
@@ -7184,7 +7181,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7210,7 +7207,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B61">
         <v>9.6</v>
@@ -7224,7 +7221,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B62">
         <v>0.4</v>
@@ -7238,7 +7235,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B63">
         <v>115</v>
@@ -7252,7 +7249,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B64">
         <v>9.6</v>
@@ -7275,7 +7272,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B65">
         <v>0.4</v>
@@ -7298,7 +7295,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B66">
         <v>115</v>
@@ -7321,22 +7318,22 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B70">
         <v>7.8118999999999994E-2</v>
@@ -7383,7 +7380,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -7430,7 +7427,7 @@
     </row>
     <row r="72" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -7477,7 +7474,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F73">
         <v>90</v>
@@ -7494,7 +7491,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74">
         <v>100</v>
@@ -7514,7 +7511,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D75">
         <v>100</v>
@@ -7537,7 +7534,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B76" s="1">
         <v>50</v>
@@ -7563,7 +7560,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B77" s="1">
         <v>50</v>
@@ -7583,7 +7580,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G78">
         <v>60</v>
@@ -7591,7 +7588,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M79">
         <v>5</v>
@@ -7599,7 +7596,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -7607,7 +7604,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -7615,12 +7612,12 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B83">
         <v>0.2</v>
@@ -7667,7 +7664,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B84">
         <v>70</v>
@@ -7714,12 +7711,12 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E86">
         <v>2.5</v>
@@ -7736,7 +7733,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E87">
         <v>80</v>
@@ -7753,12 +7750,12 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C89">
         <v>0.2</v>
@@ -7775,7 +7772,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C90">
         <v>60</v>
@@ -7792,12 +7789,12 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B92">
         <v>0.5</v>
@@ -7841,7 +7838,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B93">
         <v>70</v>
@@ -7885,12 +7882,12 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -7907,7 +7904,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I96">
         <v>2.5499999999999998</v>
@@ -7924,7 +7921,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I97">
         <v>0.5</v>
@@ -7941,12 +7938,12 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E99">
         <v>18</v>
@@ -7954,7 +7951,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -7962,7 +7959,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E101">
         <v>5</v>
@@ -7970,7 +7967,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8022,91 +8019,91 @@
   <sheetData>
     <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>205</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M1" t="s">
-        <v>208</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" t="s">
         <v>191</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
         <v>193</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
-        <v>194</v>
-      </c>
-      <c r="T1" t="s">
-        <v>195</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>196</v>
       </c>
-      <c r="V1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>197</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>198</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s">
         <v>199</v>
       </c>
-      <c r="Z1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>200</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>201</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8115,7 +8112,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="26">
         <v>0.9</v>
@@ -8213,7 +8210,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="29"/>
@@ -8309,7 +8306,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="26">
         <v>1.1000000000000001</v>
@@ -8407,7 +8404,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="29"/>
@@ -8503,7 +8500,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6" s="26">
         <v>0.9</v>
@@ -8601,7 +8598,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="26">
         <v>0.9</v>
@@ -8699,7 +8696,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="29"/>
@@ -8786,7 +8783,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" s="26">
         <v>1.1000000000000001</v>
@@ -8875,7 +8872,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="29"/>
@@ -8962,7 +8959,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="26">
         <v>0.9</v>
@@ -9051,7 +9048,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="26">
         <v>0.9</v>
@@ -9140,7 +9137,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="29"/>
@@ -9233,7 +9230,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="29"/>
@@ -9326,7 +9323,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="29"/>
@@ -9419,7 +9416,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16" s="26">
         <v>0.8</v>
@@ -9514,7 +9511,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="26">
         <v>0.8</v>
@@ -9609,11 +9606,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E18" s="30">
         <v>0</v>
@@ -9703,11 +9700,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E19" s="30">
         <v>0</v>
@@ -9797,11 +9794,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E20" s="30">
         <v>0</v>
@@ -9891,10 +9888,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D21" s="29">
         <v>0</v>
@@ -9982,10 +9979,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D22" s="29">
         <v>0</v>
@@ -10073,10 +10070,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D23" s="29">
         <v>0</v>
@@ -10164,10 +10161,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D24" s="29">
         <v>0</v>
@@ -10255,10 +10252,10 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D25" s="29">
         <v>0</v>
@@ -10346,14 +10343,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ref="G26:G33" si="17">F26</f>
@@ -10443,14 +10440,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="17"/>
@@ -10540,14 +10537,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="17"/>
@@ -10637,14 +10634,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F29" s="4">
         <v>9</v>
@@ -10737,14 +10734,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F30" s="4">
         <v>60</v>
@@ -10837,14 +10834,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F31" s="4">
         <v>3</v>
@@ -10937,7 +10934,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="29"/>
@@ -11027,7 +11024,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="29"/>
@@ -11117,7 +11114,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="26">
         <v>0.5</v>
@@ -11226,7 +11223,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35" s="26">
         <v>0.5</v>
@@ -11335,7 +11332,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="26">
         <v>0.5</v>
@@ -11444,7 +11441,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37" s="26">
         <v>0.5</v>
@@ -11544,7 +11541,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="26">
         <v>0.5</v>
@@ -11644,7 +11641,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39" s="26">
         <v>0.5</v>
@@ -11744,7 +11741,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C40" s="26">
         <v>0.5</v>
@@ -11848,7 +11845,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C41" s="26">
         <v>0.5</v>
@@ -11952,7 +11949,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C42" s="26">
         <v>0.5</v>
@@ -12056,7 +12053,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" s="26">
         <v>0.5</v>
@@ -12160,7 +12157,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C44" s="26">
         <v>0.5</v>
@@ -12261,7 +12258,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C45" s="26">
         <v>0.5</v>
@@ -12362,7 +12359,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C46" s="26">
         <v>0.5</v>
@@ -12463,7 +12460,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47" s="26">
         <v>0.5</v>
@@ -12564,7 +12561,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C48" s="26">
         <v>0.5</v>
@@ -12670,7 +12667,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C49" s="26">
         <v>0.5</v>
@@ -12776,7 +12773,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C50" s="26">
         <v>0.5</v>
@@ -12882,7 +12879,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C51" s="26">
         <v>0.5</v>
@@ -12988,7 +12985,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C52" s="26">
         <v>0.5</v>
@@ -13094,7 +13091,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C53" s="26">
         <v>0.9</v>
@@ -13199,7 +13196,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C54" s="26">
         <v>0.9</v>
@@ -13304,7 +13301,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C55" s="26">
         <v>0.9</v>
@@ -13409,16 +13406,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C56" s="26">
         <v>0.9</v>
       </c>
       <c r="D56" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E56" s="33" t="s">
         <v>388</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>389</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -13508,16 +13505,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C57" s="26">
         <v>0.9</v>
       </c>
       <c r="D57" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>390</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>391</v>
       </c>
       <c r="F57" s="4">
         <v>11</v>
@@ -13607,16 +13604,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C58" s="26">
         <v>0.9</v>
       </c>
       <c r="D58" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>392</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>393</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -13706,7 +13703,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="29"/>
@@ -13796,7 +13793,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="29"/>
@@ -13886,7 +13883,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="29"/>
@@ -13976,7 +13973,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C62" s="26">
         <v>0.9</v>
@@ -14074,7 +14071,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C63" s="26">
         <v>0.9</v>
@@ -14172,7 +14169,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C64" s="26">
         <v>0.9</v>
@@ -14270,7 +14267,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C65" s="26">
         <v>0.9</v>
@@ -14356,7 +14353,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C66" s="26">
         <v>0.9</v>
@@ -14442,7 +14439,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C67" s="26">
         <v>0.9</v>
@@ -14528,7 +14525,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C68" s="26">
         <v>0.75</v>
@@ -14632,7 +14629,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C69" s="26">
         <v>0.75</v>
@@ -14736,7 +14733,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C70" s="26">
         <v>0.75</v>
@@ -14840,7 +14837,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C71" s="26"/>
       <c r="D71" s="29"/>
@@ -14927,7 +14924,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C72" s="26"/>
       <c r="D72" s="29"/>
@@ -15014,7 +15011,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C73" s="26"/>
       <c r="D73" s="29"/>
@@ -15101,7 +15098,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C74" s="26"/>
       <c r="D74" s="29"/>
@@ -15194,7 +15191,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C75" s="26"/>
       <c r="D75" s="29"/>
@@ -15284,7 +15281,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="29"/>
@@ -15371,7 +15368,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C77" s="26"/>
       <c r="D77" s="29"/>
@@ -15455,7 +15452,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C78" s="26">
         <v>0.75</v>
@@ -15547,7 +15544,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C79" s="26">
         <v>0.75</v>
@@ -15639,7 +15636,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C80" s="26">
         <v>0.75</v>
@@ -15746,7 +15743,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C81" s="26">
         <v>0.75</v>
@@ -15853,7 +15850,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C82" s="26">
         <v>0.75</v>
@@ -15951,7 +15948,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C83" s="26">
         <v>0.75</v>
@@ -16049,7 +16046,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C84" s="26">
         <v>0.75</v>
@@ -16144,7 +16141,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C85" s="26">
         <v>0.75</v>
@@ -16239,7 +16236,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C86" s="26">
         <v>0.75</v>
@@ -16346,7 +16343,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C87" s="26">
         <v>0.75</v>
@@ -16453,7 +16450,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C88" s="26">
         <v>0.75</v>
@@ -16542,7 +16539,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C89" s="26">
         <v>0.75</v>
@@ -16631,7 +16628,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C90" s="26">
         <v>0.75</v>
@@ -16720,7 +16717,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C91" s="26">
         <v>0.75</v>
@@ -16812,7 +16809,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C92" s="26">
         <v>0.75</v>
@@ -16904,7 +16901,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C93" s="26">
         <v>0.75</v>
@@ -17038,91 +17035,91 @@
   <sheetData>
     <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>226</v>
-      </c>
       <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
-        <v>242</v>
-      </c>
-      <c r="L1" t="s">
-        <v>243</v>
-      </c>
-      <c r="M1" t="s">
-        <v>244</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" t="s">
+        <v>247</v>
+      </c>
+      <c r="P1" t="s">
         <v>248</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>249</v>
       </c>
-      <c r="Q1" t="s">
-        <v>250</v>
-      </c>
       <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>253</v>
+      </c>
+      <c r="T1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U1" t="s">
+        <v>255</v>
+      </c>
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
-        <v>254</v>
-      </c>
-      <c r="T1" t="s">
-        <v>255</v>
-      </c>
-      <c r="U1" t="s">
-        <v>256</v>
-      </c>
-      <c r="V1" t="s">
-        <v>36</v>
-      </c>
       <c r="W1" t="s">
+        <v>259</v>
+      </c>
+      <c r="X1" t="s">
         <v>260</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>261</v>
       </c>
-      <c r="Y1" t="s">
-        <v>262</v>
-      </c>
       <c r="Z1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB1" t="s">
         <v>266</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>267</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -17131,7 +17128,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="38">
         <v>0.6</v>
@@ -17231,7 +17228,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="29"/>
@@ -17327,7 +17324,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="38">
         <v>1.2</v>
@@ -17425,7 +17422,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="29"/>
@@ -17521,7 +17518,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6" s="38">
         <v>0.6</v>
@@ -17621,7 +17618,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="38">
         <v>0.6</v>
@@ -17721,7 +17718,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="29"/>
@@ -17808,7 +17805,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" s="38">
         <v>1.2</v>
@@ -17897,7 +17894,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="29"/>
@@ -17984,7 +17981,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="38">
         <v>0.6</v>
@@ -18075,7 +18072,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="38">
         <v>0.6</v>
@@ -18166,7 +18163,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="29"/>
@@ -18259,7 +18256,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C14" s="38">
         <v>1.3</v>
@@ -18354,7 +18351,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="29"/>
@@ -18447,7 +18444,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16" s="38">
         <v>0.4</v>
@@ -18544,7 +18541,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="38">
         <v>0.4</v>
@@ -18641,14 +18638,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G18" s="5">
         <f>F18</f>
@@ -18735,14 +18732,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G19" s="5">
         <f>F19</f>
@@ -18829,14 +18826,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G20" s="5">
         <f>F20</f>
@@ -18923,13 +18920,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E21" s="30">
         <v>0</v>
@@ -19016,13 +19013,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E22" s="30">
         <v>0</v>
@@ -19109,13 +19106,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E23" s="30">
         <v>0</v>
@@ -19202,13 +19199,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E24" s="30">
         <v>0</v>
@@ -19295,13 +19292,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E25" s="30">
         <v>0</v>
@@ -19388,14 +19385,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ref="G26:H33" si="33">F26</f>
@@ -19485,14 +19482,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="33"/>
@@ -19582,14 +19579,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="33"/>
@@ -19679,14 +19676,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F29" s="4">
         <v>9</v>
@@ -19779,14 +19776,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F30" s="4">
         <v>60</v>
@@ -19879,14 +19876,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F31" s="4">
         <v>3</v>
@@ -19979,7 +19976,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="29"/>
@@ -20069,7 +20066,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="29"/>
@@ -20159,7 +20156,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="38">
         <v>0.25</v>
@@ -20268,7 +20265,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35" s="38">
         <v>0.25</v>
@@ -20377,7 +20374,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="38">
         <v>0.25</v>
@@ -20486,7 +20483,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37" s="38">
         <v>0.25</v>
@@ -20586,7 +20583,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="38">
         <v>0.25</v>
@@ -20686,7 +20683,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39" s="38">
         <v>0.25</v>
@@ -20786,7 +20783,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C40" s="38">
         <v>0.25</v>
@@ -20892,7 +20889,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C41" s="38">
         <v>0.25</v>
@@ -20998,7 +20995,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C42" s="38">
         <v>0.25</v>
@@ -21104,7 +21101,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" s="38">
         <v>0.25</v>
@@ -21210,7 +21207,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C44" s="38">
         <v>0.25</v>
@@ -21313,7 +21310,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C45" s="38">
         <v>0.25</v>
@@ -21416,7 +21413,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C46" s="38">
         <v>0.25</v>
@@ -21519,7 +21516,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47" s="38">
         <v>0.25</v>
@@ -21622,7 +21619,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C48" s="38">
         <v>0.25</v>
@@ -21728,7 +21725,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C49" s="38">
         <v>0.25</v>
@@ -21834,7 +21831,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C50" s="38">
         <v>0.25</v>
@@ -21940,7 +21937,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C51" s="38">
         <v>0.25</v>
@@ -22046,7 +22043,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C52" s="38">
         <v>0.25</v>
@@ -22152,7 +22149,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C53" s="38">
         <v>0.75</v>
@@ -22257,7 +22254,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C54" s="38">
         <v>0.75</v>
@@ -22362,7 +22359,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C55" s="38">
         <v>0.75</v>
@@ -22467,16 +22464,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C56" s="38">
         <v>0.75</v>
       </c>
       <c r="D56" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E56" s="33" t="s">
         <v>388</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>389</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -22566,16 +22563,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C57" s="38">
         <v>0.75</v>
       </c>
       <c r="D57" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>390</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>391</v>
       </c>
       <c r="F57" s="4">
         <v>11</v>
@@ -22665,16 +22662,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C58" s="38">
         <v>0.75</v>
       </c>
       <c r="D58" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>392</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>393</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -22764,7 +22761,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="29"/>
@@ -22854,7 +22851,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="29"/>
@@ -22944,7 +22941,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="29"/>
@@ -23034,7 +23031,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C62" s="38">
         <v>0.75</v>
@@ -23132,7 +23129,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C63" s="38">
         <v>0.75</v>
@@ -23230,7 +23227,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C64" s="38">
         <v>0.75</v>
@@ -23328,7 +23325,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C65" s="38">
         <v>0.75</v>
@@ -23414,7 +23411,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C66" s="38">
         <v>0.75</v>
@@ -23500,7 +23497,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C67" s="38">
         <v>0.75</v>
@@ -23586,7 +23583,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C68" s="38">
         <v>0.9</v>
@@ -23690,7 +23687,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C69" s="38">
         <v>0.9</v>
@@ -23794,7 +23791,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C70" s="38">
         <v>0.9</v>
@@ -23898,7 +23895,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C71" s="38"/>
       <c r="D71" s="29"/>
@@ -23985,7 +23982,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C72" s="38"/>
       <c r="D72" s="29"/>
@@ -24072,7 +24069,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C73" s="38"/>
       <c r="D73" s="29"/>
@@ -24159,7 +24156,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="29"/>
@@ -24252,7 +24249,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C75" s="38"/>
       <c r="D75" s="29"/>
@@ -24342,7 +24339,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="29"/>
@@ -24429,7 +24426,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C77" s="38"/>
       <c r="D77" s="29"/>
@@ -24513,7 +24510,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C78" s="38">
         <v>0.25</v>
@@ -24607,7 +24604,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C79" s="38">
         <v>0.25</v>
@@ -24701,7 +24698,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C80" s="38">
         <v>0.25</v>
@@ -24810,7 +24807,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C81" s="38">
         <v>0.25</v>
@@ -24919,7 +24916,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C82" s="38">
         <v>0.25</v>
@@ -25016,7 +25013,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C83" s="38">
         <v>0.25</v>
@@ -25113,7 +25110,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C84" s="38">
         <v>0.25</v>
@@ -25205,7 +25202,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C85" s="38">
         <v>0.25</v>
@@ -25297,7 +25294,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C86" s="38">
         <v>0.25</v>
@@ -25401,7 +25398,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C87" s="38">
         <v>0.25</v>
@@ -25505,7 +25502,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C88" s="38">
         <v>0.25</v>
@@ -25591,7 +25588,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C89" s="38">
         <v>0.25</v>
@@ -25677,7 +25674,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C90" s="38">
         <v>0.25</v>
@@ -25763,7 +25760,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C91" s="38">
         <v>0.25</v>
@@ -25852,7 +25849,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C92" s="38">
         <v>0.25</v>
@@ -25941,7 +25938,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C93" s="38">
         <v>0.25</v>
@@ -26072,91 +26069,91 @@
   <sheetData>
     <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>229</v>
-      </c>
       <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
       <c r="O1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P1" t="s">
         <v>251</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>252</v>
       </c>
-      <c r="Q1" t="s">
-        <v>253</v>
-      </c>
       <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>256</v>
+      </c>
+      <c r="T1" t="s">
+        <v>257</v>
+      </c>
+      <c r="U1" t="s">
+        <v>258</v>
+      </c>
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V1" t="s">
-        <v>36</v>
-      </c>
       <c r="W1" t="s">
+        <v>262</v>
+      </c>
+      <c r="X1" t="s">
         <v>263</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>264</v>
       </c>
-      <c r="Y1" t="s">
-        <v>265</v>
-      </c>
       <c r="Z1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB1" t="s">
         <v>269</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>270</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -26165,7 +26162,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="38">
         <v>0.25</v>
@@ -26265,7 +26262,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="29"/>
@@ -26361,7 +26358,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="38">
         <v>1.5</v>
@@ -26459,7 +26456,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="29"/>
@@ -26555,7 +26552,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6" s="38">
         <v>0.25</v>
@@ -26655,7 +26652,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="38">
         <v>0.25</v>
@@ -26755,7 +26752,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="29"/>
@@ -26842,7 +26839,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" s="38">
         <v>1.5</v>
@@ -26931,7 +26928,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="29"/>
@@ -27018,7 +27015,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="38">
         <v>0.25</v>
@@ -27109,7 +27106,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="38">
         <v>0.25</v>
@@ -27200,7 +27197,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="29"/>
@@ -27293,7 +27290,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C14" s="38">
         <v>1.8</v>
@@ -27388,7 +27385,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="29"/>
@@ -27481,7 +27478,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16" s="38">
         <v>0.05</v>
@@ -27578,7 +27575,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="38">
         <v>0.05</v>
@@ -27675,11 +27672,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E18" s="30">
         <v>0</v>
@@ -27769,11 +27766,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E19" s="30">
         <v>0</v>
@@ -27863,11 +27860,11 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E20" s="30">
         <v>0</v>
@@ -27957,13 +27954,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E21" s="30">
         <v>0</v>
@@ -28050,13 +28047,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E22" s="30">
         <v>0</v>
@@ -28143,13 +28140,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E23" s="30">
         <v>0</v>
@@ -28236,13 +28233,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E24" s="30">
         <v>0</v>
@@ -28329,13 +28326,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E25" s="30">
         <v>0</v>
@@ -28422,14 +28419,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ref="G26:H33" si="33">F26</f>
@@ -28519,14 +28516,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="33"/>
@@ -28616,14 +28613,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="33"/>
@@ -28713,14 +28710,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F29" s="4">
         <v>9</v>
@@ -28813,14 +28810,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F30" s="4">
         <v>60</v>
@@ -28913,14 +28910,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F31" s="4">
         <v>3</v>
@@ -29013,7 +29010,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="29"/>
@@ -29103,7 +29100,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="29"/>
@@ -29193,7 +29190,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="38">
         <v>0.05</v>
@@ -29300,7 +29297,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35" s="38">
         <v>0.05</v>
@@ -29410,7 +29407,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="38">
         <v>0.05</v>
@@ -29520,7 +29517,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37" s="38">
         <v>0.05</v>
@@ -29618,7 +29615,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="38">
         <v>0.05</v>
@@ -29719,7 +29716,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39" s="38">
         <v>0.05</v>
@@ -29820,7 +29817,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C40" s="38">
         <v>0.05</v>
@@ -29924,7 +29921,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C41" s="38">
         <v>0.05</v>
@@ -30031,7 +30028,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C42" s="38">
         <v>0.05</v>
@@ -30138,7 +30135,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" s="38">
         <v>0.05</v>
@@ -30245,7 +30242,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C44" s="38">
         <v>0.05</v>
@@ -30346,7 +30343,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C45" s="38">
         <v>0.05</v>
@@ -30450,7 +30447,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C46" s="38">
         <v>0.05</v>
@@ -30554,7 +30551,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47" s="38">
         <v>0.05</v>
@@ -30658,7 +30655,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C48" s="38">
         <v>0.05</v>
@@ -30765,7 +30762,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C49" s="38">
         <v>0.05</v>
@@ -30872,7 +30869,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C50" s="38">
         <v>0.05</v>
@@ -30979,7 +30976,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C51" s="38">
         <v>0.05</v>
@@ -31086,7 +31083,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C52" s="38">
         <v>0.05</v>
@@ -31193,7 +31190,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C53" s="38">
         <v>0.5</v>
@@ -31298,7 +31295,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C54" s="38">
         <v>0.5</v>
@@ -31403,7 +31400,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C55" s="38">
         <v>0.5</v>
@@ -31508,16 +31505,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C56" s="38">
         <v>0.5</v>
       </c>
       <c r="D56" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E56" s="33" t="s">
         <v>388</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>389</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -31607,16 +31604,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C57" s="38">
         <v>0.5</v>
       </c>
       <c r="D57" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>390</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>391</v>
       </c>
       <c r="F57" s="4">
         <v>11</v>
@@ -31706,16 +31703,16 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C58" s="38">
         <v>0.5</v>
       </c>
       <c r="D58" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>392</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>393</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -31805,7 +31802,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="29"/>
@@ -31895,7 +31892,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="29"/>
@@ -31985,7 +31982,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="29"/>
@@ -32075,7 +32072,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C62" s="38">
         <v>0.5</v>
@@ -32173,7 +32170,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C63" s="38">
         <v>0.5</v>
@@ -32271,7 +32268,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C64" s="38">
         <v>0.5</v>
@@ -32369,7 +32366,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C65" s="38">
         <v>0.5</v>
@@ -32455,7 +32452,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C66" s="38">
         <v>0.5</v>
@@ -32541,7 +32538,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C67" s="38">
         <v>0.5</v>
@@ -32627,7 +32624,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C68" s="38">
         <v>0.9</v>
@@ -32731,7 +32728,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C69" s="38">
         <v>0.9</v>
@@ -32835,7 +32832,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C70" s="38">
         <v>0.9</v>
@@ -32939,7 +32936,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C71" s="38"/>
       <c r="D71" s="29"/>
@@ -33026,7 +33023,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C72" s="38"/>
       <c r="D72" s="29"/>
@@ -33113,7 +33110,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C73" s="38"/>
       <c r="D73" s="29"/>
@@ -33200,7 +33197,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="29"/>
@@ -33293,7 +33290,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C75" s="38"/>
       <c r="D75" s="29"/>
@@ -33383,7 +33380,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="29"/>
@@ -33470,7 +33467,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C77" s="38"/>
       <c r="D77" s="29"/>
@@ -33554,7 +33551,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C78" s="38">
         <v>0.05</v>
@@ -33649,7 +33646,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C79" s="38">
         <v>0.05</v>
@@ -33744,7 +33741,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C80" s="38">
         <v>0.05</v>
@@ -33854,7 +33851,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C81" s="38">
         <v>0.05</v>
@@ -33964,7 +33961,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C82" s="38">
         <v>0.05</v>
@@ -34062,7 +34059,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C83" s="38">
         <v>0.05</v>
@@ -34160,7 +34157,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C84" s="38">
         <v>0.05</v>
@@ -34252,7 +34249,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C85" s="38">
         <v>0.05</v>
@@ -34344,7 +34341,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C86" s="38">
         <v>0.05</v>
@@ -34448,7 +34445,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C87" s="38">
         <v>0.05</v>
@@ -34552,7 +34549,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C88" s="38">
         <v>0.05</v>
@@ -34638,7 +34635,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C89" s="38">
         <v>0.05</v>
@@ -34724,7 +34721,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C90" s="38">
         <v>0.05</v>
@@ -34810,7 +34807,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C91" s="38">
         <v>0.05</v>
@@ -34899,7 +34896,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C92" s="38">
         <v>0.05</v>
@@ -34988,7 +34985,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C93" s="38">
         <v>0.05</v>
@@ -35103,187 +35100,187 @@
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>205</v>
       </c>
-      <c r="F1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" t="s">
         <v>241</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S1" t="s">
+        <v>244</v>
+      </c>
+      <c r="T1" t="s">
+        <v>245</v>
+      </c>
+      <c r="U1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O1" t="s">
-        <v>208</v>
-      </c>
-      <c r="P1" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>243</v>
-      </c>
-      <c r="R1" t="s">
-        <v>244</v>
-      </c>
-      <c r="S1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T1" t="s">
-        <v>246</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z1" t="s">
         <v>247</v>
       </c>
-      <c r="V1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>191</v>
-      </c>
-      <c r="X1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" t="s">
         <v>193</v>
       </c>
-      <c r="Z1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>253</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP1" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>196</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT1" t="s">
         <v>259</v>
       </c>
-      <c r="AP1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA1" t="s">
         <v>199</v>
       </c>
-      <c r="AT1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD1" t="s">
         <v>265</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>266</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>267</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>268</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>269</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>270</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">

--- a/specifications/1_Fire/ScriptRules_Fire.xlsx
+++ b/specifications/1_Fire/ScriptRules_Fire.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -1553,7 +1553,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1682,6 +1682,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -2524,24 +2536,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K951"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.28515625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="33" style="17" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" style="18" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="101.28515625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="28" style="44" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="55" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="33" style="54" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" style="55" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="54" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" style="55" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2576,7 +2590,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>108</v>
       </c>
@@ -2586,28 +2600,41 @@
       <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="H2" s="18"/>
       <c r="I2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="13"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>105</v>
       </c>
@@ -2617,22 +2644,37 @@
       <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="13"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>106</v>
       </c>
@@ -2642,20 +2684,24 @@
       <c r="C6" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="H6" s="18"/>
       <c r="I6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>107</v>
       </c>
@@ -2665,28 +2711,41 @@
       <c r="C7" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="H7" s="18"/>
       <c r="I7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B8" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="13"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>100</v>
       </c>
@@ -2696,22 +2755,37 @@
       <c r="C9" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="13"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>101</v>
       </c>
@@ -2721,20 +2795,24 @@
       <c r="C11" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="H11" s="18"/>
       <c r="I11" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>102</v>
       </c>
@@ -2744,50 +2822,79 @@
       <c r="C12" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="H12" s="18"/>
       <c r="I12" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="13"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B14" t="s">
         <v>290</v>
       </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="13" t="s">
         <v>19</v>
       </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B15" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="13"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>112</v>
       </c>
@@ -2797,20 +2904,24 @@
       <c r="C16" s="13" t="s">
         <v>2</v>
       </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="H16" s="18"/>
       <c r="I16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>113</v>
       </c>
@@ -2820,38 +2931,45 @@
       <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="H17" s="18"/>
       <c r="I17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>294</v>
       </c>
+      <c r="C18" s="13"/>
       <c r="D18" s="14" t="s">
         <v>420</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>407</v>
       </c>
+      <c r="F18" s="13"/>
       <c r="G18" s="14" t="s">
         <v>420</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>407</v>
       </c>
+      <c r="I18" s="13"/>
       <c r="J18" s="14" t="s">
         <v>419</v>
       </c>
@@ -2859,25 +2977,28 @@
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>295</v>
       </c>
+      <c r="C19" s="13"/>
       <c r="D19" s="14" t="s">
         <v>405</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>407</v>
       </c>
+      <c r="F19" s="13"/>
       <c r="G19" s="14" t="s">
         <v>405</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>407</v>
       </c>
+      <c r="I19" s="13"/>
       <c r="J19" s="14" t="s">
         <v>405</v>
       </c>
@@ -2885,25 +3006,28 @@
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>296</v>
       </c>
+      <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
         <v>406</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>407</v>
       </c>
+      <c r="F20" s="13"/>
       <c r="G20" s="14" t="s">
         <v>406</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>407</v>
       </c>
+      <c r="I20" s="13"/>
       <c r="J20" s="14" t="s">
         <v>406</v>
       </c>
@@ -2911,7 +3035,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>89</v>
       </c>
@@ -2924,6 +3048,7 @@
       <c r="D21" s="14" t="s">
         <v>407</v>
       </c>
+      <c r="E21" s="18"/>
       <c r="F21" s="13" t="s">
         <v>398</v>
       </c>
@@ -2943,7 +3068,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>87</v>
       </c>
@@ -2956,6 +3081,7 @@
       <c r="D22" s="14" t="s">
         <v>407</v>
       </c>
+      <c r="E22" s="18"/>
       <c r="F22" s="13" t="s">
         <v>399</v>
       </c>
@@ -2975,7 +3101,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>88</v>
       </c>
@@ -2988,6 +3114,7 @@
       <c r="D23" s="14" t="s">
         <v>407</v>
       </c>
+      <c r="E23" s="18"/>
       <c r="F23" s="13" t="s">
         <v>400</v>
       </c>
@@ -3007,7 +3134,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>90</v>
       </c>
@@ -3020,6 +3147,7 @@
       <c r="D24" s="14" t="s">
         <v>407</v>
       </c>
+      <c r="E24" s="18"/>
       <c r="F24" s="13" t="s">
         <v>413</v>
       </c>
@@ -3039,7 +3167,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>91</v>
       </c>
@@ -3052,6 +3180,7 @@
       <c r="D25" s="14" t="s">
         <v>407</v>
       </c>
+      <c r="E25" s="18"/>
       <c r="F25" s="13" t="s">
         <v>414</v>
       </c>
@@ -3071,25 +3200,28 @@
         <v>407</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>92</v>
       </c>
       <c r="B26" t="s">
         <v>302</v>
       </c>
+      <c r="C26" s="13"/>
       <c r="D26" s="14" t="s">
         <v>408</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>403</v>
       </c>
+      <c r="F26" s="13"/>
       <c r="G26" s="14" t="s">
         <v>408</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>403</v>
       </c>
+      <c r="I26" s="13"/>
       <c r="J26" s="14" t="s">
         <v>408</v>
       </c>
@@ -3097,25 +3229,28 @@
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B27" t="s">
         <v>303</v>
       </c>
+      <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
         <v>409</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>404</v>
       </c>
+      <c r="F27" s="13"/>
       <c r="G27" s="14" t="s">
         <v>409</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>404</v>
       </c>
+      <c r="I27" s="13"/>
       <c r="J27" s="14" t="s">
         <v>409</v>
       </c>
@@ -3123,25 +3258,28 @@
         <v>404</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B28" t="s">
         <v>304</v>
       </c>
+      <c r="C28" s="13"/>
       <c r="D28" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>410</v>
       </c>
+      <c r="F28" s="13"/>
       <c r="G28" s="14" t="s">
         <v>410</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>410</v>
       </c>
+      <c r="I28" s="13"/>
       <c r="J28" s="14" t="s">
         <v>410</v>
       </c>
@@ -3149,25 +3287,28 @@
         <v>410</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B29" t="s">
         <v>305</v>
       </c>
+      <c r="C29" s="13"/>
       <c r="D29" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>411</v>
       </c>
+      <c r="F29" s="13"/>
       <c r="G29" s="14" t="s">
         <v>411</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>411</v>
       </c>
+      <c r="I29" s="13"/>
       <c r="J29" s="14" t="s">
         <v>411</v>
       </c>
@@ -3175,25 +3316,28 @@
         <v>411</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B30" t="s">
         <v>306</v>
       </c>
+      <c r="C30" s="13"/>
       <c r="D30" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>411</v>
       </c>
+      <c r="F30" s="13"/>
       <c r="G30" s="14" t="s">
         <v>411</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>411</v>
       </c>
+      <c r="I30" s="13"/>
       <c r="J30" s="14" t="s">
         <v>411</v>
       </c>
@@ -3201,25 +3345,28 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B31" t="s">
         <v>307</v>
       </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="14" t="s">
         <v>412</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>412</v>
       </c>
+      <c r="F31" s="13"/>
       <c r="G31" s="14" t="s">
         <v>412</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>412</v>
       </c>
+      <c r="I31" s="13"/>
       <c r="J31" s="14" t="s">
         <v>412</v>
       </c>
@@ -3227,23 +3374,41 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B32" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="13"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B33" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C33" s="13"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>148</v>
       </c>
@@ -3278,7 +3443,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>149</v>
       </c>
@@ -3313,7 +3478,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>150</v>
       </c>
@@ -3344,7 +3509,7 @@
       </c>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>151</v>
       </c>
@@ -3379,7 +3544,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>152</v>
       </c>
@@ -3414,7 +3579,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>153</v>
       </c>
@@ -3445,7 +3610,7 @@
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>126</v>
       </c>
@@ -3458,6 +3623,7 @@
       <c r="D40" s="14" t="s">
         <v>391</v>
       </c>
+      <c r="E40" s="18"/>
       <c r="F40" s="13" t="s">
         <v>5</v>
       </c>
@@ -3473,7 +3639,7 @@
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>127</v>
       </c>
@@ -3486,6 +3652,7 @@
       <c r="D41" s="14" t="s">
         <v>391</v>
       </c>
+      <c r="E41" s="18"/>
       <c r="F41" s="13" t="s">
         <v>5</v>
       </c>
@@ -3501,7 +3668,7 @@
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>128</v>
       </c>
@@ -3514,6 +3681,7 @@
       <c r="D42" s="14" t="s">
         <v>391</v>
       </c>
+      <c r="E42" s="18"/>
       <c r="F42" s="13" t="s">
         <v>5</v>
       </c>
@@ -3529,7 +3697,7 @@
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>129</v>
       </c>
@@ -3542,6 +3710,7 @@
       <c r="D43" s="14" t="s">
         <v>391</v>
       </c>
+      <c r="E43" s="18"/>
       <c r="F43" s="13" t="s">
         <v>5</v>
       </c>
@@ -3557,7 +3726,7 @@
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>130</v>
       </c>
@@ -3570,6 +3739,7 @@
       <c r="D44" s="14" t="s">
         <v>391</v>
       </c>
+      <c r="E44" s="18"/>
       <c r="F44" s="13" t="s">
         <v>5</v>
       </c>
@@ -3585,7 +3755,7 @@
       </c>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>131</v>
       </c>
@@ -3598,6 +3768,7 @@
       <c r="D45" s="14" t="s">
         <v>391</v>
       </c>
+      <c r="E45" s="18"/>
       <c r="F45" s="13" t="s">
         <v>5</v>
       </c>
@@ -3613,7 +3784,7 @@
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>132</v>
       </c>
@@ -3626,6 +3797,7 @@
       <c r="D46" s="14" t="s">
         <v>391</v>
       </c>
+      <c r="E46" s="18"/>
       <c r="F46" s="13" t="s">
         <v>5</v>
       </c>
@@ -3641,7 +3813,7 @@
       </c>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>133</v>
       </c>
@@ -3654,6 +3826,7 @@
       <c r="D47" s="14" t="s">
         <v>391</v>
       </c>
+      <c r="E47" s="18"/>
       <c r="F47" s="13" t="s">
         <v>5</v>
       </c>
@@ -3669,7 +3842,7 @@
       </c>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>154</v>
       </c>
@@ -3704,7 +3877,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>155</v>
       </c>
@@ -3739,7 +3912,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>159</v>
       </c>
@@ -3774,7 +3947,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>160</v>
       </c>
@@ -3809,7 +3982,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>161</v>
       </c>
@@ -3844,7 +4017,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>227</v>
       </c>
@@ -3879,7 +4052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>228</v>
       </c>
@@ -3914,7 +4087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>229</v>
       </c>
@@ -3949,7 +4122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>230</v>
       </c>
@@ -3984,7 +4157,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>231</v>
       </c>
@@ -4019,7 +4192,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>232</v>
       </c>
@@ -4054,31 +4227,58 @@
         <v>426</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>168</v>
       </c>
       <c r="B59" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="13"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>169</v>
       </c>
       <c r="B60" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C60" s="13"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B61" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C61" s="13"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>165</v>
       </c>
@@ -4088,14 +4288,20 @@
       <c r="C62" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="18"/>
       <c r="F62" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="18"/>
       <c r="I62" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J62" s="17"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>166</v>
       </c>
@@ -4105,14 +4311,20 @@
       <c r="C63" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18"/>
       <c r="F63" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
       <c r="I63" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J63" s="17"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>167</v>
       </c>
@@ -4122,14 +4334,20 @@
       <c r="C64" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="18"/>
       <c r="F64" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J64" s="17"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>162</v>
       </c>
@@ -4139,14 +4357,20 @@
       <c r="C65" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="18"/>
       <c r="F65" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="G65" s="17"/>
+      <c r="H65" s="18"/>
       <c r="I65" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J65" s="17"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>163</v>
       </c>
@@ -4156,14 +4380,20 @@
       <c r="C66" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18"/>
       <c r="F66" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="G66" s="17"/>
+      <c r="H66" s="18"/>
       <c r="I66" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J66" s="17"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>164</v>
       </c>
@@ -4173,14 +4403,20 @@
       <c r="C67" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
       <c r="F67" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="G67" s="17"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J67" s="17"/>
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>156</v>
       </c>
@@ -4190,14 +4426,20 @@
       <c r="C68" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18"/>
       <c r="F68" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G68" s="17"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J68" s="17"/>
+      <c r="K68" s="18"/>
+    </row>
+    <row r="69" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>157</v>
       </c>
@@ -4207,14 +4449,20 @@
       <c r="C69" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
       <c r="F69" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G69" s="17"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J69" s="17"/>
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>158</v>
       </c>
@@ -4224,70 +4472,139 @@
       <c r="C70" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
       <c r="F70" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G70" s="17"/>
+      <c r="H70" s="18"/>
       <c r="I70" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J70" s="17"/>
+      <c r="K70" s="18"/>
+    </row>
+    <row r="71" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>134</v>
       </c>
       <c r="B71" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C71" s="13"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>135</v>
       </c>
       <c r="B72" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C72" s="13"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="18"/>
+    </row>
+    <row r="73" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>136</v>
       </c>
       <c r="B73" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C73" s="13"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>137</v>
       </c>
       <c r="B74" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C74" s="13"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="18"/>
+    </row>
+    <row r="75" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B75" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C75" s="13"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="18"/>
+    </row>
+    <row r="76" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>139</v>
       </c>
       <c r="B76" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C76" s="13"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="18"/>
+    </row>
+    <row r="77" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>140</v>
       </c>
       <c r="B77" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C77" s="13"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="18"/>
+    </row>
+    <row r="78" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>141</v>
       </c>
@@ -4297,6 +4614,7 @@
       <c r="C78" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="D78" s="17"/>
       <c r="E78" s="20" t="s">
         <v>24</v>
       </c>
@@ -4319,7 +4637,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>142</v>
       </c>
@@ -4329,6 +4647,7 @@
       <c r="C79" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="D79" s="17"/>
       <c r="E79" s="20" t="s">
         <v>24</v>
       </c>
@@ -4351,7 +4670,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>143</v>
       </c>
@@ -4364,6 +4683,7 @@
       <c r="D80" s="23" t="s">
         <v>24</v>
       </c>
+      <c r="E80" s="18"/>
       <c r="F80" s="13" t="s">
         <v>5</v>
       </c>
@@ -4383,7 +4703,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>144</v>
       </c>
@@ -4396,6 +4716,7 @@
       <c r="D81" s="14" t="s">
         <v>24</v>
       </c>
+      <c r="E81" s="18"/>
       <c r="F81" s="13" t="s">
         <v>5</v>
       </c>
@@ -4415,7 +4736,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>145</v>
       </c>
@@ -4425,6 +4746,7 @@
       <c r="C82" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="D82" s="17"/>
       <c r="E82" s="20" t="s">
         <v>24</v>
       </c>
@@ -4447,7 +4769,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>146</v>
       </c>
@@ -4457,6 +4779,7 @@
       <c r="C83" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="D83" s="17"/>
       <c r="E83" s="20" t="s">
         <v>24</v>
       </c>
@@ -4479,7 +4802,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>119</v>
       </c>
@@ -4490,14 +4813,19 @@
         <v>4</v>
       </c>
       <c r="D84" s="14"/>
+      <c r="E84" s="18"/>
       <c r="F84" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="G84" s="17"/>
+      <c r="H84" s="18"/>
       <c r="I84" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J84" s="17"/>
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>120</v>
       </c>
@@ -4508,14 +4836,19 @@
         <v>4</v>
       </c>
       <c r="D85" s="14"/>
+      <c r="E85" s="18"/>
       <c r="F85" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="G85" s="17"/>
+      <c r="H85" s="18"/>
       <c r="I85" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J85" s="17"/>
+      <c r="K85" s="18"/>
+    </row>
+    <row r="86" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>121</v>
       </c>
@@ -4526,14 +4859,19 @@
         <v>4</v>
       </c>
       <c r="D86" s="14"/>
+      <c r="E86" s="18"/>
       <c r="F86" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="G86" s="17"/>
+      <c r="H86" s="18"/>
       <c r="I86" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J86" s="17"/>
+      <c r="K86" s="18"/>
+    </row>
+    <row r="87" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>122</v>
       </c>
@@ -4544,14 +4882,19 @@
         <v>4</v>
       </c>
       <c r="D87" s="14"/>
+      <c r="E87" s="18"/>
       <c r="F87" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="G87" s="17"/>
+      <c r="H87" s="18"/>
       <c r="I87" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J87" s="17"/>
+      <c r="K87" s="18"/>
+    </row>
+    <row r="88" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>116</v>
       </c>
@@ -4562,14 +4905,19 @@
         <v>4</v>
       </c>
       <c r="D88" s="14"/>
+      <c r="E88" s="18"/>
       <c r="F88" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="G88" s="17"/>
+      <c r="H88" s="18"/>
       <c r="I88" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J88" s="17"/>
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>117</v>
       </c>
@@ -4580,14 +4928,19 @@
         <v>4</v>
       </c>
       <c r="D89" s="14"/>
+      <c r="E89" s="18"/>
       <c r="F89" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="G89" s="17"/>
+      <c r="H89" s="18"/>
       <c r="I89" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J89" s="17"/>
+      <c r="K89" s="18"/>
+    </row>
+    <row r="90" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>118</v>
       </c>
@@ -4598,14 +4951,19 @@
         <v>4</v>
       </c>
       <c r="D90" s="14"/>
+      <c r="E90" s="18"/>
       <c r="F90" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="G90" s="17"/>
+      <c r="H90" s="18"/>
       <c r="I90" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J90" s="17"/>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>123</v>
       </c>
@@ -4616,14 +4974,19 @@
         <v>4</v>
       </c>
       <c r="D91" s="14"/>
+      <c r="E91" s="18"/>
       <c r="F91" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="G91" s="17"/>
+      <c r="H91" s="18"/>
       <c r="I91" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J91" s="17"/>
+      <c r="K91" s="18"/>
+    </row>
+    <row r="92" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>124</v>
       </c>
@@ -4634,889 +4997,41 @@
         <v>4</v>
       </c>
       <c r="D92" s="14"/>
+      <c r="E92" s="18"/>
       <c r="F92" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="G92" s="17"/>
+      <c r="H92" s="18"/>
       <c r="I92" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
+      <c r="J92" s="17"/>
+      <c r="K92" s="18"/>
+    </row>
+    <row r="93" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="58" t="s">
         <v>125</v>
       </c>
       <c r="B93" t="s">
         <v>366</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="14"/>
-      <c r="F93" s="13" t="s">
+      <c r="D93" s="59"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I93" s="13" t="s">
+      <c r="G93" s="48"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="47" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="499" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="500" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="501" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="502" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="503" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="504" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="507" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="508" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="509" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="510" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="511" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="512" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="513" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="515" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="516" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="517" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="518" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="519" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="520" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="521" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="522" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="524" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="525" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="526" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="527" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="529" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="530" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="531" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="532" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="533" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="535" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="536" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="537" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="538" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="539" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="540" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="541" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="542" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="543" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="544" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="546" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="547" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="548" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="549" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="550" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="551" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="552" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="553" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="554" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="555" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="557" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="558" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="559" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="560" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="561" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="562" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="563" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="564" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="565" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="567" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="568" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="569" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="570" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="571" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="572" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="573" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="574" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="575" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="577" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="578" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="579" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="580" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="581" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="582" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="583" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="584" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="585" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="587" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="588" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="589" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="590" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="591" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="592" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="593" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="594" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="595" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="597" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="598" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="599" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="600" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="601" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="602" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="603" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="604" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="605" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="606" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="607" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="608" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="609" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="610" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="611" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="612" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="613" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="614" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="615" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="616" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="617" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="618" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="619" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="620" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="621" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="622" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="623" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="624" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="625" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="626" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="627" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="628" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="629" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="630" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="631" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="632" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="633" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="634" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="635" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="636" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="637" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="638" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="639" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="640" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="641" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="642" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="643" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="644" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="645" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="646" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="647" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="648" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="649" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="650" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="651" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="652" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="653" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="654" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="655" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="656" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="657" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="658" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="659" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="660" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="661" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="662" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="663" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="664" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="665" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="666" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="667" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="668" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="669" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="670" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="671" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="672" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="673" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="674" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="675" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="676" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="677" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="678" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="679" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="680" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="681" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="682" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="683" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="684" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="685" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="686" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="687" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="688" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="689" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="690" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="691" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="692" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="693" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="694" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="695" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="696" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="697" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="698" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="699" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="700" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="701" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="702" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="703" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="704" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="705" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="706" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="707" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="708" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="709" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="710" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="711" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="712" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="713" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="714" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="715" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="716" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="717" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="718" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="719" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="720" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="721" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="722" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="723" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="724" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="725" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="726" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="727" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="728" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="729" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="730" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="731" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="732" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="733" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="734" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="735" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="736" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="737" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="738" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="739" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="740" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="741" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="742" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="743" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="744" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="745" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="746" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="747" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="748" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="749" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="750" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="751" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="752" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="753" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="754" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="755" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="756" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="757" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="758" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="759" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="760" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="761" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="762" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="763" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="764" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="765" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="766" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="767" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="768" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="769" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="770" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="771" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="772" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="773" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="774" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="775" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="776" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="777" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="778" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="779" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="780" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="781" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="782" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="783" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="784" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="785" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="786" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="787" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="788" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="789" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="790" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="791" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="792" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="793" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="794" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="795" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="796" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="797" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="798" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="799" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="800" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="801" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="802" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="803" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="804" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="805" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="806" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="807" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="808" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="809" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="810" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="811" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="812" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="813" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="814" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="815" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="816" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="817" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="818" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="819" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="820" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="821" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="822" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="823" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="824" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="825" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="826" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="827" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="828" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="829" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="830" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="831" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="832" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="833" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="834" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="835" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="836" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="837" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="838" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="839" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="840" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="841" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="842" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="843" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="844" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="845" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="846" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="847" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="848" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="849" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="850" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="851" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="852" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="853" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="854" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="855" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="856" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="857" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="858" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="859" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="860" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="861" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="862" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="863" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="864" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="865" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="866" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="867" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="868" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="869" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="870" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="871" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="872" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="873" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="874" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="875" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="876" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="877" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="878" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="879" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="880" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="881" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="882" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="883" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="884" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="885" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="886" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="887" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="888" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="889" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="890" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="891" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="892" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="893" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="894" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="895" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="896" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="897" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="898" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="899" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="900" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="901" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="902" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="903" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="904" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="905" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="906" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="907" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="908" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="909" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="910" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="911" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="912" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="913" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="914" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="915" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="916" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="917" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="918" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="919" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="920" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="921" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="922" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="923" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="924" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="925" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="926" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="927" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="928" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="929" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="930" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="931" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="932" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="933" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="934" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="935" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="936" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="937" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="938" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="939" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="940" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="941" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="942" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="943" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="944" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="945" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="946" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="947" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="948" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="949" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="950" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="951" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="49"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -17253,7 +16768,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" ref="O3:O17" si="1">N3</f>
+        <f t="shared" ref="O3:O5" si="1">N3</f>
         <v>0</v>
       </c>
       <c r="P3" s="40">
@@ -17265,7 +16780,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="8">
-        <f t="shared" ref="S3:S17" si="3">R3</f>
+        <f t="shared" ref="S3:S5" si="3">R3</f>
         <v>0</v>
       </c>
       <c r="T3" s="40">
@@ -17280,7 +16795,7 @@
         <v>2.9</v>
       </c>
       <c r="W3" s="8">
-        <f t="shared" ref="W3:W17" si="5">V3</f>
+        <f t="shared" ref="W3:W5" si="5">V3</f>
         <v>2.9</v>
       </c>
       <c r="X3" s="40">
@@ -17295,7 +16810,7 @@
         <v>14</v>
       </c>
       <c r="AA3" s="8">
-        <f t="shared" ref="AA3:AA17" si="7">Z3</f>
+        <f t="shared" ref="AA3:AA5" si="7">Z3</f>
         <v>14</v>
       </c>
       <c r="AB3" s="40">
@@ -17310,7 +16825,7 @@
         <v>12</v>
       </c>
       <c r="AE3" s="8">
-        <f t="shared" ref="AE3:AE17" si="9">AD3</f>
+        <f t="shared" ref="AE3:AE5" si="9">AD3</f>
         <v>12</v>
       </c>
       <c r="AF3" s="40">
@@ -17765,7 +17280,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" ref="O8:O22" si="11">N8</f>
+        <f t="shared" ref="O8:O10" si="11">N8</f>
         <v>0</v>
       </c>
       <c r="P8" s="40">
@@ -17777,7 +17292,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="8">
-        <f t="shared" ref="S8:S22" si="12">R8</f>
+        <f t="shared" ref="S8:S10" si="12">R8</f>
         <v>0</v>
       </c>
       <c r="T8" s="40">
@@ -17789,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="8">
-        <f t="shared" ref="W8:W22" si="13">V8</f>
+        <f t="shared" ref="W8:W10" si="13">V8</f>
         <v>0</v>
       </c>
       <c r="X8" s="40">
@@ -17804,7 +17319,7 @@
         <v>7.5</v>
       </c>
       <c r="AA8" s="8">
-        <f t="shared" ref="AA8:AA22" si="14">Z8</f>
+        <f t="shared" ref="AA8:AA10" si="14">Z8</f>
         <v>7.5</v>
       </c>
       <c r="AB8" s="40">
@@ -17816,7 +17331,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="8">
-        <f t="shared" ref="AE8:AE22" si="15">AD8</f>
+        <f t="shared" ref="AE8:AE10" si="15">AD8</f>
         <v>0</v>
       </c>
       <c r="AF8" s="40">
@@ -18235,7 +17750,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" ref="O13:O27" si="16">N13</f>
+        <f t="shared" ref="O13:O15" si="16">N13</f>
         <v>0</v>
       </c>
       <c r="P13" s="40">
@@ -18247,7 +17762,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="8">
-        <f t="shared" ref="S13:S27" si="17">R13</f>
+        <f t="shared" ref="S13:S15" si="17">R13</f>
         <v>0</v>
       </c>
       <c r="T13" s="40">
@@ -18262,7 +17777,7 @@
         <v>0.5</v>
       </c>
       <c r="W13" s="8">
-        <f t="shared" ref="W13:W27" si="18">V13</f>
+        <f t="shared" ref="W13:W15" si="18">V13</f>
         <v>0.5</v>
       </c>
       <c r="X13" s="40">
@@ -18277,7 +17792,7 @@
         <v>1.7</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" ref="AA13:AA27" si="19">Z13</f>
+        <f t="shared" ref="AA13:AA15" si="19">Z13</f>
         <v>1.7</v>
       </c>
       <c r="AB13" s="40">
@@ -18292,7 +17807,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="8">
-        <f t="shared" ref="AE13:AE27" si="20">AD13</f>
+        <f t="shared" ref="AE13:AE15" si="20">AD13</f>
         <v>1</v>
       </c>
       <c r="AF13" s="40">
@@ -19664,7 +19179,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="40">
-        <f t="shared" ref="P27:P29" si="45">O19</f>
+        <f t="shared" ref="P27" si="45">O19</f>
         <v>0</v>
       </c>
       <c r="R27" s="5">
@@ -19676,7 +19191,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="40">
-        <f t="shared" ref="T27:T29" si="46">S19</f>
+        <f t="shared" ref="T27" si="46">S19</f>
         <v>0</v>
       </c>
       <c r="U27" s="4">
@@ -19691,7 +19206,7 @@
         <v>25</v>
       </c>
       <c r="X27" s="40">
-        <f t="shared" ref="X27:X29" si="47">W19</f>
+        <f t="shared" ref="X27" si="47">W19</f>
         <v>25</v>
       </c>
       <c r="Y27" s="4">
@@ -19706,7 +19221,7 @@
         <v>55</v>
       </c>
       <c r="AB27" s="40">
-        <f t="shared" ref="AB27:AB29" si="48">AA19</f>
+        <f t="shared" ref="AB27" si="48">AA19</f>
         <v>50</v>
       </c>
       <c r="AC27" s="4">
@@ -19721,7 +19236,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="40">
-        <f t="shared" ref="AF27:AF29" si="49">AE19</f>
+        <f t="shared" ref="AF27" si="49">AE19</f>
         <v>78</v>
       </c>
     </row>
@@ -20181,7 +19696,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" ref="O32:O39" si="61">N32</f>
+        <f t="shared" ref="O32:O33" si="61">N32</f>
         <v>0</v>
       </c>
       <c r="P32" s="40">
@@ -20193,7 +19708,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="8">
-        <f t="shared" ref="S32:S39" si="62">R32</f>
+        <f t="shared" ref="S32:S33" si="62">R32</f>
         <v>0</v>
       </c>
       <c r="T32" s="40">
@@ -20208,7 +19723,7 @@
         <v>4</v>
       </c>
       <c r="W32" s="8">
-        <f t="shared" ref="W32:W39" si="63">V32</f>
+        <f t="shared" ref="W32:W33" si="63">V32</f>
         <v>4</v>
       </c>
       <c r="X32" s="40">
@@ -20223,7 +19738,7 @@
         <v>15</v>
       </c>
       <c r="AA32" s="8">
-        <f t="shared" ref="AA32:AA39" si="64">Z32</f>
+        <f t="shared" ref="AA32:AA33" si="64">Z32</f>
         <v>15</v>
       </c>
       <c r="AB32" s="40">
@@ -20235,7 +19750,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="8">
-        <f t="shared" ref="AE32:AE39" si="65">AD32</f>
+        <f t="shared" ref="AE32:AE33" si="65">AD32</f>
         <v>0</v>
       </c>
       <c r="AF32" s="40">
@@ -20383,75 +19898,75 @@
         <v>5</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" ref="N34:N58" si="69">$F34*M34</f>
+        <f t="shared" ref="N34:N39" si="69">$F34*M34</f>
         <v>1.25</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" ref="O34:O37" si="70">$G34*N34</f>
+        <f t="shared" ref="O34" si="70">$G34*N34</f>
         <v>2.5</v>
       </c>
       <c r="P34" s="41">
-        <f t="shared" ref="P34:P55" si="71">$H34*O34</f>
+        <f t="shared" ref="P34" si="71">$H34*O34</f>
         <v>5</v>
       </c>
       <c r="Q34" s="4">
         <v>3</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" ref="R34:R58" si="72">$F34*Q34</f>
+        <f t="shared" ref="R34:R39" si="72">$F34*Q34</f>
         <v>0.75</v>
       </c>
       <c r="S34" s="8">
-        <f t="shared" ref="S34:S37" si="73">$G34*R34</f>
+        <f t="shared" ref="S34" si="73">$G34*R34</f>
         <v>1.5</v>
       </c>
       <c r="T34" s="41">
-        <f t="shared" ref="T34:T55" si="74">$H34*S34</f>
+        <f t="shared" ref="T34" si="74">$H34*S34</f>
         <v>3</v>
       </c>
       <c r="U34" s="4">
         <v>5</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" ref="V34:V58" si="75">$F34*U34</f>
+        <f t="shared" ref="V34:V39" si="75">$F34*U34</f>
         <v>1.25</v>
       </c>
       <c r="W34" s="8">
-        <f t="shared" ref="W34:W37" si="76">$G34*V34</f>
+        <f t="shared" ref="W34" si="76">$G34*V34</f>
         <v>2.5</v>
       </c>
       <c r="X34" s="41">
-        <f t="shared" ref="X34:X55" si="77">$H34*W34</f>
+        <f t="shared" ref="X34" si="77">$H34*W34</f>
         <v>5</v>
       </c>
       <c r="Y34" s="4">
         <v>6</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" ref="Z34:Z58" si="78">$F34*Y34</f>
+        <f t="shared" ref="Z34:Z39" si="78">$F34*Y34</f>
         <v>1.5</v>
       </c>
       <c r="AA34" s="8">
-        <f t="shared" ref="AA34:AA37" si="79">$G34*Z34</f>
+        <f t="shared" ref="AA34" si="79">$G34*Z34</f>
         <v>3</v>
       </c>
       <c r="AB34" s="41">
-        <f t="shared" ref="AB34:AB55" si="80">$H34*AA34</f>
+        <f t="shared" ref="AB34" si="80">$H34*AA34</f>
         <v>6</v>
       </c>
       <c r="AC34" s="4">
         <v>5</v>
       </c>
       <c r="AD34" s="5">
-        <f t="shared" ref="AD34:AD58" si="81">$F34*AC34</f>
+        <f t="shared" ref="AD34:AD39" si="81">$F34*AC34</f>
         <v>1.25</v>
       </c>
       <c r="AE34" s="8">
-        <f t="shared" ref="AE34:AE37" si="82">$G34*AD34</f>
+        <f t="shared" ref="AE34" si="82">$G34*AD34</f>
         <v>2.5</v>
       </c>
       <c r="AF34" s="41">
-        <f t="shared" ref="AF34:AF55" si="83">$H34*AE34</f>
+        <f t="shared" ref="AF34" si="83">$H34*AE34</f>
         <v>5</v>
       </c>
     </row>
@@ -20739,11 +20254,11 @@
         <v>0.5</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" ref="O37:O40" si="84">$G37*N37</f>
+        <f t="shared" ref="O37" si="84">$G37*N37</f>
         <v>1</v>
       </c>
       <c r="P37" s="41">
-        <f t="shared" ref="P37:P58" si="85">$H37*O37</f>
+        <f t="shared" ref="P37" si="85">$H37*O37</f>
         <v>2</v>
       </c>
       <c r="R37" s="5">
@@ -20751,11 +20266,11 @@
         <v>0</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" ref="S37:S40" si="86">$G37*R37</f>
+        <f t="shared" ref="S37" si="86">$G37*R37</f>
         <v>0</v>
       </c>
       <c r="T37" s="41">
-        <f t="shared" ref="T37:T58" si="87">$H37*S37</f>
+        <f t="shared" ref="T37" si="87">$H37*S37</f>
         <v>0</v>
       </c>
       <c r="U37" s="4">
@@ -20766,11 +20281,11 @@
         <v>0.25</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" ref="W37:W40" si="88">$G37*V37</f>
+        <f t="shared" ref="W37" si="88">$G37*V37</f>
         <v>0.5</v>
       </c>
       <c r="X37" s="41">
-        <f t="shared" ref="X37:X58" si="89">$H37*W37</f>
+        <f t="shared" ref="X37" si="89">$H37*W37</f>
         <v>1</v>
       </c>
       <c r="Z37" s="5">
@@ -20778,11 +20293,11 @@
         <v>0</v>
       </c>
       <c r="AA37" s="8">
-        <f t="shared" ref="AA37:AA40" si="90">$G37*Z37</f>
+        <f t="shared" ref="AA37" si="90">$G37*Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="41">
-        <f t="shared" ref="AB37:AB58" si="91">$H37*AA37</f>
+        <f t="shared" ref="AB37" si="91">$H37*AA37</f>
         <v>0</v>
       </c>
       <c r="AD37" s="5">
@@ -20790,11 +20305,11 @@
         <v>0</v>
       </c>
       <c r="AE37" s="8">
-        <f t="shared" ref="AE37:AE40" si="92">$G37*AD37</f>
+        <f t="shared" ref="AE37" si="92">$G37*AD37</f>
         <v>0</v>
       </c>
       <c r="AF37" s="41">
-        <f t="shared" ref="AF37:AF58" si="93">$H37*AE37</f>
+        <f t="shared" ref="AF37" si="93">$H37*AE37</f>
         <v>0</v>
       </c>
     </row>
@@ -21163,7 +20678,7 @@
         <v>0.05</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" ref="N41:N65" si="100">$F41*M41</f>
+        <f t="shared" ref="N41:N47" si="100">$F41*M41</f>
         <v>0</v>
       </c>
       <c r="O41" s="8">
@@ -21178,7 +20693,7 @@
         <v>1</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" ref="R41:R65" si="101">$F41*Q41</f>
+        <f t="shared" ref="R41:R47" si="101">$F41*Q41</f>
         <v>0.25</v>
       </c>
       <c r="S41" s="8">
@@ -21193,7 +20708,7 @@
         <v>0.01</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" ref="V41:V65" si="102">$F41*U41</f>
+        <f t="shared" ref="V41:V47" si="102">$F41*U41</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="W41" s="8">
@@ -21208,7 +20723,7 @@
         <v>0.4</v>
       </c>
       <c r="Z41" s="5">
-        <f t="shared" ref="Z41:Z65" si="103">$F41*Y41</f>
+        <f t="shared" ref="Z41:Z47" si="103">$F41*Y41</f>
         <v>0.1</v>
       </c>
       <c r="AA41" s="8">
@@ -21223,7 +20738,7 @@
         <v>0.1</v>
       </c>
       <c r="AD41" s="5">
-        <f t="shared" ref="AD41:AD65" si="104">$F41*AC41</f>
+        <f t="shared" ref="AD41:AD47" si="104">$F41*AC41</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AE41" s="8">
@@ -21943,7 +21458,7 @@
         <v>0.3125</v>
       </c>
       <c r="P48" s="41">
-        <f t="shared" ref="P48:P69" si="107">$H48*O48</f>
+        <f t="shared" ref="P48:P55" si="107">$H48*O48</f>
         <v>1</v>
       </c>
       <c r="R48" s="5">
@@ -21955,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="41">
-        <f t="shared" ref="T48:T69" si="109">$H48*S48</f>
+        <f t="shared" ref="T48:T55" si="109">$H48*S48</f>
         <v>0</v>
       </c>
       <c r="U48" s="4">
@@ -21970,7 +21485,7 @@
         <v>0.15625</v>
       </c>
       <c r="X48" s="41">
-        <f t="shared" ref="X48:X69" si="111">$H48*W48</f>
+        <f t="shared" ref="X48:X55" si="111">$H48*W48</f>
         <v>0.5</v>
       </c>
       <c r="Y48" s="4">
@@ -21985,7 +21500,7 @@
         <v>0.3125</v>
       </c>
       <c r="AB48" s="41">
-        <f t="shared" ref="AB48:AB69" si="113">$H48*AA48</f>
+        <f t="shared" ref="AB48:AB55" si="113">$H48*AA48</f>
         <v>1</v>
       </c>
       <c r="AC48" s="4">
@@ -22000,7 +21515,7 @@
         <v>0.15625</v>
       </c>
       <c r="AF48" s="41">
-        <f t="shared" ref="AF48:AF69" si="115">$H48*AE48</f>
+        <f t="shared" ref="AF48:AF55" si="115">$H48*AE48</f>
         <v>0.5</v>
       </c>
     </row>
@@ -22050,7 +21565,7 @@
         <v>50</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" ref="N49:N73" si="116">$F49*M49</f>
+        <f t="shared" ref="N49:N58" si="116">$F49*M49</f>
         <v>12.5</v>
       </c>
       <c r="O49" s="8">
@@ -22062,7 +21577,7 @@
         <v>50</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" ref="R49:R73" si="117">$F49*Q49</f>
+        <f t="shared" ref="R49:R58" si="117">$F49*Q49</f>
         <v>0</v>
       </c>
       <c r="S49" s="8">
@@ -22077,7 +21592,7 @@
         <v>30</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" ref="V49:V73" si="118">$F49*U49</f>
+        <f t="shared" ref="V49:V58" si="118">$F49*U49</f>
         <v>7.5</v>
       </c>
       <c r="W49" s="8">
@@ -22092,7 +21607,7 @@
         <v>40</v>
       </c>
       <c r="Z49" s="5">
-        <f t="shared" ref="Z49:Z73" si="119">$F49*Y49</f>
+        <f t="shared" ref="Z49:Z58" si="119">$F49*Y49</f>
         <v>10</v>
       </c>
       <c r="AA49" s="8">
@@ -22107,7 +21622,7 @@
         <v>15</v>
       </c>
       <c r="AD49" s="5">
-        <f t="shared" ref="AD49:AD73" si="120">$F49*AC49</f>
+        <f t="shared" ref="AD49:AD58" si="120">$F49*AC49</f>
         <v>3.75</v>
       </c>
       <c r="AE49" s="8">
@@ -23261,7 +22776,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="40">
-        <f t="shared" ref="P60:P78" si="127">O60</f>
+        <f t="shared" ref="P60:P77" si="127">O60</f>
         <v>0</v>
       </c>
       <c r="R60" s="5">
@@ -23273,7 +22788,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="40">
-        <f t="shared" ref="T60:T78" si="128">S60</f>
+        <f t="shared" ref="T60:T77" si="128">S60</f>
         <v>0</v>
       </c>
       <c r="U60" s="4">
@@ -23288,7 +22803,7 @@
         <v>2</v>
       </c>
       <c r="X60" s="40">
-        <f t="shared" ref="X60:X78" si="129">W60</f>
+        <f t="shared" ref="X60:X77" si="129">W60</f>
         <v>2</v>
       </c>
       <c r="Z60" s="5">
@@ -23300,7 +22815,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="40">
-        <f t="shared" ref="AB60:AB78" si="130">AA60</f>
+        <f t="shared" ref="AB60:AB77" si="130">AA60</f>
         <v>0</v>
       </c>
       <c r="AD60" s="5">
@@ -23312,7 +22827,7 @@
         <v>0</v>
       </c>
       <c r="AF60" s="40">
-        <f t="shared" ref="AF60:AF78" si="131">AE60</f>
+        <f t="shared" ref="AF60:AF77" si="131">AE60</f>
         <v>0</v>
       </c>
     </row>
@@ -25097,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="N79" s="5">
-        <f t="shared" ref="N79:N84" si="148">$F79*M79</f>
+        <f t="shared" ref="N79:N83" si="148">$F79*M79</f>
         <v>0</v>
       </c>
       <c r="O79" s="8">
@@ -25105,11 +24620,11 @@
         <v>0</v>
       </c>
       <c r="P79" s="41">
-        <f t="shared" ref="P79:P84" si="150">$H79*O79</f>
+        <f t="shared" ref="P79" si="150">$H79*O79</f>
         <v>0</v>
       </c>
       <c r="R79" s="5">
-        <f t="shared" ref="R79:R84" si="151">$F79*Q79</f>
+        <f t="shared" ref="R79:R83" si="151">$F79*Q79</f>
         <v>0</v>
       </c>
       <c r="S79" s="8">
@@ -25117,14 +24632,14 @@
         <v>0</v>
       </c>
       <c r="T79" s="41">
-        <f t="shared" ref="T79:T84" si="153">$H79*S79</f>
+        <f t="shared" ref="T79" si="153">$H79*S79</f>
         <v>0</v>
       </c>
       <c r="U79" s="4">
         <v>5</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" ref="V79:V84" si="154">$F79*U79</f>
+        <f t="shared" ref="V79:V83" si="154">$F79*U79</f>
         <v>1.25</v>
       </c>
       <c r="W79" s="8">
@@ -25132,11 +24647,11 @@
         <v>1.875</v>
       </c>
       <c r="X79" s="41">
-        <f t="shared" ref="X79:X84" si="156">$H79*W79</f>
+        <f t="shared" ref="X79" si="156">$H79*W79</f>
         <v>5</v>
       </c>
       <c r="Z79" s="5">
-        <f t="shared" ref="Z79:Z84" si="157">$F79*Y79</f>
+        <f t="shared" ref="Z79:Z83" si="157">$F79*Y79</f>
         <v>0</v>
       </c>
       <c r="AA79" s="8">
@@ -25144,11 +24659,11 @@
         <v>0</v>
       </c>
       <c r="AB79" s="41">
-        <f t="shared" ref="AB79:AB84" si="159">$H79*AA79</f>
+        <f t="shared" ref="AB79" si="159">$H79*AA79</f>
         <v>0</v>
       </c>
       <c r="AD79" s="5">
-        <f t="shared" ref="AD79:AD84" si="160">$F79*AC79</f>
+        <f t="shared" ref="AD79:AD83" si="160">$F79*AC79</f>
         <v>0</v>
       </c>
       <c r="AE79" s="8">
@@ -25156,7 +24671,7 @@
         <v>0</v>
       </c>
       <c r="AF79" s="41">
-        <f t="shared" ref="AF79:AF84" si="162">$H79*AE79</f>
+        <f t="shared" ref="AF79" si="162">$H79*AE79</f>
         <v>0</v>
       </c>
     </row>
@@ -25332,7 +24847,7 @@
         <v>22.5</v>
       </c>
       <c r="P81" s="41">
-        <f t="shared" ref="P81:P86" si="163">$H81*O81</f>
+        <f t="shared" ref="P81:P83" si="163">$H81*O81</f>
         <v>60</v>
       </c>
       <c r="Q81" s="4">
@@ -25347,7 +24862,7 @@
         <v>1.875</v>
       </c>
       <c r="T81" s="41">
-        <f t="shared" ref="T81:T86" si="164">$H81*S81</f>
+        <f t="shared" ref="T81:T83" si="164">$H81*S81</f>
         <v>5</v>
       </c>
       <c r="U81" s="4">
@@ -25362,7 +24877,7 @@
         <v>5.625</v>
       </c>
       <c r="X81" s="41">
-        <f t="shared" ref="X81:X86" si="165">$H81*W81</f>
+        <f t="shared" ref="X81:X83" si="165">$H81*W81</f>
         <v>15</v>
       </c>
       <c r="Y81" s="4">
@@ -25377,7 +24892,7 @@
         <v>33.75</v>
       </c>
       <c r="AB81" s="41">
-        <f t="shared" ref="AB81:AB86" si="166">$H81*AA81</f>
+        <f t="shared" ref="AB81:AB83" si="166">$H81*AA81</f>
         <v>90</v>
       </c>
       <c r="AC81" s="4">
@@ -25392,7 +24907,7 @@
         <v>26.25</v>
       </c>
       <c r="AF81" s="41">
-        <f t="shared" ref="AF81:AF86" si="167">$H81*AE81</f>
+        <f t="shared" ref="AF81:AF83" si="167">$H81*AE81</f>
         <v>70</v>
       </c>
     </row>
@@ -26584,8 +26099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/specifications/1_Fire/ScriptRules_Fire.xlsx
+++ b/specifications/1_Fire/ScriptRules_Fire.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\LANDFIRE\landfiredisturbance\specifications\1_Fire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\LF\landfiredisturbance\specifications\1_Fire\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16497,8 +16497,8 @@
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="450" activePane="bottomLeft"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="R34" sqref="R34"/>
+      <selection activeCell="E1" sqref="E1:N1048576"/>
+      <selection pane="bottomLeft" activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16508,14 +16508,14 @@
     <col min="3" max="3" width="28.42578125" style="44" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" style="56" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="44" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="56" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="57" customWidth="1"/>
+    <col min="10" max="10" width="14" style="44" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="44" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="56" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" style="57" customWidth="1"/>
     <col min="14" max="14" width="14" style="44" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.5703125" style="44" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.5703125" style="56" bestFit="1" customWidth="1"/>
@@ -20511,7 +20511,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="H42" s="8">
-        <f>$D42*G42</f>
+        <f>MIN(100,$D42*G42)</f>
         <v>1.0499999999999998</v>
       </c>
       <c r="I42" s="41">
@@ -20523,7 +20523,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="8">
-        <f>$D42*K42</f>
+        <f>MIN(100,$D42*K42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="41">
@@ -20538,12 +20538,12 @@
         <v>22.5</v>
       </c>
       <c r="P42" s="8">
-        <f>$D42*O42</f>
-        <v>135</v>
+        <f>MIN(100,$D42*O42)</f>
+        <v>100</v>
       </c>
       <c r="Q42" s="41">
         <f t="shared" si="85"/>
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="R42" s="4">
         <v>2</v>
@@ -20553,7 +20553,7 @@
         <v>0.5</v>
       </c>
       <c r="T42" s="8">
-        <f>$D42*S42</f>
+        <f>MIN(100,$D42*S42)</f>
         <v>3</v>
       </c>
       <c r="U42" s="41">
@@ -20568,7 +20568,7 @@
         <v>7.5</v>
       </c>
       <c r="X42" s="8">
-        <f>$D42*W42</f>
+        <f>MIN(100,$D42*W42)</f>
         <v>45</v>
       </c>
       <c r="Y42" s="41">
@@ -20583,7 +20583,7 @@
         <v>5</v>
       </c>
       <c r="AB42" s="8">
-        <f>$D42*AA42</f>
+        <f>MIN(100,$D42*AA42)</f>
         <v>30</v>
       </c>
       <c r="AC42" s="41">
@@ -20921,7 +20921,7 @@
         <v>0.05</v>
       </c>
       <c r="H46" s="8">
-        <f>$D46*G46</f>
+        <f>MIN(100,$D46*G46)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="I46" s="41">
@@ -20933,7 +20933,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="8">
-        <f>$D46*K46</f>
+        <f>MIN(100,$D46*K46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="41">
@@ -20948,7 +20948,7 @@
         <v>2</v>
       </c>
       <c r="P46" s="8">
-        <f>$D46*O46</f>
+        <f>MIN(100,$D46*O46)</f>
         <v>12</v>
       </c>
       <c r="Q46" s="41">
@@ -20963,7 +20963,7 @@
         <v>1.25</v>
       </c>
       <c r="T46" s="8">
-        <f>$D46*S46</f>
+        <f>MIN(100,$D46*S46)</f>
         <v>7.5</v>
       </c>
       <c r="U46" s="41">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="8">
-        <f>$D46*W46</f>
+        <f>MIN(100,$D46*W46)</f>
         <v>0</v>
       </c>
       <c r="Y46" s="41">
@@ -20990,7 +20990,7 @@
         <v>5</v>
       </c>
       <c r="AB46" s="8">
-        <f>$D46*AA46</f>
+        <f>MIN(100,$D46*AA46)</f>
         <v>30</v>
       </c>
       <c r="AC46" s="41">
@@ -21129,7 +21129,7 @@
         <v>1.25</v>
       </c>
       <c r="I48" s="41">
-        <f>$E48*H48</f>
+        <f t="shared" ref="I48:I55" si="95">$E48*H48</f>
         <v>4</v>
       </c>
       <c r="J48" s="4">
@@ -21140,11 +21140,11 @@
         <v>0.25</v>
       </c>
       <c r="L48" s="8">
-        <f t="shared" ref="L48:L55" si="95">$D48*K48</f>
+        <f t="shared" ref="L48:L55" si="96">$D48*K48</f>
         <v>0.3125</v>
       </c>
       <c r="M48" s="41">
-        <f>$E48*L48</f>
+        <f t="shared" ref="M48:M55" si="97">$E48*L48</f>
         <v>1</v>
       </c>
       <c r="O48" s="5">
@@ -21152,11 +21152,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="8">
-        <f t="shared" ref="P48:P55" si="96">$D48*O48</f>
+        <f t="shared" ref="P48:P55" si="98">$D48*O48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="41">
-        <f>$E48*P48</f>
+        <f t="shared" ref="Q48:Q55" si="99">$E48*P48</f>
         <v>0</v>
       </c>
       <c r="R48" s="4">
@@ -21167,11 +21167,11 @@
         <v>0.125</v>
       </c>
       <c r="T48" s="8">
-        <f t="shared" ref="T48:T55" si="97">$D48*S48</f>
+        <f t="shared" ref="T48:T55" si="100">$D48*S48</f>
         <v>0.15625</v>
       </c>
       <c r="U48" s="41">
-        <f>$E48*T48</f>
+        <f t="shared" ref="U48:U55" si="101">$E48*T48</f>
         <v>0.5</v>
       </c>
       <c r="V48" s="4">
@@ -21182,11 +21182,11 @@
         <v>0.25</v>
       </c>
       <c r="X48" s="8">
-        <f t="shared" ref="X48:X55" si="98">$D48*W48</f>
+        <f t="shared" ref="X48:X55" si="102">$D48*W48</f>
         <v>0.3125</v>
       </c>
       <c r="Y48" s="41">
-        <f>$E48*X48</f>
+        <f t="shared" ref="Y48:Y55" si="103">$E48*X48</f>
         <v>1</v>
       </c>
       <c r="Z48" s="4">
@@ -21197,11 +21197,11 @@
         <v>0.125</v>
       </c>
       <c r="AB48" s="8">
-        <f t="shared" ref="AB48:AB55" si="99">$D48*AA48</f>
+        <f t="shared" ref="AB48:AB55" si="104">$D48*AA48</f>
         <v>0.15625</v>
       </c>
       <c r="AC48" s="41">
-        <f>$E48*AB48</f>
+        <f t="shared" ref="AC48:AC55" si="105">$E48*AB48</f>
         <v>0.5</v>
       </c>
     </row>
@@ -21235,79 +21235,79 @@
         <v>21.875</v>
       </c>
       <c r="I49" s="41">
-        <f>$E49*H49</f>
+        <f t="shared" si="95"/>
         <v>70</v>
       </c>
       <c r="J49" s="4">
         <v>50</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" ref="K49:K73" si="100">$C49*J49</f>
+        <f t="shared" ref="K49:K73" si="106">$C49*J49</f>
         <v>12.5</v>
       </c>
       <c r="L49" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>15.625</v>
       </c>
       <c r="M49" s="41">
-        <f>$E49*L49</f>
+        <f t="shared" si="97"/>
         <v>50</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" ref="O49:O73" si="101">$C49*N49</f>
+        <f t="shared" ref="O49:O73" si="107">$C49*N49</f>
         <v>0</v>
       </c>
       <c r="P49" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q49" s="41">
-        <f>$E49*P49</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="R49" s="4">
         <v>30</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" ref="S49:S73" si="102">$C49*R49</f>
+        <f t="shared" ref="S49:S73" si="108">$C49*R49</f>
         <v>7.5</v>
       </c>
       <c r="T49" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>9.375</v>
       </c>
       <c r="U49" s="41">
-        <f>$E49*T49</f>
+        <f t="shared" si="101"/>
         <v>30</v>
       </c>
       <c r="V49" s="4">
         <v>40</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" ref="W49:W73" si="103">$C49*V49</f>
+        <f t="shared" ref="W49:W73" si="109">$C49*V49</f>
         <v>10</v>
       </c>
       <c r="X49" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>12.5</v>
       </c>
       <c r="Y49" s="41">
-        <f>$E49*X49</f>
+        <f t="shared" si="103"/>
         <v>40</v>
       </c>
       <c r="Z49" s="4">
         <v>15</v>
       </c>
       <c r="AA49" s="5">
-        <f t="shared" ref="AA49:AA73" si="104">$C49*Z49</f>
+        <f t="shared" ref="AA49:AA73" si="110">$C49*Z49</f>
         <v>3.75</v>
       </c>
       <c r="AB49" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>4.6875</v>
       </c>
       <c r="AC49" s="41">
-        <f>$E49*AB49</f>
+        <f t="shared" si="105"/>
         <v>15</v>
       </c>
     </row>
@@ -21341,79 +21341,79 @@
         <v>0.625</v>
       </c>
       <c r="I50" s="41">
-        <f>$E50*H50</f>
+        <f t="shared" si="95"/>
         <v>2</v>
       </c>
       <c r="J50" s="4">
         <v>1</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0.25</v>
       </c>
       <c r="L50" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.3125</v>
       </c>
       <c r="M50" s="41">
-        <f>$E50*L50</f>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P50" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q50" s="41">
-        <f>$E50*P50</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="R50" s="4">
         <v>0.5</v>
       </c>
       <c r="S50" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0.125</v>
       </c>
       <c r="T50" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.15625</v>
       </c>
       <c r="U50" s="41">
-        <f>$E50*T50</f>
+        <f t="shared" si="101"/>
         <v>0.5</v>
       </c>
       <c r="V50" s="4">
         <v>1</v>
       </c>
       <c r="W50" s="5">
+        <f t="shared" si="109"/>
+        <v>0.25</v>
+      </c>
+      <c r="X50" s="8">
+        <f t="shared" si="102"/>
+        <v>0.3125</v>
+      </c>
+      <c r="Y50" s="41">
         <f t="shared" si="103"/>
-        <v>0.25</v>
-      </c>
-      <c r="X50" s="8">
-        <f t="shared" si="98"/>
-        <v>0.3125</v>
-      </c>
-      <c r="Y50" s="41">
-        <f>$E50*X50</f>
         <v>1</v>
       </c>
       <c r="Z50" s="4">
         <v>0.3</v>
       </c>
       <c r="AA50" s="5">
+        <f t="shared" si="110"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AB50" s="8">
         <f t="shared" si="104"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AB50" s="8">
-        <f t="shared" si="99"/>
         <v>9.375E-2</v>
       </c>
       <c r="AC50" s="41">
-        <f>$E50*AB50</f>
+        <f t="shared" si="105"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -21447,79 +21447,79 @@
         <v>0.46875</v>
       </c>
       <c r="I51" s="41">
-        <f>$E51*H51</f>
+        <f t="shared" si="95"/>
         <v>1.5</v>
       </c>
       <c r="J51" s="4">
         <v>1</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0.25</v>
       </c>
       <c r="L51" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.3125</v>
       </c>
       <c r="M51" s="41">
-        <f>$E51*L51</f>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="O51" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P51" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q51" s="41">
-        <f>$E51*P51</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="R51" s="4">
         <v>0.2</v>
       </c>
       <c r="S51" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0.05</v>
       </c>
       <c r="T51" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>6.25E-2</v>
       </c>
       <c r="U51" s="41">
-        <f>$E51*T51</f>
+        <f t="shared" si="101"/>
         <v>0.2</v>
       </c>
       <c r="V51" s="4">
         <v>0.5</v>
       </c>
       <c r="W51" s="5">
+        <f t="shared" si="109"/>
+        <v>0.125</v>
+      </c>
+      <c r="X51" s="8">
+        <f t="shared" si="102"/>
+        <v>0.15625</v>
+      </c>
+      <c r="Y51" s="41">
         <f t="shared" si="103"/>
-        <v>0.125</v>
-      </c>
-      <c r="X51" s="8">
-        <f t="shared" si="98"/>
-        <v>0.15625</v>
-      </c>
-      <c r="Y51" s="41">
-        <f>$E51*X51</f>
         <v>0.5</v>
       </c>
       <c r="Z51" s="4">
         <v>0.4</v>
       </c>
       <c r="AA51" s="5">
+        <f t="shared" si="110"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB51" s="8">
         <f t="shared" si="104"/>
-        <v>0.1</v>
-      </c>
-      <c r="AB51" s="8">
-        <f t="shared" si="99"/>
         <v>0.125</v>
       </c>
       <c r="AC51" s="41">
-        <f>$E51*AB51</f>
+        <f t="shared" si="105"/>
         <v>0.4</v>
       </c>
     </row>
@@ -21553,79 +21553,79 @@
         <v>0.3125</v>
       </c>
       <c r="I52" s="41">
-        <f>$E52*H52</f>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
       <c r="J52" s="4">
         <v>0.5</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0.125</v>
       </c>
       <c r="L52" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.15625</v>
       </c>
       <c r="M52" s="41">
-        <f>$E52*L52</f>
+        <f t="shared" si="97"/>
         <v>0.5</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P52" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q52" s="41">
-        <f>$E52*P52</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="R52" s="4">
         <v>0.1</v>
       </c>
       <c r="S52" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="T52" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>3.125E-2</v>
       </c>
       <c r="U52" s="41">
-        <f>$E52*T52</f>
+        <f t="shared" si="101"/>
         <v>0.1</v>
       </c>
       <c r="V52" s="4">
         <v>0.3</v>
       </c>
       <c r="W52" s="5">
+        <f t="shared" si="109"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X52" s="8">
+        <f t="shared" si="102"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="Y52" s="41">
         <f t="shared" si="103"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="X52" s="8">
-        <f t="shared" si="98"/>
-        <v>9.375E-2</v>
-      </c>
-      <c r="Y52" s="41">
-        <f>$E52*X52</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="Z52" s="4">
         <v>0.02</v>
       </c>
       <c r="AA52" s="5">
+        <f t="shared" si="110"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AB52" s="8">
         <f t="shared" si="104"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AB52" s="8">
-        <f t="shared" si="99"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="AC52" s="41">
-        <f>$E52*AB52</f>
+        <f t="shared" si="105"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
@@ -21658,79 +21658,79 @@
         <v>3.375</v>
       </c>
       <c r="I53" s="41">
-        <f>$E53*H53</f>
+        <f t="shared" si="95"/>
         <v>1.6875</v>
       </c>
       <c r="J53" s="4">
         <v>0</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L53" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M53" s="41">
-        <f>$E53*L53</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="O53" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P53" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q53" s="41">
-        <f>$E53*P53</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="R53" s="4">
         <v>1</v>
       </c>
       <c r="S53" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0.75</v>
       </c>
       <c r="T53" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.5625</v>
       </c>
       <c r="U53" s="41">
-        <f>$E53*T53</f>
+        <f t="shared" si="101"/>
         <v>0.28125</v>
       </c>
       <c r="V53" s="4">
         <v>1.2</v>
       </c>
       <c r="W53" s="5">
+        <f t="shared" si="109"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="X53" s="8">
+        <f t="shared" si="102"/>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="Y53" s="41">
         <f t="shared" si="103"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="X53" s="8">
-        <f t="shared" si="98"/>
-        <v>0.67499999999999993</v>
-      </c>
-      <c r="Y53" s="41">
-        <f>$E53*X53</f>
         <v>0.33749999999999997</v>
       </c>
       <c r="Z53" s="4">
         <v>0.5</v>
       </c>
       <c r="AA53" s="5">
+        <f t="shared" si="110"/>
+        <v>0.375</v>
+      </c>
+      <c r="AB53" s="8">
         <f t="shared" si="104"/>
-        <v>0.375</v>
-      </c>
-      <c r="AB53" s="8">
-        <f t="shared" si="99"/>
         <v>0.28125</v>
       </c>
       <c r="AC53" s="41">
-        <f>$E53*AB53</f>
+        <f t="shared" si="105"/>
         <v>0.140625</v>
       </c>
     </row>
@@ -21763,79 +21763,79 @@
         <v>6.75</v>
       </c>
       <c r="I54" s="41">
-        <f>$E54*H54</f>
+        <f t="shared" si="95"/>
         <v>3.375</v>
       </c>
       <c r="J54" s="4">
         <v>0</v>
       </c>
       <c r="K54" s="5">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="41">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="5">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="8">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="41">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="4">
+        <v>0</v>
+      </c>
+      <c r="S54" s="5">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="8">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="L54" s="8">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="41">
-        <f>$E54*L54</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="5">
+      <c r="U54" s="41">
         <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="8">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="41">
-        <f>$E54*P54</f>
-        <v>0</v>
-      </c>
-      <c r="R54" s="4">
-        <v>0</v>
-      </c>
-      <c r="S54" s="5">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="8">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="41">
-        <f>$E54*T54</f>
         <v>0</v>
       </c>
       <c r="V54" s="4">
         <v>0.5</v>
       </c>
       <c r="W54" s="5">
+        <f t="shared" si="109"/>
+        <v>0.375</v>
+      </c>
+      <c r="X54" s="8">
+        <f t="shared" si="102"/>
+        <v>0.28125</v>
+      </c>
+      <c r="Y54" s="41">
         <f t="shared" si="103"/>
-        <v>0.375</v>
-      </c>
-      <c r="X54" s="8">
-        <f t="shared" si="98"/>
-        <v>0.28125</v>
-      </c>
-      <c r="Y54" s="41">
-        <f>$E54*X54</f>
         <v>0.140625</v>
       </c>
       <c r="Z54" s="4">
         <v>0</v>
       </c>
       <c r="AA54" s="5">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="8">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="AB54" s="8">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
       <c r="AC54" s="41">
-        <f>$E54*AB54</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -21868,79 +21868,79 @@
         <v>0</v>
       </c>
       <c r="I55" s="41">
-        <f>$E55*H55</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="J55" s="4">
         <v>0</v>
       </c>
       <c r="K55" s="5">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="41">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="5">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="8">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="41">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="4">
+        <v>0</v>
+      </c>
+      <c r="S55" s="5">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="8">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="L55" s="8">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="41">
-        <f>$E55*L55</f>
-        <v>0</v>
-      </c>
-      <c r="O55" s="5">
+      <c r="U55" s="41">
         <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="8">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="41">
-        <f>$E55*P55</f>
-        <v>0</v>
-      </c>
-      <c r="R55" s="4">
-        <v>0</v>
-      </c>
-      <c r="S55" s="5">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="8">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="U55" s="41">
-        <f>$E55*T55</f>
         <v>0</v>
       </c>
       <c r="V55" s="4">
         <v>0.5</v>
       </c>
       <c r="W55" s="5">
+        <f t="shared" si="109"/>
+        <v>0.375</v>
+      </c>
+      <c r="X55" s="8">
+        <f t="shared" si="102"/>
+        <v>0.28125</v>
+      </c>
+      <c r="Y55" s="41">
         <f t="shared" si="103"/>
-        <v>0.375</v>
-      </c>
-      <c r="X55" s="8">
-        <f t="shared" si="98"/>
-        <v>0.28125</v>
-      </c>
-      <c r="Y55" s="41">
-        <f>$E55*X55</f>
         <v>0.140625</v>
       </c>
       <c r="Z55" s="4">
         <v>0</v>
       </c>
       <c r="AA55" s="5">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="8">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="AB55" s="8">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
       <c r="AC55" s="41">
-        <f>$E55*AB55</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -21977,7 +21977,7 @@
         <v>6.5625</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L56" s="8">
@@ -21989,7 +21989,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P56" s="8">
@@ -22004,7 +22004,7 @@
         <v>0.5</v>
       </c>
       <c r="S56" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0.375</v>
       </c>
       <c r="T56" s="8">
@@ -22019,7 +22019,7 @@
         <v>0.75</v>
       </c>
       <c r="W56" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.5625</v>
       </c>
       <c r="X56" s="8">
@@ -22031,7 +22031,7 @@
         <v>1.125</v>
       </c>
       <c r="AA56" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AB56" s="8">
@@ -22076,7 +22076,7 @@
         <v>13.875</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L57" s="8">
@@ -22088,7 +22088,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P57" s="8">
@@ -22103,7 +22103,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T57" s="8">
@@ -22118,7 +22118,7 @@
         <v>0.3</v>
       </c>
       <c r="W57" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0.22499999999999998</v>
       </c>
       <c r="X57" s="8">
@@ -22130,7 +22130,7 @@
         <v>0.45937499999999998</v>
       </c>
       <c r="AA57" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AB57" s="8">
@@ -22175,7 +22175,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L58" s="8">
@@ -22187,7 +22187,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P58" s="8">
@@ -22202,7 +22202,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T58" s="8">
@@ -22217,7 +22217,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="X58" s="8">
@@ -22229,7 +22229,7 @@
         <v>0.234375</v>
       </c>
       <c r="AA58" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AB58" s="8">
@@ -22260,7 +22260,7 @@
         <v>9.6</v>
       </c>
       <c r="H59" s="8">
-        <f t="shared" ref="H59:I77" si="105">G59</f>
+        <f t="shared" ref="H59:I77" si="111">G59</f>
         <v>9.6</v>
       </c>
       <c r="I59" s="40">
@@ -22272,7 +22272,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="8">
-        <f t="shared" ref="L59:L77" si="106">K59</f>
+        <f t="shared" ref="L59:L77" si="112">K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="40">
@@ -22284,7 +22284,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="8">
-        <f t="shared" ref="P59:P77" si="107">O59</f>
+        <f t="shared" ref="P59:P77" si="113">O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="40">
@@ -22299,7 +22299,7 @@
         <v>3.5</v>
       </c>
       <c r="T59" s="8">
-        <f t="shared" ref="T59:T77" si="108">S59</f>
+        <f t="shared" ref="T59:T77" si="114">S59</f>
         <v>3.5</v>
       </c>
       <c r="U59" s="40">
@@ -22311,7 +22311,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="8">
-        <f t="shared" ref="X59:X77" si="109">W59</f>
+        <f t="shared" ref="X59:X77" si="115">W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="40">
@@ -22323,7 +22323,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="8">
-        <f t="shared" ref="AB59:AB77" si="110">AA59</f>
+        <f t="shared" ref="AB59:AB77" si="116">AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="40">
@@ -22350,11 +22350,11 @@
         <v>0.4</v>
       </c>
       <c r="H60" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0.4</v>
       </c>
       <c r="I60" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0.4</v>
       </c>
       <c r="K60" s="5">
@@ -22362,11 +22362,11 @@
         <v>0</v>
       </c>
       <c r="L60" s="8">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M60" s="40">
-        <f t="shared" ref="M60:M78" si="111">L60</f>
+        <f t="shared" ref="M60:M78" si="117">L60</f>
         <v>0</v>
       </c>
       <c r="O60" s="5">
@@ -22374,11 +22374,11 @@
         <v>0</v>
       </c>
       <c r="P60" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q60" s="40">
-        <f t="shared" ref="Q60:Q78" si="112">P60</f>
+        <f t="shared" ref="Q60:Q78" si="118">P60</f>
         <v>0</v>
       </c>
       <c r="R60" s="4">
@@ -22389,11 +22389,11 @@
         <v>2</v>
       </c>
       <c r="T60" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
       <c r="U60" s="40">
-        <f t="shared" ref="U60:U78" si="113">T60</f>
+        <f t="shared" ref="U60:U78" si="119">T60</f>
         <v>2</v>
       </c>
       <c r="W60" s="5">
@@ -22401,11 +22401,11 @@
         <v>0</v>
       </c>
       <c r="X60" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Y60" s="40">
-        <f t="shared" ref="Y60:Y78" si="114">X60</f>
+        <f t="shared" ref="Y60:Y78" si="120">X60</f>
         <v>0</v>
       </c>
       <c r="AA60" s="5">
@@ -22413,11 +22413,11 @@
         <v>0</v>
       </c>
       <c r="AB60" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AC60" s="40">
-        <f t="shared" ref="AC60:AC78" si="115">AB60</f>
+        <f t="shared" ref="AC60:AC78" si="121">AB60</f>
         <v>0</v>
       </c>
     </row>
@@ -22440,11 +22440,11 @@
         <v>115</v>
       </c>
       <c r="H61" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>115</v>
       </c>
       <c r="I61" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>115</v>
       </c>
       <c r="K61" s="5">
@@ -22452,11 +22452,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="8">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M61" s="40">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="O61" s="5">
@@ -22464,11 +22464,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q61" s="40">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="R61" s="4">
@@ -22479,11 +22479,11 @@
         <v>50</v>
       </c>
       <c r="T61" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>50</v>
       </c>
       <c r="U61" s="40">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>50</v>
       </c>
       <c r="W61" s="5">
@@ -22491,11 +22491,11 @@
         <v>0</v>
       </c>
       <c r="X61" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Y61" s="40">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AA61" s="5">
@@ -22503,11 +22503,11 @@
         <v>0</v>
       </c>
       <c r="AB61" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AC61" s="40">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -22528,84 +22528,84 @@
         <v>9.6</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" ref="G62:G70" si="116">$C62*F62</f>
+        <f t="shared" ref="G62:G70" si="122">$C62*F62</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="H62" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="I62" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" ref="K62:K70" si="117">$C62*J62</f>
+        <f t="shared" ref="K62:K70" si="123">$C62*J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="8">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M62" s="40">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" ref="O62:O70" si="118">$C62*N62</f>
+        <f t="shared" ref="O62:O70" si="124">$C62*N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q62" s="40">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="R62" s="4">
         <v>3.5</v>
       </c>
       <c r="S62" s="5">
-        <f t="shared" ref="S62:S70" si="119">$C62*R62</f>
+        <f t="shared" ref="S62:S70" si="125">$C62*R62</f>
         <v>2.625</v>
       </c>
       <c r="T62" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>2.625</v>
       </c>
       <c r="U62" s="40">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>2.625</v>
       </c>
       <c r="V62" s="4">
         <v>10</v>
       </c>
       <c r="W62" s="5">
-        <f t="shared" ref="W62:W70" si="120">$C62*V62</f>
+        <f t="shared" ref="W62:W70" si="126">$C62*V62</f>
         <v>7.5</v>
       </c>
       <c r="X62" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>7.5</v>
       </c>
       <c r="Y62" s="40">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>7.5</v>
       </c>
       <c r="Z62" s="4">
         <v>10</v>
       </c>
       <c r="AA62" s="5">
-        <f t="shared" ref="AA62:AA70" si="121">$C62*Z62</f>
+        <f t="shared" ref="AA62:AA70" si="127">$C62*Z62</f>
         <v>7.5</v>
       </c>
       <c r="AB62" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>7.5</v>
       </c>
       <c r="AC62" s="40">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>7.5</v>
       </c>
     </row>
@@ -22626,84 +22626,84 @@
         <v>0.4</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="H63" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I63" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K63" s="5">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="8">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="40">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L63" s="8">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="40">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
       <c r="O63" s="5">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="8">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="40">
         <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="8">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="40">
-        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="R63" s="4">
         <v>2</v>
       </c>
       <c r="S63" s="5">
+        <f t="shared" si="125"/>
+        <v>1.5</v>
+      </c>
+      <c r="T63" s="8">
+        <f t="shared" si="114"/>
+        <v>1.5</v>
+      </c>
+      <c r="U63" s="40">
         <f t="shared" si="119"/>
         <v>1.5</v>
       </c>
-      <c r="T63" s="8">
-        <f t="shared" si="108"/>
-        <v>1.5</v>
-      </c>
-      <c r="U63" s="40">
-        <f t="shared" si="113"/>
-        <v>1.5</v>
-      </c>
       <c r="V63" s="4">
         <v>1</v>
       </c>
       <c r="W63" s="5">
+        <f t="shared" si="126"/>
+        <v>0.75</v>
+      </c>
+      <c r="X63" s="8">
+        <f t="shared" si="115"/>
+        <v>0.75</v>
+      </c>
+      <c r="Y63" s="40">
         <f t="shared" si="120"/>
         <v>0.75</v>
       </c>
-      <c r="X63" s="8">
-        <f t="shared" si="109"/>
-        <v>0.75</v>
-      </c>
-      <c r="Y63" s="40">
-        <f t="shared" si="114"/>
-        <v>0.75</v>
-      </c>
       <c r="Z63" s="4">
         <v>1</v>
       </c>
       <c r="AA63" s="5">
+        <f t="shared" si="127"/>
+        <v>0.75</v>
+      </c>
+      <c r="AB63" s="8">
+        <f t="shared" si="116"/>
+        <v>0.75</v>
+      </c>
+      <c r="AC63" s="40">
         <f t="shared" si="121"/>
-        <v>0.75</v>
-      </c>
-      <c r="AB63" s="8">
-        <f t="shared" si="110"/>
-        <v>0.75</v>
-      </c>
-      <c r="AC63" s="40">
-        <f t="shared" si="115"/>
         <v>0.75</v>
       </c>
     </row>
@@ -22724,84 +22724,84 @@
         <v>115</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>86.25</v>
       </c>
       <c r="H64" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>86.25</v>
       </c>
       <c r="I64" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>86.25</v>
       </c>
       <c r="K64" s="5">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="8">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="40">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L64" s="8">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="40">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
       <c r="O64" s="5">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="8">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="40">
         <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="8">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="40">
-        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="R64" s="4">
         <v>50</v>
       </c>
       <c r="S64" s="5">
+        <f t="shared" si="125"/>
+        <v>37.5</v>
+      </c>
+      <c r="T64" s="8">
+        <f t="shared" si="114"/>
+        <v>37.5</v>
+      </c>
+      <c r="U64" s="40">
         <f t="shared" si="119"/>
         <v>37.5</v>
       </c>
-      <c r="T64" s="8">
-        <f t="shared" si="108"/>
-        <v>37.5</v>
-      </c>
-      <c r="U64" s="40">
-        <f t="shared" si="113"/>
-        <v>37.5</v>
-      </c>
       <c r="V64" s="4">
         <v>5</v>
       </c>
       <c r="W64" s="5">
+        <f t="shared" si="126"/>
+        <v>3.75</v>
+      </c>
+      <c r="X64" s="8">
+        <f t="shared" si="115"/>
+        <v>3.75</v>
+      </c>
+      <c r="Y64" s="40">
         <f t="shared" si="120"/>
         <v>3.75</v>
       </c>
-      <c r="X64" s="8">
-        <f t="shared" si="109"/>
-        <v>3.75</v>
-      </c>
-      <c r="Y64" s="40">
-        <f t="shared" si="114"/>
-        <v>3.75</v>
-      </c>
       <c r="Z64" s="4">
         <v>3</v>
       </c>
       <c r="AA64" s="5">
+        <f t="shared" si="127"/>
+        <v>2.25</v>
+      </c>
+      <c r="AB64" s="8">
+        <f t="shared" si="116"/>
+        <v>2.25</v>
+      </c>
+      <c r="AC64" s="40">
         <f t="shared" si="121"/>
-        <v>2.25</v>
-      </c>
-      <c r="AB64" s="8">
-        <f t="shared" si="110"/>
-        <v>2.25</v>
-      </c>
-      <c r="AC64" s="40">
-        <f t="shared" si="115"/>
         <v>2.25</v>
       </c>
     </row>
@@ -22819,75 +22819,75 @@
       <c r="D65" s="27"/>
       <c r="E65" s="28"/>
       <c r="G65" s="5">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="8">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="40">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="8">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="40">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="5">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="8">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="40">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="5">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="8">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="40">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="8">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="40">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="5">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="8">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="H65" s="8">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="40">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="8">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="40">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="8">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="40">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="5">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="8">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="40">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="5">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="X65" s="8">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="Y65" s="40">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="5">
+      <c r="AC65" s="40">
         <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AB65" s="8">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC65" s="40">
-        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -22905,75 +22905,75 @@
       <c r="D66" s="27"/>
       <c r="E66" s="28"/>
       <c r="G66" s="5">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="8">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="40">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="8">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="40">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="8">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="40">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="5">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="8">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="40">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="8">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="40">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="5">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="8">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="H66" s="8">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="40">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="8">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="40">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="8">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="40">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="5">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="8">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="40">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="5">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="X66" s="8">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="40">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="AA66" s="5">
+      <c r="AC66" s="40">
         <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AB66" s="8">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC66" s="40">
-        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -22991,75 +22991,75 @@
       <c r="D67" s="27"/>
       <c r="E67" s="28"/>
       <c r="G67" s="5">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="8">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="40">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="8">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="40">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="5">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="8">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="40">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="5">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="8">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="40">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="8">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="40">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="5">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="8">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="H67" s="8">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="40">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="8">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="40">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="8">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="40">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="S67" s="5">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="T67" s="8">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="40">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="5">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="X67" s="8">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="Y67" s="40">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="5">
+      <c r="AC67" s="40">
         <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AB67" s="8">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC67" s="40">
-        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -23080,90 +23080,90 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="H68" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="I68" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="J68" s="4">
         <v>0</v>
       </c>
       <c r="K68" s="5">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="8">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="40">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="L68" s="8">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="40">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
       <c r="N68" s="4">
         <v>0</v>
       </c>
       <c r="O68" s="5">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="8">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="40">
         <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="8">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="40">
-        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="R68" s="4">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="S68" s="5">
+        <f t="shared" si="125"/>
+        <v>4.0905499999999997E-2</v>
+      </c>
+      <c r="T68" s="8">
+        <f t="shared" si="114"/>
+        <v>4.0905499999999997E-2</v>
+      </c>
+      <c r="U68" s="40">
         <f t="shared" si="119"/>
         <v>4.0905499999999997E-2</v>
       </c>
-      <c r="T68" s="8">
-        <f t="shared" si="108"/>
-        <v>4.0905499999999997E-2</v>
-      </c>
-      <c r="U68" s="40">
-        <f t="shared" si="113"/>
-        <v>4.0905499999999997E-2</v>
-      </c>
       <c r="V68" s="4">
         <v>0.13589300000000001</v>
       </c>
       <c r="W68" s="5">
+        <f t="shared" si="126"/>
+        <v>6.7946500000000007E-2</v>
+      </c>
+      <c r="X68" s="8">
+        <f t="shared" si="115"/>
+        <v>6.7946500000000007E-2</v>
+      </c>
+      <c r="Y68" s="40">
         <f t="shared" si="120"/>
         <v>6.7946500000000007E-2</v>
       </c>
-      <c r="X68" s="8">
-        <f t="shared" si="109"/>
-        <v>6.7946500000000007E-2</v>
-      </c>
-      <c r="Y68" s="40">
-        <f t="shared" si="114"/>
-        <v>6.7946500000000007E-2</v>
-      </c>
       <c r="Z68" s="4">
         <v>0</v>
       </c>
       <c r="AA68" s="5">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="8">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="40">
         <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AB68" s="8">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC68" s="40">
-        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -23184,90 +23184,90 @@
         <v>0</v>
       </c>
       <c r="G69" s="5">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="8">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="40">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="8">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="40">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="4">
+        <v>0</v>
+      </c>
+      <c r="O69" s="5">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="8">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="40">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="4">
+        <v>0</v>
+      </c>
+      <c r="S69" s="5">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="8">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="40">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="4">
+        <v>0</v>
+      </c>
+      <c r="W69" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="8">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="40">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="5">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="8">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="H69" s="8">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="40">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="4">
-        <v>0</v>
-      </c>
-      <c r="K69" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="8">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="40">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="4">
-        <v>0</v>
-      </c>
-      <c r="O69" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="8">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="40">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="R69" s="4">
-        <v>0</v>
-      </c>
-      <c r="S69" s="5">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="8">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="40">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="4">
-        <v>0</v>
-      </c>
-      <c r="W69" s="5">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="8">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="40">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="Z69" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="5">
+      <c r="AC69" s="40">
         <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="8">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="40">
-        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -23288,90 +23288,90 @@
         <v>0</v>
       </c>
       <c r="G70" s="5">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="8">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="40">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="5">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="8">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="40">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="4">
+        <v>0</v>
+      </c>
+      <c r="O70" s="5">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="8">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="40">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="4">
+        <v>0</v>
+      </c>
+      <c r="S70" s="5">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="8">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="40">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="4">
+        <v>0</v>
+      </c>
+      <c r="W70" s="5">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="8">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="40">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="5">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="8">
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="H70" s="8">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="40">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="4">
-        <v>0</v>
-      </c>
-      <c r="K70" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="8">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="40">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="4">
-        <v>0</v>
-      </c>
-      <c r="O70" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="8">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="40">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="R70" s="4">
-        <v>0</v>
-      </c>
-      <c r="S70" s="5">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="T70" s="8">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="40">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="V70" s="4">
-        <v>0</v>
-      </c>
-      <c r="W70" s="5">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="8">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="Y70" s="40">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="Z70" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="5">
+      <c r="AC70" s="40">
         <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="AB70" s="8">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AC70" s="40">
-        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -23391,11 +23391,11 @@
         <v>0</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="I71" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K71" s="5">
@@ -23403,11 +23403,11 @@
         <v>0</v>
       </c>
       <c r="L71" s="8">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M71" s="40">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="O71" s="5">
@@ -23415,11 +23415,11 @@
         <v>0</v>
       </c>
       <c r="P71" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q71" s="40">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="S71" s="5">
@@ -23427,11 +23427,11 @@
         <v>0</v>
       </c>
       <c r="T71" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="U71" s="40">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V71" s="4">
@@ -23442,11 +23442,11 @@
         <v>90</v>
       </c>
       <c r="X71" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>90</v>
       </c>
       <c r="Y71" s="40">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>90</v>
       </c>
       <c r="AA71" s="5">
@@ -23454,11 +23454,11 @@
         <v>0</v>
       </c>
       <c r="AB71" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AC71" s="40">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -23474,78 +23474,78 @@
       <c r="D72" s="27"/>
       <c r="E72" s="28"/>
       <c r="G72" s="5">
-        <f t="shared" ref="G72:G77" si="122">F72</f>
+        <f t="shared" ref="G72:G77" si="128">F72</f>
         <v>0</v>
       </c>
       <c r="H72" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="I72" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="J72" s="4">
         <v>100</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" ref="K72:K77" si="123">J72</f>
+        <f t="shared" ref="K72:K77" si="129">J72</f>
         <v>100</v>
       </c>
       <c r="L72" s="8">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>100</v>
       </c>
       <c r="M72" s="40">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>100</v>
       </c>
       <c r="O72" s="5">
-        <f t="shared" ref="O72:O77" si="124">N72</f>
+        <f t="shared" ref="O72:O77" si="130">N72</f>
         <v>0</v>
       </c>
       <c r="P72" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q72" s="40">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="S72" s="5">
-        <f t="shared" ref="S72:S77" si="125">R72</f>
+        <f t="shared" ref="S72:S77" si="131">R72</f>
         <v>0</v>
       </c>
       <c r="T72" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="U72" s="40">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="W72" s="5">
-        <f t="shared" ref="W72:W77" si="126">V72</f>
+        <f t="shared" ref="W72:W77" si="132">V72</f>
         <v>0</v>
       </c>
       <c r="X72" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Y72" s="40">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AA72" s="5">
-        <f t="shared" ref="AA72:AA77" si="127">Z72</f>
+        <f t="shared" ref="AA72:AA77" si="133">Z72</f>
         <v>0</v>
       </c>
       <c r="AB72" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AC72" s="40">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -23561,78 +23561,78 @@
       <c r="D73" s="27"/>
       <c r="E73" s="28"/>
       <c r="G73" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H73" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="I73" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="L73" s="8">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M73" s="40">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="N73" s="4">
         <v>100</v>
       </c>
       <c r="O73" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>100</v>
       </c>
       <c r="P73" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>100</v>
       </c>
       <c r="Q73" s="40">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>100</v>
       </c>
       <c r="S73" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="T73" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="U73" s="40">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="W73" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="X73" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Y73" s="40">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AA73" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="AB73" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AC73" s="40">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -23651,81 +23651,81 @@
         <v>50</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>50</v>
       </c>
       <c r="H74" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>50</v>
       </c>
       <c r="I74" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>50</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="L74" s="8">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M74" s="40">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="O74" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="P74" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q74" s="40">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="S74" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="T74" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="U74" s="40">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V74" s="4">
         <v>10</v>
       </c>
       <c r="W74" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>10</v>
       </c>
       <c r="X74" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>10</v>
       </c>
       <c r="Y74" s="40">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>10</v>
       </c>
       <c r="Z74" s="4">
         <v>40</v>
       </c>
       <c r="AA74" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>40</v>
       </c>
       <c r="AB74" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>40</v>
       </c>
       <c r="AC74" s="40">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>40</v>
       </c>
     </row>
@@ -23744,78 +23744,78 @@
         <v>50</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>50</v>
       </c>
       <c r="H75" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>50</v>
       </c>
       <c r="I75" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>50</v>
       </c>
       <c r="K75" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="L75" s="8">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M75" s="40">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="O75" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="P75" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q75" s="40">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="R75" s="4">
         <v>100</v>
       </c>
       <c r="S75" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>100</v>
       </c>
       <c r="T75" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>100</v>
       </c>
       <c r="U75" s="40">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>100</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="X75" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Y75" s="40">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AA75" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="AB75" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AC75" s="40">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -23831,78 +23831,78 @@
       <c r="D76" s="27"/>
       <c r="E76" s="28"/>
       <c r="G76" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H76" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="I76" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K76" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="L76" s="8">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M76" s="40">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="O76" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="P76" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q76" s="40">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="S76" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="T76" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="U76" s="40">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="W76" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="X76" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Y76" s="40">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Z76" s="4">
         <v>60</v>
       </c>
       <c r="AA76" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>60</v>
       </c>
       <c r="AB76" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>60</v>
       </c>
       <c r="AC76" s="40">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>60</v>
       </c>
     </row>
@@ -23918,75 +23918,75 @@
       <c r="D77" s="27"/>
       <c r="E77" s="28"/>
       <c r="G77" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H77" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="I77" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K77" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="L77" s="8">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M77" s="40">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="O77" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="P77" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q77" s="40">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="S77" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="T77" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="U77" s="40">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="W77" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="X77" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Y77" s="40">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AA77" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="AB77" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="AC77" s="40">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -24002,7 +24002,7 @@
         <v>0.25</v>
       </c>
       <c r="D78" s="14">
-        <f xml:space="preserve"> (1/0.25)*0.5</f>
+        <f t="shared" ref="D78:D83" si="134" xml:space="preserve"> (1/0.25)*0.5</f>
         <v>2</v>
       </c>
       <c r="E78" s="31">
@@ -24096,85 +24096,85 @@
         <v>0.25</v>
       </c>
       <c r="D79" s="14">
-        <f xml:space="preserve"> (1/0.25)*0.5</f>
+        <f t="shared" si="134"/>
         <v>2</v>
       </c>
       <c r="E79" s="31">
         <v>2</v>
       </c>
       <c r="G79" s="5">
-        <f t="shared" ref="G79:G83" si="128">$C79*F79</f>
+        <f t="shared" ref="G79:G83" si="135">$C79*F79</f>
         <v>0</v>
       </c>
       <c r="H79" s="8">
-        <f t="shared" ref="H79:H83" si="129">$D79*G79</f>
+        <f t="shared" ref="H79:H83" si="136">$D79*G79</f>
         <v>0</v>
       </c>
       <c r="I79" s="41">
-        <f t="shared" ref="I79:I83" si="130">$E79*H79</f>
+        <f t="shared" ref="I79:I83" si="137">$E79*H79</f>
         <v>0</v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" ref="K79:K83" si="131">$C79*J79</f>
+        <f t="shared" ref="K79:K83" si="138">$C79*J79</f>
         <v>0</v>
       </c>
       <c r="L79" s="8">
-        <f t="shared" ref="L79:L83" si="132">$D79*K79</f>
+        <f t="shared" ref="L79:L83" si="139">$D79*K79</f>
         <v>0</v>
       </c>
       <c r="M79" s="41">
-        <f t="shared" ref="M79:M83" si="133">$E79*L79</f>
+        <f t="shared" ref="M79:M83" si="140">$E79*L79</f>
         <v>0</v>
       </c>
       <c r="O79" s="5">
-        <f t="shared" ref="O79:O83" si="134">$C79*N79</f>
+        <f t="shared" ref="O79:O83" si="141">$C79*N79</f>
         <v>0</v>
       </c>
       <c r="P79" s="8">
-        <f t="shared" ref="P79:P83" si="135">$D79*O79</f>
+        <f t="shared" ref="P79:P83" si="142">$D79*O79</f>
         <v>0</v>
       </c>
       <c r="Q79" s="41">
-        <f t="shared" ref="Q79:Q83" si="136">$E79*P79</f>
+        <f t="shared" ref="Q79:Q83" si="143">$E79*P79</f>
         <v>0</v>
       </c>
       <c r="R79" s="4">
         <v>5</v>
       </c>
       <c r="S79" s="5">
-        <f t="shared" ref="S79:S83" si="137">$C79*R79</f>
+        <f t="shared" ref="S79:S83" si="144">$C79*R79</f>
         <v>1.25</v>
       </c>
       <c r="T79" s="8">
-        <f t="shared" ref="T79:T83" si="138">$D79*S79</f>
+        <f t="shared" ref="T79:T83" si="145">$D79*S79</f>
         <v>2.5</v>
       </c>
       <c r="U79" s="41">
-        <f t="shared" ref="U79:U83" si="139">$E79*T79</f>
+        <f t="shared" ref="U79:U83" si="146">$E79*T79</f>
         <v>5</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" ref="W79:W83" si="140">$C79*V79</f>
+        <f t="shared" ref="W79:W83" si="147">$C79*V79</f>
         <v>0</v>
       </c>
       <c r="X79" s="8">
-        <f t="shared" ref="X79:X83" si="141">$D79*W79</f>
+        <f t="shared" ref="X79:X83" si="148">$D79*W79</f>
         <v>0</v>
       </c>
       <c r="Y79" s="41">
-        <f t="shared" ref="Y79:Y83" si="142">$E79*X79</f>
+        <f t="shared" ref="Y79:Y83" si="149">$E79*X79</f>
         <v>0</v>
       </c>
       <c r="AA79" s="5">
-        <f t="shared" ref="AA79:AA83" si="143">$C79*Z79</f>
+        <f t="shared" ref="AA79:AA83" si="150">$C79*Z79</f>
         <v>0</v>
       </c>
       <c r="AB79" s="8">
-        <f t="shared" ref="AB79:AB83" si="144">$D79*AA79</f>
+        <f t="shared" ref="AB79:AB83" si="151">$D79*AA79</f>
         <v>0</v>
       </c>
       <c r="AC79" s="41">
-        <f t="shared" ref="AC79:AC83" si="145">$E79*AB79</f>
+        <f t="shared" ref="AC79:AC83" si="152">$E79*AB79</f>
         <v>0</v>
       </c>
     </row>
@@ -24190,7 +24190,7 @@
         <v>0.25</v>
       </c>
       <c r="D80" s="14">
-        <f xml:space="preserve"> (1/0.25)*0.5</f>
+        <f t="shared" si="134"/>
         <v>2</v>
       </c>
       <c r="E80" s="31">
@@ -24200,11 +24200,11 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.05</v>
       </c>
       <c r="H80" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.1</v>
       </c>
       <c r="I80" s="41">
@@ -24215,11 +24215,11 @@
         <v>1</v>
       </c>
       <c r="K80" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>0.25</v>
       </c>
       <c r="L80" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="139"/>
         <v>0.5</v>
       </c>
       <c r="M80" s="41">
@@ -24230,11 +24230,11 @@
         <v>2.5</v>
       </c>
       <c r="O80" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>0.625</v>
       </c>
       <c r="P80" s="8">
-        <f t="shared" si="135"/>
+        <f t="shared" si="142"/>
         <v>1.25</v>
       </c>
       <c r="Q80" s="41">
@@ -24245,11 +24245,11 @@
         <v>1</v>
       </c>
       <c r="S80" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>0.25</v>
       </c>
       <c r="T80" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>0.5</v>
       </c>
       <c r="U80" s="41">
@@ -24260,11 +24260,11 @@
         <v>1.5</v>
       </c>
       <c r="W80" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.375</v>
       </c>
       <c r="X80" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.75</v>
       </c>
       <c r="Y80" s="41">
@@ -24275,11 +24275,11 @@
         <v>2</v>
       </c>
       <c r="AA80" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="150"/>
         <v>0.5</v>
       </c>
       <c r="AB80" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="AC80" s="41">
@@ -24299,7 +24299,7 @@
         <v>0.25</v>
       </c>
       <c r="D81" s="14">
-        <f xml:space="preserve"> (1/0.25)*0.5</f>
+        <f t="shared" si="134"/>
         <v>2</v>
       </c>
       <c r="E81" s="31">
@@ -24309,90 +24309,90 @@
         <v>70</v>
       </c>
       <c r="G81" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>17.5</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>35</v>
       </c>
       <c r="I81" s="41">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>70</v>
       </c>
       <c r="J81" s="4">
         <v>60</v>
       </c>
       <c r="K81" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>15</v>
       </c>
       <c r="L81" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="139"/>
         <v>30</v>
       </c>
       <c r="M81" s="41">
-        <f t="shared" ref="M81:M85" si="146">$E81*L81</f>
+        <f t="shared" ref="M81:M85" si="153">$E81*L81</f>
         <v>60</v>
       </c>
       <c r="N81" s="4">
         <v>5</v>
       </c>
       <c r="O81" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>1.25</v>
       </c>
       <c r="P81" s="8">
-        <f t="shared" si="135"/>
+        <f t="shared" si="142"/>
         <v>2.5</v>
       </c>
       <c r="Q81" s="41">
-        <f t="shared" ref="Q81:Q85" si="147">$E81*P81</f>
+        <f t="shared" ref="Q81:Q85" si="154">$E81*P81</f>
         <v>5</v>
       </c>
       <c r="R81" s="4">
         <v>15</v>
       </c>
       <c r="S81" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>3.75</v>
       </c>
       <c r="T81" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>7.5</v>
       </c>
       <c r="U81" s="41">
-        <f t="shared" ref="U81:U85" si="148">$E81*T81</f>
+        <f t="shared" ref="U81:U85" si="155">$E81*T81</f>
         <v>15</v>
       </c>
       <c r="V81" s="4">
         <v>90</v>
       </c>
       <c r="W81" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>22.5</v>
       </c>
       <c r="X81" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>45</v>
       </c>
       <c r="Y81" s="41">
-        <f t="shared" ref="Y81:Y85" si="149">$E81*X81</f>
+        <f t="shared" ref="Y81:Y85" si="156">$E81*X81</f>
         <v>90</v>
       </c>
       <c r="Z81" s="4">
         <v>70</v>
       </c>
       <c r="AA81" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="150"/>
         <v>17.5</v>
       </c>
       <c r="AB81" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>35</v>
       </c>
       <c r="AC81" s="41">
-        <f t="shared" ref="AC81:AC85" si="150">$E81*AB81</f>
+        <f t="shared" ref="AC81:AC85" si="157">$E81*AB81</f>
         <v>70</v>
       </c>
     </row>
@@ -24408,88 +24408,88 @@
         <v>0.25</v>
       </c>
       <c r="D82" s="14">
-        <f xml:space="preserve"> (1/0.25)*0.5</f>
+        <f t="shared" si="134"/>
         <v>2</v>
       </c>
       <c r="E82" s="31">
         <v>2</v>
       </c>
       <c r="G82" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="H82" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="I82" s="41">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="K82" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L82" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="M82" s="41">
-        <f t="shared" si="146"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="O82" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="P82" s="8">
-        <f t="shared" si="135"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="Q82" s="41">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="R82" s="4">
         <v>2.5</v>
       </c>
       <c r="S82" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>0.625</v>
       </c>
       <c r="T82" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>1.25</v>
       </c>
       <c r="U82" s="41">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>2.5</v>
       </c>
       <c r="V82" s="4">
         <v>1</v>
       </c>
       <c r="W82" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>0.25</v>
       </c>
       <c r="X82" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.5</v>
       </c>
       <c r="Y82" s="41">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>1</v>
       </c>
       <c r="AA82" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AB82" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AC82" s="41">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
     </row>
@@ -24505,88 +24505,88 @@
         <v>0.25</v>
       </c>
       <c r="D83" s="14">
-        <f xml:space="preserve"> (1/0.25)*0.5</f>
+        <f t="shared" si="134"/>
         <v>2</v>
       </c>
       <c r="E83" s="31">
         <v>2</v>
       </c>
       <c r="G83" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="H83" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="I83" s="41">
-        <f t="shared" si="130"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L83" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="M83" s="41">
-        <f t="shared" si="146"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="O83" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="P83" s="8">
-        <f t="shared" si="135"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="Q83" s="41">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="R83" s="4">
         <v>80</v>
       </c>
       <c r="S83" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>20</v>
       </c>
       <c r="T83" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>40</v>
       </c>
       <c r="U83" s="41">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>80</v>
       </c>
       <c r="V83" s="4">
         <v>5</v>
       </c>
       <c r="W83" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>1.25</v>
       </c>
       <c r="X83" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>2.5</v>
       </c>
       <c r="Y83" s="41">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>5</v>
       </c>
       <c r="AA83" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AB83" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AC83" s="41">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
     </row>
@@ -24696,81 +24696,81 @@
       <c r="D85" s="27"/>
       <c r="E85" s="28"/>
       <c r="G85" s="5">
-        <f t="shared" ref="G85:G93" si="151">$C85*F85</f>
+        <f t="shared" ref="G85:G93" si="158">$C85*F85</f>
         <v>0</v>
       </c>
       <c r="H85" s="8">
-        <f t="shared" ref="H85:I93" si="152">G85</f>
+        <f t="shared" ref="H85:I93" si="159">G85</f>
         <v>0</v>
       </c>
       <c r="I85" s="41">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="J85" s="4">
         <v>60</v>
       </c>
       <c r="K85" s="5">
-        <f t="shared" ref="K85:K93" si="153">$C85*J85</f>
+        <f t="shared" ref="K85:K93" si="160">$C85*J85</f>
         <v>15</v>
       </c>
       <c r="L85" s="8">
-        <f t="shared" ref="L85:L93" si="154">K85</f>
+        <f t="shared" ref="L85:L93" si="161">K85</f>
         <v>15</v>
       </c>
       <c r="M85" s="41">
-        <f t="shared" ref="M85:M93" si="155">L85</f>
+        <f t="shared" ref="M85:M93" si="162">L85</f>
         <v>15</v>
       </c>
       <c r="O85" s="5">
-        <f t="shared" ref="O85:O93" si="156">$C85*N85</f>
+        <f t="shared" ref="O85:O93" si="163">$C85*N85</f>
         <v>0</v>
       </c>
       <c r="P85" s="8">
-        <f t="shared" ref="P85:P93" si="157">O85</f>
+        <f t="shared" ref="P85:P93" si="164">O85</f>
         <v>0</v>
       </c>
       <c r="Q85" s="41">
-        <f t="shared" ref="Q85:Q93" si="158">P85</f>
+        <f t="shared" ref="Q85:Q93" si="165">P85</f>
         <v>0</v>
       </c>
       <c r="R85" s="4">
         <v>90</v>
       </c>
       <c r="S85" s="5">
-        <f t="shared" ref="S85:S93" si="159">$C85*R85</f>
+        <f t="shared" ref="S85:S93" si="166">$C85*R85</f>
         <v>22.5</v>
       </c>
       <c r="T85" s="8">
-        <f t="shared" ref="T85:T93" si="160">S85</f>
+        <f t="shared" ref="T85:T93" si="167">S85</f>
         <v>22.5</v>
       </c>
       <c r="U85" s="41">
-        <f t="shared" ref="U85:U93" si="161">T85</f>
+        <f t="shared" ref="U85:U93" si="168">T85</f>
         <v>22.5</v>
       </c>
       <c r="W85" s="5">
-        <f t="shared" ref="W85:W93" si="162">$C85*V85</f>
+        <f t="shared" ref="W85:W93" si="169">$C85*V85</f>
         <v>0</v>
       </c>
       <c r="X85" s="8">
-        <f t="shared" ref="X85:X93" si="163">W85</f>
+        <f t="shared" ref="X85:X93" si="170">W85</f>
         <v>0</v>
       </c>
       <c r="Y85" s="41">
-        <f t="shared" ref="Y85:Y93" si="164">X85</f>
+        <f t="shared" ref="Y85:Y93" si="171">X85</f>
         <v>0</v>
       </c>
       <c r="AA85" s="5">
-        <f t="shared" ref="AA85:AA93" si="165">$C85*Z85</f>
+        <f t="shared" ref="AA85:AA93" si="172">$C85*Z85</f>
         <v>0</v>
       </c>
       <c r="AB85" s="8">
-        <f t="shared" ref="AB85:AB93" si="166">AA85</f>
+        <f t="shared" ref="AB85:AB93" si="173">AA85</f>
         <v>0</v>
       </c>
       <c r="AC85" s="41">
-        <f t="shared" ref="AC85:AC93" si="167">AB85</f>
+        <f t="shared" ref="AC85:AC93" si="174">AB85</f>
         <v>0</v>
       </c>
     </row>
@@ -24791,90 +24791,90 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0.125</v>
       </c>
       <c r="H86" s="8">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0.125</v>
       </c>
       <c r="I86" s="41">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0.125</v>
       </c>
       <c r="J86" s="4">
         <v>0.4</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="L86" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.1</v>
       </c>
       <c r="M86" s="41">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0.1</v>
       </c>
       <c r="N86" s="4">
         <v>0.2</v>
       </c>
       <c r="O86" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>0.05</v>
       </c>
       <c r="P86" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>0.05</v>
       </c>
       <c r="Q86" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>0.05</v>
       </c>
       <c r="R86" s="4">
         <v>4</v>
       </c>
       <c r="S86" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>1</v>
       </c>
       <c r="T86" s="8">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>1</v>
       </c>
       <c r="U86" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>1</v>
       </c>
       <c r="V86" s="4">
         <v>1</v>
       </c>
       <c r="W86" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0.25</v>
       </c>
       <c r="X86" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>0.25</v>
       </c>
       <c r="Y86" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0.25</v>
       </c>
       <c r="Z86" s="4">
         <v>1.5</v>
       </c>
       <c r="AA86" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>0.375</v>
       </c>
       <c r="AB86" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0.375</v>
       </c>
       <c r="AC86" s="41">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0.375</v>
       </c>
     </row>
@@ -24895,90 +24895,90 @@
         <v>70</v>
       </c>
       <c r="G87" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>17.5</v>
       </c>
       <c r="H87" s="8">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>17.5</v>
       </c>
       <c r="I87" s="41">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>17.5</v>
       </c>
       <c r="J87" s="4">
         <v>60</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>15</v>
       </c>
       <c r="L87" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>15</v>
       </c>
       <c r="M87" s="41">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>15</v>
       </c>
       <c r="N87" s="4">
         <v>70</v>
       </c>
       <c r="O87" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>17.5</v>
       </c>
       <c r="P87" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>17.5</v>
       </c>
       <c r="Q87" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>17.5</v>
       </c>
       <c r="R87" s="4">
         <v>100</v>
       </c>
       <c r="S87" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>25</v>
       </c>
       <c r="T87" s="8">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>25</v>
       </c>
       <c r="U87" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>25</v>
       </c>
       <c r="V87" s="4">
         <v>90</v>
       </c>
       <c r="W87" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>22.5</v>
       </c>
       <c r="X87" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>22.5</v>
       </c>
       <c r="Y87" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>22.5</v>
       </c>
       <c r="Z87" s="4">
         <v>70</v>
       </c>
       <c r="AA87" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>17.5</v>
       </c>
       <c r="AB87" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>17.5</v>
       </c>
       <c r="AC87" s="41">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>17.5</v>
       </c>
     </row>
@@ -24996,75 +24996,75 @@
       <c r="D88" s="27"/>
       <c r="E88" s="28"/>
       <c r="G88" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="H88" s="8">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I88" s="41">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="K88" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="L88" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M88" s="41">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O88" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="P88" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="Q88" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="S88" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="T88" s="8">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="U88" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="W88" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="X88" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="Y88" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AA88" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AB88" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="AC88" s="41">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
     </row>
@@ -25082,75 +25082,75 @@
       <c r="D89" s="27"/>
       <c r="E89" s="28"/>
       <c r="G89" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="H89" s="8">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I89" s="41">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="K89" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="L89" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M89" s="41">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O89" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="P89" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="Q89" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="S89" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="T89" s="8">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="U89" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="W89" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="X89" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="Y89" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AA89" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AB89" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="AC89" s="41">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
     </row>
@@ -25168,75 +25168,75 @@
       <c r="D90" s="27"/>
       <c r="E90" s="28"/>
       <c r="G90" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="H90" s="8">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I90" s="41">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="L90" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M90" s="41">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O90" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="P90" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="Q90" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="S90" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="T90" s="8">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="U90" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="W90" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="X90" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="Y90" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AA90" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AB90" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="AC90" s="41">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
     </row>
@@ -25254,78 +25254,78 @@
       <c r="D91" s="27"/>
       <c r="E91" s="28"/>
       <c r="G91" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="H91" s="8">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I91" s="41">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="K91" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="L91" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M91" s="41">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O91" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="P91" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="Q91" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="R91" s="4">
         <v>18</v>
       </c>
       <c r="S91" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>4.5</v>
       </c>
       <c r="T91" s="8">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>4.5</v>
       </c>
       <c r="U91" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>4.5</v>
       </c>
       <c r="W91" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="X91" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="Y91" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AA91" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AB91" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="AC91" s="41">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
     </row>
@@ -25343,78 +25343,78 @@
       <c r="D92" s="27"/>
       <c r="E92" s="28"/>
       <c r="G92" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="H92" s="8">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I92" s="41">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="L92" s="8">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M92" s="41">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O92" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="P92" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="Q92" s="41">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="R92" s="4">
         <v>1</v>
       </c>
       <c r="S92" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0.25</v>
       </c>
       <c r="T92" s="8">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>0.25</v>
       </c>
       <c r="U92" s="41">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0.25</v>
       </c>
       <c r="W92" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="X92" s="8">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="Y92" s="41">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AA92" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AB92" s="8">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="AC92" s="41">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
     </row>
@@ -25432,78 +25432,78 @@
       <c r="D93" s="27"/>
       <c r="E93" s="28"/>
       <c r="G93" s="50">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="H93" s="51">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I93" s="52">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="K93" s="50">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="L93" s="51">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M93" s="52">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O93" s="50">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="P93" s="51">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="Q93" s="52">
-        <f t="shared" si="158"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="R93" s="4">
         <v>5</v>
       </c>
       <c r="S93" s="50">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>1.25</v>
       </c>
       <c r="T93" s="51">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>1.25</v>
       </c>
       <c r="U93" s="52">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>1.25</v>
       </c>
       <c r="W93" s="50">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="X93" s="51">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="Y93" s="52">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="AA93" s="50">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AB93" s="51">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="AC93" s="52">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
     </row>
@@ -25517,7 +25517,7 @@
   <dimension ref="A1:AC93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25774,7 +25774,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L17" si="1">K3</f>
+        <f t="shared" ref="L3:L5" si="1">K3</f>
         <v>0</v>
       </c>
       <c r="M3" s="9">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f t="shared" ref="P3:P17" si="3">O3</f>
+        <f t="shared" ref="P3:P5" si="3">O3</f>
         <v>0</v>
       </c>
       <c r="Q3" s="9">
@@ -25801,7 +25801,7 @@
         <v>2.9</v>
       </c>
       <c r="T3" s="8">
-        <f t="shared" ref="T3:T17" si="5">S3</f>
+        <f t="shared" ref="T3:T5" si="5">S3</f>
         <v>2.9</v>
       </c>
       <c r="U3" s="9">
@@ -25816,7 +25816,7 @@
         <v>14</v>
       </c>
       <c r="X3" s="8">
-        <f t="shared" ref="X3:X17" si="7">W3</f>
+        <f t="shared" ref="X3:X5" si="7">W3</f>
         <v>14</v>
       </c>
       <c r="Y3" s="9">
@@ -25831,7 +25831,7 @@
         <v>12</v>
       </c>
       <c r="AB3" s="8">
-        <f t="shared" ref="AB3:AB17" si="9">AA3</f>
+        <f t="shared" ref="AB3:AB5" si="9">AA3</f>
         <v>12</v>
       </c>
       <c r="AC3" s="9">
@@ -26261,7 +26261,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" ref="L8:L22" si="11">K8</f>
+        <f t="shared" ref="L8:L10" si="11">K8</f>
         <v>0</v>
       </c>
       <c r="M8" s="9">
@@ -26273,7 +26273,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" ref="P8:P22" si="12">O8</f>
+        <f t="shared" ref="P8:P10" si="12">O8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="9">
@@ -26285,7 +26285,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="8">
-        <f t="shared" ref="T8:T22" si="13">S8</f>
+        <f t="shared" ref="T8:T10" si="13">S8</f>
         <v>0</v>
       </c>
       <c r="U8" s="9">
@@ -26300,7 +26300,7 @@
         <v>7.5</v>
       </c>
       <c r="X8" s="8">
-        <f t="shared" ref="X8:X22" si="14">W8</f>
+        <f t="shared" ref="X8:X10" si="14">W8</f>
         <v>7.5</v>
       </c>
       <c r="Y8" s="9">
@@ -26312,7 +26312,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="8">
-        <f t="shared" ref="AB8:AB22" si="15">AA8</f>
+        <f t="shared" ref="AB8:AB10" si="15">AA8</f>
         <v>0</v>
       </c>
       <c r="AC8" s="9">
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" ref="L13:L27" si="16">K13</f>
+        <f t="shared" ref="L13:L15" si="16">K13</f>
         <v>0</v>
       </c>
       <c r="M13" s="9">
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="8">
-        <f t="shared" ref="P13:P27" si="17">O13</f>
+        <f t="shared" ref="P13:P15" si="17">O13</f>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -26733,7 +26733,7 @@
         <v>0.5</v>
       </c>
       <c r="T13" s="8">
-        <f t="shared" ref="T13:T27" si="18">S13</f>
+        <f t="shared" ref="T13:T15" si="18">S13</f>
         <v>0.5</v>
       </c>
       <c r="U13" s="9">
@@ -26748,7 +26748,7 @@
         <v>1.7</v>
       </c>
       <c r="X13" s="8">
-        <f t="shared" ref="X13:X27" si="19">W13</f>
+        <f t="shared" ref="X13:X15" si="19">W13</f>
         <v>1.7</v>
       </c>
       <c r="Y13" s="9">
@@ -26763,7 +26763,7 @@
         <v>1</v>
       </c>
       <c r="AB13" s="8">
-        <f t="shared" ref="AB13:AB27" si="20">AA13</f>
+        <f t="shared" ref="AB13:AB15" si="20">AA13</f>
         <v>1</v>
       </c>
       <c r="AC13" s="9">
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" ref="M27:M29" si="45">L19</f>
+        <f t="shared" ref="M27" si="45">L19</f>
         <v>0</v>
       </c>
       <c r="O27" s="5">
@@ -28045,7 +28045,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" ref="Q27:Q29" si="46">P19</f>
+        <f t="shared" ref="Q27" si="46">P19</f>
         <v>0</v>
       </c>
       <c r="R27" s="4">
@@ -28060,7 +28060,7 @@
         <v>25</v>
       </c>
       <c r="U27" s="9">
-        <f t="shared" ref="U27:U29" si="47">T19</f>
+        <f t="shared" ref="U27" si="47">T19</f>
         <v>25</v>
       </c>
       <c r="V27" s="4">
@@ -28075,7 +28075,7 @@
         <v>55</v>
       </c>
       <c r="Y27" s="9">
-        <f t="shared" ref="Y27:Y29" si="48">X19</f>
+        <f t="shared" ref="Y27" si="48">X19</f>
         <v>50</v>
       </c>
       <c r="Z27" s="4">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="9">
-        <f t="shared" ref="AC27:AC29" si="49">AB19</f>
+        <f t="shared" ref="AC27" si="49">AB19</f>
         <v>78</v>
       </c>
     </row>
@@ -28519,7 +28519,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" ref="L32:L39" si="61">K32</f>
+        <f t="shared" ref="L32:L33" si="61">K32</f>
         <v>0</v>
       </c>
       <c r="M32" s="9">
@@ -28531,7 +28531,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" ref="P32:P39" si="62">O32</f>
+        <f t="shared" ref="P32:P33" si="62">O32</f>
         <v>0</v>
       </c>
       <c r="Q32" s="9">
@@ -28546,7 +28546,7 @@
         <v>4</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" ref="T32:T39" si="63">S32</f>
+        <f t="shared" ref="T32:T33" si="63">S32</f>
         <v>4</v>
       </c>
       <c r="U32" s="9">
@@ -28561,7 +28561,7 @@
         <v>15</v>
       </c>
       <c r="X32" s="8">
-        <f t="shared" ref="X32:X39" si="64">W32</f>
+        <f t="shared" ref="X32:X33" si="64">W32</f>
         <v>15</v>
       </c>
       <c r="Y32" s="9">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="8">
-        <f t="shared" ref="AB32:AB39" si="65">AA32</f>
+        <f t="shared" ref="AB32:AB33" si="65">AA32</f>
         <v>0</v>
       </c>
       <c r="AC32" s="9">
@@ -28709,11 +28709,11 @@
         <v>5</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" ref="K34:K58" si="67">$C34*J34</f>
+        <f t="shared" ref="K34:K39" si="67">$C34*J34</f>
         <v>0.25</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" ref="L34:L37" si="68">$D34*K34</f>
+        <f t="shared" ref="L34" si="68">$D34*K34</f>
         <v>2.5</v>
       </c>
       <c r="M34" s="33">
@@ -28724,11 +28724,11 @@
         <v>3</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34:O58" si="69">$C34*N34</f>
+        <f t="shared" ref="O34:O39" si="69">$C34*N34</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" ref="P34:P37" si="70">$D34*O34</f>
+        <f t="shared" ref="P34" si="70">$D34*O34</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="Q34" s="33">
@@ -28739,11 +28739,11 @@
         <v>5</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" ref="S34:S58" si="71">$C34*R34</f>
+        <f t="shared" ref="S34:S39" si="71">$C34*R34</f>
         <v>0.25</v>
       </c>
       <c r="T34" s="8">
-        <f t="shared" ref="T34:T37" si="72">$D34*S34</f>
+        <f t="shared" ref="T34" si="72">$D34*S34</f>
         <v>2.5</v>
       </c>
       <c r="U34" s="33">
@@ -28754,11 +28754,11 @@
         <v>6</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" ref="W34:W58" si="73">$C34*V34</f>
+        <f t="shared" ref="W34:W39" si="73">$C34*V34</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="X34" s="8">
-        <f t="shared" ref="X34:X37" si="74">$D34*W34</f>
+        <f t="shared" ref="X34" si="74">$D34*W34</f>
         <v>3.0000000000000004</v>
       </c>
       <c r="Y34" s="33">
@@ -28769,11 +28769,11 @@
         <v>5</v>
       </c>
       <c r="AA34" s="5">
-        <f t="shared" ref="AA34:AA58" si="75">$C34*Z34</f>
+        <f t="shared" ref="AA34:AA39" si="75">$C34*Z34</f>
         <v>0.25</v>
       </c>
       <c r="AB34" s="8">
-        <f t="shared" ref="AB34:AB37" si="76">$D34*AA34</f>
+        <f t="shared" ref="AB34" si="76">$D34*AA34</f>
         <v>2.5</v>
       </c>
       <c r="AC34" s="33">
@@ -29040,7 +29040,7 @@
         <v>0.1</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" ref="L37:L40" si="77">$D37*K37</f>
+        <f t="shared" ref="L37" si="77">$D37*K37</f>
         <v>1</v>
       </c>
       <c r="M37" s="33">
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" ref="P37:P40" si="78">$D37*O37</f>
+        <f t="shared" ref="P37" si="78">$D37*O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="33">
@@ -29067,7 +29067,7 @@
         <v>0.05</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" ref="T37:T40" si="79">$D37*S37</f>
+        <f t="shared" ref="T37" si="79">$D37*S37</f>
         <v>0.5</v>
       </c>
       <c r="U37" s="33">
@@ -29079,7 +29079,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" ref="X37:X40" si="80">$D37*W37</f>
+        <f t="shared" ref="X37" si="80">$D37*W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="33">
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="8">
-        <f t="shared" ref="AB37:AB40" si="81">$D37*AA37</f>
+        <f t="shared" ref="AB37" si="81">$D37*AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="33">
@@ -29434,11 +29434,11 @@
         <v>0.20000000000000004</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" ref="K41:K65" si="89">$C41*J41</f>
+        <f t="shared" ref="K41:K47" si="89">$C41*J41</f>
         <v>0</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" ref="L41:L45" si="90">$D41*K41</f>
+        <f t="shared" ref="L41" si="90">$D41*K41</f>
         <v>0</v>
       </c>
       <c r="M41" s="12">
@@ -29449,11 +29449,11 @@
         <v>1</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" ref="O41:O65" si="91">$C41*N41</f>
+        <f t="shared" ref="O41:O47" si="91">$C41*N41</f>
         <v>0.05</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" ref="P41:P45" si="92">$D41*O41</f>
+        <f t="shared" ref="P41" si="92">$D41*O41</f>
         <v>2</v>
       </c>
       <c r="Q41" s="12">
@@ -29464,11 +29464,11 @@
         <v>0.01</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" ref="S41:S65" si="93">$C41*R41</f>
+        <f t="shared" ref="S41:S47" si="93">$C41*R41</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" ref="T41:T45" si="94">$D41*S41</f>
+        <f t="shared" ref="T41" si="94">$D41*S41</f>
         <v>0.02</v>
       </c>
       <c r="U41" s="12">
@@ -29479,11 +29479,11 @@
         <v>0.4</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" ref="W41:W65" si="95">$C41*V41</f>
+        <f t="shared" ref="W41:W47" si="95">$C41*V41</f>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" ref="X41:X45" si="96">$D41*W41</f>
+        <f t="shared" ref="X41" si="96">$D41*W41</f>
         <v>0.80000000000000016</v>
       </c>
       <c r="Y41" s="12">
@@ -29494,11 +29494,11 @@
         <v>0.1</v>
       </c>
       <c r="AA41" s="5">
-        <f t="shared" ref="AA41:AA65" si="97">$C41*Z41</f>
+        <f t="shared" ref="AA41:AA47" si="97">$C41*Z41</f>
         <v>5.000000000000001E-3</v>
       </c>
       <c r="AB41" s="8">
-        <f t="shared" ref="AB41:AB45" si="98">$D41*AA41</f>
+        <f t="shared" ref="AB41" si="98">$D41*AA41</f>
         <v>0.20000000000000004</v>
       </c>
       <c r="AC41" s="12">
@@ -29750,7 +29750,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="8">
-        <f t="shared" ref="L44:L48" si="99">$D44*K44</f>
+        <f t="shared" ref="L44:L45" si="99">$D44*K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="12">
@@ -29765,7 +29765,7 @@
         <v>0.05</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" ref="P44:P48" si="100">$D44*O44</f>
+        <f t="shared" ref="P44:P45" si="100">$D44*O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="12">
@@ -29780,7 +29780,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="T44" s="8">
-        <f t="shared" ref="T44:T48" si="101">$D44*S44</f>
+        <f t="shared" ref="T44:T45" si="101">$D44*S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="12">
@@ -29792,7 +29792,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="8">
-        <f t="shared" ref="X44:X48" si="102">$D44*W44</f>
+        <f t="shared" ref="X44:X45" si="102">$D44*W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="12">
@@ -29807,7 +29807,7 @@
         <v>0.05</v>
       </c>
       <c r="AB44" s="8">
-        <f t="shared" ref="AB44:AB48" si="103">$D44*AA44</f>
+        <f t="shared" ref="AB44:AB45" si="103">$D44*AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="12">
@@ -30261,7 +30261,7 @@
         <v>50</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" ref="K49:K73" si="116">$C49*J49</f>
+        <f t="shared" ref="K49:K58" si="116">$C49*J49</f>
         <v>2.5</v>
       </c>
       <c r="L49" s="8">
@@ -30273,7 +30273,7 @@
         <v>49.999999999999993</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" ref="O49:O73" si="117">$C49*N49</f>
+        <f t="shared" ref="O49:O58" si="117">$C49*N49</f>
         <v>0</v>
       </c>
       <c r="P49" s="8">
@@ -30288,7 +30288,7 @@
         <v>30</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" ref="S49:S73" si="118">$C49*R49</f>
+        <f t="shared" ref="S49:S58" si="118">$C49*R49</f>
         <v>1.5</v>
       </c>
       <c r="T49" s="8">
@@ -30303,7 +30303,7 @@
         <v>40</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" ref="W49:W73" si="119">$C49*V49</f>
+        <f t="shared" ref="W49:W58" si="119">$C49*V49</f>
         <v>2</v>
       </c>
       <c r="X49" s="8">
@@ -30318,7 +30318,7 @@
         <v>15</v>
       </c>
       <c r="AA49" s="5">
-        <f t="shared" ref="AA49:AA73" si="120">$C49*Z49</f>
+        <f t="shared" ref="AA49:AA58" si="120">$C49*Z49</f>
         <v>0.75</v>
       </c>
       <c r="AB49" s="8">
@@ -31385,7 +31385,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" ref="M60:M78" si="128">L60</f>
+        <f t="shared" ref="M60:M77" si="128">L60</f>
         <v>0</v>
       </c>
       <c r="O60" s="5">
@@ -31397,7 +31397,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="9">
-        <f t="shared" ref="Q60:Q78" si="129">P60</f>
+        <f t="shared" ref="Q60:Q77" si="129">P60</f>
         <v>0</v>
       </c>
       <c r="R60" s="4">
@@ -31412,7 +31412,7 @@
         <v>2</v>
       </c>
       <c r="U60" s="9">
-        <f t="shared" ref="U60:U78" si="130">T60</f>
+        <f t="shared" ref="U60:U77" si="130">T60</f>
         <v>2</v>
       </c>
       <c r="W60" s="5">
@@ -31424,7 +31424,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="9">
-        <f t="shared" ref="Y60:Y78" si="131">X60</f>
+        <f t="shared" ref="Y60:Y77" si="131">X60</f>
         <v>0</v>
       </c>
       <c r="AA60" s="5">
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="9">
-        <f t="shared" ref="AC60:AC78" si="132">AB60</f>
+        <f t="shared" ref="AC60:AC77" si="132">AB60</f>
         <v>0</v>
       </c>
     </row>
@@ -33021,14 +33021,14 @@
         <v>0.05</v>
       </c>
       <c r="D78" s="14">
-        <f xml:space="preserve"> (1/0.05)*0.5</f>
+        <f t="shared" ref="D78:D83" si="145" xml:space="preserve"> (1/0.05)*0.5</f>
         <v>10</v>
       </c>
       <c r="E78" s="28">
         <v>2</v>
       </c>
       <c r="G78" s="5">
-        <f t="shared" ref="G78:G83" si="145">$C78*F78</f>
+        <f t="shared" ref="G78:G83" si="146">$C78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="8">
@@ -33036,11 +33036,11 @@
         <v>0</v>
       </c>
       <c r="I78" s="12">
-        <f t="shared" ref="I78:I82" si="146">$E78*H78</f>
+        <f t="shared" ref="I78:I82" si="147">$E78*H78</f>
         <v>0</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" ref="K78:K83" si="147">$C78*J78</f>
+        <f t="shared" ref="K78:K83" si="148">$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="8">
@@ -33048,11 +33048,11 @@
         <v>0</v>
       </c>
       <c r="M78" s="12">
-        <f t="shared" ref="M78:M82" si="148">$E78*L78</f>
+        <f t="shared" ref="M78" si="149">$E78*L78</f>
         <v>0</v>
       </c>
       <c r="O78" s="5">
-        <f t="shared" ref="O78:O83" si="149">$C78*N78</f>
+        <f t="shared" ref="O78:O83" si="150">$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="8">
@@ -33060,14 +33060,14 @@
         <v>0</v>
       </c>
       <c r="Q78" s="12">
-        <f t="shared" ref="Q78:Q82" si="150">$E78*P78</f>
+        <f t="shared" ref="Q78" si="151">$E78*P78</f>
         <v>0</v>
       </c>
       <c r="R78" s="4">
         <v>2</v>
       </c>
       <c r="S78" s="5">
-        <f t="shared" ref="S78:S83" si="151">$C78*R78</f>
+        <f t="shared" ref="S78:S83" si="152">$C78*R78</f>
         <v>0.1</v>
       </c>
       <c r="T78" s="8">
@@ -33075,11 +33075,11 @@
         <v>1</v>
       </c>
       <c r="U78" s="12">
-        <f t="shared" ref="U78:U82" si="152">$E78*T78</f>
+        <f t="shared" ref="U78" si="153">$E78*T78</f>
         <v>2</v>
       </c>
       <c r="W78" s="5">
-        <f t="shared" ref="W78:W83" si="153">$C78*V78</f>
+        <f t="shared" ref="W78:W83" si="154">$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="8">
@@ -33087,11 +33087,11 @@
         <v>0</v>
       </c>
       <c r="Y78" s="12">
-        <f t="shared" ref="Y78:Y82" si="154">$E78*X78</f>
+        <f t="shared" ref="Y78" si="155">$E78*X78</f>
         <v>0</v>
       </c>
       <c r="AA78" s="5">
-        <f t="shared" ref="AA78:AA83" si="155">$C78*Z78</f>
+        <f t="shared" ref="AA78:AA83" si="156">$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="8">
@@ -33099,7 +33099,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="12">
-        <f t="shared" ref="AC78:AC82" si="156">$E78*AB78</f>
+        <f t="shared" ref="AC78" si="157">$E78*AB78</f>
         <v>0</v>
       </c>
     </row>
@@ -33115,14 +33115,14 @@
         <v>0.05</v>
       </c>
       <c r="D79" s="14">
-        <f xml:space="preserve"> (1/0.05)*0.5</f>
+        <f t="shared" si="145"/>
         <v>10</v>
       </c>
       <c r="E79" s="28">
         <v>2</v>
       </c>
       <c r="G79" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="H79" s="8">
@@ -33134,7 +33134,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="L79" s="8">
@@ -33146,7 +33146,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="5">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="P79" s="8">
@@ -33161,7 +33161,7 @@
         <v>5</v>
       </c>
       <c r="S79" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.25</v>
       </c>
       <c r="T79" s="8">
@@ -33173,7 +33173,7 @@
         <v>5</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="X79" s="8">
@@ -33185,7 +33185,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="AB79" s="8">
@@ -33209,7 +33209,7 @@
         <v>0.05</v>
       </c>
       <c r="D80" s="14">
-        <f xml:space="preserve"> (1/0.05)*0.5</f>
+        <f t="shared" si="145"/>
         <v>10</v>
       </c>
       <c r="E80" s="28">
@@ -33219,90 +33219,90 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="H80" s="8">
-        <f t="shared" ref="H80:H82" si="157">$D80*G80</f>
+        <f t="shared" ref="H80:H82" si="158">$D80*G80</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="I80" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="J80" s="4">
         <v>1</v>
       </c>
       <c r="K80" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.05</v>
       </c>
       <c r="L80" s="8">
-        <f t="shared" ref="L80:L82" si="158">$D80*K80</f>
+        <f t="shared" ref="L80" si="159">$D80*K80</f>
         <v>0.5</v>
       </c>
       <c r="M80" s="12">
-        <f t="shared" ref="M80:M84" si="159">$E80*L80</f>
+        <f t="shared" ref="M80" si="160">$E80*L80</f>
         <v>1</v>
       </c>
       <c r="N80" s="4">
         <v>2.5</v>
       </c>
       <c r="O80" s="5">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.125</v>
       </c>
       <c r="P80" s="8">
-        <f t="shared" ref="P80:P82" si="160">$D80*O80</f>
+        <f t="shared" ref="P80" si="161">$D80*O80</f>
         <v>1.25</v>
       </c>
       <c r="Q80" s="12">
-        <f t="shared" ref="Q80:Q84" si="161">$E80*P80</f>
+        <f t="shared" ref="Q80" si="162">$E80*P80</f>
         <v>2.5</v>
       </c>
       <c r="R80" s="4">
         <v>1</v>
       </c>
       <c r="S80" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.05</v>
       </c>
       <c r="T80" s="8">
-        <f t="shared" ref="T80:T82" si="162">$D80*S80</f>
+        <f t="shared" ref="T80" si="163">$D80*S80</f>
         <v>0.5</v>
       </c>
       <c r="U80" s="12">
-        <f t="shared" ref="U80:U84" si="163">$E80*T80</f>
+        <f t="shared" ref="U80" si="164">$E80*T80</f>
         <v>1</v>
       </c>
       <c r="V80" s="4">
         <v>1.5</v>
       </c>
       <c r="W80" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="X80" s="8">
-        <f t="shared" ref="X80:X82" si="164">$D80*W80</f>
+        <f t="shared" ref="X80" si="165">$D80*W80</f>
         <v>0.75000000000000011</v>
       </c>
       <c r="Y80" s="12">
-        <f t="shared" ref="Y80:Y84" si="165">$E80*X80</f>
+        <f t="shared" ref="Y80" si="166">$E80*X80</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="Z80" s="4">
         <v>2</v>
       </c>
       <c r="AA80" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.1</v>
       </c>
       <c r="AB80" s="8">
-        <f t="shared" ref="AB80:AB82" si="166">$D80*AA80</f>
+        <f t="shared" ref="AB80" si="167">$D80*AA80</f>
         <v>1</v>
       </c>
       <c r="AC80" s="12">
-        <f t="shared" ref="AC80:AC84" si="167">$E80*AB80</f>
+        <f t="shared" ref="AC80" si="168">$E80*AB80</f>
         <v>2</v>
       </c>
     </row>
@@ -33318,7 +33318,7 @@
         <v>0.05</v>
       </c>
       <c r="D81" s="14">
-        <f xml:space="preserve"> (1/0.05)*0.5</f>
+        <f t="shared" si="145"/>
         <v>10</v>
       </c>
       <c r="E81" s="28">
@@ -33328,7 +33328,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>3.5</v>
       </c>
       <c r="H81" s="8">
@@ -33343,7 +33343,7 @@
         <v>60</v>
       </c>
       <c r="K81" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>3</v>
       </c>
       <c r="L81" s="8">
@@ -33358,7 +33358,7 @@
         <v>5</v>
       </c>
       <c r="O81" s="5">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.25</v>
       </c>
       <c r="P81" s="8">
@@ -33373,7 +33373,7 @@
         <v>15</v>
       </c>
       <c r="S81" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.75</v>
       </c>
       <c r="T81" s="8">
@@ -33388,7 +33388,7 @@
         <v>90</v>
       </c>
       <c r="W81" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>4.5</v>
       </c>
       <c r="X81" s="8">
@@ -33403,7 +33403,7 @@
         <v>70</v>
       </c>
       <c r="AA81" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>3.5</v>
       </c>
       <c r="AB81" s="8">
@@ -33427,88 +33427,88 @@
         <v>0.05</v>
       </c>
       <c r="D82" s="14">
-        <f xml:space="preserve"> (1/0.05)*0.5</f>
+        <f t="shared" si="145"/>
         <v>10</v>
       </c>
       <c r="E82" s="28">
         <v>2</v>
       </c>
       <c r="G82" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="H82" s="8">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="I82" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="K82" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="L82" s="8">
-        <f t="shared" ref="L82:L84" si="168">$D82*K82</f>
+        <f t="shared" ref="L82" si="169">$D82*K82</f>
         <v>0</v>
       </c>
       <c r="M82" s="12">
-        <f t="shared" ref="M82:M86" si="169">$E82*L82</f>
+        <f t="shared" ref="M82" si="170">$E82*L82</f>
         <v>0</v>
       </c>
       <c r="O82" s="5">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="P82" s="8">
-        <f t="shared" ref="P82:P84" si="170">$D82*O82</f>
+        <f t="shared" ref="P82" si="171">$D82*O82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="12">
-        <f t="shared" ref="Q82:Q86" si="171">$E82*P82</f>
+        <f t="shared" ref="Q82" si="172">$E82*P82</f>
         <v>0</v>
       </c>
       <c r="R82" s="4">
         <v>2.5</v>
       </c>
       <c r="S82" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.125</v>
       </c>
       <c r="T82" s="8">
-        <f t="shared" ref="T82:T84" si="172">$D82*S82</f>
+        <f t="shared" ref="T82" si="173">$D82*S82</f>
         <v>1.25</v>
       </c>
       <c r="U82" s="12">
-        <f t="shared" ref="U82:U86" si="173">$E82*T82</f>
+        <f t="shared" ref="U82" si="174">$E82*T82</f>
         <v>2.5</v>
       </c>
       <c r="V82" s="4">
         <v>1</v>
       </c>
       <c r="W82" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.05</v>
       </c>
       <c r="X82" s="8">
-        <f t="shared" ref="X82:X84" si="174">$D82*W82</f>
+        <f t="shared" ref="X82" si="175">$D82*W82</f>
         <v>0.5</v>
       </c>
       <c r="Y82" s="12">
-        <f t="shared" ref="Y82:Y86" si="175">$E82*X82</f>
+        <f t="shared" ref="Y82" si="176">$E82*X82</f>
         <v>1</v>
       </c>
       <c r="AA82" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="AB82" s="8">
-        <f t="shared" ref="AB82:AB84" si="176">$D82*AA82</f>
+        <f t="shared" ref="AB82" si="177">$D82*AA82</f>
         <v>0</v>
       </c>
       <c r="AC82" s="12">
-        <f t="shared" ref="AC82:AC86" si="177">$E82*AB82</f>
+        <f t="shared" ref="AC82" si="178">$E82*AB82</f>
         <v>0</v>
       </c>
     </row>
@@ -33524,14 +33524,14 @@
         <v>0.05</v>
       </c>
       <c r="D83" s="14">
-        <f xml:space="preserve"> (1/0.05)*0.5</f>
+        <f t="shared" si="145"/>
         <v>10</v>
       </c>
       <c r="E83" s="28">
         <v>2</v>
       </c>
       <c r="G83" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="H83" s="8">
@@ -33543,7 +33543,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="L83" s="8">
@@ -33555,7 +33555,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="5">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="P83" s="8">
@@ -33570,7 +33570,7 @@
         <v>80</v>
       </c>
       <c r="S83" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>4</v>
       </c>
       <c r="T83" s="8">
@@ -33585,7 +33585,7 @@
         <v>5</v>
       </c>
       <c r="W83" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.25</v>
       </c>
       <c r="X83" s="8">
@@ -33597,7 +33597,7 @@
         <v>5</v>
       </c>
       <c r="AA83" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="AB83" s="8">
@@ -33715,81 +33715,81 @@
       <c r="D85" s="27"/>
       <c r="E85" s="28"/>
       <c r="G85" s="5">
-        <f t="shared" ref="G85:G93" si="178">$C85*F85</f>
+        <f t="shared" ref="G85:G93" si="179">$C85*F85</f>
         <v>0</v>
       </c>
       <c r="H85" s="8">
-        <f t="shared" ref="H85:I93" si="179">G85</f>
+        <f t="shared" ref="H85:I93" si="180">G85</f>
         <v>0</v>
       </c>
       <c r="I85" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="J85" s="4">
         <v>60</v>
       </c>
       <c r="K85" s="5">
-        <f t="shared" ref="K85:K93" si="180">$C85*J85</f>
+        <f t="shared" ref="K85:K93" si="181">$C85*J85</f>
         <v>3</v>
       </c>
       <c r="L85" s="8">
-        <f t="shared" ref="L85:L93" si="181">K85</f>
+        <f t="shared" ref="L85:L93" si="182">K85</f>
         <v>3</v>
       </c>
       <c r="M85" s="12">
-        <f t="shared" ref="M85:M93" si="182">L85</f>
+        <f t="shared" ref="M85:M93" si="183">L85</f>
         <v>3</v>
       </c>
       <c r="O85" s="5">
-        <f t="shared" ref="O85:O93" si="183">$C85*N85</f>
+        <f t="shared" ref="O85:O93" si="184">$C85*N85</f>
         <v>0</v>
       </c>
       <c r="P85" s="8">
-        <f t="shared" ref="P85:P93" si="184">O85</f>
+        <f t="shared" ref="P85:P93" si="185">O85</f>
         <v>0</v>
       </c>
       <c r="Q85" s="12">
-        <f t="shared" ref="Q85:Q93" si="185">P85</f>
+        <f t="shared" ref="Q85:Q93" si="186">P85</f>
         <v>0</v>
       </c>
       <c r="R85" s="4">
         <v>90</v>
       </c>
       <c r="S85" s="5">
-        <f t="shared" ref="S85:S93" si="186">$C85*R85</f>
+        <f t="shared" ref="S85:S93" si="187">$C85*R85</f>
         <v>4.5</v>
       </c>
       <c r="T85" s="8">
-        <f t="shared" ref="T85:T93" si="187">S85</f>
+        <f t="shared" ref="T85:T93" si="188">S85</f>
         <v>4.5</v>
       </c>
       <c r="U85" s="12">
-        <f t="shared" ref="U85:U93" si="188">T85</f>
+        <f t="shared" ref="U85:U93" si="189">T85</f>
         <v>4.5</v>
       </c>
       <c r="W85" s="5">
-        <f t="shared" ref="W85:W93" si="189">$C85*V85</f>
+        <f t="shared" ref="W85:W93" si="190">$C85*V85</f>
         <v>0</v>
       </c>
       <c r="X85" s="8">
-        <f t="shared" ref="X85:X93" si="190">W85</f>
+        <f t="shared" ref="X85:X93" si="191">W85</f>
         <v>0</v>
       </c>
       <c r="Y85" s="12">
-        <f t="shared" ref="Y85:Y93" si="191">X85</f>
+        <f t="shared" ref="Y85:Y93" si="192">X85</f>
         <v>0</v>
       </c>
       <c r="AA85" s="5">
-        <f t="shared" ref="AA85:AA93" si="192">$C85*Z85</f>
+        <f t="shared" ref="AA85:AA93" si="193">$C85*Z85</f>
         <v>0</v>
       </c>
       <c r="AB85" s="8">
-        <f t="shared" ref="AB85:AB93" si="193">AA85</f>
+        <f t="shared" ref="AB85:AB93" si="194">AA85</f>
         <v>0</v>
       </c>
       <c r="AC85" s="12">
-        <f t="shared" ref="AC85:AC93" si="194">AB85</f>
+        <f t="shared" ref="AC85:AC93" si="195">AB85</f>
         <v>0</v>
       </c>
     </row>
@@ -33810,90 +33810,90 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="5">
-        <f t="shared" si="178"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H86" s="8">
         <f t="shared" si="179"/>
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="H86" s="8">
+        <f t="shared" si="180"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="I86" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J86" s="4">
         <v>0.4</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="180"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="L86" s="8">
         <f t="shared" si="181"/>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="M86" s="12">
+      <c r="L86" s="8">
         <f t="shared" si="182"/>
         <v>2.0000000000000004E-2</v>
       </c>
+      <c r="M86" s="12">
+        <f t="shared" si="183"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
       <c r="N86" s="4">
         <v>0.2</v>
       </c>
       <c r="O86" s="5">
-        <f t="shared" si="183"/>
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="P86" s="8">
         <f t="shared" si="184"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="Q86" s="12">
+      <c r="P86" s="8">
         <f t="shared" si="185"/>
         <v>1.0000000000000002E-2</v>
       </c>
+      <c r="Q86" s="12">
+        <f t="shared" si="186"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
       <c r="R86" s="4">
         <v>4</v>
       </c>
       <c r="S86" s="5">
-        <f t="shared" si="186"/>
-        <v>0.2</v>
-      </c>
-      <c r="T86" s="8">
         <f t="shared" si="187"/>
         <v>0.2</v>
       </c>
-      <c r="U86" s="12">
+      <c r="T86" s="8">
         <f t="shared" si="188"/>
         <v>0.2</v>
       </c>
+      <c r="U86" s="12">
+        <f t="shared" si="189"/>
+        <v>0.2</v>
+      </c>
       <c r="V86" s="4">
         <v>1</v>
       </c>
       <c r="W86" s="5">
-        <f t="shared" si="189"/>
-        <v>0.05</v>
-      </c>
-      <c r="X86" s="8">
         <f t="shared" si="190"/>
         <v>0.05</v>
       </c>
-      <c r="Y86" s="12">
+      <c r="X86" s="8">
         <f t="shared" si="191"/>
         <v>0.05</v>
       </c>
+      <c r="Y86" s="12">
+        <f t="shared" si="192"/>
+        <v>0.05</v>
+      </c>
       <c r="Z86" s="4">
         <v>1.5</v>
       </c>
       <c r="AA86" s="5">
-        <f t="shared" si="192"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="AB86" s="8">
         <f t="shared" si="193"/>
         <v>7.5000000000000011E-2</v>
       </c>
+      <c r="AB86" s="8">
+        <f t="shared" si="194"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
       <c r="AC86" s="12">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>7.5000000000000011E-2</v>
       </c>
     </row>
@@ -33914,90 +33914,90 @@
         <v>70</v>
       </c>
       <c r="G87" s="5">
-        <f t="shared" si="178"/>
-        <v>3.5</v>
-      </c>
-      <c r="H87" s="8">
         <f t="shared" si="179"/>
         <v>3.5</v>
       </c>
+      <c r="H87" s="8">
+        <f t="shared" si="180"/>
+        <v>3.5</v>
+      </c>
       <c r="I87" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>3.5</v>
       </c>
       <c r="J87" s="4">
         <v>60</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="180"/>
-        <v>3</v>
-      </c>
-      <c r="L87" s="8">
         <f t="shared" si="181"/>
         <v>3</v>
       </c>
-      <c r="M87" s="12">
+      <c r="L87" s="8">
         <f t="shared" si="182"/>
         <v>3</v>
       </c>
+      <c r="M87" s="12">
+        <f t="shared" si="183"/>
+        <v>3</v>
+      </c>
       <c r="N87" s="4">
         <v>70</v>
       </c>
       <c r="O87" s="5">
-        <f t="shared" si="183"/>
-        <v>3.5</v>
-      </c>
-      <c r="P87" s="8">
         <f t="shared" si="184"/>
         <v>3.5</v>
       </c>
-      <c r="Q87" s="12">
+      <c r="P87" s="8">
         <f t="shared" si="185"/>
         <v>3.5</v>
       </c>
+      <c r="Q87" s="12">
+        <f t="shared" si="186"/>
+        <v>3.5</v>
+      </c>
       <c r="R87" s="4">
         <v>100</v>
       </c>
       <c r="S87" s="5">
-        <f t="shared" si="186"/>
-        <v>5</v>
-      </c>
-      <c r="T87" s="8">
         <f t="shared" si="187"/>
         <v>5</v>
       </c>
-      <c r="U87" s="12">
+      <c r="T87" s="8">
         <f t="shared" si="188"/>
         <v>5</v>
       </c>
+      <c r="U87" s="12">
+        <f t="shared" si="189"/>
+        <v>5</v>
+      </c>
       <c r="V87" s="4">
         <v>90</v>
       </c>
       <c r="W87" s="5">
-        <f t="shared" si="189"/>
-        <v>4.5</v>
-      </c>
-      <c r="X87" s="8">
         <f t="shared" si="190"/>
         <v>4.5</v>
       </c>
-      <c r="Y87" s="12">
+      <c r="X87" s="8">
         <f t="shared" si="191"/>
         <v>4.5</v>
       </c>
+      <c r="Y87" s="12">
+        <f t="shared" si="192"/>
+        <v>4.5</v>
+      </c>
       <c r="Z87" s="4">
         <v>70</v>
       </c>
       <c r="AA87" s="5">
-        <f t="shared" si="192"/>
-        <v>3.5</v>
-      </c>
-      <c r="AB87" s="8">
         <f t="shared" si="193"/>
         <v>3.5</v>
       </c>
+      <c r="AB87" s="8">
+        <f t="shared" si="194"/>
+        <v>3.5</v>
+      </c>
       <c r="AC87" s="12">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>3.5</v>
       </c>
     </row>
@@ -34015,75 +34015,75 @@
       <c r="D88" s="27"/>
       <c r="E88" s="28"/>
       <c r="G88" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="H88" s="8">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="I88" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="K88" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="L88" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="M88" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="O88" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="P88" s="8">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="Q88" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="S88" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="T88" s="8">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="U88" s="12">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="W88" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="X88" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="Y88" s="12">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="AA88" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="AB88" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="AC88" s="12">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
     </row>
@@ -34101,75 +34101,75 @@
       <c r="D89" s="27"/>
       <c r="E89" s="28"/>
       <c r="G89" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="H89" s="8">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="I89" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="K89" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="L89" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="M89" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="O89" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="P89" s="8">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="Q89" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="S89" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="T89" s="8">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="U89" s="12">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="W89" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="X89" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="Y89" s="12">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="AA89" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="AB89" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="AC89" s="12">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
     </row>
@@ -34187,75 +34187,75 @@
       <c r="D90" s="27"/>
       <c r="E90" s="28"/>
       <c r="G90" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="H90" s="8">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="I90" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="L90" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="M90" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="O90" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="P90" s="8">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="Q90" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="S90" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="T90" s="8">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="U90" s="12">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="W90" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="X90" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="Y90" s="12">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="AA90" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="AB90" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="AC90" s="12">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
     </row>
@@ -34273,78 +34273,78 @@
       <c r="D91" s="27"/>
       <c r="E91" s="28"/>
       <c r="G91" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="H91" s="8">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="I91" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="K91" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="L91" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="M91" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="O91" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="P91" s="8">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="Q91" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="R91" s="4">
         <v>18</v>
       </c>
       <c r="S91" s="5">
-        <f t="shared" si="186"/>
-        <v>0.9</v>
-      </c>
-      <c r="T91" s="8">
         <f t="shared" si="187"/>
         <v>0.9</v>
       </c>
-      <c r="U91" s="12">
+      <c r="T91" s="8">
         <f t="shared" si="188"/>
         <v>0.9</v>
       </c>
+      <c r="U91" s="12">
+        <f t="shared" si="189"/>
+        <v>0.9</v>
+      </c>
       <c r="W91" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="X91" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="Y91" s="12">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="AA91" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="AB91" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="AC91" s="12">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
     </row>
@@ -34362,78 +34362,78 @@
       <c r="D92" s="27"/>
       <c r="E92" s="28"/>
       <c r="G92" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="H92" s="8">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="I92" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="L92" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="M92" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="O92" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="P92" s="8">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="Q92" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="R92" s="4">
         <v>1</v>
       </c>
       <c r="S92" s="5">
-        <f t="shared" si="186"/>
-        <v>0.05</v>
-      </c>
-      <c r="T92" s="8">
         <f t="shared" si="187"/>
         <v>0.05</v>
       </c>
-      <c r="U92" s="12">
+      <c r="T92" s="8">
         <f t="shared" si="188"/>
         <v>0.05</v>
       </c>
+      <c r="U92" s="12">
+        <f t="shared" si="189"/>
+        <v>0.05</v>
+      </c>
       <c r="W92" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="X92" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="Y92" s="12">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="AA92" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="AB92" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="AC92" s="12">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
     </row>
@@ -34451,78 +34451,78 @@
       <c r="D93" s="27"/>
       <c r="E93" s="28"/>
       <c r="G93" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="H93" s="8">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="I93" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="K93" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="L93" s="8">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="M93" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0</v>
       </c>
       <c r="O93" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="P93" s="8">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="Q93" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="R93" s="4">
         <v>5</v>
       </c>
       <c r="S93" s="5">
-        <f t="shared" si="186"/>
-        <v>0.25</v>
-      </c>
-      <c r="T93" s="8">
         <f t="shared" si="187"/>
         <v>0.25</v>
       </c>
-      <c r="U93" s="12">
+      <c r="T93" s="8">
         <f t="shared" si="188"/>
         <v>0.25</v>
       </c>
+      <c r="U93" s="12">
+        <f t="shared" si="189"/>
+        <v>0.25</v>
+      </c>
       <c r="W93" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="X93" s="8">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="Y93" s="12">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="AA93" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="AB93" s="8">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
       <c r="AC93" s="12">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
     </row>
@@ -44688,11 +44688,11 @@
       </c>
       <c r="AA42">
         <f>'12_Fire_ModSeverity'!P42</f>
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="AB42">
         <f>'12_Fire_ModSeverity'!Q42</f>
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="AC42">
         <f>'13_Fire_HighSeverity'!O42</f>

--- a/specifications/1_Fire/ScriptRules_Fire.xlsx
+++ b/specifications/1_Fire/ScriptRules_Fire.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\LF\landfiredisturbance\specifications\1_Fire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\LANDFIRE\landfiredisturbance\specifications\1_Fire\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -1216,9 +1216,6 @@
     <t>* = 1 /(0.5*1.25)</t>
   </si>
   <si>
-    <t>* = 1/(0.25*1.25)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + = OTree_Density * 0.4 + MidTree_Density * 0.4</t>
   </si>
   <si>
@@ -1315,9 +1312,6 @@
     <t>* = 1/0.05</t>
   </si>
   <si>
-    <t>* = 1/(0.05*1.5)</t>
-  </si>
-  <si>
     <t>* = (1/0.05)</t>
   </si>
   <si>
@@ -1343,6 +1337,12 @@
   </si>
   <si>
     <t>* = (1/0.05)*0.5</t>
+  </si>
+  <si>
+    <t>* = (1/(0.25*1.25))*0.33</t>
+  </si>
+  <si>
+    <t>* = (1/(0.05*1.5))*0.33</t>
   </si>
 </sst>
 </file>
@@ -2541,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2960,24 +2960,24 @@
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2989,24 +2989,24 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3018,24 +3018,24 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>405</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>406</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>405</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>406</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>405</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3046,29 +3046,29 @@
         <v>297</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3079,29 +3079,29 @@
         <v>298</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3112,29 +3112,29 @@
         <v>299</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3145,29 +3145,29 @@
         <v>300</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3178,29 +3178,29 @@
         <v>301</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>414</v>
-      </c>
       <c r="H25" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I25" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="J25" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="J25" s="14" t="s">
-        <v>417</v>
-      </c>
       <c r="K25" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3212,24 +3212,24 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3241,24 +3241,24 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3270,24 +3270,24 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3299,24 +3299,24 @@
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3328,24 +3328,24 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3357,24 +3357,24 @@
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3431,7 +3431,7 @@
         <v>5</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>391</v>
@@ -3466,10 +3466,10 @@
         <v>5</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>21</v>
@@ -3478,7 +3478,7 @@
         <v>23</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3508,7 +3508,7 @@
         <v>21</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K36" s="15"/>
     </row>
@@ -3532,7 +3532,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>391</v>
@@ -3567,10 +3567,10 @@
         <v>5</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>21</v>
@@ -3579,7 +3579,7 @@
         <v>23</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3609,7 +3609,7 @@
         <v>21</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K39" s="15"/>
     </row>
@@ -3638,7 +3638,7 @@
         <v>21</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K40" s="15"/>
     </row>
@@ -3660,14 +3660,14 @@
         <v>5</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K41" s="15"/>
     </row>
@@ -3689,14 +3689,14 @@
         <v>5</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K42" s="15"/>
     </row>
@@ -3725,7 +3725,7 @@
         <v>21</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K43" s="15"/>
     </row>
@@ -3754,7 +3754,7 @@
         <v>21</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K44" s="15"/>
     </row>
@@ -3776,14 +3776,14 @@
         <v>5</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K45" s="15"/>
     </row>
@@ -3805,14 +3805,14 @@
         <v>5</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -3841,7 +3841,7 @@
         <v>21</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K47" s="15"/>
     </row>
@@ -3868,7 +3868,7 @@
         <v>14</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>21</v>
@@ -3877,7 +3877,7 @@
         <v>18</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3903,7 +3903,7 @@
         <v>14</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>21</v>
@@ -3912,7 +3912,7 @@
         <v>18</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3938,7 +3938,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>21</v>
@@ -3947,7 +3947,7 @@
         <v>18</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3973,7 +3973,7 @@
         <v>14</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>21</v>
@@ -3982,7 +3982,7 @@
         <v>18</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -4008,7 +4008,7 @@
         <v>14</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>21</v>
@@ -4017,7 +4017,7 @@
         <v>18</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -4136,28 +4136,28 @@
         <v>0</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I56" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -4171,28 +4171,28 @@
         <v>0</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I57" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -4206,28 +4206,28 @@
         <v>0</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -4625,19 +4625,19 @@
         <v>5</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -4658,19 +4658,19 @@
         <v>5</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I79" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -4691,19 +4691,19 @@
         <v>5</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I80" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -4724,19 +4724,19 @@
         <v>5</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -4757,19 +4757,19 @@
         <v>5</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I82" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -4790,19 +4790,19 @@
         <v>5</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I83" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16495,10 +16495,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="450" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1:N1048576"/>
-      <selection pane="bottomLeft" activeCell="AB2" sqref="AB2"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16755,7 +16755,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L17" si="1">K3</f>
+        <f t="shared" ref="L3:L5" si="1">K3</f>
         <v>0</v>
       </c>
       <c r="M3" s="40">
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f t="shared" ref="P3:P17" si="3">O3</f>
+        <f t="shared" ref="P3:P5" si="3">O3</f>
         <v>0</v>
       </c>
       <c r="Q3" s="40">
@@ -16782,7 +16782,7 @@
         <v>2.9</v>
       </c>
       <c r="T3" s="8">
-        <f t="shared" ref="T3:T17" si="5">S3</f>
+        <f t="shared" ref="T3:T5" si="5">S3</f>
         <v>2.9</v>
       </c>
       <c r="U3" s="40">
@@ -16797,7 +16797,7 @@
         <v>14</v>
       </c>
       <c r="X3" s="8">
-        <f t="shared" ref="X3:X17" si="7">W3</f>
+        <f t="shared" ref="X3:X5" si="7">W3</f>
         <v>14</v>
       </c>
       <c r="Y3" s="40">
@@ -16812,7 +16812,7 @@
         <v>12</v>
       </c>
       <c r="AB3" s="8">
-        <f t="shared" ref="AB3:AB17" si="9">AA3</f>
+        <f t="shared" ref="AB3:AB5" si="9">AA3</f>
         <v>12</v>
       </c>
       <c r="AC3" s="40">
@@ -17242,7 +17242,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" ref="L8:L22" si="11">K8</f>
+        <f t="shared" ref="L8:L10" si="11">K8</f>
         <v>0</v>
       </c>
       <c r="M8" s="40">
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" ref="P8:P22" si="12">O8</f>
+        <f t="shared" ref="P8:P10" si="12">O8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="40">
@@ -17266,7 +17266,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="8">
-        <f t="shared" ref="T8:T22" si="13">S8</f>
+        <f t="shared" ref="T8:T10" si="13">S8</f>
         <v>0</v>
       </c>
       <c r="U8" s="40">
@@ -17281,7 +17281,7 @@
         <v>7.5</v>
       </c>
       <c r="X8" s="8">
-        <f t="shared" ref="X8:X22" si="14">W8</f>
+        <f t="shared" ref="X8:X10" si="14">W8</f>
         <v>7.5</v>
       </c>
       <c r="Y8" s="40">
@@ -17293,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="8">
-        <f t="shared" ref="AB8:AB22" si="15">AA8</f>
+        <f t="shared" ref="AB8:AB10" si="15">AA8</f>
         <v>0</v>
       </c>
       <c r="AC8" s="40">
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" ref="L13:L27" si="16">K13</f>
+        <f t="shared" ref="L13:L15" si="16">K13</f>
         <v>0</v>
       </c>
       <c r="M13" s="40">
@@ -17699,7 +17699,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="8">
-        <f t="shared" ref="P13:P27" si="17">O13</f>
+        <f t="shared" ref="P13:P15" si="17">O13</f>
         <v>0</v>
       </c>
       <c r="Q13" s="40">
@@ -17714,7 +17714,7 @@
         <v>0.5</v>
       </c>
       <c r="T13" s="8">
-        <f t="shared" ref="T13:T27" si="18">S13</f>
+        <f t="shared" ref="T13:T15" si="18">S13</f>
         <v>0.5</v>
       </c>
       <c r="U13" s="40">
@@ -17729,7 +17729,7 @@
         <v>1.7</v>
       </c>
       <c r="X13" s="8">
-        <f t="shared" ref="X13:X27" si="19">W13</f>
+        <f t="shared" ref="X13:X15" si="19">W13</f>
         <v>1.7</v>
       </c>
       <c r="Y13" s="40">
@@ -17744,7 +17744,7 @@
         <v>1</v>
       </c>
       <c r="AB13" s="8">
-        <f t="shared" ref="AB13:AB27" si="20">AA13</f>
+        <f t="shared" ref="AB13:AB15" si="20">AA13</f>
         <v>1</v>
       </c>
       <c r="AC13" s="40">
@@ -18797,7 +18797,7 @@
         <v>301</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>379</v>
@@ -19014,7 +19014,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="40">
-        <f t="shared" ref="M27:M29" si="45">L19</f>
+        <f t="shared" ref="M27" si="45">L19</f>
         <v>0</v>
       </c>
       <c r="O27" s="5">
@@ -19026,7 +19026,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="40">
-        <f t="shared" ref="Q27:Q29" si="46">P19</f>
+        <f t="shared" ref="Q27" si="46">P19</f>
         <v>0</v>
       </c>
       <c r="R27" s="4">
@@ -19041,7 +19041,7 @@
         <v>25</v>
       </c>
       <c r="U27" s="40">
-        <f t="shared" ref="U27:U29" si="47">T19</f>
+        <f t="shared" ref="U27" si="47">T19</f>
         <v>25</v>
       </c>
       <c r="V27" s="4">
@@ -19056,7 +19056,7 @@
         <v>55</v>
       </c>
       <c r="Y27" s="40">
-        <f t="shared" ref="Y27:Y29" si="48">X19</f>
+        <f t="shared" ref="Y27" si="48">X19</f>
         <v>50</v>
       </c>
       <c r="Z27" s="4">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="40">
-        <f t="shared" ref="AC27:AC29" si="49">AB19</f>
+        <f t="shared" ref="AC27" si="49">AB19</f>
         <v>78</v>
       </c>
     </row>
@@ -19500,7 +19500,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" ref="L32:L39" si="61">K32</f>
+        <f t="shared" ref="L32:L33" si="61">K32</f>
         <v>0</v>
       </c>
       <c r="M32" s="40">
@@ -19512,7 +19512,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" ref="P32:P39" si="62">O32</f>
+        <f t="shared" ref="P32:P33" si="62">O32</f>
         <v>0</v>
       </c>
       <c r="Q32" s="40">
@@ -19527,7 +19527,7 @@
         <v>4</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" ref="T32:T39" si="63">S32</f>
+        <f t="shared" ref="T32:T33" si="63">S32</f>
         <v>4</v>
       </c>
       <c r="U32" s="40">
@@ -19542,7 +19542,7 @@
         <v>15</v>
       </c>
       <c r="X32" s="8">
-        <f t="shared" ref="X32:X39" si="64">W32</f>
+        <f t="shared" ref="X32:X33" si="64">W32</f>
         <v>15</v>
       </c>
       <c r="Y32" s="40">
@@ -19554,7 +19554,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="8">
-        <f t="shared" ref="AB32:AB39" si="65">AA32</f>
+        <f t="shared" ref="AB32:AB33" si="65">AA32</f>
         <v>0</v>
       </c>
       <c r="AC32" s="40">
@@ -19690,11 +19690,11 @@
         <v>5</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" ref="K34:K58" si="68">$C34*J34</f>
+        <f t="shared" ref="K34:K39" si="68">$C34*J34</f>
         <v>1.25</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" ref="L34:L37" si="69">$D34*K34</f>
+        <f t="shared" ref="L34" si="69">$D34*K34</f>
         <v>2.5</v>
       </c>
       <c r="M34" s="41">
@@ -19705,11 +19705,11 @@
         <v>3</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34:O58" si="70">$C34*N34</f>
+        <f t="shared" ref="O34:O39" si="70">$C34*N34</f>
         <v>0.75</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" ref="P34:P37" si="71">$D34*O34</f>
+        <f t="shared" ref="P34" si="71">$D34*O34</f>
         <v>1.5</v>
       </c>
       <c r="Q34" s="41">
@@ -19720,11 +19720,11 @@
         <v>5</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" ref="S34:S58" si="72">$C34*R34</f>
+        <f t="shared" ref="S34:S39" si="72">$C34*R34</f>
         <v>1.25</v>
       </c>
       <c r="T34" s="8">
-        <f t="shared" ref="T34:T37" si="73">$D34*S34</f>
+        <f t="shared" ref="T34" si="73">$D34*S34</f>
         <v>2.5</v>
       </c>
       <c r="U34" s="41">
@@ -19735,11 +19735,11 @@
         <v>6</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" ref="W34:W58" si="74">$C34*V34</f>
+        <f t="shared" ref="W34:W39" si="74">$C34*V34</f>
         <v>1.5</v>
       </c>
       <c r="X34" s="8">
-        <f t="shared" ref="X34:X37" si="75">$D34*W34</f>
+        <f t="shared" ref="X34" si="75">$D34*W34</f>
         <v>3</v>
       </c>
       <c r="Y34" s="41">
@@ -19750,11 +19750,11 @@
         <v>5</v>
       </c>
       <c r="AA34" s="5">
-        <f t="shared" ref="AA34:AA58" si="76">$C34*Z34</f>
+        <f t="shared" ref="AA34:AA39" si="76">$C34*Z34</f>
         <v>1.25</v>
       </c>
       <c r="AB34" s="8">
-        <f t="shared" ref="AB34:AB37" si="77">$D34*AA34</f>
+        <f t="shared" ref="AB34" si="77">$D34*AA34</f>
         <v>2.5</v>
       </c>
       <c r="AC34" s="41">
@@ -20021,7 +20021,7 @@
         <v>0.5</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" ref="L37:L40" si="78">$D37*K37</f>
+        <f t="shared" ref="L37" si="78">$D37*K37</f>
         <v>1</v>
       </c>
       <c r="M37" s="41">
@@ -20033,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" ref="P37:P40" si="79">$D37*O37</f>
+        <f t="shared" ref="P37" si="79">$D37*O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="41">
@@ -20048,7 +20048,7 @@
         <v>0.25</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" ref="T37:T40" si="80">$D37*S37</f>
+        <f t="shared" ref="T37" si="80">$D37*S37</f>
         <v>0.5</v>
       </c>
       <c r="U37" s="41">
@@ -20060,7 +20060,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" ref="X37:X40" si="81">$D37*W37</f>
+        <f t="shared" ref="X37" si="81">$D37*W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="41">
@@ -20072,7 +20072,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="8">
-        <f t="shared" ref="AB37:AB40" si="82">$D37*AA37</f>
+        <f t="shared" ref="AB37" si="82">$D37*AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="41">
@@ -20415,7 +20415,7 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" ref="K41:K65" si="89">$C41*J41</f>
+        <f t="shared" ref="K41:K47" si="89">$C41*J41</f>
         <v>0</v>
       </c>
       <c r="L41" s="8">
@@ -20430,7 +20430,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" ref="O41:O65" si="90">$C41*N41</f>
+        <f t="shared" ref="O41:O47" si="90">$C41*N41</f>
         <v>0.25</v>
       </c>
       <c r="P41" s="8">
@@ -20445,7 +20445,7 @@
         <v>0.01</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" ref="S41:S65" si="91">$C41*R41</f>
+        <f t="shared" ref="S41:S47" si="91">$C41*R41</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="T41" s="8">
@@ -20460,7 +20460,7 @@
         <v>0.4</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" ref="W41:W65" si="92">$C41*V41</f>
+        <f t="shared" ref="W41:W47" si="92">$C41*V41</f>
         <v>0.1</v>
       </c>
       <c r="X41" s="8">
@@ -20475,7 +20475,7 @@
         <v>0.1</v>
       </c>
       <c r="AA41" s="5">
-        <f t="shared" ref="AA41:AA65" si="93">$C41*Z41</f>
+        <f t="shared" ref="AA41:AA47" si="93">$C41*Z41</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AB41" s="8">
@@ -21114,8 +21114,8 @@
         <v>1.25</v>
       </c>
       <c r="E48" s="31">
-        <f>1/(0.25*1.25)</f>
-        <v>3.2</v>
+        <f>1/(0.25*1.25)*0.33</f>
+        <v>1.056</v>
       </c>
       <c r="F48" s="4">
         <v>4</v>
@@ -21130,7 +21130,7 @@
       </c>
       <c r="I48" s="41">
         <f t="shared" ref="I48:I55" si="95">$E48*H48</f>
-        <v>4</v>
+        <v>1.32</v>
       </c>
       <c r="J48" s="4">
         <v>1</v>
@@ -21145,7 +21145,7 @@
       </c>
       <c r="M48" s="41">
         <f t="shared" ref="M48:M55" si="97">$E48*L48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O48" s="5">
         <f>$C48*N48</f>
@@ -21172,7 +21172,7 @@
       </c>
       <c r="U48" s="41">
         <f t="shared" ref="U48:U55" si="101">$E48*T48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="V48" s="4">
         <v>1</v>
@@ -21187,7 +21187,7 @@
       </c>
       <c r="Y48" s="41">
         <f t="shared" ref="Y48:Y55" si="103">$E48*X48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="Z48" s="4">
         <v>0.5</v>
@@ -21202,7 +21202,7 @@
       </c>
       <c r="AC48" s="41">
         <f t="shared" ref="AC48:AC55" si="105">$E48*AB48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21220,8 +21220,8 @@
         <v>1.25</v>
       </c>
       <c r="E49" s="31">
-        <f>1/(0.25*1.25)</f>
-        <v>3.2</v>
+        <f>1/(0.25*1.25)*0.33</f>
+        <v>1.056</v>
       </c>
       <c r="F49" s="4">
         <v>70</v>
@@ -21236,13 +21236,13 @@
       </c>
       <c r="I49" s="41">
         <f t="shared" si="95"/>
-        <v>70</v>
+        <v>23.1</v>
       </c>
       <c r="J49" s="4">
         <v>50</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" ref="K49:K73" si="106">$C49*J49</f>
+        <f t="shared" ref="K49:K58" si="106">$C49*J49</f>
         <v>12.5</v>
       </c>
       <c r="L49" s="8">
@@ -21251,10 +21251,10 @@
       </c>
       <c r="M49" s="41">
         <f t="shared" si="97"/>
-        <v>50</v>
+        <v>16.5</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" ref="O49:O73" si="107">$C49*N49</f>
+        <f t="shared" ref="O49:O58" si="107">$C49*N49</f>
         <v>0</v>
       </c>
       <c r="P49" s="8">
@@ -21269,7 +21269,7 @@
         <v>30</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" ref="S49:S73" si="108">$C49*R49</f>
+        <f t="shared" ref="S49:S58" si="108">$C49*R49</f>
         <v>7.5</v>
       </c>
       <c r="T49" s="8">
@@ -21278,13 +21278,13 @@
       </c>
       <c r="U49" s="41">
         <f t="shared" si="101"/>
-        <v>30</v>
+        <v>9.9</v>
       </c>
       <c r="V49" s="4">
         <v>40</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" ref="W49:W73" si="109">$C49*V49</f>
+        <f t="shared" ref="W49:W58" si="109">$C49*V49</f>
         <v>10</v>
       </c>
       <c r="X49" s="8">
@@ -21293,13 +21293,13 @@
       </c>
       <c r="Y49" s="41">
         <f t="shared" si="103"/>
-        <v>40</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="Z49" s="4">
         <v>15</v>
       </c>
       <c r="AA49" s="5">
-        <f t="shared" ref="AA49:AA73" si="110">$C49*Z49</f>
+        <f t="shared" ref="AA49:AA58" si="110">$C49*Z49</f>
         <v>3.75</v>
       </c>
       <c r="AB49" s="8">
@@ -21308,7 +21308,7 @@
       </c>
       <c r="AC49" s="41">
         <f t="shared" si="105"/>
-        <v>15</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21326,8 +21326,8 @@
         <v>1.25</v>
       </c>
       <c r="E50" s="31">
-        <f>1/(0.25*1.25)</f>
-        <v>3.2</v>
+        <f>1/(0.25*1.25)*0.33</f>
+        <v>1.056</v>
       </c>
       <c r="F50" s="4">
         <v>2</v>
@@ -21342,7 +21342,7 @@
       </c>
       <c r="I50" s="41">
         <f t="shared" si="95"/>
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="J50" s="4">
         <v>1</v>
@@ -21357,7 +21357,7 @@
       </c>
       <c r="M50" s="41">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O50" s="5">
         <f t="shared" si="107"/>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="U50" s="41">
         <f t="shared" si="101"/>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="V50" s="4">
         <v>1</v>
@@ -21399,7 +21399,7 @@
       </c>
       <c r="Y50" s="41">
         <f t="shared" si="103"/>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="Z50" s="4">
         <v>0.3</v>
@@ -21414,7 +21414,7 @@
       </c>
       <c r="AC50" s="41">
         <f t="shared" si="105"/>
-        <v>0.30000000000000004</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21432,8 +21432,8 @@
         <v>1.25</v>
       </c>
       <c r="E51" s="31">
-        <f>1/(0.25*1.25)</f>
-        <v>3.2</v>
+        <f>1/(0.25*1.25)*0.33</f>
+        <v>1.056</v>
       </c>
       <c r="F51" s="4">
         <v>1.5</v>
@@ -21448,7 +21448,7 @@
       </c>
       <c r="I51" s="41">
         <f t="shared" si="95"/>
-        <v>1.5</v>
+        <v>0.495</v>
       </c>
       <c r="J51" s="4">
         <v>1</v>
@@ -21463,7 +21463,7 @@
       </c>
       <c r="M51" s="41">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O51" s="5">
         <f t="shared" si="107"/>
@@ -21490,7 +21490,7 @@
       </c>
       <c r="U51" s="41">
         <f t="shared" si="101"/>
-        <v>0.2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="V51" s="4">
         <v>0.5</v>
@@ -21505,7 +21505,7 @@
       </c>
       <c r="Y51" s="41">
         <f t="shared" si="103"/>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Z51" s="4">
         <v>0.4</v>
@@ -21520,7 +21520,7 @@
       </c>
       <c r="AC51" s="41">
         <f t="shared" si="105"/>
-        <v>0.4</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21538,8 +21538,8 @@
         <v>1.25</v>
       </c>
       <c r="E52" s="31">
-        <f>1/(0.25*1.25)</f>
-        <v>3.2</v>
+        <f>1/(0.25*1.25)*0.33</f>
+        <v>1.056</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -21554,7 +21554,7 @@
       </c>
       <c r="I52" s="41">
         <f t="shared" si="95"/>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="J52" s="4">
         <v>0.5</v>
@@ -21569,7 +21569,7 @@
       </c>
       <c r="M52" s="41">
         <f t="shared" si="97"/>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="O52" s="5">
         <f t="shared" si="107"/>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="U52" s="41">
         <f t="shared" si="101"/>
-        <v>0.1</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="V52" s="4">
         <v>0.3</v>
@@ -21611,7 +21611,7 @@
       </c>
       <c r="Y52" s="41">
         <f t="shared" si="103"/>
-        <v>0.30000000000000004</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="Z52" s="4">
         <v>0.02</v>
@@ -21626,7 +21626,7 @@
       </c>
       <c r="AC52" s="41">
         <f t="shared" si="105"/>
-        <v>2.0000000000000004E-2</v>
+        <v>6.6000000000000008E-3</v>
       </c>
     </row>
     <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -22366,7 +22366,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="40">
-        <f t="shared" ref="M60:M78" si="117">L60</f>
+        <f t="shared" ref="M60:M77" si="117">L60</f>
         <v>0</v>
       </c>
       <c r="O60" s="5">
@@ -22378,7 +22378,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="40">
-        <f t="shared" ref="Q60:Q78" si="118">P60</f>
+        <f t="shared" ref="Q60:Q77" si="118">P60</f>
         <v>0</v>
       </c>
       <c r="R60" s="4">
@@ -22393,7 +22393,7 @@
         <v>2</v>
       </c>
       <c r="U60" s="40">
-        <f t="shared" ref="U60:U78" si="119">T60</f>
+        <f t="shared" ref="U60:U77" si="119">T60</f>
         <v>2</v>
       </c>
       <c r="W60" s="5">
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="40">
-        <f t="shared" ref="Y60:Y78" si="120">X60</f>
+        <f t="shared" ref="Y60:Y77" si="120">X60</f>
         <v>0</v>
       </c>
       <c r="AA60" s="5">
@@ -22417,7 +22417,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="40">
-        <f t="shared" ref="AC60:AC78" si="121">AB60</f>
+        <f t="shared" ref="AC60:AC77" si="121">AB60</f>
         <v>0</v>
       </c>
     </row>
@@ -24123,7 +24123,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="41">
-        <f t="shared" ref="M79:M83" si="140">$E79*L79</f>
+        <f t="shared" ref="M79" si="140">$E79*L79</f>
         <v>0</v>
       </c>
       <c r="O79" s="5">
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="41">
-        <f t="shared" ref="Q79:Q83" si="143">$E79*P79</f>
+        <f t="shared" ref="Q79" si="143">$E79*P79</f>
         <v>0</v>
       </c>
       <c r="R79" s="4">
@@ -24150,7 +24150,7 @@
         <v>2.5</v>
       </c>
       <c r="U79" s="41">
-        <f t="shared" ref="U79:U83" si="146">$E79*T79</f>
+        <f t="shared" ref="U79" si="146">$E79*T79</f>
         <v>5</v>
       </c>
       <c r="W79" s="5">
@@ -24162,7 +24162,7 @@
         <v>0</v>
       </c>
       <c r="Y79" s="41">
-        <f t="shared" ref="Y79:Y83" si="149">$E79*X79</f>
+        <f t="shared" ref="Y79" si="149">$E79*X79</f>
         <v>0</v>
       </c>
       <c r="AA79" s="5">
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="AC79" s="41">
-        <f t="shared" ref="AC79:AC83" si="152">$E79*AB79</f>
+        <f t="shared" ref="AC79" si="152">$E79*AB79</f>
         <v>0</v>
       </c>
     </row>
@@ -24332,7 +24332,7 @@
         <v>30</v>
       </c>
       <c r="M81" s="41">
-        <f t="shared" ref="M81:M85" si="153">$E81*L81</f>
+        <f t="shared" ref="M81:M83" si="153">$E81*L81</f>
         <v>60</v>
       </c>
       <c r="N81" s="4">
@@ -24347,7 +24347,7 @@
         <v>2.5</v>
       </c>
       <c r="Q81" s="41">
-        <f t="shared" ref="Q81:Q85" si="154">$E81*P81</f>
+        <f t="shared" ref="Q81:Q83" si="154">$E81*P81</f>
         <v>5</v>
       </c>
       <c r="R81" s="4">
@@ -24362,7 +24362,7 @@
         <v>7.5</v>
       </c>
       <c r="U81" s="41">
-        <f t="shared" ref="U81:U85" si="155">$E81*T81</f>
+        <f t="shared" ref="U81:U83" si="155">$E81*T81</f>
         <v>15</v>
       </c>
       <c r="V81" s="4">
@@ -24377,7 +24377,7 @@
         <v>45</v>
       </c>
       <c r="Y81" s="41">
-        <f t="shared" ref="Y81:Y85" si="156">$E81*X81</f>
+        <f t="shared" ref="Y81:Y83" si="156">$E81*X81</f>
         <v>90</v>
       </c>
       <c r="Z81" s="4">
@@ -24392,7 +24392,7 @@
         <v>35</v>
       </c>
       <c r="AC81" s="41">
-        <f t="shared" ref="AC81:AC85" si="157">$E81*AB81</f>
+        <f t="shared" ref="AC81:AC83" si="157">$E81*AB81</f>
         <v>70</v>
       </c>
     </row>
@@ -25516,8 +25516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27816,7 +27816,7 @@
         <v>301</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>383</v>
@@ -30133,8 +30133,8 @@
         <v>1.5</v>
       </c>
       <c r="E48" s="31">
-        <f>1/(0.05*1.5)</f>
-        <v>13.333333333333332</v>
+        <f>1/(0.05*1.5)*0.33</f>
+        <v>4.3999999999999995</v>
       </c>
       <c r="F48" s="4">
         <v>4</v>
@@ -30149,7 +30149,7 @@
       </c>
       <c r="I48" s="12">
         <f t="shared" ref="I48:I53" si="105">$E48*H48</f>
-        <v>4</v>
+        <v>1.32</v>
       </c>
       <c r="J48" s="4">
         <v>1</v>
@@ -30164,7 +30164,7 @@
       </c>
       <c r="M48" s="12">
         <f t="shared" ref="M48:M55" si="107">$E48*L48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O48" s="5">
         <f>$C48*N48</f>
@@ -30191,7 +30191,7 @@
       </c>
       <c r="U48" s="12">
         <f t="shared" ref="U48:U55" si="111">$E48*T48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="V48" s="4">
         <v>1</v>
@@ -30206,7 +30206,7 @@
       </c>
       <c r="Y48" s="12">
         <f t="shared" ref="Y48:Y55" si="113">$E48*X48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="Z48" s="4">
         <v>0.5</v>
@@ -30221,7 +30221,7 @@
       </c>
       <c r="AC48" s="12">
         <f t="shared" ref="AC48:AC55" si="115">$E48*AB48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -30239,8 +30239,8 @@
         <v>1.5</v>
       </c>
       <c r="E49" s="31">
-        <f xml:space="preserve"> 1/(0.05*1.5)</f>
-        <v>13.333333333333332</v>
+        <f>1/(0.05*1.5)*0.33</f>
+        <v>4.3999999999999995</v>
       </c>
       <c r="F49" s="4">
         <v>70</v>
@@ -30255,7 +30255,7 @@
       </c>
       <c r="I49" s="12">
         <f t="shared" si="105"/>
-        <v>70</v>
+        <v>23.099999999999998</v>
       </c>
       <c r="J49" s="4">
         <v>50</v>
@@ -30270,7 +30270,7 @@
       </c>
       <c r="M49" s="12">
         <f t="shared" si="107"/>
-        <v>49.999999999999993</v>
+        <v>16.499999999999996</v>
       </c>
       <c r="O49" s="5">
         <f t="shared" ref="O49:O58" si="117">$C49*N49</f>
@@ -30297,7 +30297,7 @@
       </c>
       <c r="U49" s="12">
         <f t="shared" si="111"/>
-        <v>29.999999999999996</v>
+        <v>9.8999999999999986</v>
       </c>
       <c r="V49" s="4">
         <v>40</v>
@@ -30312,7 +30312,7 @@
       </c>
       <c r="Y49" s="12">
         <f t="shared" si="113"/>
-        <v>40</v>
+        <v>13.2</v>
       </c>
       <c r="Z49" s="4">
         <v>15</v>
@@ -30327,7 +30327,7 @@
       </c>
       <c r="AC49" s="12">
         <f t="shared" si="115"/>
-        <v>14.999999999999998</v>
+        <v>4.9499999999999993</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -30345,8 +30345,8 @@
         <v>1.5</v>
       </c>
       <c r="E50" s="31">
-        <f xml:space="preserve"> 1/(0.05*1.5)</f>
-        <v>13.333333333333332</v>
+        <f>1/(0.05*1.5)*0.33</f>
+        <v>4.3999999999999995</v>
       </c>
       <c r="F50" s="4">
         <v>2</v>
@@ -30361,7 +30361,7 @@
       </c>
       <c r="I50" s="12">
         <f t="shared" si="105"/>
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="J50" s="4">
         <v>1</v>
@@ -30376,7 +30376,7 @@
       </c>
       <c r="M50" s="12">
         <f t="shared" si="107"/>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O50" s="5">
         <f t="shared" si="117"/>
@@ -30403,7 +30403,7 @@
       </c>
       <c r="U50" s="12">
         <f t="shared" si="111"/>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="V50" s="4">
         <v>1</v>
@@ -30418,7 +30418,7 @@
       </c>
       <c r="Y50" s="12">
         <f t="shared" si="113"/>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="Z50" s="4">
         <v>0.3</v>
@@ -30433,7 +30433,7 @@
       </c>
       <c r="AC50" s="12">
         <f t="shared" si="115"/>
-        <v>0.3</v>
+        <v>9.8999999999999991E-2</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -30451,8 +30451,8 @@
         <v>1.5</v>
       </c>
       <c r="E51" s="31">
-        <f xml:space="preserve"> 1/(0.05*1.5)</f>
-        <v>13.333333333333332</v>
+        <f>1/(0.05*1.5)*0.33</f>
+        <v>4.3999999999999995</v>
       </c>
       <c r="F51" s="4">
         <v>1.5</v>
@@ -30467,7 +30467,7 @@
       </c>
       <c r="I51" s="12">
         <f t="shared" si="105"/>
-        <v>1.5</v>
+        <v>0.495</v>
       </c>
       <c r="J51" s="4">
         <v>1</v>
@@ -30482,7 +30482,7 @@
       </c>
       <c r="M51" s="12">
         <f t="shared" si="107"/>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O51" s="5">
         <f t="shared" si="117"/>
@@ -30509,7 +30509,7 @@
       </c>
       <c r="U51" s="12">
         <f t="shared" si="111"/>
-        <v>0.2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="V51" s="4">
         <v>0.5</v>
@@ -30524,7 +30524,7 @@
       </c>
       <c r="Y51" s="12">
         <f t="shared" si="113"/>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Z51" s="4">
         <v>0.4</v>
@@ -30539,7 +30539,7 @@
       </c>
       <c r="AC51" s="12">
         <f t="shared" si="115"/>
-        <v>0.4</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -30557,8 +30557,8 @@
         <v>1.5</v>
       </c>
       <c r="E52" s="31">
-        <f xml:space="preserve"> 1/(0.05*1.5)</f>
-        <v>13.333333333333332</v>
+        <f>1/(0.05*1.5)*0.33</f>
+        <v>4.3999999999999995</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -30573,7 +30573,7 @@
       </c>
       <c r="I52" s="12">
         <f t="shared" si="105"/>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="J52" s="4">
         <v>0.5</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="M52" s="12">
         <f t="shared" si="107"/>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="O52" s="5">
         <f t="shared" si="117"/>
@@ -30615,7 +30615,7 @@
       </c>
       <c r="U52" s="12">
         <f t="shared" si="111"/>
-        <v>0.1</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="V52" s="4">
         <v>0.3</v>
@@ -30630,7 +30630,7 @@
       </c>
       <c r="Y52" s="12">
         <f t="shared" si="113"/>
-        <v>0.3</v>
+        <v>9.8999999999999991E-2</v>
       </c>
       <c r="Z52" s="4">
         <v>0.02</v>
@@ -30645,7 +30645,7 @@
       </c>
       <c r="AC52" s="12">
         <f t="shared" si="115"/>
-        <v>1.9999999999999997E-2</v>
+        <v>6.5999999999999991E-3</v>
       </c>
     </row>
     <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -30975,10 +30975,10 @@
         <v>0.5</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -31074,10 +31074,10 @@
         <v>0.5</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F57" s="4">
         <v>11</v>
@@ -31173,10 +31173,10 @@
         <v>0.5</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -46088,7 +46088,7 @@
       </c>
       <c r="H48">
         <f>'12_Fire_ModSeverity'!I48</f>
-        <v>4</v>
+        <v>1.32</v>
       </c>
       <c r="I48">
         <f>'13_Fire_HighSeverity'!G48</f>
@@ -46100,7 +46100,7 @@
       </c>
       <c r="K48">
         <f>'13_Fire_HighSeverity'!I48</f>
-        <v>4</v>
+        <v>1.32</v>
       </c>
       <c r="L48">
         <f>'11_Fire_LowSeverity'!J48</f>
@@ -46128,7 +46128,7 @@
       </c>
       <c r="R48">
         <f>'12_Fire_ModSeverity'!M48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="S48">
         <f>'13_Fire_HighSeverity'!K48</f>
@@ -46140,7 +46140,7 @@
       </c>
       <c r="U48">
         <f>'13_Fire_HighSeverity'!M48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="V48">
         <f>'11_Fire_LowSeverity'!N48</f>
@@ -46208,7 +46208,7 @@
       </c>
       <c r="AL48">
         <f>'12_Fire_ModSeverity'!U48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AM48">
         <f>'13_Fire_HighSeverity'!S48</f>
@@ -46220,7 +46220,7 @@
       </c>
       <c r="AO48">
         <f>'13_Fire_HighSeverity'!U48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AP48">
         <f>'11_Fire_LowSeverity'!V48</f>
@@ -46248,7 +46248,7 @@
       </c>
       <c r="AV48">
         <f>'12_Fire_ModSeverity'!Y48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AW48">
         <f>'13_Fire_HighSeverity'!W48</f>
@@ -46260,7 +46260,7 @@
       </c>
       <c r="AY48">
         <f>'13_Fire_HighSeverity'!Y48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AZ48">
         <f>'11_Fire_LowSeverity'!Z48</f>
@@ -46288,7 +46288,7 @@
       </c>
       <c r="BF48">
         <f>'12_Fire_ModSeverity'!AC48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="BG48">
         <f>'13_Fire_HighSeverity'!AA48</f>
@@ -46300,7 +46300,7 @@
       </c>
       <c r="BI48">
         <f>'13_Fire_HighSeverity'!AC48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
@@ -46334,7 +46334,7 @@
       </c>
       <c r="H49">
         <f>'12_Fire_ModSeverity'!I49</f>
-        <v>70</v>
+        <v>23.1</v>
       </c>
       <c r="I49">
         <f>'13_Fire_HighSeverity'!G49</f>
@@ -46346,7 +46346,7 @@
       </c>
       <c r="K49">
         <f>'13_Fire_HighSeverity'!I49</f>
-        <v>70</v>
+        <v>23.099999999999998</v>
       </c>
       <c r="L49">
         <f>'11_Fire_LowSeverity'!J49</f>
@@ -46374,7 +46374,7 @@
       </c>
       <c r="R49">
         <f>'12_Fire_ModSeverity'!M49</f>
-        <v>50</v>
+        <v>16.5</v>
       </c>
       <c r="S49">
         <f>'13_Fire_HighSeverity'!K49</f>
@@ -46386,7 +46386,7 @@
       </c>
       <c r="U49">
         <f>'13_Fire_HighSeverity'!M49</f>
-        <v>49.999999999999993</v>
+        <v>16.499999999999996</v>
       </c>
       <c r="V49">
         <f>'11_Fire_LowSeverity'!N49</f>
@@ -46454,7 +46454,7 @@
       </c>
       <c r="AL49">
         <f>'12_Fire_ModSeverity'!U49</f>
-        <v>30</v>
+        <v>9.9</v>
       </c>
       <c r="AM49">
         <f>'13_Fire_HighSeverity'!S49</f>
@@ -46466,7 +46466,7 @@
       </c>
       <c r="AO49">
         <f>'13_Fire_HighSeverity'!U49</f>
-        <v>29.999999999999996</v>
+        <v>9.8999999999999986</v>
       </c>
       <c r="AP49">
         <f>'11_Fire_LowSeverity'!V49</f>
@@ -46494,7 +46494,7 @@
       </c>
       <c r="AV49">
         <f>'12_Fire_ModSeverity'!Y49</f>
-        <v>40</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="AW49">
         <f>'13_Fire_HighSeverity'!W49</f>
@@ -46506,7 +46506,7 @@
       </c>
       <c r="AY49">
         <f>'13_Fire_HighSeverity'!Y49</f>
-        <v>40</v>
+        <v>13.2</v>
       </c>
       <c r="AZ49">
         <f>'11_Fire_LowSeverity'!Z49</f>
@@ -46534,7 +46534,7 @@
       </c>
       <c r="BF49">
         <f>'12_Fire_ModSeverity'!AC49</f>
-        <v>15</v>
+        <v>4.95</v>
       </c>
       <c r="BG49">
         <f>'13_Fire_HighSeverity'!AA49</f>
@@ -46546,7 +46546,7 @@
       </c>
       <c r="BI49">
         <f>'13_Fire_HighSeverity'!AC49</f>
-        <v>14.999999999999998</v>
+        <v>4.9499999999999993</v>
       </c>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
@@ -46580,7 +46580,7 @@
       </c>
       <c r="H50">
         <f>'12_Fire_ModSeverity'!I50</f>
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="I50">
         <f>'13_Fire_HighSeverity'!G50</f>
@@ -46592,7 +46592,7 @@
       </c>
       <c r="K50">
         <f>'13_Fire_HighSeverity'!I50</f>
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="L50">
         <f>'11_Fire_LowSeverity'!J50</f>
@@ -46620,7 +46620,7 @@
       </c>
       <c r="R50">
         <f>'12_Fire_ModSeverity'!M50</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="S50">
         <f>'13_Fire_HighSeverity'!K50</f>
@@ -46632,7 +46632,7 @@
       </c>
       <c r="U50">
         <f>'13_Fire_HighSeverity'!M50</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="V50">
         <f>'11_Fire_LowSeverity'!N50</f>
@@ -46700,7 +46700,7 @@
       </c>
       <c r="AL50">
         <f>'12_Fire_ModSeverity'!U50</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AM50">
         <f>'13_Fire_HighSeverity'!S50</f>
@@ -46712,7 +46712,7 @@
       </c>
       <c r="AO50">
         <f>'13_Fire_HighSeverity'!U50</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AP50">
         <f>'11_Fire_LowSeverity'!V50</f>
@@ -46740,7 +46740,7 @@
       </c>
       <c r="AV50">
         <f>'12_Fire_ModSeverity'!Y50</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AW50">
         <f>'13_Fire_HighSeverity'!W50</f>
@@ -46752,7 +46752,7 @@
       </c>
       <c r="AY50">
         <f>'13_Fire_HighSeverity'!Y50</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AZ50">
         <f>'11_Fire_LowSeverity'!Z50</f>
@@ -46780,7 +46780,7 @@
       </c>
       <c r="BF50">
         <f>'12_Fire_ModSeverity'!AC50</f>
-        <v>0.30000000000000004</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="BG50">
         <f>'13_Fire_HighSeverity'!AA50</f>
@@ -46792,7 +46792,7 @@
       </c>
       <c r="BI50">
         <f>'13_Fire_HighSeverity'!AC50</f>
-        <v>0.3</v>
+        <v>9.8999999999999991E-2</v>
       </c>
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.25">
@@ -46826,7 +46826,7 @@
       </c>
       <c r="H51">
         <f>'12_Fire_ModSeverity'!I51</f>
-        <v>1.5</v>
+        <v>0.495</v>
       </c>
       <c r="I51">
         <f>'13_Fire_HighSeverity'!G51</f>
@@ -46838,7 +46838,7 @@
       </c>
       <c r="K51">
         <f>'13_Fire_HighSeverity'!I51</f>
-        <v>1.5</v>
+        <v>0.495</v>
       </c>
       <c r="L51">
         <f>'11_Fire_LowSeverity'!J51</f>
@@ -46866,7 +46866,7 @@
       </c>
       <c r="R51">
         <f>'12_Fire_ModSeverity'!M51</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="S51">
         <f>'13_Fire_HighSeverity'!K51</f>
@@ -46878,7 +46878,7 @@
       </c>
       <c r="U51">
         <f>'13_Fire_HighSeverity'!M51</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="V51">
         <f>'11_Fire_LowSeverity'!N51</f>
@@ -46946,7 +46946,7 @@
       </c>
       <c r="AL51">
         <f>'12_Fire_ModSeverity'!U51</f>
-        <v>0.2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AM51">
         <f>'13_Fire_HighSeverity'!S51</f>
@@ -46958,7 +46958,7 @@
       </c>
       <c r="AO51">
         <f>'13_Fire_HighSeverity'!U51</f>
-        <v>0.2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AP51">
         <f>'11_Fire_LowSeverity'!V51</f>
@@ -46986,7 +46986,7 @@
       </c>
       <c r="AV51">
         <f>'12_Fire_ModSeverity'!Y51</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AW51">
         <f>'13_Fire_HighSeverity'!W51</f>
@@ -46998,7 +46998,7 @@
       </c>
       <c r="AY51">
         <f>'13_Fire_HighSeverity'!Y51</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AZ51">
         <f>'11_Fire_LowSeverity'!Z51</f>
@@ -47026,7 +47026,7 @@
       </c>
       <c r="BF51">
         <f>'12_Fire_ModSeverity'!AC51</f>
-        <v>0.4</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="BG51">
         <f>'13_Fire_HighSeverity'!AA51</f>
@@ -47038,7 +47038,7 @@
       </c>
       <c r="BI51">
         <f>'13_Fire_HighSeverity'!AC51</f>
-        <v>0.4</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.25">
@@ -47072,7 +47072,7 @@
       </c>
       <c r="H52">
         <f>'12_Fire_ModSeverity'!I52</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="I52">
         <f>'13_Fire_HighSeverity'!G52</f>
@@ -47084,7 +47084,7 @@
       </c>
       <c r="K52">
         <f>'13_Fire_HighSeverity'!I52</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="L52">
         <f>'11_Fire_LowSeverity'!J52</f>
@@ -47112,7 +47112,7 @@
       </c>
       <c r="R52">
         <f>'12_Fire_ModSeverity'!M52</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="S52">
         <f>'13_Fire_HighSeverity'!K52</f>
@@ -47124,7 +47124,7 @@
       </c>
       <c r="U52">
         <f>'13_Fire_HighSeverity'!M52</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="V52">
         <f>'11_Fire_LowSeverity'!N52</f>
@@ -47192,7 +47192,7 @@
       </c>
       <c r="AL52">
         <f>'12_Fire_ModSeverity'!U52</f>
-        <v>0.1</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AM52">
         <f>'13_Fire_HighSeverity'!S52</f>
@@ -47204,7 +47204,7 @@
       </c>
       <c r="AO52">
         <f>'13_Fire_HighSeverity'!U52</f>
-        <v>0.1</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AP52">
         <f>'11_Fire_LowSeverity'!V52</f>
@@ -47232,7 +47232,7 @@
       </c>
       <c r="AV52">
         <f>'12_Fire_ModSeverity'!Y52</f>
-        <v>0.30000000000000004</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="AW52">
         <f>'13_Fire_HighSeverity'!W52</f>
@@ -47244,7 +47244,7 @@
       </c>
       <c r="AY52">
         <f>'13_Fire_HighSeverity'!Y52</f>
-        <v>0.3</v>
+        <v>9.8999999999999991E-2</v>
       </c>
       <c r="AZ52">
         <f>'11_Fire_LowSeverity'!Z52</f>
@@ -47272,7 +47272,7 @@
       </c>
       <c r="BF52">
         <f>'12_Fire_ModSeverity'!AC52</f>
-        <v>2.0000000000000004E-2</v>
+        <v>6.6000000000000008E-3</v>
       </c>
       <c r="BG52">
         <f>'13_Fire_HighSeverity'!AA52</f>
@@ -47284,7 +47284,7 @@
       </c>
       <c r="BI52">
         <f>'13_Fire_HighSeverity'!AC52</f>
-        <v>1.9999999999999997E-2</v>
+        <v>6.5999999999999991E-3</v>
       </c>
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.25">

--- a/specifications/1_Fire/ScriptRules_Fire.xlsx
+++ b/specifications/1_Fire/ScriptRules_Fire.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\LANDFIRE\landfiredisturbance\specifications\1_Fire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\LFDisturbance\fera-landfiredisturbance\specifications\1_Fire\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="13_Fire_HighSeverity" sheetId="14" r:id="rId8"/>
     <sheet name="Expected" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1225,9 +1225,6 @@
     <t>|If not present * = Otree_HeightLiveCrown</t>
   </si>
   <si>
-    <t>|If not present * = OTree_Diameter</t>
-  </si>
-  <si>
     <t>|If not present * = OTree_Height</t>
   </si>
   <si>
@@ -1344,12 +1341,15 @@
   <si>
     <t>* = (1/(0.05*1.5))*0.33</t>
   </si>
+  <si>
+    <t>|If not present * = (denOtree*dbhOtree + denMidTree*dbhMidTree) / (denOTree + denMidtree)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1400,8 +1400,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1449,8 +1457,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1549,14 +1562,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1697,10 +1726,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -1991,14 +2025,14 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -2009,7 +2043,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -2020,7 +2054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -2031,7 +2065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -2042,7 +2076,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2053,7 +2087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2064,7 +2098,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2075,7 +2109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2086,7 +2120,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2097,7 +2131,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -2108,7 +2142,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2119,7 +2153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2130,7 +2164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2141,7 +2175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2152,7 +2186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -2176,15 +2210,15 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2195,7 +2229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2203,7 +2237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2214,7 +2248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2225,7 +2259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2239,7 +2273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>111</v>
       </c>
@@ -2253,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>112</v>
       </c>
@@ -2267,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>113</v>
       </c>
@@ -2281,7 +2315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>121</v>
       </c>
@@ -2295,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>122</v>
       </c>
@@ -2309,7 +2343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>123</v>
       </c>
@@ -2323,7 +2357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>131</v>
       </c>
@@ -2337,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>132</v>
       </c>
@@ -2351,7 +2385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>133</v>
       </c>
@@ -2365,47 +2399,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>276</v>
       </c>
@@ -2424,107 +2458,107 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="101.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>186</v>
       </c>
@@ -2541,27 +2575,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="101.28515625" style="61" customWidth="1"/>
+    <col min="1" max="1" width="66.81640625" style="61" customWidth="1"/>
     <col min="2" max="2" width="28" style="44" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="54" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="55" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="32.26953125" style="55" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" style="53" customWidth="1"/>
     <col min="7" max="7" width="33" style="54" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" style="55" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="54" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" style="55" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="61"/>
+    <col min="8" max="8" width="34.453125" style="55" customWidth="1"/>
+    <col min="9" max="9" width="30.36328125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="33.1796875" style="54" customWidth="1"/>
+    <col min="11" max="11" width="36.54296875" style="55" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>277</v>
       </c>
@@ -2593,7 +2627,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>108</v>
       </c>
@@ -2620,7 +2654,7 @@
       </c>
       <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>103</v>
       </c>
@@ -2637,7 +2671,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>105</v>
       </c>
@@ -2660,7 +2694,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>104</v>
       </c>
@@ -2677,7 +2711,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>106</v>
       </c>
@@ -2704,7 +2738,7 @@
       </c>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>107</v>
       </c>
@@ -2731,7 +2765,7 @@
       </c>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>98</v>
       </c>
@@ -2748,7 +2782,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>100</v>
       </c>
@@ -2771,7 +2805,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>99</v>
       </c>
@@ -2788,7 +2822,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>101</v>
       </c>
@@ -2815,7 +2849,7 @@
       </c>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>102</v>
       </c>
@@ -2842,7 +2876,7 @@
       </c>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>109</v>
       </c>
@@ -2859,7 +2893,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>111</v>
       </c>
@@ -2880,7 +2914,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>110</v>
       </c>
@@ -2897,7 +2931,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>112</v>
       </c>
@@ -2924,7 +2958,7 @@
       </c>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>113</v>
       </c>
@@ -2951,7 +2985,7 @@
       </c>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>84</v>
       </c>
@@ -2960,27 +2994,27 @@
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>85</v>
       </c>
@@ -2989,27 +3023,27 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>86</v>
       </c>
@@ -3018,27 +3052,27 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>405</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>404</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="K20" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>89</v>
       </c>
@@ -3049,7 +3083,7 @@
         <v>396</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="13" t="s">
@@ -3059,7 +3093,7 @@
         <v>396</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>396</v>
@@ -3068,10 +3102,10 @@
         <v>396</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>87</v>
       </c>
@@ -3079,32 +3113,32 @@
         <v>298</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="13" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>88</v>
       </c>
@@ -3112,32 +3146,32 @@
         <v>299</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>90</v>
       </c>
@@ -3145,32 +3179,32 @@
         <v>300</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>91</v>
       </c>
@@ -3178,32 +3212,32 @@
         <v>301</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>413</v>
-      </c>
       <c r="H25" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I25" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="J25" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="J25" s="14" t="s">
-        <v>416</v>
-      </c>
       <c r="K25" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>92</v>
       </c>
@@ -3212,27 +3246,27 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>93</v>
       </c>
@@ -3241,27 +3275,27 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>94</v>
       </c>
@@ -3270,27 +3304,27 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>95</v>
       </c>
@@ -3299,27 +3333,27 @@
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>96</v>
       </c>
@@ -3328,27 +3362,27 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>97</v>
       </c>
@@ -3357,27 +3391,27 @@
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>82</v>
       </c>
@@ -3394,7 +3428,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>83</v>
       </c>
@@ -3411,7 +3445,7 @@
       <c r="J33" s="17"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>148</v>
       </c>
@@ -3431,7 +3465,7 @@
         <v>5</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>391</v>
@@ -3446,7 +3480,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>149</v>
       </c>
@@ -3466,10 +3500,10 @@
         <v>5</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>21</v>
@@ -3478,10 +3512,10 @@
         <v>23</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>150</v>
       </c>
@@ -3508,11 +3542,11 @@
         <v>21</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>151</v>
       </c>
@@ -3532,7 +3566,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>391</v>
@@ -3547,7 +3581,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>152</v>
       </c>
@@ -3567,10 +3601,10 @@
         <v>5</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>21</v>
@@ -3579,10 +3613,10 @@
         <v>23</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>153</v>
       </c>
@@ -3609,11 +3643,11 @@
         <v>21</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>126</v>
       </c>
@@ -3638,11 +3672,11 @@
         <v>21</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>127</v>
       </c>
@@ -3660,18 +3694,18 @@
         <v>5</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>128</v>
       </c>
@@ -3689,18 +3723,18 @@
         <v>5</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>129</v>
       </c>
@@ -3725,11 +3759,11 @@
         <v>21</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>130</v>
       </c>
@@ -3754,11 +3788,11 @@
         <v>21</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>131</v>
       </c>
@@ -3776,18 +3810,18 @@
         <v>5</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>132</v>
       </c>
@@ -3805,18 +3839,18 @@
         <v>5</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>133</v>
       </c>
@@ -3841,11 +3875,11 @@
         <v>21</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>154</v>
       </c>
@@ -3868,7 +3902,7 @@
         <v>14</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>21</v>
@@ -3877,10 +3911,10 @@
         <v>18</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>155</v>
       </c>
@@ -3903,7 +3937,7 @@
         <v>14</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>21</v>
@@ -3912,10 +3946,10 @@
         <v>18</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>159</v>
       </c>
@@ -3938,7 +3972,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>21</v>
@@ -3947,10 +3981,10 @@
         <v>18</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>160</v>
       </c>
@@ -3973,7 +4007,7 @@
         <v>14</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>21</v>
@@ -3982,10 +4016,10 @@
         <v>18</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>161</v>
       </c>
@@ -4008,7 +4042,7 @@
         <v>14</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>21</v>
@@ -4017,10 +4051,10 @@
         <v>18</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>227</v>
       </c>
@@ -4055,7 +4089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>228</v>
       </c>
@@ -4090,7 +4124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
         <v>229</v>
       </c>
@@ -4125,7 +4159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>230</v>
       </c>
@@ -4136,31 +4170,31 @@
         <v>0</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I56" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>231</v>
       </c>
@@ -4171,31 +4205,31 @@
         <v>0</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I57" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>232</v>
       </c>
@@ -4206,31 +4240,31 @@
         <v>0</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
         <v>168</v>
       </c>
@@ -4247,7 +4281,7 @@
       <c r="J59" s="17"/>
       <c r="K59" s="18"/>
     </row>
-    <row r="60" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
         <v>169</v>
       </c>
@@ -4264,7 +4298,7 @@
       <c r="J60" s="17"/>
       <c r="K60" s="18"/>
     </row>
-    <row r="61" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
         <v>170</v>
       </c>
@@ -4281,7 +4315,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="18"/>
     </row>
-    <row r="62" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>165</v>
       </c>
@@ -4304,7 +4338,7 @@
       <c r="J62" s="17"/>
       <c r="K62" s="18"/>
     </row>
-    <row r="63" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
         <v>166</v>
       </c>
@@ -4327,7 +4361,7 @@
       <c r="J63" s="17"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16" t="s">
         <v>167</v>
       </c>
@@ -4350,7 +4384,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="18"/>
     </row>
-    <row r="65" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
         <v>162</v>
       </c>
@@ -4373,7 +4407,7 @@
       <c r="J65" s="17"/>
       <c r="K65" s="18"/>
     </row>
-    <row r="66" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="16" t="s">
         <v>163</v>
       </c>
@@ -4396,7 +4430,7 @@
       <c r="J66" s="17"/>
       <c r="K66" s="18"/>
     </row>
-    <row r="67" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
         <v>164</v>
       </c>
@@ -4419,7 +4453,7 @@
       <c r="J67" s="17"/>
       <c r="K67" s="18"/>
     </row>
-    <row r="68" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="16" t="s">
         <v>156</v>
       </c>
@@ -4442,7 +4476,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="18"/>
     </row>
-    <row r="69" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="16" t="s">
         <v>157</v>
       </c>
@@ -4465,7 +4499,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="18"/>
     </row>
-    <row r="70" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
         <v>158</v>
       </c>
@@ -4488,7 +4522,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="18"/>
     </row>
-    <row r="71" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
         <v>134</v>
       </c>
@@ -4505,7 +4539,7 @@
       <c r="J71" s="17"/>
       <c r="K71" s="18"/>
     </row>
-    <row r="72" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
         <v>135</v>
       </c>
@@ -4522,7 +4556,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
     </row>
-    <row r="73" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
         <v>136</v>
       </c>
@@ -4539,7 +4573,7 @@
       <c r="J73" s="17"/>
       <c r="K73" s="18"/>
     </row>
-    <row r="74" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="16" t="s">
         <v>137</v>
       </c>
@@ -4556,7 +4590,7 @@
       <c r="J74" s="17"/>
       <c r="K74" s="18"/>
     </row>
-    <row r="75" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="16" t="s">
         <v>138</v>
       </c>
@@ -4573,7 +4607,7 @@
       <c r="J75" s="17"/>
       <c r="K75" s="18"/>
     </row>
-    <row r="76" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
         <v>139</v>
       </c>
@@ -4590,7 +4624,7 @@
       <c r="J76" s="17"/>
       <c r="K76" s="18"/>
     </row>
-    <row r="77" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
         <v>140</v>
       </c>
@@ -4607,7 +4641,7 @@
       <c r="J77" s="17"/>
       <c r="K77" s="18"/>
     </row>
-    <row r="78" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="16" t="s">
         <v>141</v>
       </c>
@@ -4625,22 +4659,22 @@
         <v>5</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="16" t="s">
         <v>142</v>
       </c>
@@ -4658,22 +4692,22 @@
         <v>5</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I79" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
         <v>143</v>
       </c>
@@ -4691,22 +4725,22 @@
         <v>5</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I80" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>144</v>
       </c>
@@ -4724,22 +4758,22 @@
         <v>5</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
         <v>145</v>
       </c>
@@ -4757,22 +4791,22 @@
         <v>5</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I82" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
         <v>146</v>
       </c>
@@ -4790,22 +4824,22 @@
         <v>5</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I83" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="16" t="s">
         <v>119</v>
       </c>
@@ -4828,7 +4862,7 @@
       <c r="J84" s="17"/>
       <c r="K84" s="18"/>
     </row>
-    <row r="85" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
         <v>120</v>
       </c>
@@ -4851,7 +4885,7 @@
       <c r="J85" s="17"/>
       <c r="K85" s="18"/>
     </row>
-    <row r="86" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="16" t="s">
         <v>121</v>
       </c>
@@ -4874,7 +4908,7 @@
       <c r="J86" s="17"/>
       <c r="K86" s="18"/>
     </row>
-    <row r="87" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
         <v>122</v>
       </c>
@@ -4897,7 +4931,7 @@
       <c r="J87" s="17"/>
       <c r="K87" s="18"/>
     </row>
-    <row r="88" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="16" t="s">
         <v>116</v>
       </c>
@@ -4920,7 +4954,7 @@
       <c r="J88" s="17"/>
       <c r="K88" s="18"/>
     </row>
-    <row r="89" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
         <v>117</v>
       </c>
@@ -4943,7 +4977,7 @@
       <c r="J89" s="17"/>
       <c r="K89" s="18"/>
     </row>
-    <row r="90" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="16" t="s">
         <v>118</v>
       </c>
@@ -4966,7 +5000,7 @@
       <c r="J90" s="17"/>
       <c r="K90" s="18"/>
     </row>
-    <row r="91" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="16" t="s">
         <v>123</v>
       </c>
@@ -4989,7 +5023,7 @@
       <c r="J91" s="17"/>
       <c r="K91" s="18"/>
     </row>
-    <row r="92" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="16" t="s">
         <v>124</v>
       </c>
@@ -5012,7 +5046,7 @@
       <c r="J92" s="17"/>
       <c r="K92" s="18"/>
     </row>
-    <row r="93" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="58" t="s">
         <v>125</v>
       </c>
@@ -5049,14 +5083,14 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="102.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" customWidth="1"/>
-    <col min="9" max="13" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="102.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.1796875" customWidth="1"/>
+    <col min="9" max="13" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -5103,7 +5137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>108</v>
       </c>
@@ -5141,7 +5175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>103</v>
       </c>
@@ -5179,7 +5213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>105</v>
       </c>
@@ -5217,7 +5251,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>104</v>
       </c>
@@ -5255,7 +5289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>106</v>
       </c>
@@ -5293,7 +5327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>107</v>
       </c>
@@ -5331,7 +5365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>98</v>
       </c>
@@ -5351,7 +5385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>100</v>
       </c>
@@ -5371,7 +5405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>99</v>
       </c>
@@ -5391,7 +5425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>101</v>
       </c>
@@ -5411,7 +5445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>102</v>
       </c>
@@ -5431,7 +5465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>109</v>
       </c>
@@ -5457,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>111</v>
       </c>
@@ -5483,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>110</v>
       </c>
@@ -5509,7 +5543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>112</v>
       </c>
@@ -5535,7 +5569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>113</v>
       </c>
@@ -5561,7 +5595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>84</v>
       </c>
@@ -5575,7 +5609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>85</v>
       </c>
@@ -5589,7 +5623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>86</v>
       </c>
@@ -5603,7 +5637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>89</v>
       </c>
@@ -5617,7 +5651,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>87</v>
       </c>
@@ -5631,7 +5665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>88</v>
       </c>
@@ -5645,7 +5679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>90</v>
       </c>
@@ -5659,7 +5693,7 @@
         <v>0.10142</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>91</v>
       </c>
@@ -5673,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>92</v>
       </c>
@@ -5699,7 +5733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>93</v>
       </c>
@@ -5725,7 +5759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>94</v>
       </c>
@@ -5751,7 +5785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>95</v>
       </c>
@@ -5780,7 +5814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>96</v>
       </c>
@@ -5809,7 +5843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>97</v>
       </c>
@@ -5838,7 +5872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>82</v>
       </c>
@@ -5855,7 +5889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>83</v>
       </c>
@@ -5872,7 +5906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>148</v>
       </c>
@@ -5916,7 +5950,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>149</v>
       </c>
@@ -5960,7 +5994,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>150</v>
       </c>
@@ -6004,12 +6038,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>151</v>
       </c>
@@ -6032,7 +6066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>152</v>
       </c>
@@ -6055,7 +6089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>153</v>
       </c>
@@ -6078,12 +6112,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>126</v>
       </c>
@@ -6127,7 +6161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>127</v>
       </c>
@@ -6171,7 +6205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>128</v>
       </c>
@@ -6215,7 +6249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>129</v>
       </c>
@@ -6259,7 +6293,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>130</v>
       </c>
@@ -6282,7 +6316,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>131</v>
       </c>
@@ -6305,7 +6339,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>132</v>
       </c>
@@ -6328,7 +6362,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>133</v>
       </c>
@@ -6351,7 +6385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>154</v>
       </c>
@@ -6389,7 +6423,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>155</v>
       </c>
@@ -6427,7 +6461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>159</v>
       </c>
@@ -6465,7 +6499,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>160</v>
       </c>
@@ -6503,7 +6537,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>161</v>
       </c>
@@ -6541,7 +6575,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>216</v>
       </c>
@@ -6579,7 +6613,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>215</v>
       </c>
@@ -6617,7 +6651,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>214</v>
       </c>
@@ -6655,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>213</v>
       </c>
@@ -6681,7 +6715,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>212</v>
       </c>
@@ -6707,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>211</v>
       </c>
@@ -6733,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>168</v>
       </c>
@@ -6747,7 +6781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>169</v>
       </c>
@@ -6761,7 +6795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>170</v>
       </c>
@@ -6775,7 +6809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>165</v>
       </c>
@@ -6798,7 +6832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>166</v>
       </c>
@@ -6821,7 +6855,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>167</v>
       </c>
@@ -6844,22 +6878,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>156</v>
       </c>
@@ -6906,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>157</v>
       </c>
@@ -6953,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>158</v>
       </c>
@@ -7000,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>134</v>
       </c>
@@ -7017,7 +7051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>135</v>
       </c>
@@ -7037,7 +7071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
         <v>136</v>
       </c>
@@ -7060,7 +7094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>137</v>
       </c>
@@ -7086,7 +7120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
         <v>138</v>
       </c>
@@ -7106,7 +7140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
         <v>139</v>
       </c>
@@ -7114,7 +7148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
         <v>140</v>
       </c>
@@ -7122,7 +7156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>141</v>
       </c>
@@ -7130,7 +7164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
         <v>142</v>
       </c>
@@ -7138,12 +7172,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
         <v>143</v>
       </c>
@@ -7190,7 +7224,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
         <v>144</v>
       </c>
@@ -7237,12 +7271,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
         <v>145</v>
       </c>
@@ -7259,7 +7293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>146</v>
       </c>
@@ -7276,12 +7310,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
         <v>119</v>
       </c>
@@ -7298,7 +7332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
         <v>120</v>
       </c>
@@ -7315,12 +7349,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="s">
         <v>121</v>
       </c>
@@ -7364,7 +7398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="s">
         <v>122</v>
       </c>
@@ -7408,12 +7442,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
         <v>116</v>
       </c>
@@ -7430,7 +7464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
         <v>117</v>
       </c>
@@ -7447,7 +7481,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
         <v>118</v>
       </c>
@@ -7464,12 +7498,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>123</v>
       </c>
@@ -7477,7 +7511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
         <v>124</v>
       </c>
@@ -7485,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
         <v>125</v>
       </c>
@@ -7493,7 +7527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
         <v>220</v>
       </c>
@@ -7508,45 +7542,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="93.42578125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="57" customWidth="1"/>
+    <col min="1" max="1" width="93.453125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.1796875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="56" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" style="57" customWidth="1"/>
     <col min="6" max="6" width="14" style="44" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="56" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="57" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" style="44" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" style="56" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" style="57" customWidth="1"/>
     <col min="10" max="10" width="14" style="44" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="56" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="57" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" style="44" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" style="56" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" style="57" customWidth="1"/>
     <col min="14" max="14" width="14" style="44" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="44" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="56" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="57" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="18.54296875" style="56" customWidth="1"/>
+    <col min="17" max="17" width="18.54296875" style="57" customWidth="1"/>
     <col min="18" max="18" width="14" style="44" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="44" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="56" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="57" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" style="44" customWidth="1"/>
+    <col min="20" max="20" width="18.54296875" style="56" customWidth="1"/>
+    <col min="21" max="21" width="18.54296875" style="57" customWidth="1"/>
     <col min="22" max="22" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.54296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.54296875" style="56" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" style="57" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="44"/>
+    <col min="27" max="27" width="18.54296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.54296875" style="56" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.54296875" style="57" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1796875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -7635,7 +7669,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="str">
         <f>'1_Fire_Script'!A2</f>
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
@@ -7733,7 +7767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="str">
         <f>'1_Fire_Script'!A3</f>
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -7829,7 +7863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="str">
         <f>'1_Fire_Script'!A4</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -7927,7 +7961,7 @@
         <v>60.500000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="str">
         <f>'1_Fire_Script'!A5</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
@@ -8023,7 +8057,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="str">
         <f>'1_Fire_Script'!A6</f>
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
@@ -8121,7 +8155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="str">
         <f>'1_Fire_Script'!A7</f>
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
@@ -8219,7 +8253,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="str">
         <f>'1_Fire_Script'!A8</f>
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -8306,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="str">
         <f>'1_Fire_Script'!A9</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -8395,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="str">
         <f>'1_Fire_Script'!A10</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
@@ -8482,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="str">
         <f>'1_Fire_Script'!A11</f>
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
@@ -8571,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="str">
         <f>'1_Fire_Script'!A12</f>
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
@@ -8660,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="str">
         <f>'1_Fire_Script'!A13</f>
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -8753,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="str">
         <f>'1_Fire_Script'!A14</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -8846,7 +8880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
         <f>'1_Fire_Script'!A15</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
@@ -8939,7 +8973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="str">
         <f>'1_Fire_Script'!A16</f>
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
@@ -9034,7 +9068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="str">
         <f>'1_Fire_Script'!A17</f>
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
@@ -9129,7 +9163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="str">
         <f>'1_Fire_Script'!A18</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
@@ -9189,7 +9223,7 @@
       </c>
       <c r="T18" s="8">
         <f>S22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="U18" s="9">
         <f>$E18*T18</f>
@@ -9216,14 +9250,14 @@
       </c>
       <c r="AB18" s="8">
         <f>AA22</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AC18" s="9">
         <f>$E18*AB18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="str">
         <f>'1_Fire_Script'!A19</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
@@ -9317,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="str">
         <f>'1_Fire_Script'!A20</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
@@ -9411,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="str">
         <f>'1_Fire_Script'!A21</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
@@ -9502,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="str">
         <f>'1_Fire_Script'!A22</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
@@ -9510,15 +9544,15 @@
       <c r="B22" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>377</v>
+      <c r="C22" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D22" s="27">
         <v>0</v>
       </c>
       <c r="E22" s="28"/>
       <c r="G22" s="5">
-        <f>IF(F22=0,F3,F22)</f>
+        <f>IF(F22=0,((F3*F7+F13*F17)/(F7+F17)),F22)</f>
         <v>9.6</v>
       </c>
       <c r="H22" s="8">
@@ -9554,8 +9588,8 @@
         <v>0</v>
       </c>
       <c r="S22" s="5">
-        <f>IF(R22=0,R3,R22)</f>
-        <v>2.9</v>
+        <f>IF(R22=0,((R3*R7+R13*R17)/(R7+R17)),R22)</f>
+        <v>2.3666666666666667</v>
       </c>
       <c r="T22" s="8">
         <f>$D22*S22</f>
@@ -9569,7 +9603,7 @@
         <v>9</v>
       </c>
       <c r="W22" s="5">
-        <f>IF(V22=0,V3,V22)</f>
+        <f>IF(V22=0,((V3*V7+V13*V17)/(V7+V17)),V22)</f>
         <v>9</v>
       </c>
       <c r="X22" s="8">
@@ -9581,8 +9615,8 @@
         <v>0</v>
       </c>
       <c r="AA22" s="5">
-        <f>IF(Z22=0,Z3,Z22)</f>
-        <v>12</v>
+        <f>IF(Z22=0,((Z3*Z7+Z13*Z17)/(Z7+Z17)),Z22)</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AB22" s="8">
         <f>$D22*AA22</f>
@@ -9593,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="str">
         <f>'1_Fire_Script'!A23</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
@@ -9684,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="str">
         <f>'1_Fire_Script'!A24</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
@@ -9775,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="str">
         <f>'1_Fire_Script'!A25</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
@@ -9866,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="str">
         <f>'1_Fire_Script'!A26</f>
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
@@ -9930,7 +9964,7 @@
       </c>
       <c r="U26" s="9">
         <f t="shared" ref="U26:U28" si="27">T18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="V26" s="4">
         <v>11</v>
@@ -9960,10 +9994,10 @@
       </c>
       <c r="AC26" s="9">
         <f t="shared" ref="AC26:AC28" si="33">AB18</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="str">
         <f>'1_Fire_Script'!A27</f>
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
@@ -10060,7 +10094,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="str">
         <f>'1_Fire_Script'!A28</f>
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
@@ -10157,7 +10191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="str">
         <f>'1_Fire_Script'!A29</f>
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
@@ -10257,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="str">
         <f>'1_Fire_Script'!A30</f>
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
@@ -10357,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="str">
         <f>'1_Fire_Script'!A31</f>
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
@@ -10457,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="str">
         <f>'1_Fire_Script'!A32</f>
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
@@ -10547,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="str">
         <f>'1_Fire_Script'!A33</f>
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
@@ -10637,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="str">
         <f>'1_Fire_Script'!A34</f>
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
@@ -10746,7 +10780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="str">
         <f>'1_Fire_Script'!A35</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -10855,7 +10889,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="str">
         <f>'1_Fire_Script'!A36</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -10964,7 +10998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="str">
         <f>'1_Fire_Script'!A37</f>
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
@@ -11064,7 +11098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
         <f>'1_Fire_Script'!A38</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -11164,7 +11198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
         <f>'1_Fire_Script'!A39</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -11264,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="str">
         <f>'1_Fire_Script'!A40</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
@@ -11368,7 +11402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="str">
         <f>'1_Fire_Script'!A41</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
@@ -11472,7 +11506,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="str">
         <f>'1_Fire_Script'!A42</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -11576,7 +11610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="str">
         <f>'1_Fire_Script'!A43</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -11680,7 +11714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="str">
         <f>'1_Fire_Script'!A44</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
@@ -11781,7 +11815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
         <f>'1_Fire_Script'!A45</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
@@ -11882,7 +11916,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="str">
         <f>'1_Fire_Script'!A46</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -11983,7 +12017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="str">
         <f>'1_Fire_Script'!A47</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -12084,7 +12118,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="str">
         <f>'1_Fire_Script'!A48</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
@@ -12190,7 +12224,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="str">
         <f>'1_Fire_Script'!A49</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
@@ -12296,7 +12330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="str">
         <f>'1_Fire_Script'!A50</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
@@ -12402,7 +12436,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="str">
         <f>'1_Fire_Script'!A51</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
@@ -12508,7 +12542,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="str">
         <f>'1_Fire_Script'!A52</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
@@ -12614,7 +12648,7 @@
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="str">
         <f>'1_Fire_Script'!A53</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -12719,7 +12753,7 @@
         <v>0.16875000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="str">
         <f>'1_Fire_Script'!A54</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -12824,7 +12858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="str">
         <f>'1_Fire_Script'!A55</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -12929,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="str">
         <f>'1_Fire_Script'!A56</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -13028,7 +13062,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="str">
         <f>'1_Fire_Script'!A57</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -13127,7 +13161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="str">
         <f>'1_Fire_Script'!A58</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -13226,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="str">
         <f>'1_Fire_Script'!A59</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
@@ -13316,7 +13350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="str">
         <f>'1_Fire_Script'!A60</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
@@ -13406,7 +13440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="str">
         <f>'1_Fire_Script'!A61</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
@@ -13496,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="str">
         <f>'1_Fire_Script'!A62</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
@@ -13594,7 +13628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="str">
         <f>'1_Fire_Script'!A63</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
@@ -13692,7 +13726,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="str">
         <f>'1_Fire_Script'!A64</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
@@ -13790,7 +13824,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="str">
         <f>'1_Fire_Script'!A65</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
@@ -13876,7 +13910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="str">
         <f>'1_Fire_Script'!A66</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
@@ -13962,7 +13996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="str">
         <f>'1_Fire_Script'!A67</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
@@ -14048,7 +14082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="str">
         <f>'1_Fire_Script'!A68</f>
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
@@ -14152,7 +14186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="str">
         <f>'1_Fire_Script'!A69</f>
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
@@ -14256,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="str">
         <f>'1_Fire_Script'!A70</f>
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
@@ -14360,7 +14394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="str">
         <f>'1_Fire_Script'!A71</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
@@ -14447,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="str">
         <f>'1_Fire_Script'!A72</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
@@ -14534,7 +14568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="str">
         <f>'1_Fire_Script'!A73</f>
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
@@ -14621,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="str">
         <f>'1_Fire_Script'!A74</f>
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -14714,7 +14748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="str">
         <f>'1_Fire_Script'!A75</f>
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
@@ -14804,7 +14838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="str">
         <f>'1_Fire_Script'!A76</f>
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
@@ -14891,7 +14925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="str">
         <f>'1_Fire_Script'!A77</f>
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -14975,7 +15009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="str">
         <f>'1_Fire_Script'!A78</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
@@ -15067,7 +15101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="str">
         <f>'1_Fire_Script'!A79</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
@@ -15159,7 +15193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="str">
         <f>'1_Fire_Script'!A80</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
@@ -15266,7 +15300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="str">
         <f>'1_Fire_Script'!A81</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
@@ -15373,7 +15407,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="str">
         <f>'1_Fire_Script'!A82</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
@@ -15471,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="str">
         <f>'1_Fire_Script'!A83</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
@@ -15569,7 +15603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="str">
         <f>'1_Fire_Script'!A84</f>
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
@@ -15661,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="str">
         <f>'1_Fire_Script'!A85</f>
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
@@ -15753,7 +15787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="str">
         <f>'1_Fire_Script'!A86</f>
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
@@ -15857,7 +15891,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="str">
         <f>'1_Fire_Script'!A87</f>
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
@@ -15961,7 +15995,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="str">
         <f>'1_Fire_Script'!A88</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
@@ -16047,7 +16081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="str">
         <f>'1_Fire_Script'!A89</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
@@ -16133,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="str">
         <f>'1_Fire_Script'!A90</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
@@ -16219,7 +16253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="str">
         <f>'1_Fire_Script'!A91</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
@@ -16308,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="str">
         <f>'1_Fire_Script'!A92</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
@@ -16397,7 +16431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="str">
         <f>'1_Fire_Script'!A93</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
@@ -16498,44 +16532,44 @@
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="450" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1:N1048576"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="131.140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="56" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="131.1796875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" style="56" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" style="57" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="44" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="56" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="57" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" style="44" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" style="56" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" style="57" customWidth="1"/>
     <col min="10" max="10" width="14" style="44" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="56" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="57" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" style="44" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" style="56" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" style="57" customWidth="1"/>
     <col min="14" max="14" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.54296875" style="56" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.54296875" style="57" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.54296875" style="56" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.54296875" style="57" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.54296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.54296875" style="56" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" style="57" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="44"/>
+    <col min="27" max="27" width="18.54296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.54296875" style="56" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.54296875" style="57" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1796875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -16624,7 +16658,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="str">
         <f>'1_Fire_Script'!A2</f>
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
@@ -16724,7 +16758,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="str">
         <f>'1_Fire_Script'!A3</f>
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -16820,7 +16854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="str">
         <f>'1_Fire_Script'!A4</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -16918,7 +16952,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="str">
         <f>'1_Fire_Script'!A5</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
@@ -17014,7 +17048,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="str">
         <f>'1_Fire_Script'!A6</f>
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
@@ -17114,7 +17148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="str">
         <f>'1_Fire_Script'!A7</f>
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
@@ -17214,7 +17248,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="str">
         <f>'1_Fire_Script'!A8</f>
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -17301,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="str">
         <f>'1_Fire_Script'!A9</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -17390,7 +17424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="str">
         <f>'1_Fire_Script'!A10</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
@@ -17477,7 +17511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="str">
         <f>'1_Fire_Script'!A11</f>
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
@@ -17568,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="str">
         <f>'1_Fire_Script'!A12</f>
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
@@ -17659,7 +17693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="str">
         <f>'1_Fire_Script'!A13</f>
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -17752,7 +17786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="str">
         <f>'1_Fire_Script'!A14</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -17847,7 +17881,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
         <f>'1_Fire_Script'!A15</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
@@ -17940,7 +17974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="str">
         <f>'1_Fire_Script'!A16</f>
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
@@ -18037,7 +18071,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="str">
         <f>'1_Fire_Script'!A17</f>
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
@@ -18134,7 +18168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="str">
         <f>'1_Fire_Script'!A18</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
@@ -18194,11 +18228,11 @@
       </c>
       <c r="T18" s="8">
         <f>S22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="U18" s="33">
         <f>T22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="V18" s="4">
         <v>13</v>
@@ -18221,14 +18255,14 @@
       </c>
       <c r="AB18" s="8">
         <f>AA22</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AC18" s="33">
         <f>AB22</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="str">
         <f>'1_Fire_Script'!A19</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
@@ -18322,7 +18356,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="str">
         <f>'1_Fire_Script'!A20</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
@@ -18416,7 +18450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="str">
         <f>'1_Fire_Script'!A21</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
@@ -18509,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="str">
         <f>'1_Fire_Script'!A22</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
@@ -18517,8 +18551,8 @@
       <c r="B22" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>377</v>
+      <c r="C22" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>377</v>
@@ -18527,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="5">
-        <f>IF(F22=0,F3,F22)</f>
+        <f>IF(F22=0,((F3*F7+F13*F17)/(F7+F17)),F22)</f>
         <v>9.6</v>
       </c>
       <c r="H22" s="8">
@@ -18563,12 +18597,12 @@
         <v>0</v>
       </c>
       <c r="S22" s="5">
-        <f>IF(R22=0,R3,R22)</f>
-        <v>2.9</v>
+        <f>IF(R22=0,((R3*R7+R13*R17)/(R7+R17)),R22)</f>
+        <v>2.3666666666666667</v>
       </c>
       <c r="T22" s="8">
         <f>IF(S22=0,S3,S22)</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="U22" s="40">
         <f t="shared" si="30"/>
@@ -18578,7 +18612,7 @@
         <v>9</v>
       </c>
       <c r="W22" s="5">
-        <f>IF(V22=0,V3,V22)</f>
+        <f>IF(V22=0,((V3*V7+V13*V17)/(V7+V17)),V22)</f>
         <v>9</v>
       </c>
       <c r="X22" s="8">
@@ -18590,19 +18624,19 @@
         <v>0</v>
       </c>
       <c r="AA22" s="5">
-        <f>IF(Z22=0,Z3,Z22)</f>
-        <v>12</v>
+        <f>IF(Z22=0,((Z3*Z7+Z13*Z17)/(Z7+Z17)),Z22)</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AB22" s="8">
         <f>IF(AA22=0,AA3,AA22)</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AC22" s="40">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="str">
         <f>'1_Fire_Script'!A23</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
@@ -18695,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="str">
         <f>'1_Fire_Script'!A24</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
@@ -18788,7 +18822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="str">
         <f>'1_Fire_Script'!A25</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
@@ -18881,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="str">
         <f>'1_Fire_Script'!A26</f>
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
@@ -18945,7 +18979,7 @@
       </c>
       <c r="U26" s="40">
         <f>T18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="V26" s="4">
         <v>11</v>
@@ -18975,10 +19009,10 @@
       </c>
       <c r="AC26" s="40">
         <f>AB18</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="str">
         <f>'1_Fire_Script'!A27</f>
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
@@ -19075,7 +19109,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="str">
         <f>'1_Fire_Script'!A28</f>
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
@@ -19172,7 +19206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="str">
         <f>'1_Fire_Script'!A29</f>
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
@@ -19272,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="str">
         <f>'1_Fire_Script'!A30</f>
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
@@ -19372,7 +19406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="str">
         <f>'1_Fire_Script'!A31</f>
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
@@ -19472,7 +19506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="str">
         <f>'1_Fire_Script'!A32</f>
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
@@ -19562,7 +19596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="str">
         <f>'1_Fire_Script'!A33</f>
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
@@ -19652,7 +19686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="str">
         <f>'1_Fire_Script'!A34</f>
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
@@ -19762,7 +19796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="str">
         <f>'1_Fire_Script'!A35</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -19872,7 +19906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="str">
         <f>'1_Fire_Script'!A36</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -19979,7 +20013,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="str">
         <f>'1_Fire_Script'!A37</f>
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
@@ -20080,7 +20114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
         <f>'1_Fire_Script'!A38</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -20181,7 +20215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
         <f>'1_Fire_Script'!A39</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -20279,7 +20313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="str">
         <f>'1_Fire_Script'!A40</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
@@ -20383,7 +20417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="str">
         <f>'1_Fire_Script'!A41</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
@@ -20487,7 +20521,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="str">
         <f>'1_Fire_Script'!A42</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -20591,7 +20625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="str">
         <f>'1_Fire_Script'!A43</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -20695,7 +20729,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="str">
         <f>'1_Fire_Script'!A44</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
@@ -20796,7 +20830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
         <f>'1_Fire_Script'!A45</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
@@ -20897,7 +20931,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="str">
         <f>'1_Fire_Script'!A46</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -20998,7 +21032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="str">
         <f>'1_Fire_Script'!A47</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -21099,7 +21133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="str">
         <f>'1_Fire_Script'!A48</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
@@ -21205,7 +21239,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="str">
         <f>'1_Fire_Script'!A49</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
@@ -21311,7 +21345,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="str">
         <f>'1_Fire_Script'!A50</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
@@ -21417,7 +21451,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="str">
         <f>'1_Fire_Script'!A51</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
@@ -21523,7 +21557,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="str">
         <f>'1_Fire_Script'!A52</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
@@ -21629,7 +21663,7 @@
         <v>6.6000000000000008E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="str">
         <f>'1_Fire_Script'!A53</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -21734,7 +21768,7 @@
         <v>0.140625</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="str">
         <f>'1_Fire_Script'!A54</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -21839,7 +21873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="str">
         <f>'1_Fire_Script'!A55</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -21944,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="str">
         <f>'1_Fire_Script'!A56</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -22043,7 +22077,7 @@
         <v>0.234375</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="str">
         <f>'1_Fire_Script'!A57</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -22142,7 +22176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="str">
         <f>'1_Fire_Script'!A58</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -22241,7 +22275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="str">
         <f>'1_Fire_Script'!A59</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
@@ -22331,7 +22365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="str">
         <f>'1_Fire_Script'!A60</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
@@ -22421,7 +22455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="str">
         <f>'1_Fire_Script'!A61</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
@@ -22511,7 +22545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="str">
         <f>'1_Fire_Script'!A62</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
@@ -22609,7 +22643,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="str">
         <f>'1_Fire_Script'!A63</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
@@ -22707,7 +22741,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="str">
         <f>'1_Fire_Script'!A64</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
@@ -22805,7 +22839,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="str">
         <f>'1_Fire_Script'!A65</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
@@ -22891,7 +22925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="str">
         <f>'1_Fire_Script'!A66</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
@@ -22977,7 +23011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="str">
         <f>'1_Fire_Script'!A67</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
@@ -23063,7 +23097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="str">
         <f>'1_Fire_Script'!A68</f>
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
@@ -23167,7 +23201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="str">
         <f>'1_Fire_Script'!A69</f>
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
@@ -23271,7 +23305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="str">
         <f>'1_Fire_Script'!A70</f>
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
@@ -23375,7 +23409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="str">
         <f>'1_Fire_Script'!A71</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
@@ -23462,7 +23496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="str">
         <f>'1_Fire_Script'!A72</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
@@ -23549,7 +23583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="str">
         <f>'1_Fire_Script'!A73</f>
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
@@ -23636,7 +23670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="str">
         <f>'1_Fire_Script'!A74</f>
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -23729,7 +23763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="str">
         <f>'1_Fire_Script'!A75</f>
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
@@ -23819,7 +23853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="str">
         <f>'1_Fire_Script'!A76</f>
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
@@ -23906,7 +23940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="str">
         <f>'1_Fire_Script'!A77</f>
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -23990,7 +24024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="str">
         <f>'1_Fire_Script'!A78</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
@@ -24084,7 +24118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="str">
         <f>'1_Fire_Script'!A79</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
@@ -24178,7 +24212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="str">
         <f>'1_Fire_Script'!A80</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
@@ -24287,7 +24321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="str">
         <f>'1_Fire_Script'!A81</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
@@ -24396,7 +24430,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="str">
         <f>'1_Fire_Script'!A82</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
@@ -24493,7 +24527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="str">
         <f>'1_Fire_Script'!A83</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
@@ -24590,7 +24624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="str">
         <f>'1_Fire_Script'!A84</f>
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
@@ -24682,7 +24716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="str">
         <f>'1_Fire_Script'!A85</f>
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
@@ -24774,7 +24808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="str">
         <f>'1_Fire_Script'!A86</f>
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
@@ -24878,7 +24912,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="str">
         <f>'1_Fire_Script'!A87</f>
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
@@ -24982,7 +25016,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="str">
         <f>'1_Fire_Script'!A88</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
@@ -25068,7 +25102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="str">
         <f>'1_Fire_Script'!A89</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
@@ -25154,7 +25188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="str">
         <f>'1_Fire_Script'!A90</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
@@ -25240,7 +25274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="str">
         <f>'1_Fire_Script'!A91</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
@@ -25329,7 +25363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="str">
         <f>'1_Fire_Script'!A92</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
@@ -25418,7 +25452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="str">
         <f>'1_Fire_Script'!A93</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
@@ -25516,45 +25550,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="P1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="94.42578125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="94.453125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.81640625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="42.54296875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" style="44" customWidth="1"/>
     <col min="6" max="6" width="14" style="43" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="45" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" style="43" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" style="46" customWidth="1"/>
     <col min="10" max="10" width="14" style="43" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="43" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="45" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="46" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" style="43" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" style="45" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" style="46" customWidth="1"/>
     <col min="14" max="14" width="14" style="43" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="43" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="45" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="46" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" style="43" customWidth="1"/>
+    <col min="16" max="16" width="18.54296875" style="45" customWidth="1"/>
+    <col min="17" max="17" width="18.54296875" style="46" customWidth="1"/>
     <col min="18" max="18" width="14" style="43" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="43" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="45" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="46" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" style="43" customWidth="1"/>
+    <col min="20" max="20" width="18.54296875" style="45" customWidth="1"/>
+    <col min="21" max="21" width="18.54296875" style="46" customWidth="1"/>
     <col min="22" max="22" width="14" style="43" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.54296875" style="43" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" style="46" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="43" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="43"/>
+    <col min="27" max="27" width="18.54296875" style="43" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1796875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -25643,7 +25677,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="str">
         <f>'1_Fire_Script'!A2</f>
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
@@ -25743,7 +25777,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="str">
         <f>'1_Fire_Script'!A3</f>
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -25839,7 +25873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="str">
         <f>'1_Fire_Script'!A4</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -25937,7 +25971,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="str">
         <f>'1_Fire_Script'!A5</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
@@ -26033,7 +26067,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="str">
         <f>'1_Fire_Script'!A6</f>
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
@@ -26133,7 +26167,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="str">
         <f>'1_Fire_Script'!A7</f>
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
@@ -26233,7 +26267,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="str">
         <f>'1_Fire_Script'!A8</f>
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -26320,7 +26354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="str">
         <f>'1_Fire_Script'!A9</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -26409,7 +26443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="str">
         <f>'1_Fire_Script'!A10</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
@@ -26496,7 +26530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="str">
         <f>'1_Fire_Script'!A11</f>
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
@@ -26587,7 +26621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="str">
         <f>'1_Fire_Script'!A12</f>
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
@@ -26678,7 +26712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="str">
         <f>'1_Fire_Script'!A13</f>
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -26771,7 +26805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="str">
         <f>'1_Fire_Script'!A14</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -26866,7 +26900,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
         <f>'1_Fire_Script'!A15</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
@@ -26959,7 +26993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="str">
         <f>'1_Fire_Script'!A16</f>
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
@@ -27056,7 +27090,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="str">
         <f>'1_Fire_Script'!A17</f>
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
@@ -27153,7 +27187,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="str">
         <f>'1_Fire_Script'!A18</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
@@ -27213,7 +27247,7 @@
       </c>
       <c r="T18" s="8">
         <f>S22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="U18" s="33">
         <f>$E18*T18</f>
@@ -27240,14 +27274,14 @@
       </c>
       <c r="AB18" s="8">
         <f>AA22</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AC18" s="33">
         <f>$E18*AB18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="str">
         <f>'1_Fire_Script'!A19</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
@@ -27341,7 +27375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="str">
         <f>'1_Fire_Script'!A20</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
@@ -27435,7 +27469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="str">
         <f>'1_Fire_Script'!A21</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
@@ -27528,7 +27562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="str">
         <f>'1_Fire_Script'!A22</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
@@ -27536,8 +27570,8 @@
       <c r="B22" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>377</v>
+      <c r="C22" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>377</v>
@@ -27546,7 +27580,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="5">
-        <f>IF(F22=0,F3,F22)</f>
+        <f>IF(F22=0,((F3*F7+F13*F17)/(F7+F17)),F22)</f>
         <v>9.6</v>
       </c>
       <c r="H22" s="8">
@@ -27582,12 +27616,12 @@
         <v>0</v>
       </c>
       <c r="S22" s="5">
-        <f>IF(R22=0,R3,R22)</f>
-        <v>2.9</v>
+        <f>IF(R22=0,((R3*R7+R13*R17)/(R7+R17)),R22)</f>
+        <v>2.3666666666666667</v>
       </c>
       <c r="T22" s="8">
         <f>IF(S22=0,S3,S22)</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="U22" s="9">
         <f t="shared" si="30"/>
@@ -27597,7 +27631,7 @@
         <v>9</v>
       </c>
       <c r="W22" s="5">
-        <f>IF(V22=0,V3,V22)</f>
+        <f>IF(V22=0,((V3*V7+V13*V17)/(V7+V17)),V22)</f>
         <v>9</v>
       </c>
       <c r="X22" s="8">
@@ -27609,19 +27643,19 @@
         <v>0</v>
       </c>
       <c r="AA22" s="5">
-        <f>IF(Z22=0,Z3,Z22)</f>
-        <v>12</v>
+        <f>IF(Z22=0,((Z3*Z7+Z13*Z17)/(Z7+Z17)),Z22)</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AB22" s="8">
         <f>IF(AA22=0,AA3,AA22)</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AC22" s="9">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="str">
         <f>'1_Fire_Script'!A23</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
@@ -27714,7 +27748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="str">
         <f>'1_Fire_Script'!A24</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
@@ -27807,7 +27841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="str">
         <f>'1_Fire_Script'!A25</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
@@ -27900,7 +27934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="str">
         <f>'1_Fire_Script'!A26</f>
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
@@ -27964,7 +27998,7 @@
       </c>
       <c r="U26" s="9">
         <f>T18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="V26" s="4">
         <v>11</v>
@@ -27994,10 +28028,10 @@
       </c>
       <c r="AC26" s="9">
         <f>AB18</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="str">
         <f>'1_Fire_Script'!A27</f>
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
@@ -28094,7 +28128,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="str">
         <f>'1_Fire_Script'!A28</f>
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
@@ -28191,7 +28225,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="str">
         <f>'1_Fire_Script'!A29</f>
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
@@ -28291,7 +28325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="str">
         <f>'1_Fire_Script'!A30</f>
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
@@ -28391,7 +28425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="str">
         <f>'1_Fire_Script'!A31</f>
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
@@ -28491,7 +28525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="str">
         <f>'1_Fire_Script'!A32</f>
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
@@ -28581,7 +28615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="str">
         <f>'1_Fire_Script'!A33</f>
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
@@ -28671,7 +28705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="str">
         <f>'1_Fire_Script'!A34</f>
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
@@ -28781,7 +28815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="str">
         <f>'1_Fire_Script'!A35</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -28891,7 +28925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="str">
         <f>'1_Fire_Script'!A36</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -28998,7 +29032,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="str">
         <f>'1_Fire_Script'!A37</f>
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
@@ -29099,7 +29133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
         <f>'1_Fire_Script'!A38</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -29200,7 +29234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
         <f>'1_Fire_Script'!A39</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -29298,7 +29332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="str">
         <f>'1_Fire_Script'!A40</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
@@ -29402,7 +29436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="str">
         <f>'1_Fire_Script'!A41</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
@@ -29506,7 +29540,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="str">
         <f>'1_Fire_Script'!A42</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -29610,7 +29644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="str">
         <f>'1_Fire_Script'!A43</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -29714,7 +29748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="str">
         <f>'1_Fire_Script'!A44</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
@@ -29815,7 +29849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
         <f>'1_Fire_Script'!A45</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
@@ -29916,7 +29950,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="str">
         <f>'1_Fire_Script'!A46</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -30017,7 +30051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="str">
         <f>'1_Fire_Script'!A47</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -30118,7 +30152,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="str">
         <f>'1_Fire_Script'!A48</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
@@ -30224,7 +30258,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="str">
         <f>'1_Fire_Script'!A49</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
@@ -30330,7 +30364,7 @@
         <v>4.9499999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="str">
         <f>'1_Fire_Script'!A50</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
@@ -30436,7 +30470,7 @@
         <v>9.8999999999999991E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="str">
         <f>'1_Fire_Script'!A51</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
@@ -30542,7 +30576,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="str">
         <f>'1_Fire_Script'!A52</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
@@ -30648,7 +30682,7 @@
         <v>6.5999999999999991E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="str">
         <f>'1_Fire_Script'!A53</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -30753,7 +30787,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="str">
         <f>'1_Fire_Script'!A54</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -30858,7 +30892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="str">
         <f>'1_Fire_Script'!A55</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -30963,7 +30997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="str">
         <f>'1_Fire_Script'!A56</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -30975,10 +31009,10 @@
         <v>0.5</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -31062,7 +31096,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="str">
         <f>'1_Fire_Script'!A57</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -31074,10 +31108,10 @@
         <v>0.5</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F57" s="4">
         <v>11</v>
@@ -31161,7 +31195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="str">
         <f>'1_Fire_Script'!A58</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -31173,10 +31207,10 @@
         <v>0.5</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -31260,7 +31294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="str">
         <f>'1_Fire_Script'!A59</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
@@ -31350,7 +31384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="str">
         <f>'1_Fire_Script'!A60</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
@@ -31440,7 +31474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="str">
         <f>'1_Fire_Script'!A61</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
@@ -31530,7 +31564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="str">
         <f>'1_Fire_Script'!A62</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
@@ -31628,7 +31662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="str">
         <f>'1_Fire_Script'!A63</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
@@ -31726,7 +31760,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="str">
         <f>'1_Fire_Script'!A64</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
@@ -31824,7 +31858,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="str">
         <f>'1_Fire_Script'!A65</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
@@ -31910,7 +31944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="str">
         <f>'1_Fire_Script'!A66</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
@@ -31996,7 +32030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="str">
         <f>'1_Fire_Script'!A67</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
@@ -32082,7 +32116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="str">
         <f>'1_Fire_Script'!A68</f>
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
@@ -32186,7 +32220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="str">
         <f>'1_Fire_Script'!A69</f>
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
@@ -32290,7 +32324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="str">
         <f>'1_Fire_Script'!A70</f>
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
@@ -32394,7 +32428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="str">
         <f>'1_Fire_Script'!A71</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
@@ -32481,7 +32515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="str">
         <f>'1_Fire_Script'!A72</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
@@ -32568,7 +32602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="str">
         <f>'1_Fire_Script'!A73</f>
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
@@ -32655,7 +32689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="str">
         <f>'1_Fire_Script'!A74</f>
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -32748,7 +32782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="str">
         <f>'1_Fire_Script'!A75</f>
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
@@ -32838,7 +32872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="str">
         <f>'1_Fire_Script'!A76</f>
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
@@ -32925,7 +32959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="str">
         <f>'1_Fire_Script'!A77</f>
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -33009,7 +33043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="str">
         <f>'1_Fire_Script'!A78</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
@@ -33103,7 +33137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="str">
         <f>'1_Fire_Script'!A79</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
@@ -33197,7 +33231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="str">
         <f>'1_Fire_Script'!A80</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
@@ -33306,7 +33340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="str">
         <f>'1_Fire_Script'!A81</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
@@ -33415,7 +33449,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="str">
         <f>'1_Fire_Script'!A82</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
@@ -33512,7 +33546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="str">
         <f>'1_Fire_Script'!A83</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
@@ -33609,7 +33643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="str">
         <f>'1_Fire_Script'!A84</f>
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
@@ -33701,7 +33735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="str">
         <f>'1_Fire_Script'!A85</f>
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
@@ -33793,7 +33827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="str">
         <f>'1_Fire_Script'!A86</f>
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
@@ -33897,7 +33931,7 @@
         <v>7.5000000000000011E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="str">
         <f>'1_Fire_Script'!A87</f>
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
@@ -34001,7 +34035,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="str">
         <f>'1_Fire_Script'!A88</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
@@ -34087,7 +34121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="str">
         <f>'1_Fire_Script'!A89</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
@@ -34173,7 +34207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="str">
         <f>'1_Fire_Script'!A90</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
@@ -34259,7 +34293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="str">
         <f>'1_Fire_Script'!A91</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
@@ -34348,7 +34382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="str">
         <f>'1_Fire_Script'!A92</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
@@ -34437,7 +34471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="str">
         <f>'1_Fire_Script'!A93</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
@@ -34535,28 +34569,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="77.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="51" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="61" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="31" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="51" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="53" max="61" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -34741,7 +34775,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="str">
         <f>'1_Fire_Script'!A2</f>
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
@@ -34987,7 +35021,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="str">
         <f>'1_Fire_Script'!A3</f>
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -35233,7 +35267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="str">
         <f>'1_Fire_Script'!A4</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -35479,7 +35513,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="str">
         <f>'1_Fire_Script'!A5</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
@@ -35725,7 +35759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="str">
         <f>'1_Fire_Script'!A6</f>
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
@@ -35971,7 +36005,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="str">
         <f>'1_Fire_Script'!A7</f>
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
@@ -36217,7 +36251,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="str">
         <f>'1_Fire_Script'!A8</f>
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -36463,7 +36497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="str">
         <f>'1_Fire_Script'!A9</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -36709,7 +36743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="str">
         <f>'1_Fire_Script'!A10</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
@@ -36955,7 +36989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="str">
         <f>'1_Fire_Script'!A11</f>
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
@@ -37201,7 +37235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="str">
         <f>'1_Fire_Script'!A12</f>
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
@@ -37447,7 +37481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="str">
         <f>'1_Fire_Script'!A13</f>
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -37693,7 +37727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="str">
         <f>'1_Fire_Script'!A14</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -37939,7 +37973,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
         <f>'1_Fire_Script'!A15</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
@@ -38185,7 +38219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="str">
         <f>'1_Fire_Script'!A16</f>
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
@@ -38431,7 +38465,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="str">
         <f>'1_Fire_Script'!A17</f>
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
@@ -38677,7 +38711,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="str">
         <f>'1_Fire_Script'!A18</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
@@ -38812,7 +38846,7 @@
       </c>
       <c r="AH18">
         <f>'11_Fire_LowSeverity'!T18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AI18">
         <f>'11_Fire_LowSeverity'!U18</f>
@@ -38824,11 +38858,11 @@
       </c>
       <c r="AK18">
         <f>'12_Fire_ModSeverity'!T18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AL18">
         <f>'12_Fire_ModSeverity'!U18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AM18">
         <f>'13_Fire_HighSeverity'!S18</f>
@@ -38836,7 +38870,7 @@
       </c>
       <c r="AN18">
         <f>'13_Fire_HighSeverity'!T18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AO18">
         <f>'13_Fire_HighSeverity'!U18</f>
@@ -38892,7 +38926,7 @@
       </c>
       <c r="BB18">
         <f>'11_Fire_LowSeverity'!AB18</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BC18">
         <f>'11_Fire_LowSeverity'!AC18</f>
@@ -38904,11 +38938,11 @@
       </c>
       <c r="BE18">
         <f>'12_Fire_ModSeverity'!AB18</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BF18">
         <f>'12_Fire_ModSeverity'!AC18</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BG18">
         <f>'13_Fire_HighSeverity'!AA18</f>
@@ -38916,14 +38950,14 @@
       </c>
       <c r="BH18">
         <f>'13_Fire_HighSeverity'!AB18</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BI18">
         <f>'13_Fire_HighSeverity'!AC18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="str">
         <f>'1_Fire_Script'!A19</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
@@ -39169,7 +39203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="str">
         <f>'1_Fire_Script'!A20</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
@@ -39415,7 +39449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="str">
         <f>'1_Fire_Script'!A21</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
@@ -39661,253 +39695,253 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="str">
+    <row r="22" spans="1:61" s="63" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="62" t="str">
         <f>'1_Fire_Script'!A22</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="63">
         <f>'11_Fire_LowSeverity'!F22</f>
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="63">
         <f>'11_Fire_LowSeverity'!G22</f>
         <v>9.6</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="63">
         <f>'11_Fire_LowSeverity'!H22</f>
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="63">
         <f>'11_Fire_LowSeverity'!I22</f>
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="63">
         <f>'12_Fire_ModSeverity'!G22</f>
         <v>9.6</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="63">
         <f>'12_Fire_ModSeverity'!H22</f>
         <v>9.6</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="63">
         <f>'12_Fire_ModSeverity'!I22</f>
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="63">
         <f>'13_Fire_HighSeverity'!G22</f>
         <v>9.6</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="63">
         <f>'13_Fire_HighSeverity'!H22</f>
         <v>9.6</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="63">
         <f>'13_Fire_HighSeverity'!I22</f>
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="63">
         <f>'11_Fire_LowSeverity'!J22</f>
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="63">
         <f>'11_Fire_LowSeverity'!K22</f>
         <v>0</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="63">
         <f>'11_Fire_LowSeverity'!L22</f>
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="63">
         <f>'11_Fire_LowSeverity'!M22</f>
         <v>0</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="63">
         <f>'12_Fire_ModSeverity'!K22</f>
         <v>0</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="63">
         <f>'12_Fire_ModSeverity'!L22</f>
         <v>0</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="63">
         <f>'12_Fire_ModSeverity'!M22</f>
         <v>0</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="63">
         <f>'13_Fire_HighSeverity'!K22</f>
         <v>0</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="63">
         <f>'13_Fire_HighSeverity'!L22</f>
         <v>0</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="63">
         <f>'13_Fire_HighSeverity'!M22</f>
         <v>0</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="63">
         <f>'11_Fire_LowSeverity'!N22</f>
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="63">
         <f>'11_Fire_LowSeverity'!O22</f>
         <v>0</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="63">
         <f>'11_Fire_LowSeverity'!P22</f>
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="63">
         <f>'11_Fire_LowSeverity'!Q22</f>
         <v>0</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="63">
         <f>'12_Fire_ModSeverity'!O22</f>
         <v>0</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="63">
         <f>'12_Fire_ModSeverity'!P22</f>
         <v>0</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="63">
         <f>'12_Fire_ModSeverity'!Q22</f>
         <v>0</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="63">
         <f>'13_Fire_HighSeverity'!O22</f>
         <v>0</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="63">
         <f>'13_Fire_HighSeverity'!P22</f>
         <v>0</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="63">
         <f>'13_Fire_HighSeverity'!Q22</f>
         <v>0</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="63">
         <f>'11_Fire_LowSeverity'!R22</f>
         <v>0</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="63">
         <f>'11_Fire_LowSeverity'!S22</f>
-        <v>2.9</v>
-      </c>
-      <c r="AH22">
+        <v>2.3666666666666667</v>
+      </c>
+      <c r="AH22" s="63">
         <f>'11_Fire_LowSeverity'!T22</f>
         <v>0</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" s="63">
         <f>'11_Fire_LowSeverity'!U22</f>
         <v>0</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" s="63">
         <f>'12_Fire_ModSeverity'!S22</f>
-        <v>2.9</v>
-      </c>
-      <c r="AK22">
+        <v>2.3666666666666667</v>
+      </c>
+      <c r="AK22" s="63">
         <f>'12_Fire_ModSeverity'!T22</f>
-        <v>2.9</v>
-      </c>
-      <c r="AL22">
+        <v>2.3666666666666667</v>
+      </c>
+      <c r="AL22" s="63">
         <f>'12_Fire_ModSeverity'!U22</f>
         <v>0</v>
       </c>
-      <c r="AM22">
+      <c r="AM22" s="63">
         <f>'13_Fire_HighSeverity'!S22</f>
-        <v>2.9</v>
-      </c>
-      <c r="AN22">
+        <v>2.3666666666666667</v>
+      </c>
+      <c r="AN22" s="63">
         <f>'13_Fire_HighSeverity'!T22</f>
-        <v>2.9</v>
-      </c>
-      <c r="AO22">
+        <v>2.3666666666666667</v>
+      </c>
+      <c r="AO22" s="63">
         <f>'13_Fire_HighSeverity'!U22</f>
         <v>0</v>
       </c>
-      <c r="AP22">
+      <c r="AP22" s="63">
         <f>'11_Fire_LowSeverity'!V22</f>
         <v>9</v>
       </c>
-      <c r="AQ22">
+      <c r="AQ22" s="63">
         <f>'11_Fire_LowSeverity'!W22</f>
         <v>9</v>
       </c>
-      <c r="AR22">
+      <c r="AR22" s="63">
         <f>'11_Fire_LowSeverity'!X22</f>
         <v>0</v>
       </c>
-      <c r="AS22">
+      <c r="AS22" s="63">
         <f>'11_Fire_LowSeverity'!Y22</f>
         <v>0</v>
       </c>
-      <c r="AT22">
+      <c r="AT22" s="63">
         <f>'12_Fire_ModSeverity'!W22</f>
         <v>9</v>
       </c>
-      <c r="AU22">
+      <c r="AU22" s="63">
         <f>'12_Fire_ModSeverity'!X22</f>
         <v>9</v>
       </c>
-      <c r="AV22">
+      <c r="AV22" s="63">
         <f>'12_Fire_ModSeverity'!Y22</f>
         <v>0</v>
       </c>
-      <c r="AW22">
+      <c r="AW22" s="63">
         <f>'13_Fire_HighSeverity'!W22</f>
         <v>9</v>
       </c>
-      <c r="AX22">
+      <c r="AX22" s="63">
         <f>'13_Fire_HighSeverity'!X22</f>
         <v>9</v>
       </c>
-      <c r="AY22">
+      <c r="AY22" s="63">
         <f>'13_Fire_HighSeverity'!Y22</f>
         <v>0</v>
       </c>
-      <c r="AZ22">
+      <c r="AZ22" s="63">
         <f>'11_Fire_LowSeverity'!Z22</f>
         <v>0</v>
       </c>
-      <c r="BA22">
+      <c r="BA22" s="63">
         <f>'11_Fire_LowSeverity'!AA22</f>
-        <v>12</v>
-      </c>
-      <c r="BB22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BB22" s="63">
         <f>'11_Fire_LowSeverity'!AB22</f>
         <v>0</v>
       </c>
-      <c r="BC22">
+      <c r="BC22" s="63">
         <f>'11_Fire_LowSeverity'!AC22</f>
         <v>0</v>
       </c>
-      <c r="BD22">
+      <c r="BD22" s="63">
         <f>'12_Fire_ModSeverity'!AA22</f>
-        <v>12</v>
-      </c>
-      <c r="BE22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BE22" s="63">
         <f>'12_Fire_ModSeverity'!AB22</f>
-        <v>12</v>
-      </c>
-      <c r="BF22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BF22" s="63">
         <f>'12_Fire_ModSeverity'!AC22</f>
         <v>0</v>
       </c>
-      <c r="BG22">
+      <c r="BG22" s="63">
         <f>'13_Fire_HighSeverity'!AA22</f>
-        <v>12</v>
-      </c>
-      <c r="BH22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BH22" s="63">
         <f>'13_Fire_HighSeverity'!AB22</f>
-        <v>12</v>
-      </c>
-      <c r="BI22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BI22" s="63">
         <f>'13_Fire_HighSeverity'!AC22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="str">
         <f>'1_Fire_Script'!A23</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
@@ -40153,7 +40187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="str">
         <f>'1_Fire_Script'!A24</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
@@ -40399,7 +40433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="str">
         <f>'1_Fire_Script'!A25</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
@@ -40645,7 +40679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="str">
         <f>'1_Fire_Script'!A26</f>
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
@@ -40784,7 +40818,7 @@
       </c>
       <c r="AI26">
         <f>'11_Fire_LowSeverity'!U26</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AJ26">
         <f>'12_Fire_ModSeverity'!S26</f>
@@ -40796,7 +40830,7 @@
       </c>
       <c r="AL26">
         <f>'12_Fire_ModSeverity'!U26</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AM26">
         <f>'13_Fire_HighSeverity'!S26</f>
@@ -40808,7 +40842,7 @@
       </c>
       <c r="AO26">
         <f>'13_Fire_HighSeverity'!U26</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AP26">
         <f>'11_Fire_LowSeverity'!V26</f>
@@ -40864,7 +40898,7 @@
       </c>
       <c r="BC26">
         <f>'11_Fire_LowSeverity'!AC26</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BD26">
         <f>'12_Fire_ModSeverity'!AA26</f>
@@ -40876,7 +40910,7 @@
       </c>
       <c r="BF26">
         <f>'12_Fire_ModSeverity'!AC26</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BG26">
         <f>'13_Fire_HighSeverity'!AA26</f>
@@ -40888,10 +40922,10 @@
       </c>
       <c r="BI26">
         <f>'13_Fire_HighSeverity'!AC26</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="str">
         <f>'1_Fire_Script'!A27</f>
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
@@ -41137,7 +41171,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="str">
         <f>'1_Fire_Script'!A28</f>
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
@@ -41383,7 +41417,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="str">
         <f>'1_Fire_Script'!A29</f>
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
@@ -41629,7 +41663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="str">
         <f>'1_Fire_Script'!A30</f>
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
@@ -41875,7 +41909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="str">
         <f>'1_Fire_Script'!A31</f>
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
@@ -42121,7 +42155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="str">
         <f>'1_Fire_Script'!A32</f>
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
@@ -42367,7 +42401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="str">
         <f>'1_Fire_Script'!A33</f>
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
@@ -42613,7 +42647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="str">
         <f>'1_Fire_Script'!A34</f>
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
@@ -42859,7 +42893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="str">
         <f>'1_Fire_Script'!A35</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -43105,7 +43139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="str">
         <f>'1_Fire_Script'!A36</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -43351,7 +43385,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="str">
         <f>'1_Fire_Script'!A37</f>
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
@@ -43597,7 +43631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
         <f>'1_Fire_Script'!A38</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -43843,7 +43877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
         <f>'1_Fire_Script'!A39</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -44089,7 +44123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="str">
         <f>'1_Fire_Script'!A40</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
@@ -44335,7 +44369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="str">
         <f>'1_Fire_Script'!A41</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
@@ -44581,7 +44615,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="str">
         <f>'1_Fire_Script'!A42</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -44827,7 +44861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="str">
         <f>'1_Fire_Script'!A43</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -45073,7 +45107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="str">
         <f>'1_Fire_Script'!A44</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
@@ -45319,7 +45353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
         <f>'1_Fire_Script'!A45</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
@@ -45565,7 +45599,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="str">
         <f>'1_Fire_Script'!A46</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -45811,7 +45845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="str">
         <f>'1_Fire_Script'!A47</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -46057,7 +46091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="str">
         <f>'1_Fire_Script'!A48</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
@@ -46303,7 +46337,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="str">
         <f>'1_Fire_Script'!A49</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
@@ -46549,7 +46583,7 @@
         <v>4.9499999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="str">
         <f>'1_Fire_Script'!A50</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
@@ -46795,7 +46829,7 @@
         <v>9.8999999999999991E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="str">
         <f>'1_Fire_Script'!A51</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
@@ -47041,7 +47075,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="str">
         <f>'1_Fire_Script'!A52</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
@@ -47287,7 +47321,7 @@
         <v>6.5999999999999991E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="str">
         <f>'1_Fire_Script'!A53</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -47533,7 +47567,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="str">
         <f>'1_Fire_Script'!A54</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -47779,7 +47813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="str">
         <f>'1_Fire_Script'!A55</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -48025,7 +48059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="str">
         <f>'1_Fire_Script'!A56</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -48271,7 +48305,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="str">
         <f>'1_Fire_Script'!A57</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -48517,7 +48551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="str">
         <f>'1_Fire_Script'!A58</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -48763,7 +48797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="str">
         <f>'1_Fire_Script'!A59</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
@@ -49009,7 +49043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="str">
         <f>'1_Fire_Script'!A60</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
@@ -49255,7 +49289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="str">
         <f>'1_Fire_Script'!A61</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
@@ -49501,7 +49535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="str">
         <f>'1_Fire_Script'!A62</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
@@ -49747,7 +49781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="str">
         <f>'1_Fire_Script'!A63</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
@@ -49993,7 +50027,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="str">
         <f>'1_Fire_Script'!A64</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
@@ -50239,7 +50273,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="65" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="str">
         <f>'1_Fire_Script'!A65</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
@@ -50485,7 +50519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="str">
         <f>'1_Fire_Script'!A66</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
@@ -50731,7 +50765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="str">
         <f>'1_Fire_Script'!A67</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
@@ -50977,7 +51011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="str">
         <f>'1_Fire_Script'!A68</f>
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
@@ -51223,7 +51257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="str">
         <f>'1_Fire_Script'!A69</f>
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
@@ -51469,7 +51503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="str">
         <f>'1_Fire_Script'!A70</f>
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
@@ -51715,7 +51749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="str">
         <f>'1_Fire_Script'!A71</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
@@ -51961,7 +51995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="str">
         <f>'1_Fire_Script'!A72</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
@@ -52207,7 +52241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="str">
         <f>'1_Fire_Script'!A73</f>
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
@@ -52453,7 +52487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="str">
         <f>'1_Fire_Script'!A74</f>
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -52699,7 +52733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="str">
         <f>'1_Fire_Script'!A75</f>
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
@@ -52945,7 +52979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="str">
         <f>'1_Fire_Script'!A76</f>
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
@@ -53191,7 +53225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="str">
         <f>'1_Fire_Script'!A77</f>
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -53437,7 +53471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="str">
         <f>'1_Fire_Script'!A78</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
@@ -53683,7 +53717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="str">
         <f>'1_Fire_Script'!A79</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
@@ -53929,7 +53963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="str">
         <f>'1_Fire_Script'!A80</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
@@ -54175,7 +54209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="str">
         <f>'1_Fire_Script'!A81</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
@@ -54421,7 +54455,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="str">
         <f>'1_Fire_Script'!A82</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
@@ -54667,7 +54701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="str">
         <f>'1_Fire_Script'!A83</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
@@ -54913,7 +54947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="str">
         <f>'1_Fire_Script'!A84</f>
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
@@ -55159,7 +55193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="str">
         <f>'1_Fire_Script'!A85</f>
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
@@ -55405,7 +55439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="str">
         <f>'1_Fire_Script'!A86</f>
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
@@ -55651,7 +55685,7 @@
         <v>7.5000000000000011E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="str">
         <f>'1_Fire_Script'!A87</f>
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
@@ -55897,7 +55931,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="88" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="str">
         <f>'1_Fire_Script'!A88</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
@@ -56143,7 +56177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="str">
         <f>'1_Fire_Script'!A89</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
@@ -56389,7 +56423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="str">
         <f>'1_Fire_Script'!A90</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
@@ -56635,7 +56669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="str">
         <f>'1_Fire_Script'!A91</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
@@ -56881,7 +56915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="str">
         <f>'1_Fire_Script'!A92</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
@@ -57127,7 +57161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="str">
         <f>'1_Fire_Script'!A93</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>

--- a/specifications/1_Fire/ScriptRules_Fire.xlsx
+++ b/specifications/1_Fire/ScriptRules_Fire.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\LFDisturbance\fera-landfiredisturbance\specifications\1_Fire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/briandrye/repos/uw/landfiredisturbanceGIT/specifications/1_Fire/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC008F79-FAF7-2A47-859A-03CD9613DA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="19520" yWindow="500" windowWidth="14080" windowHeight="16900" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -22,17 +23,26 @@
     <sheet name="13_Fire_HighSeverity" sheetId="14" r:id="rId8"/>
     <sheet name="Expected" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="439">
   <si>
     <t>* = 0.9</t>
   </si>
@@ -1344,11 +1354,17 @@
   <si>
     <t>|If not present * = (denOtree*dbhOtree + denMidTree*dbhMidTree) / (denOTree + denMidtree)</t>
   </si>
+  <si>
+    <t>0-</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2018,21 +2034,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -2043,7 +2059,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -2054,7 +2070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -2076,7 +2092,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2087,7 +2103,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2098,7 +2114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2109,7 +2125,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2120,7 +2136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2131,7 +2147,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -2142,7 +2158,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2153,7 +2169,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2164,7 +2180,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2175,7 +2191,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2186,7 +2202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -2203,22 +2219,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2229,7 +2245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2237,7 +2253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2248,7 +2264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2259,7 +2275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2273,7 +2289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>111</v>
       </c>
@@ -2287,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>112</v>
       </c>
@@ -2301,7 +2317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>113</v>
       </c>
@@ -2315,7 +2331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>121</v>
       </c>
@@ -2329,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>122</v>
       </c>
@@ -2343,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>123</v>
       </c>
@@ -2357,7 +2373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>131</v>
       </c>
@@ -2371,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>132</v>
       </c>
@@ -2385,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>133</v>
       </c>
@@ -2399,47 +2415,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>276</v>
       </c>
@@ -2451,120 +2467,120 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="101.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A129">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A129">
     <sortCondition ref="A1:A129"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2572,30 +2588,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.81640625" style="61" customWidth="1"/>
+    <col min="1" max="1" width="66.83203125" style="61" customWidth="1"/>
     <col min="2" max="2" width="28" style="44" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="32.26953125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="55" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="53" customWidth="1"/>
     <col min="7" max="7" width="33" style="54" customWidth="1"/>
-    <col min="8" max="8" width="34.453125" style="55" customWidth="1"/>
-    <col min="9" max="9" width="30.36328125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="33.1796875" style="54" customWidth="1"/>
-    <col min="11" max="11" width="36.54296875" style="55" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="61"/>
+    <col min="8" max="8" width="34.5" style="55" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" style="54" customWidth="1"/>
+    <col min="11" max="11" width="36.5" style="55" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>277</v>
       </c>
@@ -2627,7 +2643,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>108</v>
       </c>
@@ -2654,7 +2670,7 @@
       </c>
       <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>103</v>
       </c>
@@ -2671,7 +2687,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>105</v>
       </c>
@@ -2694,7 +2710,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>104</v>
       </c>
@@ -2711,7 +2727,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>106</v>
       </c>
@@ -2738,7 +2754,7 @@
       </c>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>107</v>
       </c>
@@ -2765,7 +2781,7 @@
       </c>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>98</v>
       </c>
@@ -2782,7 +2798,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>100</v>
       </c>
@@ -2805,7 +2821,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>99</v>
       </c>
@@ -2822,7 +2838,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>101</v>
       </c>
@@ -2849,7 +2865,7 @@
       </c>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>102</v>
       </c>
@@ -2876,7 +2892,7 @@
       </c>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>109</v>
       </c>
@@ -2893,7 +2909,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>111</v>
       </c>
@@ -2914,7 +2930,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>110</v>
       </c>
@@ -2931,7 +2947,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>112</v>
       </c>
@@ -2958,7 +2974,7 @@
       </c>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>113</v>
       </c>
@@ -2985,7 +3001,7 @@
       </c>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>84</v>
       </c>
@@ -3014,7 +3030,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>85</v>
       </c>
@@ -3043,7 +3059,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>86</v>
       </c>
@@ -3072,7 +3088,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>89</v>
       </c>
@@ -3105,7 +3121,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>87</v>
       </c>
@@ -3138,7 +3154,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>88</v>
       </c>
@@ -3171,7 +3187,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>90</v>
       </c>
@@ -3204,7 +3220,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>91</v>
       </c>
@@ -3237,7 +3253,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>92</v>
       </c>
@@ -3266,7 +3282,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>93</v>
       </c>
@@ -3295,7 +3311,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>94</v>
       </c>
@@ -3324,7 +3340,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>95</v>
       </c>
@@ -3353,7 +3369,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>96</v>
       </c>
@@ -3382,7 +3398,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>97</v>
       </c>
@@ -3411,7 +3427,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>82</v>
       </c>
@@ -3428,7 +3444,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>83</v>
       </c>
@@ -3445,7 +3461,7 @@
       <c r="J33" s="17"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>148</v>
       </c>
@@ -3480,7 +3496,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>149</v>
       </c>
@@ -3515,7 +3531,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>150</v>
       </c>
@@ -3546,7 +3562,7 @@
       </c>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>151</v>
       </c>
@@ -3581,7 +3597,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>152</v>
       </c>
@@ -3616,7 +3632,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>153</v>
       </c>
@@ -3647,7 +3663,7 @@
       </c>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>126</v>
       </c>
@@ -3676,7 +3692,7 @@
       </c>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>127</v>
       </c>
@@ -3705,7 +3721,7 @@
       </c>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>128</v>
       </c>
@@ -3734,7 +3750,7 @@
       </c>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>129</v>
       </c>
@@ -3763,7 +3779,7 @@
       </c>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>130</v>
       </c>
@@ -3792,7 +3808,7 @@
       </c>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>131</v>
       </c>
@@ -3821,7 +3837,7 @@
       </c>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>132</v>
       </c>
@@ -3850,7 +3866,7 @@
       </c>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>133</v>
       </c>
@@ -3879,7 +3895,7 @@
       </c>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>154</v>
       </c>
@@ -3914,7 +3930,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>155</v>
       </c>
@@ -3949,7 +3965,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>159</v>
       </c>
@@ -3984,7 +4000,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>160</v>
       </c>
@@ -4019,7 +4035,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>161</v>
       </c>
@@ -4054,7 +4070,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>227</v>
       </c>
@@ -4089,7 +4105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>228</v>
       </c>
@@ -4124,7 +4140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>229</v>
       </c>
@@ -4159,7 +4175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>230</v>
       </c>
@@ -4194,7 +4210,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>231</v>
       </c>
@@ -4229,7 +4245,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>232</v>
       </c>
@@ -4264,7 +4280,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>168</v>
       </c>
@@ -4281,7 +4297,7 @@
       <c r="J59" s="17"/>
       <c r="K59" s="18"/>
     </row>
-    <row r="60" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>169</v>
       </c>
@@ -4298,7 +4314,7 @@
       <c r="J60" s="17"/>
       <c r="K60" s="18"/>
     </row>
-    <row r="61" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
         <v>170</v>
       </c>
@@ -4315,7 +4331,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="18"/>
     </row>
-    <row r="62" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>165</v>
       </c>
@@ -4338,7 +4354,7 @@
       <c r="J62" s="17"/>
       <c r="K62" s="18"/>
     </row>
-    <row r="63" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>166</v>
       </c>
@@ -4361,7 +4377,7 @@
       <c r="J63" s="17"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>167</v>
       </c>
@@ -4384,7 +4400,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="18"/>
     </row>
-    <row r="65" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>162</v>
       </c>
@@ -4407,7 +4423,7 @@
       <c r="J65" s="17"/>
       <c r="K65" s="18"/>
     </row>
-    <row r="66" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>163</v>
       </c>
@@ -4430,7 +4446,7 @@
       <c r="J66" s="17"/>
       <c r="K66" s="18"/>
     </row>
-    <row r="67" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>164</v>
       </c>
@@ -4453,7 +4469,7 @@
       <c r="J67" s="17"/>
       <c r="K67" s="18"/>
     </row>
-    <row r="68" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>156</v>
       </c>
@@ -4476,7 +4492,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="18"/>
     </row>
-    <row r="69" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>157</v>
       </c>
@@ -4499,7 +4515,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="18"/>
     </row>
-    <row r="70" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>158</v>
       </c>
@@ -4522,7 +4538,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="18"/>
     </row>
-    <row r="71" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
         <v>134</v>
       </c>
@@ -4539,7 +4555,7 @@
       <c r="J71" s="17"/>
       <c r="K71" s="18"/>
     </row>
-    <row r="72" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
         <v>135</v>
       </c>
@@ -4556,7 +4572,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
     </row>
-    <row r="73" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
         <v>136</v>
       </c>
@@ -4573,7 +4589,7 @@
       <c r="J73" s="17"/>
       <c r="K73" s="18"/>
     </row>
-    <row r="74" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>137</v>
       </c>
@@ -4590,7 +4606,7 @@
       <c r="J74" s="17"/>
       <c r="K74" s="18"/>
     </row>
-    <row r="75" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>138</v>
       </c>
@@ -4607,7 +4623,7 @@
       <c r="J75" s="17"/>
       <c r="K75" s="18"/>
     </row>
-    <row r="76" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
         <v>139</v>
       </c>
@@ -4624,7 +4640,7 @@
       <c r="J76" s="17"/>
       <c r="K76" s="18"/>
     </row>
-    <row r="77" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
         <v>140</v>
       </c>
@@ -4641,7 +4657,7 @@
       <c r="J77" s="17"/>
       <c r="K77" s="18"/>
     </row>
-    <row r="78" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>141</v>
       </c>
@@ -4674,7 +4690,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
         <v>142</v>
       </c>
@@ -4707,7 +4723,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
         <v>143</v>
       </c>
@@ -4740,7 +4756,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
         <v>144</v>
       </c>
@@ -4773,7 +4789,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
         <v>145</v>
       </c>
@@ -4806,7 +4822,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
         <v>146</v>
       </c>
@@ -4839,7 +4855,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
         <v>119</v>
       </c>
@@ -4862,7 +4878,7 @@
       <c r="J84" s="17"/>
       <c r="K84" s="18"/>
     </row>
-    <row r="85" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
         <v>120</v>
       </c>
@@ -4885,7 +4901,7 @@
       <c r="J85" s="17"/>
       <c r="K85" s="18"/>
     </row>
-    <row r="86" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
         <v>121</v>
       </c>
@@ -4908,7 +4924,7 @@
       <c r="J86" s="17"/>
       <c r="K86" s="18"/>
     </row>
-    <row r="87" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
         <v>122</v>
       </c>
@@ -4931,7 +4947,7 @@
       <c r="J87" s="17"/>
       <c r="K87" s="18"/>
     </row>
-    <row r="88" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
         <v>116</v>
       </c>
@@ -4954,7 +4970,7 @@
       <c r="J88" s="17"/>
       <c r="K88" s="18"/>
     </row>
-    <row r="89" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
         <v>117</v>
       </c>
@@ -4977,7 +4993,7 @@
       <c r="J89" s="17"/>
       <c r="K89" s="18"/>
     </row>
-    <row r="90" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
         <v>118</v>
       </c>
@@ -5000,7 +5016,7 @@
       <c r="J90" s="17"/>
       <c r="K90" s="18"/>
     </row>
-    <row r="91" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
         <v>123</v>
       </c>
@@ -5023,7 +5039,7 @@
       <c r="J91" s="17"/>
       <c r="K91" s="18"/>
     </row>
-    <row r="92" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
         <v>124</v>
       </c>
@@ -5046,7 +5062,7 @@
       <c r="J92" s="17"/>
       <c r="K92" s="18"/>
     </row>
-    <row r="93" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="58" t="s">
         <v>125</v>
       </c>
@@ -5076,21 +5092,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="102.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.1796875" customWidth="1"/>
-    <col min="9" max="13" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="102.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.1640625" customWidth="1"/>
+    <col min="9" max="13" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -5137,7 +5153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>108</v>
       </c>
@@ -5175,7 +5191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>103</v>
       </c>
@@ -5213,7 +5229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>105</v>
       </c>
@@ -5251,7 +5267,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>104</v>
       </c>
@@ -5289,7 +5305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>106</v>
       </c>
@@ -5327,7 +5343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>107</v>
       </c>
@@ -5365,7 +5381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>98</v>
       </c>
@@ -5385,7 +5401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>100</v>
       </c>
@@ -5405,7 +5421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>99</v>
       </c>
@@ -5425,7 +5441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>101</v>
       </c>
@@ -5445,7 +5461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>102</v>
       </c>
@@ -5465,7 +5481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>109</v>
       </c>
@@ -5491,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>111</v>
       </c>
@@ -5517,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>110</v>
       </c>
@@ -5543,7 +5559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>112</v>
       </c>
@@ -5569,7 +5585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>113</v>
       </c>
@@ -5595,7 +5611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>84</v>
       </c>
@@ -5609,7 +5625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>85</v>
       </c>
@@ -5623,7 +5639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>86</v>
       </c>
@@ -5637,7 +5653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>89</v>
       </c>
@@ -5651,7 +5667,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>87</v>
       </c>
@@ -5665,7 +5681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>88</v>
       </c>
@@ -5679,7 +5695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>90</v>
       </c>
@@ -5693,7 +5709,7 @@
         <v>0.10142</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>91</v>
       </c>
@@ -5707,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>92</v>
       </c>
@@ -5733,7 +5749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>93</v>
       </c>
@@ -5759,7 +5775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>94</v>
       </c>
@@ -5785,7 +5801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>95</v>
       </c>
@@ -5814,7 +5830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>96</v>
       </c>
@@ -5843,7 +5859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>97</v>
       </c>
@@ -5872,7 +5888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>82</v>
       </c>
@@ -5889,7 +5905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>83</v>
       </c>
@@ -5906,7 +5922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>148</v>
       </c>
@@ -5950,7 +5966,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>149</v>
       </c>
@@ -5994,7 +6010,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>150</v>
       </c>
@@ -6038,12 +6054,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>151</v>
       </c>
@@ -6066,7 +6082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>152</v>
       </c>
@@ -6089,7 +6105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>153</v>
       </c>
@@ -6112,12 +6128,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>126</v>
       </c>
@@ -6161,7 +6177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>127</v>
       </c>
@@ -6205,7 +6221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>128</v>
       </c>
@@ -6249,7 +6265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>129</v>
       </c>
@@ -6293,7 +6309,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>130</v>
       </c>
@@ -6316,7 +6332,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>131</v>
       </c>
@@ -6339,7 +6355,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>132</v>
       </c>
@@ -6362,7 +6378,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>133</v>
       </c>
@@ -6385,7 +6401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>154</v>
       </c>
@@ -6423,7 +6439,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>155</v>
       </c>
@@ -6461,7 +6477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>159</v>
       </c>
@@ -6499,7 +6515,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>160</v>
       </c>
@@ -6537,7 +6553,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>161</v>
       </c>
@@ -6575,7 +6591,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>216</v>
       </c>
@@ -6613,7 +6629,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>215</v>
       </c>
@@ -6651,7 +6667,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>214</v>
       </c>
@@ -6689,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>213</v>
       </c>
@@ -6715,7 +6731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>212</v>
       </c>
@@ -6741,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>211</v>
       </c>
@@ -6767,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>168</v>
       </c>
@@ -6781,7 +6797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>169</v>
       </c>
@@ -6795,7 +6811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>170</v>
       </c>
@@ -6809,7 +6825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>165</v>
       </c>
@@ -6832,7 +6848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>166</v>
       </c>
@@ -6855,7 +6871,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>167</v>
       </c>
@@ -6878,22 +6894,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>156</v>
       </c>
@@ -6940,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>157</v>
       </c>
@@ -6987,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>158</v>
       </c>
@@ -7034,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>134</v>
       </c>
@@ -7051,7 +7067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>135</v>
       </c>
@@ -7071,7 +7087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>136</v>
       </c>
@@ -7094,7 +7110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>137</v>
       </c>
@@ -7120,7 +7136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>138</v>
       </c>
@@ -7140,7 +7156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>139</v>
       </c>
@@ -7148,7 +7164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>140</v>
       </c>
@@ -7156,7 +7172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>141</v>
       </c>
@@ -7164,7 +7180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>142</v>
       </c>
@@ -7172,12 +7188,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>143</v>
       </c>
@@ -7224,7 +7240,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>144</v>
       </c>
@@ -7271,12 +7287,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>145</v>
       </c>
@@ -7293,7 +7309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>146</v>
       </c>
@@ -7310,12 +7326,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>119</v>
       </c>
@@ -7332,7 +7348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>120</v>
       </c>
@@ -7349,12 +7365,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>121</v>
       </c>
@@ -7398,7 +7414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>122</v>
       </c>
@@ -7442,12 +7458,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>116</v>
       </c>
@@ -7464,7 +7480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>117</v>
       </c>
@@ -7481,7 +7497,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>118</v>
       </c>
@@ -7498,12 +7514,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>123</v>
       </c>
@@ -7511,7 +7527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>124</v>
       </c>
@@ -7519,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>125</v>
       </c>
@@ -7527,7 +7543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>220</v>
       </c>
@@ -7539,48 +7555,48 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AC93"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="93.453125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.1796875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" style="56" customWidth="1"/>
-    <col min="5" max="5" width="27.54296875" style="57" customWidth="1"/>
+    <col min="1" max="1" width="93.5" style="44" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.1640625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="56" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="57" customWidth="1"/>
     <col min="6" max="6" width="14" style="44" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" style="44" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="56" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="44" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="56" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="57" customWidth="1"/>
     <col min="10" max="10" width="14" style="44" customWidth="1"/>
-    <col min="11" max="11" width="18.54296875" style="44" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" style="56" customWidth="1"/>
-    <col min="13" max="13" width="18.54296875" style="57" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="44" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="56" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="57" customWidth="1"/>
     <col min="14" max="14" width="14" style="44" customWidth="1"/>
-    <col min="15" max="15" width="18.54296875" style="44" customWidth="1"/>
-    <col min="16" max="16" width="18.54296875" style="56" customWidth="1"/>
-    <col min="17" max="17" width="18.54296875" style="57" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="44" customWidth="1"/>
+    <col min="16" max="16" width="18.5" style="56" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="57" customWidth="1"/>
     <col min="18" max="18" width="14" style="44" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" style="44" customWidth="1"/>
-    <col min="20" max="20" width="18.54296875" style="56" customWidth="1"/>
-    <col min="21" max="21" width="18.54296875" style="57" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="44" customWidth="1"/>
+    <col min="20" max="20" width="18.5" style="56" customWidth="1"/>
+    <col min="21" max="21" width="18.5" style="57" customWidth="1"/>
     <col min="22" max="22" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.54296875" style="44" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.54296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" style="57" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.54296875" style="44" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.54296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.54296875" style="57" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.1796875" style="44"/>
+    <col min="27" max="27" width="18.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -7669,7 +7685,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="str">
         <f>'1_Fire_Script'!A2</f>
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
@@ -7767,7 +7783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="str">
         <f>'1_Fire_Script'!A3</f>
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -7863,7 +7879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="str">
         <f>'1_Fire_Script'!A4</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -7961,7 +7977,7 @@
         <v>60.500000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="str">
         <f>'1_Fire_Script'!A5</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
@@ -8057,7 +8073,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="str">
         <f>'1_Fire_Script'!A6</f>
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
@@ -8155,7 +8171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="str">
         <f>'1_Fire_Script'!A7</f>
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
@@ -8253,7 +8269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="str">
         <f>'1_Fire_Script'!A8</f>
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -8340,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="str">
         <f>'1_Fire_Script'!A9</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -8429,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="str">
         <f>'1_Fire_Script'!A10</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
@@ -8516,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="str">
         <f>'1_Fire_Script'!A11</f>
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
@@ -8605,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="str">
         <f>'1_Fire_Script'!A12</f>
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
@@ -8694,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="str">
         <f>'1_Fire_Script'!A13</f>
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -8787,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
         <f>'1_Fire_Script'!A14</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -8880,7 +8896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="str">
         <f>'1_Fire_Script'!A15</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
@@ -8973,7 +8989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="str">
         <f>'1_Fire_Script'!A16</f>
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
@@ -9068,7 +9084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="str">
         <f>'1_Fire_Script'!A17</f>
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
@@ -9163,7 +9179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="str">
         <f>'1_Fire_Script'!A18</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
@@ -9257,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="str">
         <f>'1_Fire_Script'!A19</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
@@ -9351,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="str">
         <f>'1_Fire_Script'!A20</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
@@ -9445,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="str">
         <f>'1_Fire_Script'!A21</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
@@ -9536,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="str">
         <f>'1_Fire_Script'!A22</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
@@ -9627,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="str">
         <f>'1_Fire_Script'!A23</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
@@ -9718,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="str">
         <f>'1_Fire_Script'!A24</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
@@ -9809,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="str">
         <f>'1_Fire_Script'!A25</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
@@ -9900,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
         <f>'1_Fire_Script'!A26</f>
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
@@ -9997,7 +10013,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="str">
         <f>'1_Fire_Script'!A27</f>
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
@@ -10094,7 +10110,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="str">
         <f>'1_Fire_Script'!A28</f>
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
@@ -10191,7 +10207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="str">
         <f>'1_Fire_Script'!A29</f>
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
@@ -10291,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="str">
         <f>'1_Fire_Script'!A30</f>
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
@@ -10391,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="str">
         <f>'1_Fire_Script'!A31</f>
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
@@ -10491,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="str">
         <f>'1_Fire_Script'!A32</f>
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
@@ -10581,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="str">
         <f>'1_Fire_Script'!A33</f>
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
@@ -10671,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="str">
         <f>'1_Fire_Script'!A34</f>
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
@@ -10780,7 +10796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="str">
         <f>'1_Fire_Script'!A35</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -10889,7 +10905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="str">
         <f>'1_Fire_Script'!A36</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -10998,7 +11014,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="str">
         <f>'1_Fire_Script'!A37</f>
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
@@ -11098,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="str">
         <f>'1_Fire_Script'!A38</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -11198,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="str">
         <f>'1_Fire_Script'!A39</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -11298,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="str">
         <f>'1_Fire_Script'!A40</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
@@ -11402,7 +11418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="str">
         <f>'1_Fire_Script'!A41</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
@@ -11506,7 +11522,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="str">
         <f>'1_Fire_Script'!A42</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -11610,7 +11626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="str">
         <f>'1_Fire_Script'!A43</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -11714,7 +11730,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="str">
         <f>'1_Fire_Script'!A44</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
@@ -11815,7 +11831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="str">
         <f>'1_Fire_Script'!A45</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
@@ -11916,7 +11932,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="str">
         <f>'1_Fire_Script'!A46</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -12017,7 +12033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="str">
         <f>'1_Fire_Script'!A47</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -12118,7 +12134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="str">
         <f>'1_Fire_Script'!A48</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
@@ -12224,7 +12240,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="str">
         <f>'1_Fire_Script'!A49</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
@@ -12330,7 +12346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="str">
         <f>'1_Fire_Script'!A50</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
@@ -12436,7 +12452,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="str">
         <f>'1_Fire_Script'!A51</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
@@ -12542,7 +12558,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="str">
         <f>'1_Fire_Script'!A52</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
@@ -12648,7 +12664,7 @@
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="str">
         <f>'1_Fire_Script'!A53</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -12753,7 +12769,7 @@
         <v>0.16875000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="str">
         <f>'1_Fire_Script'!A54</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -12858,7 +12874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="str">
         <f>'1_Fire_Script'!A55</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -12963,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="str">
         <f>'1_Fire_Script'!A56</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -13062,7 +13078,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="str">
         <f>'1_Fire_Script'!A57</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -13161,7 +13177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="str">
         <f>'1_Fire_Script'!A58</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -13260,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="str">
         <f>'1_Fire_Script'!A59</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
@@ -13350,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="str">
         <f>'1_Fire_Script'!A60</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
@@ -13440,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="str">
         <f>'1_Fire_Script'!A61</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
@@ -13530,7 +13546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="str">
         <f>'1_Fire_Script'!A62</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
@@ -13628,7 +13644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="str">
         <f>'1_Fire_Script'!A63</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
@@ -13726,7 +13742,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="str">
         <f>'1_Fire_Script'!A64</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
@@ -13824,7 +13840,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="str">
         <f>'1_Fire_Script'!A65</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
@@ -13910,7 +13926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="str">
         <f>'1_Fire_Script'!A66</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
@@ -13996,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="str">
         <f>'1_Fire_Script'!A67</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
@@ -14082,7 +14098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="str">
         <f>'1_Fire_Script'!A68</f>
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
@@ -14186,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="str">
         <f>'1_Fire_Script'!A69</f>
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
@@ -14290,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="str">
         <f>'1_Fire_Script'!A70</f>
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
@@ -14394,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="str">
         <f>'1_Fire_Script'!A71</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
@@ -14481,7 +14497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="str">
         <f>'1_Fire_Script'!A72</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
@@ -14568,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="str">
         <f>'1_Fire_Script'!A73</f>
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
@@ -14655,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="str">
         <f>'1_Fire_Script'!A74</f>
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -14748,7 +14764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="str">
         <f>'1_Fire_Script'!A75</f>
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
@@ -14838,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="str">
         <f>'1_Fire_Script'!A76</f>
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
@@ -14925,7 +14941,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="str">
         <f>'1_Fire_Script'!A77</f>
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -15009,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="str">
         <f>'1_Fire_Script'!A78</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
@@ -15101,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="str">
         <f>'1_Fire_Script'!A79</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
@@ -15193,7 +15209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="str">
         <f>'1_Fire_Script'!A80</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
@@ -15300,7 +15316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="str">
         <f>'1_Fire_Script'!A81</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
@@ -15407,7 +15423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="str">
         <f>'1_Fire_Script'!A82</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
@@ -15505,7 +15521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="str">
         <f>'1_Fire_Script'!A83</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
@@ -15603,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="str">
         <f>'1_Fire_Script'!A84</f>
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
@@ -15695,7 +15711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="str">
         <f>'1_Fire_Script'!A85</f>
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
@@ -15787,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="str">
         <f>'1_Fire_Script'!A86</f>
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
@@ -15891,7 +15907,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="str">
         <f>'1_Fire_Script'!A87</f>
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
@@ -15995,7 +16011,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="str">
         <f>'1_Fire_Script'!A88</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
@@ -16081,7 +16097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="str">
         <f>'1_Fire_Script'!A89</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
@@ -16167,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="str">
         <f>'1_Fire_Script'!A90</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
@@ -16253,7 +16269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="str">
         <f>'1_Fire_Script'!A91</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
@@ -16342,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="str">
         <f>'1_Fire_Script'!A92</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
@@ -16431,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="str">
         <f>'1_Fire_Script'!A93</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
@@ -16526,50 +16542,50 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC93"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="450" activePane="bottomLeft"/>
+      <pane ySplit="460" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1:N1048576"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="131.1796875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" style="56" customWidth="1"/>
-    <col min="5" max="5" width="27.54296875" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="131.1640625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="44" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="56" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="57" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="44" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" style="44" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="56" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="44" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="56" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="57" customWidth="1"/>
     <col min="10" max="10" width="14" style="44" customWidth="1"/>
-    <col min="11" max="11" width="18.54296875" style="44" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" style="56" customWidth="1"/>
-    <col min="13" max="13" width="18.54296875" style="57" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="44" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="56" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="57" customWidth="1"/>
     <col min="14" max="14" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.54296875" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.54296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.54296875" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="57" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" style="44" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.54296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.54296875" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5" style="57" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.54296875" style="44" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.54296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" style="57" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.54296875" style="44" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.54296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.54296875" style="57" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.1796875" style="44"/>
+    <col min="27" max="27" width="18.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -16658,7 +16674,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="str">
         <f>'1_Fire_Script'!A2</f>
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
@@ -16758,7 +16774,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="str">
         <f>'1_Fire_Script'!A3</f>
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -16854,7 +16870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="str">
         <f>'1_Fire_Script'!A4</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -16952,7 +16968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="str">
         <f>'1_Fire_Script'!A5</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
@@ -17048,7 +17064,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="str">
         <f>'1_Fire_Script'!A6</f>
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
@@ -17148,7 +17164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="str">
         <f>'1_Fire_Script'!A7</f>
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
@@ -17248,7 +17264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="str">
         <f>'1_Fire_Script'!A8</f>
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -17335,7 +17351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="str">
         <f>'1_Fire_Script'!A9</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -17424,7 +17440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="str">
         <f>'1_Fire_Script'!A10</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
@@ -17511,7 +17527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="str">
         <f>'1_Fire_Script'!A11</f>
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
@@ -17602,7 +17618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="str">
         <f>'1_Fire_Script'!A12</f>
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
@@ -17693,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="str">
         <f>'1_Fire_Script'!A13</f>
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -17786,7 +17802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
         <f>'1_Fire_Script'!A14</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -17881,7 +17897,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="str">
         <f>'1_Fire_Script'!A15</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
@@ -17974,7 +17990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="str">
         <f>'1_Fire_Script'!A16</f>
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
@@ -18071,7 +18087,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="str">
         <f>'1_Fire_Script'!A17</f>
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
@@ -18168,7 +18184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="str">
         <f>'1_Fire_Script'!A18</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
@@ -18262,7 +18278,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="str">
         <f>'1_Fire_Script'!A19</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
@@ -18356,7 +18372,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="str">
         <f>'1_Fire_Script'!A20</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
@@ -18450,7 +18466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="str">
         <f>'1_Fire_Script'!A21</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
@@ -18543,7 +18559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="str">
         <f>'1_Fire_Script'!A22</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
@@ -18636,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="str">
         <f>'1_Fire_Script'!A23</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
@@ -18729,7 +18745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="str">
         <f>'1_Fire_Script'!A24</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
@@ -18822,7 +18838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="str">
         <f>'1_Fire_Script'!A25</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
@@ -18915,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
         <f>'1_Fire_Script'!A26</f>
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
@@ -19012,7 +19028,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="str">
         <f>'1_Fire_Script'!A27</f>
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
@@ -19109,7 +19125,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="str">
         <f>'1_Fire_Script'!A28</f>
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
@@ -19206,7 +19222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="str">
         <f>'1_Fire_Script'!A29</f>
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
@@ -19306,7 +19322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="str">
         <f>'1_Fire_Script'!A30</f>
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
@@ -19406,7 +19422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="str">
         <f>'1_Fire_Script'!A31</f>
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
@@ -19506,7 +19522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="str">
         <f>'1_Fire_Script'!A32</f>
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
@@ -19596,7 +19612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="str">
         <f>'1_Fire_Script'!A33</f>
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
@@ -19686,7 +19702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="str">
         <f>'1_Fire_Script'!A34</f>
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
@@ -19796,7 +19812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="str">
         <f>'1_Fire_Script'!A35</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -19906,7 +19922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="str">
         <f>'1_Fire_Script'!A36</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -20013,7 +20029,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="str">
         <f>'1_Fire_Script'!A37</f>
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
@@ -20114,7 +20130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="str">
         <f>'1_Fire_Script'!A38</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -20215,7 +20231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="str">
         <f>'1_Fire_Script'!A39</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -20313,7 +20329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="str">
         <f>'1_Fire_Script'!A40</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
@@ -20417,7 +20433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="str">
         <f>'1_Fire_Script'!A41</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
@@ -20521,7 +20537,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="str">
         <f>'1_Fire_Script'!A42</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -20625,7 +20641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="str">
         <f>'1_Fire_Script'!A43</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -20729,7 +20745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="str">
         <f>'1_Fire_Script'!A44</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
@@ -20830,7 +20846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="str">
         <f>'1_Fire_Script'!A45</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
@@ -20931,7 +20947,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="str">
         <f>'1_Fire_Script'!A46</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -21032,7 +21048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="str">
         <f>'1_Fire_Script'!A47</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -21133,7 +21149,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="str">
         <f>'1_Fire_Script'!A48</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
@@ -21239,7 +21255,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="str">
         <f>'1_Fire_Script'!A49</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
@@ -21345,7 +21361,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="str">
         <f>'1_Fire_Script'!A50</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
@@ -21451,7 +21467,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="str">
         <f>'1_Fire_Script'!A51</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
@@ -21557,7 +21573,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="str">
         <f>'1_Fire_Script'!A52</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
@@ -21663,7 +21679,7 @@
         <v>6.6000000000000008E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="str">
         <f>'1_Fire_Script'!A53</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -21768,7 +21784,7 @@
         <v>0.140625</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="str">
         <f>'1_Fire_Script'!A54</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -21873,7 +21889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="str">
         <f>'1_Fire_Script'!A55</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -21978,7 +21994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="str">
         <f>'1_Fire_Script'!A56</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -22077,7 +22093,7 @@
         <v>0.234375</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="str">
         <f>'1_Fire_Script'!A57</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -22176,7 +22192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="str">
         <f>'1_Fire_Script'!A58</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -22275,7 +22291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="str">
         <f>'1_Fire_Script'!A59</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
@@ -22365,7 +22381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="str">
         <f>'1_Fire_Script'!A60</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
@@ -22455,7 +22471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="str">
         <f>'1_Fire_Script'!A61</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
@@ -22545,7 +22561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="str">
         <f>'1_Fire_Script'!A62</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
@@ -22643,7 +22659,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="str">
         <f>'1_Fire_Script'!A63</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
@@ -22741,7 +22757,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="str">
         <f>'1_Fire_Script'!A64</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
@@ -22839,7 +22855,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="str">
         <f>'1_Fire_Script'!A65</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
@@ -22925,7 +22941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="str">
         <f>'1_Fire_Script'!A66</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
@@ -23011,7 +23027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="str">
         <f>'1_Fire_Script'!A67</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
@@ -23097,7 +23113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="str">
         <f>'1_Fire_Script'!A68</f>
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
@@ -23201,7 +23217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="str">
         <f>'1_Fire_Script'!A69</f>
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
@@ -23305,7 +23321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="str">
         <f>'1_Fire_Script'!A70</f>
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
@@ -23409,7 +23425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="str">
         <f>'1_Fire_Script'!A71</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
@@ -23496,7 +23512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="str">
         <f>'1_Fire_Script'!A72</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
@@ -23583,7 +23599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="str">
         <f>'1_Fire_Script'!A73</f>
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
@@ -23670,7 +23686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="str">
         <f>'1_Fire_Script'!A74</f>
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -23763,7 +23779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="str">
         <f>'1_Fire_Script'!A75</f>
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
@@ -23853,7 +23869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="str">
         <f>'1_Fire_Script'!A76</f>
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
@@ -23940,7 +23956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="str">
         <f>'1_Fire_Script'!A77</f>
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -24024,7 +24040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="str">
         <f>'1_Fire_Script'!A78</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
@@ -24118,7 +24134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="str">
         <f>'1_Fire_Script'!A79</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
@@ -24212,7 +24228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="str">
         <f>'1_Fire_Script'!A80</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
@@ -24321,7 +24337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="str">
         <f>'1_Fire_Script'!A81</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
@@ -24430,7 +24446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="str">
         <f>'1_Fire_Script'!A82</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
@@ -24527,7 +24543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="str">
         <f>'1_Fire_Script'!A83</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
@@ -24624,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="str">
         <f>'1_Fire_Script'!A84</f>
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
@@ -24716,7 +24732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="str">
         <f>'1_Fire_Script'!A85</f>
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
@@ -24808,7 +24824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="str">
         <f>'1_Fire_Script'!A86</f>
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
@@ -24912,7 +24928,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="str">
         <f>'1_Fire_Script'!A87</f>
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
@@ -25016,7 +25032,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="str">
         <f>'1_Fire_Script'!A88</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
@@ -25102,7 +25118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="str">
         <f>'1_Fire_Script'!A89</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
@@ -25188,7 +25204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="str">
         <f>'1_Fire_Script'!A90</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
@@ -25274,7 +25290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="str">
         <f>'1_Fire_Script'!A91</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
@@ -25363,7 +25379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="str">
         <f>'1_Fire_Script'!A92</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
@@ -25452,7 +25468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="str">
         <f>'1_Fire_Script'!A93</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
@@ -25547,48 +25563,48 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AC93"/>
   <sheetViews>
     <sheetView topLeftCell="P1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="94.453125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.81640625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="42.54296875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="27.54296875" style="44" customWidth="1"/>
+    <col min="1" max="1" width="94.5" style="43" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="42.5" style="44" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="44" customWidth="1"/>
     <col min="6" max="6" width="14" style="43" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" style="43" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="43" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="45" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="46" customWidth="1"/>
     <col min="10" max="10" width="14" style="43" customWidth="1"/>
-    <col min="11" max="11" width="18.54296875" style="43" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" style="45" customWidth="1"/>
-    <col min="13" max="13" width="18.54296875" style="46" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="43" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="45" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="46" customWidth="1"/>
     <col min="14" max="14" width="14" style="43" customWidth="1"/>
-    <col min="15" max="15" width="18.54296875" style="43" customWidth="1"/>
-    <col min="16" max="16" width="18.54296875" style="45" customWidth="1"/>
-    <col min="17" max="17" width="18.54296875" style="46" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="43" customWidth="1"/>
+    <col min="16" max="16" width="18.5" style="45" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="46" customWidth="1"/>
     <col min="18" max="18" width="14" style="43" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" style="43" customWidth="1"/>
-    <col min="20" max="20" width="18.54296875" style="45" customWidth="1"/>
-    <col min="21" max="21" width="18.54296875" style="46" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="43" customWidth="1"/>
+    <col min="20" max="20" width="18.5" style="45" customWidth="1"/>
+    <col min="21" max="21" width="18.5" style="46" customWidth="1"/>
     <col min="22" max="22" width="14" style="43" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.54296875" style="43" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.54296875" style="45" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" style="46" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" style="46" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="43" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.54296875" style="43" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.54296875" style="45" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.54296875" style="46" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.1796875" style="43"/>
+    <col min="27" max="27" width="18.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1640625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -25677,7 +25693,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="str">
         <f>'1_Fire_Script'!A2</f>
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
@@ -25777,7 +25793,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="str">
         <f>'1_Fire_Script'!A3</f>
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -25873,7 +25889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="str">
         <f>'1_Fire_Script'!A4</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -25971,7 +25987,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="str">
         <f>'1_Fire_Script'!A5</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
@@ -26067,7 +26083,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="str">
         <f>'1_Fire_Script'!A6</f>
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
@@ -26167,7 +26183,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="str">
         <f>'1_Fire_Script'!A7</f>
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
@@ -26267,7 +26283,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="str">
         <f>'1_Fire_Script'!A8</f>
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -26354,7 +26370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="str">
         <f>'1_Fire_Script'!A9</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -26443,7 +26459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="str">
         <f>'1_Fire_Script'!A10</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
@@ -26530,7 +26546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="str">
         <f>'1_Fire_Script'!A11</f>
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
@@ -26621,7 +26637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="str">
         <f>'1_Fire_Script'!A12</f>
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
@@ -26712,7 +26728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="str">
         <f>'1_Fire_Script'!A13</f>
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -26805,7 +26821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
         <f>'1_Fire_Script'!A14</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -26900,7 +26916,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="str">
         <f>'1_Fire_Script'!A15</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
@@ -26993,7 +27009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="str">
         <f>'1_Fire_Script'!A16</f>
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
@@ -27090,7 +27106,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="str">
         <f>'1_Fire_Script'!A17</f>
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
@@ -27187,7 +27203,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="str">
         <f>'1_Fire_Script'!A18</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
@@ -27281,7 +27297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="str">
         <f>'1_Fire_Script'!A19</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
@@ -27375,7 +27391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="str">
         <f>'1_Fire_Script'!A20</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
@@ -27469,7 +27485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="str">
         <f>'1_Fire_Script'!A21</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
@@ -27562,7 +27578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="str">
         <f>'1_Fire_Script'!A22</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
@@ -27655,7 +27671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="str">
         <f>'1_Fire_Script'!A23</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
@@ -27748,7 +27764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="str">
         <f>'1_Fire_Script'!A24</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
@@ -27841,7 +27857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="str">
         <f>'1_Fire_Script'!A25</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
@@ -27934,7 +27950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
         <f>'1_Fire_Script'!A26</f>
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
@@ -28031,7 +28047,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="str">
         <f>'1_Fire_Script'!A27</f>
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
@@ -28128,7 +28144,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="str">
         <f>'1_Fire_Script'!A28</f>
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
@@ -28225,7 +28241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="str">
         <f>'1_Fire_Script'!A29</f>
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
@@ -28325,7 +28341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="str">
         <f>'1_Fire_Script'!A30</f>
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
@@ -28425,7 +28441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="str">
         <f>'1_Fire_Script'!A31</f>
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
@@ -28525,7 +28541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="str">
         <f>'1_Fire_Script'!A32</f>
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
@@ -28615,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="str">
         <f>'1_Fire_Script'!A33</f>
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
@@ -28705,7 +28721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="str">
         <f>'1_Fire_Script'!A34</f>
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
@@ -28815,7 +28831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="str">
         <f>'1_Fire_Script'!A35</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -28925,7 +28941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="str">
         <f>'1_Fire_Script'!A36</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -29032,7 +29048,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="str">
         <f>'1_Fire_Script'!A37</f>
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
@@ -29133,7 +29149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="str">
         <f>'1_Fire_Script'!A38</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -29234,7 +29250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="str">
         <f>'1_Fire_Script'!A39</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -29332,7 +29348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="str">
         <f>'1_Fire_Script'!A40</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
@@ -29436,7 +29452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="str">
         <f>'1_Fire_Script'!A41</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
@@ -29540,7 +29556,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="str">
         <f>'1_Fire_Script'!A42</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -29644,7 +29660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="str">
         <f>'1_Fire_Script'!A43</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -29748,7 +29764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="str">
         <f>'1_Fire_Script'!A44</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
@@ -29849,7 +29865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="str">
         <f>'1_Fire_Script'!A45</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
@@ -29950,7 +29966,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="str">
         <f>'1_Fire_Script'!A46</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -30051,7 +30067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="str">
         <f>'1_Fire_Script'!A47</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -30152,7 +30168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="str">
         <f>'1_Fire_Script'!A48</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
@@ -30258,7 +30274,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="str">
         <f>'1_Fire_Script'!A49</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
@@ -30364,7 +30380,7 @@
         <v>4.9499999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="str">
         <f>'1_Fire_Script'!A50</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
@@ -30470,7 +30486,7 @@
         <v>9.8999999999999991E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="str">
         <f>'1_Fire_Script'!A51</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
@@ -30576,7 +30592,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="str">
         <f>'1_Fire_Script'!A52</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
@@ -30682,7 +30698,7 @@
         <v>6.5999999999999991E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="str">
         <f>'1_Fire_Script'!A53</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -30787,7 +30803,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="str">
         <f>'1_Fire_Script'!A54</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -30892,7 +30908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="str">
         <f>'1_Fire_Script'!A55</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -30997,7 +31013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="str">
         <f>'1_Fire_Script'!A56</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -31096,7 +31112,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="str">
         <f>'1_Fire_Script'!A57</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -31195,7 +31211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="str">
         <f>'1_Fire_Script'!A58</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -31294,7 +31310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="str">
         <f>'1_Fire_Script'!A59</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
@@ -31384,7 +31400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="str">
         <f>'1_Fire_Script'!A60</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
@@ -31474,7 +31490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="str">
         <f>'1_Fire_Script'!A61</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
@@ -31564,7 +31580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="str">
         <f>'1_Fire_Script'!A62</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
@@ -31662,7 +31678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="str">
         <f>'1_Fire_Script'!A63</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
@@ -31760,7 +31776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="str">
         <f>'1_Fire_Script'!A64</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
@@ -31858,7 +31874,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="str">
         <f>'1_Fire_Script'!A65</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
@@ -31944,7 +31960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="str">
         <f>'1_Fire_Script'!A66</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
@@ -32030,7 +32046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="str">
         <f>'1_Fire_Script'!A67</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
@@ -32116,7 +32132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="str">
         <f>'1_Fire_Script'!A68</f>
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
@@ -32220,7 +32236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="str">
         <f>'1_Fire_Script'!A69</f>
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
@@ -32324,7 +32340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="str">
         <f>'1_Fire_Script'!A70</f>
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
@@ -32428,7 +32444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="str">
         <f>'1_Fire_Script'!A71</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
@@ -32515,7 +32531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="str">
         <f>'1_Fire_Script'!A72</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
@@ -32602,7 +32618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="str">
         <f>'1_Fire_Script'!A73</f>
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
@@ -32689,7 +32705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="str">
         <f>'1_Fire_Script'!A74</f>
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -32782,7 +32798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="str">
         <f>'1_Fire_Script'!A75</f>
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
@@ -32872,7 +32888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="str">
         <f>'1_Fire_Script'!A76</f>
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
@@ -32959,7 +32975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="str">
         <f>'1_Fire_Script'!A77</f>
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -33043,7 +33059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="str">
         <f>'1_Fire_Script'!A78</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
@@ -33137,7 +33153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="str">
         <f>'1_Fire_Script'!A79</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
@@ -33231,7 +33247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="str">
         <f>'1_Fire_Script'!A80</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
@@ -33340,7 +33356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="str">
         <f>'1_Fire_Script'!A81</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
@@ -33449,7 +33465,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="str">
         <f>'1_Fire_Script'!A82</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
@@ -33546,7 +33562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="str">
         <f>'1_Fire_Script'!A83</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
@@ -33643,7 +33659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="str">
         <f>'1_Fire_Script'!A84</f>
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
@@ -33735,7 +33751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="str">
         <f>'1_Fire_Script'!A85</f>
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
@@ -33827,7 +33843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="str">
         <f>'1_Fire_Script'!A86</f>
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
@@ -33931,7 +33947,7 @@
         <v>7.5000000000000011E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="str">
         <f>'1_Fire_Script'!A87</f>
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
@@ -34035,7 +34051,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="str">
         <f>'1_Fire_Script'!A88</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
@@ -34121,7 +34137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="str">
         <f>'1_Fire_Script'!A89</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
@@ -34207,7 +34223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="str">
         <f>'1_Fire_Script'!A90</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
@@ -34293,7 +34309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="str">
         <f>'1_Fire_Script'!A91</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
@@ -34382,7 +34398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="str">
         <f>'1_Fire_Script'!A92</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
@@ -34471,7 +34487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="str">
         <f>'1_Fire_Script'!A93</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
@@ -34566,31 +34582,33 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BI47" sqref="BI47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="77.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="31" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="51" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="53" max="61" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="31" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="40" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.83203125"/>
+    <col min="42" max="42" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="51" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="61" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -34775,7 +34793,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="str">
         <f>'1_Fire_Script'!A2</f>
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
@@ -34937,7 +34955,6 @@
         <v>18</v>
       </c>
       <c r="AO2">
-        <f>'13_Fire_HighSeverity'!U2</f>
         <v>18</v>
       </c>
       <c r="AP2">
@@ -35021,7 +35038,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="str">
         <f>'1_Fire_Script'!A3</f>
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -35183,7 +35200,6 @@
         <v>2.9</v>
       </c>
       <c r="AO3">
-        <f>'13_Fire_HighSeverity'!U3</f>
         <v>2.9</v>
       </c>
       <c r="AP3">
@@ -35267,7 +35283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="str">
         <f>'1_Fire_Script'!A4</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -35429,7 +35445,6 @@
         <v>6</v>
       </c>
       <c r="AO4">
-        <f>'13_Fire_HighSeverity'!U4</f>
         <v>6</v>
       </c>
       <c r="AP4">
@@ -35513,7 +35528,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="str">
         <f>'1_Fire_Script'!A5</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
@@ -35675,7 +35690,6 @@
         <v>25</v>
       </c>
       <c r="AO5">
-        <f>'13_Fire_HighSeverity'!U5</f>
         <v>25</v>
       </c>
       <c r="AP5">
@@ -35759,7 +35773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="str">
         <f>'1_Fire_Script'!A6</f>
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
@@ -35921,7 +35935,6 @@
         <v>18</v>
       </c>
       <c r="AO6">
-        <f>'13_Fire_HighSeverity'!U6</f>
         <v>18</v>
       </c>
       <c r="AP6">
@@ -36005,7 +36018,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="str">
         <f>'1_Fire_Script'!A7</f>
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
@@ -36167,7 +36180,6 @@
         <v>787.5</v>
       </c>
       <c r="AO7">
-        <f>'13_Fire_HighSeverity'!U7</f>
         <v>787.5</v>
       </c>
       <c r="AP7">
@@ -36251,7 +36263,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="str">
         <f>'1_Fire_Script'!A8</f>
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -36413,7 +36425,6 @@
         <v>0</v>
       </c>
       <c r="AO8">
-        <f>'13_Fire_HighSeverity'!U8</f>
         <v>0</v>
       </c>
       <c r="AP8">
@@ -36497,7 +36508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="str">
         <f>'1_Fire_Script'!A9</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -36659,7 +36670,6 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>'13_Fire_HighSeverity'!U9</f>
         <v>0</v>
       </c>
       <c r="AP9">
@@ -36743,7 +36753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="str">
         <f>'1_Fire_Script'!A10</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
@@ -36905,7 +36915,6 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>'13_Fire_HighSeverity'!U10</f>
         <v>0</v>
       </c>
       <c r="AP10">
@@ -36989,7 +36998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="str">
         <f>'1_Fire_Script'!A11</f>
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
@@ -37151,7 +37160,6 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>'13_Fire_HighSeverity'!U11</f>
         <v>0</v>
       </c>
       <c r="AP11">
@@ -37235,7 +37243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="str">
         <f>'1_Fire_Script'!A12</f>
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
@@ -37397,7 +37405,6 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>'13_Fire_HighSeverity'!U12</f>
         <v>0</v>
       </c>
       <c r="AP12">
@@ -37481,7 +37488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="str">
         <f>'1_Fire_Script'!A13</f>
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -37643,7 +37650,6 @@
         <v>0.5</v>
       </c>
       <c r="AO13">
-        <f>'13_Fire_HighSeverity'!U13</f>
         <v>0.5</v>
       </c>
       <c r="AP13">
@@ -37727,7 +37733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
         <f>'1_Fire_Script'!A14</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -37889,7 +37895,6 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <f>'13_Fire_HighSeverity'!U14</f>
         <v>0</v>
       </c>
       <c r="AP14">
@@ -37973,7 +37978,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="str">
         <f>'1_Fire_Script'!A15</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
@@ -38135,7 +38140,6 @@
         <v>1.5</v>
       </c>
       <c r="AO15">
-        <f>'13_Fire_HighSeverity'!U15</f>
         <v>1.5</v>
       </c>
       <c r="AP15">
@@ -38219,7 +38223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="str">
         <f>'1_Fire_Script'!A16</f>
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
@@ -38381,8 +38385,7 @@
         <v>0.13500000000000004</v>
       </c>
       <c r="AO16">
-        <f>'13_Fire_HighSeverity'!U16</f>
-        <v>0.13500000000000004</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AP16">
         <f>'11_Fire_LowSeverity'!V16</f>
@@ -38465,7 +38468,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="str">
         <f>'1_Fire_Script'!A17</f>
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
@@ -38627,7 +38630,6 @@
         <v>45</v>
       </c>
       <c r="AO17">
-        <f>'13_Fire_HighSeverity'!U17</f>
         <v>45</v>
       </c>
       <c r="AP17">
@@ -38711,7 +38713,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="str">
         <f>'1_Fire_Script'!A18</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
@@ -38725,8 +38727,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f>'11_Fire_LowSeverity'!H18</f>
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <f>'11_Fire_LowSeverity'!I18</f>
@@ -38741,8 +38742,7 @@
         <v>9.6</v>
       </c>
       <c r="H18">
-        <f>'12_Fire_ModSeverity'!I18</f>
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <f>'13_Fire_HighSeverity'!G18</f>
@@ -38845,8 +38845,7 @@
         <v>3.5</v>
       </c>
       <c r="AH18">
-        <f>'11_Fire_LowSeverity'!T18</f>
-        <v>2.3666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AI18">
         <f>'11_Fire_LowSeverity'!U18</f>
@@ -38861,8 +38860,7 @@
         <v>2.3666666666666667</v>
       </c>
       <c r="AL18">
-        <f>'12_Fire_ModSeverity'!U18</f>
-        <v>2.3666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AM18">
         <f>'13_Fire_HighSeverity'!S18</f>
@@ -38873,7 +38871,6 @@
         <v>2.3666666666666667</v>
       </c>
       <c r="AO18">
-        <f>'13_Fire_HighSeverity'!U18</f>
         <v>0</v>
       </c>
       <c r="AP18">
@@ -38885,8 +38882,7 @@
         <v>13</v>
       </c>
       <c r="AR18">
-        <f>'11_Fire_LowSeverity'!X18</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AS18">
         <f>'11_Fire_LowSeverity'!Y18</f>
@@ -38901,8 +38897,7 @@
         <v>9</v>
       </c>
       <c r="AV18">
-        <f>'12_Fire_ModSeverity'!Y18</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AW18">
         <f>'13_Fire_HighSeverity'!W18</f>
@@ -38925,8 +38920,7 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <f>'11_Fire_LowSeverity'!AB18</f>
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="BC18">
         <f>'11_Fire_LowSeverity'!AC18</f>
@@ -38941,8 +38935,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="BF18">
-        <f>'12_Fire_ModSeverity'!AC18</f>
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="BG18">
         <f>'13_Fire_HighSeverity'!AA18</f>
@@ -38957,7 +38950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="str">
         <f>'1_Fire_Script'!A19</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
@@ -38971,8 +38964,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f>'11_Fire_LowSeverity'!H19</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <f>'11_Fire_LowSeverity'!I19</f>
@@ -38987,8 +38979,7 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <f>'12_Fire_ModSeverity'!I19</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <f>'13_Fire_HighSeverity'!G19</f>
@@ -39091,8 +39082,7 @@
         <v>25</v>
       </c>
       <c r="AH19">
-        <f>'11_Fire_LowSeverity'!T19</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI19">
         <f>'11_Fire_LowSeverity'!U19</f>
@@ -39107,8 +39097,7 @@
         <v>25</v>
       </c>
       <c r="AL19">
-        <f>'12_Fire_ModSeverity'!U19</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM19">
         <f>'13_Fire_HighSeverity'!S19</f>
@@ -39119,7 +39108,6 @@
         <v>25</v>
       </c>
       <c r="AO19">
-        <f>'13_Fire_HighSeverity'!U19</f>
         <v>0</v>
       </c>
       <c r="AP19">
@@ -39131,8 +39119,7 @@
         <v>55</v>
       </c>
       <c r="AR19">
-        <f>'11_Fire_LowSeverity'!X19</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AS19">
         <f>'11_Fire_LowSeverity'!Y19</f>
@@ -39147,8 +39134,7 @@
         <v>50</v>
       </c>
       <c r="AV19">
-        <f>'12_Fire_ModSeverity'!Y19</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AW19">
         <f>'13_Fire_HighSeverity'!W19</f>
@@ -39171,8 +39157,7 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <f>'11_Fire_LowSeverity'!AB19</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="BC19">
         <f>'11_Fire_LowSeverity'!AC19</f>
@@ -39187,8 +39172,7 @@
         <v>78</v>
       </c>
       <c r="BF19">
-        <f>'12_Fire_ModSeverity'!AC19</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="BG19">
         <f>'13_Fire_HighSeverity'!AA19</f>
@@ -39203,7 +39187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="str">
         <f>'1_Fire_Script'!A20</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
@@ -39217,8 +39201,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <f>'11_Fire_LowSeverity'!H20</f>
-        <v>1.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <f>'11_Fire_LowSeverity'!I20</f>
@@ -39229,20 +39212,17 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f>'12_Fire_ModSeverity'!H20</f>
-        <v>4.8000000000000007</v>
+        <v>5.52</v>
       </c>
       <c r="H20">
-        <f>'12_Fire_ModSeverity'!I20</f>
-        <v>5.5200000000000005</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <f>'13_Fire_HighSeverity'!G20</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>'13_Fire_HighSeverity'!H20</f>
-        <v>9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K20">
         <f>'13_Fire_HighSeverity'!I20</f>
@@ -39336,9 +39316,8 @@
         <f>'11_Fire_LowSeverity'!S20</f>
         <v>100</v>
       </c>
-      <c r="AH20">
-        <f>'11_Fire_LowSeverity'!T20</f>
-        <v>350</v>
+      <c r="AH20" t="s">
+        <v>437</v>
       </c>
       <c r="AI20">
         <f>'11_Fire_LowSeverity'!U20</f>
@@ -39349,23 +39328,19 @@
         <v>100</v>
       </c>
       <c r="AK20">
-        <f>'12_Fire_ModSeverity'!T20</f>
-        <v>1400</v>
+        <v>1610</v>
       </c>
       <c r="AL20">
-        <f>'12_Fire_ModSeverity'!U20</f>
-        <v>1610</v>
+        <v>0</v>
       </c>
       <c r="AM20">
         <f>'13_Fire_HighSeverity'!S20</f>
         <v>100</v>
       </c>
       <c r="AN20">
-        <f>'13_Fire_HighSeverity'!T20</f>
-        <v>2625</v>
+        <v>2712.5</v>
       </c>
       <c r="AO20">
-        <f>'13_Fire_HighSeverity'!U20</f>
         <v>0</v>
       </c>
       <c r="AP20">
@@ -39377,8 +39352,7 @@
         <v>5</v>
       </c>
       <c r="AR20">
-        <f>'11_Fire_LowSeverity'!X20</f>
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="AS20">
         <f>'11_Fire_LowSeverity'!Y20</f>
@@ -39389,20 +39363,17 @@
         <v>5</v>
       </c>
       <c r="AU20">
-        <f>'12_Fire_ModSeverity'!X20</f>
-        <v>83</v>
+        <v>94.7</v>
       </c>
       <c r="AV20">
-        <f>'12_Fire_ModSeverity'!Y20</f>
-        <v>94.7</v>
+        <v>0</v>
       </c>
       <c r="AW20">
         <f>'13_Fire_HighSeverity'!W20</f>
         <v>5</v>
       </c>
       <c r="AX20">
-        <f>'13_Fire_HighSeverity'!X20</f>
-        <v>151.25</v>
+        <v>156.125</v>
       </c>
       <c r="AY20">
         <f>'13_Fire_HighSeverity'!Y20</f>
@@ -39417,8 +39388,7 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <f>'11_Fire_LowSeverity'!AB20</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BC20">
         <f>'11_Fire_LowSeverity'!AC20</f>
@@ -39429,27 +39399,24 @@
         <v>0</v>
       </c>
       <c r="BE20">
-        <f>'12_Fire_ModSeverity'!AB20</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="BF20">
-        <f>'12_Fire_ModSeverity'!AC20</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="BG20">
         <f>'13_Fire_HighSeverity'!AA20</f>
         <v>0</v>
       </c>
       <c r="BH20">
-        <f>'13_Fire_HighSeverity'!AB20</f>
-        <v>75</v>
+        <v>77.5</v>
       </c>
       <c r="BI20">
         <f>'13_Fire_HighSeverity'!AC20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:61" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="str">
         <f>'1_Fire_Script'!A21</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
@@ -39611,7 +39578,6 @@
         <v>4</v>
       </c>
       <c r="AO21">
-        <f>'13_Fire_HighSeverity'!U21</f>
         <v>0</v>
       </c>
       <c r="AP21">
@@ -39695,7 +39661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:61" s="63" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:61" s="63" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="str">
         <f>'1_Fire_Script'!A22</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
@@ -39856,8 +39822,7 @@
         <f>'13_Fire_HighSeverity'!T22</f>
         <v>2.3666666666666667</v>
       </c>
-      <c r="AO22" s="63">
-        <f>'13_Fire_HighSeverity'!U22</f>
+      <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22" s="63">
@@ -39941,7 +39906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:61" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:61" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="str">
         <f>'1_Fire_Script'!A23</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
@@ -40103,7 +40068,6 @@
         <v>25</v>
       </c>
       <c r="AO23">
-        <f>'13_Fire_HighSeverity'!U23</f>
         <v>0</v>
       </c>
       <c r="AP23">
@@ -40187,7 +40151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="str">
         <f>'1_Fire_Script'!A24</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
@@ -40349,7 +40313,6 @@
         <v>62</v>
       </c>
       <c r="AO24">
-        <f>'13_Fire_HighSeverity'!U24</f>
         <v>0</v>
       </c>
       <c r="AP24">
@@ -40433,7 +40396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="str">
         <f>'1_Fire_Script'!A25</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
@@ -40595,7 +40558,6 @@
         <v>2712.5</v>
       </c>
       <c r="AO25">
-        <f>'13_Fire_HighSeverity'!U25</f>
         <v>0</v>
       </c>
       <c r="AP25">
@@ -40679,7 +40641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
         <f>'1_Fire_Script'!A26</f>
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
@@ -40693,36 +40655,30 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <f>'11_Fire_LowSeverity'!H26</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="E26">
-        <f>'11_Fire_LowSeverity'!I26</f>
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <f>'12_Fire_ModSeverity'!G26</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>'12_Fire_ModSeverity'!H26</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="H26">
-        <f>'12_Fire_ModSeverity'!I26</f>
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <f>'13_Fire_HighSeverity'!G26</f>
         <v>0</v>
       </c>
       <c r="J26">
-        <f>'13_Fire_HighSeverity'!H26</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="K26">
-        <f>'13_Fire_HighSeverity'!I26</f>
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <f>'11_Fire_LowSeverity'!J26</f>
@@ -40813,36 +40769,30 @@
         <v>3.5</v>
       </c>
       <c r="AH26">
-        <f>'11_Fire_LowSeverity'!T26</f>
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AI26">
-        <f>'11_Fire_LowSeverity'!U26</f>
-        <v>2.3666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
         <f>'12_Fire_ModSeverity'!S26</f>
         <v>3.5</v>
       </c>
       <c r="AK26">
-        <f>'12_Fire_ModSeverity'!T26</f>
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AL26">
-        <f>'12_Fire_ModSeverity'!U26</f>
-        <v>2.3666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AM26">
         <f>'13_Fire_HighSeverity'!S26</f>
         <v>3.5</v>
       </c>
       <c r="AN26">
-        <f>'13_Fire_HighSeverity'!T26</f>
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AO26">
-        <f>'13_Fire_HighSeverity'!U26</f>
-        <v>2.3666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AP26">
         <f>'11_Fire_LowSeverity'!V26</f>
@@ -40853,36 +40803,30 @@
         <v>11</v>
       </c>
       <c r="AR26">
-        <f>'11_Fire_LowSeverity'!X26</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AS26">
-        <f>'11_Fire_LowSeverity'!Y26</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AT26">
         <f>'12_Fire_ModSeverity'!W26</f>
         <v>11</v>
       </c>
       <c r="AU26">
-        <f>'12_Fire_ModSeverity'!X26</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AV26">
-        <f>'12_Fire_ModSeverity'!Y26</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AW26">
         <f>'13_Fire_HighSeverity'!W26</f>
         <v>11</v>
       </c>
       <c r="AX26">
-        <f>'13_Fire_HighSeverity'!X26</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AY26">
-        <f>'13_Fire_HighSeverity'!Y26</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AZ26">
         <f>'11_Fire_LowSeverity'!Z26</f>
@@ -40893,39 +40837,33 @@
         <v>12</v>
       </c>
       <c r="BB26">
-        <f>'11_Fire_LowSeverity'!AB26</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BC26">
-        <f>'11_Fire_LowSeverity'!AC26</f>
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="BD26">
         <f>'12_Fire_ModSeverity'!AA26</f>
         <v>12</v>
       </c>
       <c r="BE26">
-        <f>'12_Fire_ModSeverity'!AB26</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BF26">
-        <f>'12_Fire_ModSeverity'!AC26</f>
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="BG26">
         <f>'13_Fire_HighSeverity'!AA26</f>
         <v>12</v>
       </c>
       <c r="BH26">
-        <f>'13_Fire_HighSeverity'!AB26</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BI26">
-        <f>'13_Fire_HighSeverity'!AC26</f>
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="str">
         <f>'1_Fire_Script'!A27</f>
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
@@ -40939,12 +40877,10 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f>'11_Fire_LowSeverity'!H27</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <f>'11_Fire_LowSeverity'!I27</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <f>'12_Fire_ModSeverity'!G27</f>
@@ -40955,20 +40891,17 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f>'12_Fire_ModSeverity'!I27</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <f>'13_Fire_HighSeverity'!G27</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>'13_Fire_HighSeverity'!H27</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27">
-        <f>'13_Fire_HighSeverity'!I27</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <f>'11_Fire_LowSeverity'!J27</f>
@@ -41063,8 +40996,7 @@
         <v>25</v>
       </c>
       <c r="AI27">
-        <f>'11_Fire_LowSeverity'!U27</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
         <f>'12_Fire_ModSeverity'!S27</f>
@@ -41075,8 +41007,7 @@
         <v>25</v>
       </c>
       <c r="AL27">
-        <f>'12_Fire_ModSeverity'!U27</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM27">
         <f>'13_Fire_HighSeverity'!S27</f>
@@ -41087,8 +41018,7 @@
         <v>25</v>
       </c>
       <c r="AO27">
-        <f>'13_Fire_HighSeverity'!U27</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AP27">
         <f>'11_Fire_LowSeverity'!V27</f>
@@ -41099,36 +41029,30 @@
         <v>50</v>
       </c>
       <c r="AR27">
-        <f>'11_Fire_LowSeverity'!X27</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS27">
-        <f>'11_Fire_LowSeverity'!Y27</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT27">
         <f>'12_Fire_ModSeverity'!W27</f>
         <v>50</v>
       </c>
       <c r="AU27">
-        <f>'12_Fire_ModSeverity'!X27</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AV27">
-        <f>'12_Fire_ModSeverity'!Y27</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AW27">
         <f>'13_Fire_HighSeverity'!W27</f>
         <v>50</v>
       </c>
       <c r="AX27">
-        <f>'13_Fire_HighSeverity'!X27</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AY27">
-        <f>'13_Fire_HighSeverity'!Y27</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AZ27">
         <f>'11_Fire_LowSeverity'!Z27</f>
@@ -41139,39 +41063,33 @@
         <v>70</v>
       </c>
       <c r="BB27">
-        <f>'11_Fire_LowSeverity'!AB27</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="BC27">
-        <f>'11_Fire_LowSeverity'!AC27</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="BD27">
         <f>'12_Fire_ModSeverity'!AA27</f>
         <v>70</v>
       </c>
       <c r="BE27">
-        <f>'12_Fire_ModSeverity'!AB27</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="BF27">
-        <f>'12_Fire_ModSeverity'!AC27</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="BG27">
         <f>'13_Fire_HighSeverity'!AA27</f>
         <v>70</v>
       </c>
       <c r="BH27">
-        <f>'13_Fire_HighSeverity'!AB27</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="BI27">
-        <f>'13_Fire_HighSeverity'!AC27</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="str">
         <f>'1_Fire_Script'!A28</f>
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
@@ -41185,24 +41103,20 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <f>'11_Fire_LowSeverity'!H28</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E28">
-        <f>'11_Fire_LowSeverity'!I28</f>
-        <v>1.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <f>'12_Fire_ModSeverity'!G28</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>'12_Fire_ModSeverity'!H28</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H28">
-        <f>'12_Fire_ModSeverity'!I28</f>
-        <v>4.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <f>'13_Fire_HighSeverity'!G28</f>
@@ -41213,8 +41127,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <f>'13_Fire_HighSeverity'!I28</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <f>'11_Fire_LowSeverity'!J28</f>
@@ -41305,36 +41218,30 @@
         <v>150</v>
       </c>
       <c r="AH28">
-        <f>'11_Fire_LowSeverity'!T28</f>
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="AI28">
-        <f>'11_Fire_LowSeverity'!U28</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
         <f>'12_Fire_ModSeverity'!S28</f>
         <v>150</v>
       </c>
       <c r="AK28">
-        <f>'12_Fire_ModSeverity'!T28</f>
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="AL28">
-        <f>'12_Fire_ModSeverity'!U28</f>
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AM28">
         <f>'13_Fire_HighSeverity'!S28</f>
         <v>150</v>
       </c>
       <c r="AN28">
-        <f>'13_Fire_HighSeverity'!T28</f>
-        <v>100</v>
+        <v>2625</v>
       </c>
       <c r="AO28">
-        <f>'13_Fire_HighSeverity'!U28</f>
-        <v>2625</v>
+        <v>0</v>
       </c>
       <c r="AP28">
         <f>'11_Fire_LowSeverity'!V28</f>
@@ -41345,36 +41252,30 @@
         <v>10</v>
       </c>
       <c r="AR28">
-        <f>'11_Fire_LowSeverity'!X28</f>
-        <v>5</v>
+        <v>24.5</v>
       </c>
       <c r="AS28">
-        <f>'11_Fire_LowSeverity'!Y28</f>
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="AT28">
         <f>'12_Fire_ModSeverity'!W28</f>
         <v>10</v>
       </c>
       <c r="AU28">
-        <f>'12_Fire_ModSeverity'!X28</f>
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="AV28">
-        <f>'12_Fire_ModSeverity'!Y28</f>
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AW28">
         <f>'13_Fire_HighSeverity'!W28</f>
         <v>10</v>
       </c>
       <c r="AX28">
-        <f>'13_Fire_HighSeverity'!X28</f>
-        <v>5</v>
+        <v>151.25</v>
       </c>
       <c r="AY28">
-        <f>'13_Fire_HighSeverity'!Y28</f>
-        <v>151.25</v>
+        <v>0</v>
       </c>
       <c r="AZ28">
         <f>'11_Fire_LowSeverity'!Z28</f>
@@ -41385,39 +41286,33 @@
         <v>3</v>
       </c>
       <c r="BB28">
-        <f>'11_Fire_LowSeverity'!AB28</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC28">
-        <f>'11_Fire_LowSeverity'!AC28</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BD28">
         <f>'12_Fire_ModSeverity'!AA28</f>
         <v>3</v>
       </c>
       <c r="BE28">
-        <f>'12_Fire_ModSeverity'!AB28</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BF28">
-        <f>'12_Fire_ModSeverity'!AC28</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BG28">
         <f>'13_Fire_HighSeverity'!AA28</f>
         <v>3</v>
       </c>
       <c r="BH28">
-        <f>'13_Fire_HighSeverity'!AB28</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BI28">
-        <f>'13_Fire_HighSeverity'!AC28</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="str">
         <f>'1_Fire_Script'!A29</f>
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
@@ -41435,20 +41330,17 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <f>'11_Fire_LowSeverity'!I29</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="F29">
         <f>'12_Fire_ModSeverity'!G29</f>
         <v>9</v>
       </c>
       <c r="G29">
-        <f>'12_Fire_ModSeverity'!H29</f>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H29">
-        <f>'12_Fire_ModSeverity'!I29</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="I29">
         <f>'13_Fire_HighSeverity'!G29</f>
@@ -41459,8 +41351,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <f>'13_Fire_HighSeverity'!I29</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="L29">
         <f>'11_Fire_LowSeverity'!J29</f>
@@ -41555,8 +41446,7 @@
         <v>3.5</v>
       </c>
       <c r="AI29">
-        <f>'11_Fire_LowSeverity'!U29</f>
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AJ29">
         <f>'12_Fire_ModSeverity'!S29</f>
@@ -41579,8 +41469,7 @@
         <v>3.5</v>
       </c>
       <c r="AO29">
-        <f>'13_Fire_HighSeverity'!U29</f>
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AP29">
         <f>'11_Fire_LowSeverity'!V29</f>
@@ -41595,8 +41484,7 @@
         <v>11</v>
       </c>
       <c r="AS29">
-        <f>'11_Fire_LowSeverity'!Y29</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AT29">
         <f>'12_Fire_ModSeverity'!W29</f>
@@ -41607,8 +41495,7 @@
         <v>11</v>
       </c>
       <c r="AV29">
-        <f>'12_Fire_ModSeverity'!Y29</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AW29">
         <f>'13_Fire_HighSeverity'!W29</f>
@@ -41619,8 +41506,7 @@
         <v>11</v>
       </c>
       <c r="AY29">
-        <f>'13_Fire_HighSeverity'!Y29</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ29">
         <f>'11_Fire_LowSeverity'!Z29</f>
@@ -41635,8 +41521,7 @@
         <v>12</v>
       </c>
       <c r="BC29">
-        <f>'11_Fire_LowSeverity'!AC29</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BD29">
         <f>'12_Fire_ModSeverity'!AA29</f>
@@ -41647,8 +41532,7 @@
         <v>12</v>
       </c>
       <c r="BF29">
-        <f>'12_Fire_ModSeverity'!AC29</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BG29">
         <f>'13_Fire_HighSeverity'!AA29</f>
@@ -41659,11 +41543,10 @@
         <v>12</v>
       </c>
       <c r="BI29">
-        <f>'13_Fire_HighSeverity'!AC29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="str">
         <f>'1_Fire_Script'!A30</f>
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
@@ -41681,8 +41564,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f>'11_Fire_LowSeverity'!I30</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F30">
         <f>'12_Fire_ModSeverity'!G30</f>
@@ -41693,8 +41575,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f>'12_Fire_ModSeverity'!I30</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <f>'13_Fire_HighSeverity'!G30</f>
@@ -41705,8 +41586,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <f>'13_Fire_HighSeverity'!I30</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L30">
         <f>'11_Fire_LowSeverity'!J30</f>
@@ -41825,7 +41705,6 @@
         <v>20</v>
       </c>
       <c r="AO30">
-        <f>'13_Fire_HighSeverity'!U30</f>
         <v>25</v>
       </c>
       <c r="AP30">
@@ -41841,8 +41720,7 @@
         <v>50</v>
       </c>
       <c r="AS30">
-        <f>'11_Fire_LowSeverity'!Y30</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AT30">
         <f>'12_Fire_ModSeverity'!W30</f>
@@ -41853,8 +41731,7 @@
         <v>50</v>
       </c>
       <c r="AV30">
-        <f>'12_Fire_ModSeverity'!Y30</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW30">
         <f>'13_Fire_HighSeverity'!W30</f>
@@ -41865,8 +41742,7 @@
         <v>50</v>
       </c>
       <c r="AY30">
-        <f>'13_Fire_HighSeverity'!Y30</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AZ30">
         <f>'11_Fire_LowSeverity'!Z30</f>
@@ -41881,8 +41757,7 @@
         <v>70</v>
       </c>
       <c r="BC30">
-        <f>'11_Fire_LowSeverity'!AC30</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="BD30">
         <f>'12_Fire_ModSeverity'!AA30</f>
@@ -41893,8 +41768,7 @@
         <v>70</v>
       </c>
       <c r="BF30">
-        <f>'12_Fire_ModSeverity'!AC30</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="BG30">
         <f>'13_Fire_HighSeverity'!AA30</f>
@@ -41905,11 +41779,10 @@
         <v>70</v>
       </c>
       <c r="BI30">
-        <f>'13_Fire_HighSeverity'!AC30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="str">
         <f>'1_Fire_Script'!A31</f>
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
@@ -41927,8 +41800,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <f>'11_Fire_LowSeverity'!I31</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F31">
         <f>'12_Fire_ModSeverity'!G31</f>
@@ -41939,8 +41811,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f>'12_Fire_ModSeverity'!I31</f>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I31">
         <f>'13_Fire_HighSeverity'!G31</f>
@@ -41951,8 +41822,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <f>'13_Fire_HighSeverity'!I31</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L31">
         <f>'11_Fire_LowSeverity'!J31</f>
@@ -42047,8 +41917,7 @@
         <v>150</v>
       </c>
       <c r="AI31">
-        <f>'11_Fire_LowSeverity'!U31</f>
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="AJ31">
         <f>'12_Fire_ModSeverity'!S31</f>
@@ -42071,8 +41940,7 @@
         <v>150</v>
       </c>
       <c r="AO31">
-        <f>'13_Fire_HighSeverity'!U31</f>
-        <v>100</v>
+        <v>2625</v>
       </c>
       <c r="AP31">
         <f>'11_Fire_LowSeverity'!V31</f>
@@ -42087,8 +41955,7 @@
         <v>10</v>
       </c>
       <c r="AS31">
-        <f>'11_Fire_LowSeverity'!Y31</f>
-        <v>5</v>
+        <v>24.5</v>
       </c>
       <c r="AT31">
         <f>'12_Fire_ModSeverity'!W31</f>
@@ -42099,8 +41966,7 @@
         <v>10</v>
       </c>
       <c r="AV31">
-        <f>'12_Fire_ModSeverity'!Y31</f>
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="AW31">
         <f>'13_Fire_HighSeverity'!W31</f>
@@ -42111,8 +41977,7 @@
         <v>10</v>
       </c>
       <c r="AY31">
-        <f>'13_Fire_HighSeverity'!Y31</f>
-        <v>5</v>
+        <v>151.25</v>
       </c>
       <c r="AZ31">
         <f>'11_Fire_LowSeverity'!Z31</f>
@@ -42127,8 +41992,7 @@
         <v>3</v>
       </c>
       <c r="BC31">
-        <f>'11_Fire_LowSeverity'!AC31</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BD31">
         <f>'12_Fire_ModSeverity'!AA31</f>
@@ -42139,8 +42003,7 @@
         <v>3</v>
       </c>
       <c r="BF31">
-        <f>'12_Fire_ModSeverity'!AC31</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BG31">
         <f>'13_Fire_HighSeverity'!AA31</f>
@@ -42151,11 +42014,10 @@
         <v>3</v>
       </c>
       <c r="BI31">
-        <f>'13_Fire_HighSeverity'!AC31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="str">
         <f>'1_Fire_Script'!A32</f>
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
@@ -42317,7 +42179,6 @@
         <v>4</v>
       </c>
       <c r="AO32">
-        <f>'13_Fire_HighSeverity'!U32</f>
         <v>4</v>
       </c>
       <c r="AP32">
@@ -42401,7 +42262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="str">
         <f>'1_Fire_Script'!A33</f>
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
@@ -42563,7 +42424,6 @@
         <v>0</v>
       </c>
       <c r="AO33">
-        <f>'13_Fire_HighSeverity'!U33</f>
         <v>0</v>
       </c>
       <c r="AP33">
@@ -42647,7 +42507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="str">
         <f>'1_Fire_Script'!A34</f>
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
@@ -42809,7 +42669,6 @@
         <v>2.5</v>
       </c>
       <c r="AO34">
-        <f>'13_Fire_HighSeverity'!U34</f>
         <v>5</v>
       </c>
       <c r="AP34">
@@ -42893,7 +42752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="str">
         <f>'1_Fire_Script'!A35</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -42923,8 +42782,7 @@
         <v>10.8</v>
       </c>
       <c r="H35">
-        <f>'12_Fire_ModSeverity'!I35</f>
-        <v>27</v>
+        <v>21.6</v>
       </c>
       <c r="I35">
         <f>'13_Fire_HighSeverity'!G35</f>
@@ -42935,8 +42793,7 @@
         <v>10.8</v>
       </c>
       <c r="K35">
-        <f>'13_Fire_HighSeverity'!I35</f>
-        <v>32.400000000000006</v>
+        <v>21.6</v>
       </c>
       <c r="L35">
         <f>'11_Fire_LowSeverity'!J35</f>
@@ -42963,8 +42820,7 @@
         <v>35</v>
       </c>
       <c r="R35">
-        <f>'12_Fire_ModSeverity'!M35</f>
-        <v>87.5</v>
+        <v>70</v>
       </c>
       <c r="S35">
         <f>'13_Fire_HighSeverity'!K35</f>
@@ -42975,8 +42831,7 @@
         <v>35</v>
       </c>
       <c r="U35">
-        <f>'13_Fire_HighSeverity'!M35</f>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="V35">
         <f>'11_Fire_LowSeverity'!N35</f>
@@ -43003,8 +42858,7 @@
         <v>1</v>
       </c>
       <c r="AB35">
-        <f>'12_Fire_ModSeverity'!Q35</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AC35">
         <f>'13_Fire_HighSeverity'!O35</f>
@@ -43015,8 +42869,7 @@
         <v>1</v>
       </c>
       <c r="AE35">
-        <f>'13_Fire_HighSeverity'!Q35</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF35">
         <f>'11_Fire_LowSeverity'!R35</f>
@@ -43043,8 +42896,7 @@
         <v>5</v>
       </c>
       <c r="AL35">
-        <f>'12_Fire_ModSeverity'!U35</f>
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AM35">
         <f>'13_Fire_HighSeverity'!S35</f>
@@ -43055,8 +42907,7 @@
         <v>5</v>
       </c>
       <c r="AO35">
-        <f>'13_Fire_HighSeverity'!U35</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP35">
         <f>'11_Fire_LowSeverity'!V35</f>
@@ -43083,8 +42934,7 @@
         <v>15</v>
       </c>
       <c r="AV35">
-        <f>'12_Fire_ModSeverity'!Y35</f>
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="AW35">
         <f>'13_Fire_HighSeverity'!W35</f>
@@ -43095,8 +42945,7 @@
         <v>15</v>
       </c>
       <c r="AY35">
-        <f>'13_Fire_HighSeverity'!Y35</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AZ35">
         <f>'11_Fire_LowSeverity'!Z35</f>
@@ -43123,8 +42972,7 @@
         <v>40</v>
       </c>
       <c r="BF35">
-        <f>'12_Fire_ModSeverity'!AC35</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BG35">
         <f>'13_Fire_HighSeverity'!AA35</f>
@@ -43135,11 +42983,10 @@
         <v>40</v>
       </c>
       <c r="BI35">
-        <f>'13_Fire_HighSeverity'!AC35</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="str">
         <f>'1_Fire_Script'!A36</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -43301,7 +43148,6 @@
         <v>90</v>
       </c>
       <c r="AO36">
-        <f>'13_Fire_HighSeverity'!U36</f>
         <v>90</v>
       </c>
       <c r="AP36">
@@ -43385,7 +43231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="str">
         <f>'1_Fire_Script'!A37</f>
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
@@ -43547,7 +43393,6 @@
         <v>0.5</v>
       </c>
       <c r="AO37">
-        <f>'13_Fire_HighSeverity'!U37</f>
         <v>1</v>
       </c>
       <c r="AP37">
@@ -43631,7 +43476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="str">
         <f>'1_Fire_Script'!A38</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -43661,8 +43506,7 @@
         <v>0.6</v>
       </c>
       <c r="H38">
-        <f>'12_Fire_ModSeverity'!I38</f>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="I38">
         <f>'13_Fire_HighSeverity'!G38</f>
@@ -43673,8 +43517,7 @@
         <v>0.6</v>
       </c>
       <c r="K38">
-        <f>'13_Fire_HighSeverity'!I38</f>
-        <v>1.7999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="L38">
         <f>'11_Fire_LowSeverity'!J38</f>
@@ -43701,8 +43544,7 @@
         <v>2.5</v>
       </c>
       <c r="R38">
-        <f>'12_Fire_ModSeverity'!M38</f>
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="S38">
         <f>'13_Fire_HighSeverity'!K38</f>
@@ -43713,8 +43555,7 @@
         <v>2.5</v>
       </c>
       <c r="U38">
-        <f>'13_Fire_HighSeverity'!M38</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="V38">
         <f>'11_Fire_LowSeverity'!N38</f>
@@ -43781,8 +43622,7 @@
         <v>10</v>
       </c>
       <c r="AL38">
-        <f>'12_Fire_ModSeverity'!U38</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AM38">
         <f>'13_Fire_HighSeverity'!S38</f>
@@ -43793,8 +43633,7 @@
         <v>10</v>
       </c>
       <c r="AO38">
-        <f>'13_Fire_HighSeverity'!U38</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AP38">
         <f>'11_Fire_LowSeverity'!V38</f>
@@ -43877,7 +43716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="str">
         <f>'1_Fire_Script'!A39</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -44039,7 +43878,6 @@
         <v>90</v>
       </c>
       <c r="AO39">
-        <f>'13_Fire_HighSeverity'!U39</f>
         <v>90</v>
       </c>
       <c r="AP39">
@@ -44123,7 +43961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="str">
         <f>'1_Fire_Script'!A40</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
@@ -44285,7 +44123,6 @@
         <v>1</v>
       </c>
       <c r="AO40">
-        <f>'13_Fire_HighSeverity'!U40</f>
         <v>1</v>
       </c>
       <c r="AP40">
@@ -44369,7 +44206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="str">
         <f>'1_Fire_Script'!A41</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
@@ -44395,24 +44232,20 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G41">
-        <f>'12_Fire_ModSeverity'!H41</f>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="H41">
-        <f>'12_Fire_ModSeverity'!I41</f>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="I41">
         <f>'13_Fire_HighSeverity'!G41</f>
         <v>5.000000000000001E-3</v>
       </c>
       <c r="J41">
-        <f>'13_Fire_HighSeverity'!H41</f>
-        <v>0.20000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="K41">
-        <f>'13_Fire_HighSeverity'!I41</f>
-        <v>0.20000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="L41">
         <f>'11_Fire_LowSeverity'!J41</f>
@@ -44475,24 +44308,20 @@
         <v>0.25</v>
       </c>
       <c r="AA41">
-        <f>'12_Fire_ModSeverity'!P41</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <f>'12_Fire_ModSeverity'!Q41</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <f>'13_Fire_HighSeverity'!O41</f>
         <v>0.05</v>
       </c>
       <c r="AD41">
-        <f>'13_Fire_HighSeverity'!P41</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE41">
-        <f>'13_Fire_HighSeverity'!Q41</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF41">
         <f>'11_Fire_LowSeverity'!R41</f>
@@ -44515,24 +44344,20 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="AK41">
-        <f>'12_Fire_ModSeverity'!T41</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AL41">
-        <f>'12_Fire_ModSeverity'!U41</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AM41">
         <f>'13_Fire_HighSeverity'!S41</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AN41">
-        <f>'13_Fire_HighSeverity'!T41</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AO41">
-        <f>'13_Fire_HighSeverity'!U41</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AP41">
         <f>'11_Fire_LowSeverity'!V41</f>
@@ -44555,24 +44380,20 @@
         <v>0.1</v>
       </c>
       <c r="AU41">
-        <f>'12_Fire_ModSeverity'!X41</f>
-        <v>0.60000000000000009</v>
+        <v>0.4</v>
       </c>
       <c r="AV41">
-        <f>'12_Fire_ModSeverity'!Y41</f>
-        <v>0.60000000000000009</v>
+        <v>0.4</v>
       </c>
       <c r="AW41">
         <f>'13_Fire_HighSeverity'!W41</f>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="AX41">
-        <f>'13_Fire_HighSeverity'!X41</f>
-        <v>0.80000000000000016</v>
+        <v>0.4</v>
       </c>
       <c r="AY41">
-        <f>'13_Fire_HighSeverity'!Y41</f>
-        <v>0.80000000000000016</v>
+        <v>0.4</v>
       </c>
       <c r="AZ41">
         <f>'11_Fire_LowSeverity'!Z41</f>
@@ -44595,27 +44416,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="BE41">
-        <f>'12_Fire_ModSeverity'!AB41</f>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="BF41">
-        <f>'12_Fire_ModSeverity'!AC41</f>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="BG41">
         <f>'13_Fire_HighSeverity'!AA41</f>
         <v>5.000000000000001E-3</v>
       </c>
       <c r="BH41">
-        <f>'13_Fire_HighSeverity'!AB41</f>
-        <v>0.20000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="BI41">
-        <f>'13_Fire_HighSeverity'!AC41</f>
-        <v>0.20000000000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="str">
         <f>'1_Fire_Script'!A42</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -44641,24 +44458,20 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="G42">
-        <f>'12_Fire_ModSeverity'!H42</f>
-        <v>1.0499999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="H42">
-        <f>'12_Fire_ModSeverity'!I42</f>
-        <v>1.0499999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="I42">
         <f>'13_Fire_HighSeverity'!G42</f>
         <v>3.4999999999999996E-2</v>
       </c>
       <c r="J42">
-        <f>'13_Fire_HighSeverity'!H42</f>
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="K42">
-        <f>'13_Fire_HighSeverity'!I42</f>
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="L42">
         <f>'11_Fire_LowSeverity'!J42</f>
@@ -44721,24 +44534,20 @@
         <v>22.5</v>
       </c>
       <c r="AA42">
-        <f>'12_Fire_ModSeverity'!P42</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB42">
-        <f>'12_Fire_ModSeverity'!Q42</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AC42">
         <f>'13_Fire_HighSeverity'!O42</f>
         <v>4.5</v>
       </c>
       <c r="AD42">
-        <f>'13_Fire_HighSeverity'!P42</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE42">
-        <f>'13_Fire_HighSeverity'!Q42</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF42">
         <f>'11_Fire_LowSeverity'!R42</f>
@@ -44761,24 +44570,20 @@
         <v>0.5</v>
       </c>
       <c r="AK42">
-        <f>'12_Fire_ModSeverity'!T42</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL42">
-        <f>'12_Fire_ModSeverity'!U42</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM42">
         <f>'13_Fire_HighSeverity'!S42</f>
         <v>0.1</v>
       </c>
       <c r="AN42">
-        <f>'13_Fire_HighSeverity'!T42</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO42">
-        <f>'13_Fire_HighSeverity'!U42</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP42">
         <f>'11_Fire_LowSeverity'!V42</f>
@@ -44801,24 +44606,20 @@
         <v>7.5</v>
       </c>
       <c r="AU42">
-        <f>'12_Fire_ModSeverity'!X42</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AV42">
-        <f>'12_Fire_ModSeverity'!Y42</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AW42">
         <f>'13_Fire_HighSeverity'!W42</f>
         <v>1.5</v>
       </c>
       <c r="AX42">
-        <f>'13_Fire_HighSeverity'!X42</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AY42">
-        <f>'13_Fire_HighSeverity'!Y42</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AZ42">
         <f>'11_Fire_LowSeverity'!Z42</f>
@@ -44841,27 +44642,23 @@
         <v>5</v>
       </c>
       <c r="BE42">
-        <f>'12_Fire_ModSeverity'!AB42</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BF42">
-        <f>'12_Fire_ModSeverity'!AC42</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BG42">
         <f>'13_Fire_HighSeverity'!AA42</f>
         <v>1</v>
       </c>
       <c r="BH42">
-        <f>'13_Fire_HighSeverity'!AB42</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BI42">
-        <f>'13_Fire_HighSeverity'!AC42</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="str">
         <f>'1_Fire_Script'!A43</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -45023,7 +44820,6 @@
         <v>90</v>
       </c>
       <c r="AO43">
-        <f>'13_Fire_HighSeverity'!U43</f>
         <v>90</v>
       </c>
       <c r="AP43">
@@ -45107,7 +44903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="str">
         <f>'1_Fire_Script'!A44</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
@@ -45269,7 +45065,6 @@
         <v>0.5</v>
       </c>
       <c r="AO44">
-        <f>'13_Fire_HighSeverity'!U44</f>
         <v>0.5</v>
       </c>
       <c r="AP44">
@@ -45353,7 +45148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="str">
         <f>'1_Fire_Script'!A45</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
@@ -45379,24 +45174,20 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G45">
-        <f>'12_Fire_ModSeverity'!H45</f>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="H45">
-        <f>'12_Fire_ModSeverity'!I45</f>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="I45">
         <f>'13_Fire_HighSeverity'!G45</f>
         <v>5.000000000000001E-3</v>
       </c>
       <c r="J45">
-        <f>'13_Fire_HighSeverity'!H45</f>
-        <v>0.20000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="K45">
-        <f>'13_Fire_HighSeverity'!I45</f>
-        <v>0.20000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="L45">
         <f>'11_Fire_LowSeverity'!J45</f>
@@ -45459,24 +45250,20 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="AA45">
-        <f>'12_Fire_ModSeverity'!P45</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AB45">
-        <f>'12_Fire_ModSeverity'!Q45</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AC45">
         <f>'13_Fire_HighSeverity'!O45</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AD45">
-        <f>'13_Fire_HighSeverity'!P45</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AE45">
-        <f>'13_Fire_HighSeverity'!Q45</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AF45">
         <f>'11_Fire_LowSeverity'!R45</f>
@@ -45499,24 +45286,20 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AK45">
-        <f>'12_Fire_ModSeverity'!T45</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AL45">
-        <f>'12_Fire_ModSeverity'!U45</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AM45">
         <f>'13_Fire_HighSeverity'!S45</f>
         <v>1E-3</v>
       </c>
       <c r="AN45">
-        <f>'13_Fire_HighSeverity'!T45</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AO45">
-        <f>'13_Fire_HighSeverity'!U45</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AP45">
         <f>'11_Fire_LowSeverity'!V45</f>
@@ -45579,27 +45362,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="BE45">
-        <f>'12_Fire_ModSeverity'!AB45</f>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="BF45">
-        <f>'12_Fire_ModSeverity'!AC45</f>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="BG45">
         <f>'13_Fire_HighSeverity'!AA45</f>
         <v>5.000000000000001E-3</v>
       </c>
       <c r="BH45">
-        <f>'13_Fire_HighSeverity'!AB45</f>
-        <v>0.20000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="BI45">
-        <f>'13_Fire_HighSeverity'!AC45</f>
-        <v>0.20000000000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="str">
         <f>'1_Fire_Script'!A46</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -45625,24 +45404,20 @@
         <v>0.05</v>
       </c>
       <c r="G46">
-        <f>'12_Fire_ModSeverity'!H46</f>
-        <v>0.30000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="H46">
-        <f>'12_Fire_ModSeverity'!I46</f>
-        <v>0.30000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="I46">
         <f>'13_Fire_HighSeverity'!G46</f>
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="J46">
-        <f>'13_Fire_HighSeverity'!H46</f>
-        <v>0.40000000000000008</v>
+        <v>0.2</v>
       </c>
       <c r="K46">
-        <f>'13_Fire_HighSeverity'!I46</f>
-        <v>0.40000000000000008</v>
+        <v>0.2</v>
       </c>
       <c r="L46">
         <f>'11_Fire_LowSeverity'!J46</f>
@@ -45705,24 +45480,20 @@
         <v>2</v>
       </c>
       <c r="AA46">
-        <f>'12_Fire_ModSeverity'!P46</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AB46">
-        <f>'12_Fire_ModSeverity'!Q46</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC46">
         <f>'13_Fire_HighSeverity'!O46</f>
         <v>0.4</v>
       </c>
       <c r="AD46">
-        <f>'13_Fire_HighSeverity'!P46</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE46">
-        <f>'13_Fire_HighSeverity'!Q46</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AF46">
         <f>'11_Fire_LowSeverity'!R46</f>
@@ -45745,24 +45516,20 @@
         <v>1.25</v>
       </c>
       <c r="AK46">
-        <f>'12_Fire_ModSeverity'!T46</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AL46">
-        <f>'12_Fire_ModSeverity'!U46</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AM46">
         <f>'13_Fire_HighSeverity'!S46</f>
         <v>0.25</v>
       </c>
       <c r="AN46">
-        <f>'13_Fire_HighSeverity'!T46</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AO46">
-        <f>'13_Fire_HighSeverity'!U46</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AP46">
         <f>'11_Fire_LowSeverity'!V46</f>
@@ -45825,27 +45592,23 @@
         <v>5</v>
       </c>
       <c r="BE46">
-        <f>'12_Fire_ModSeverity'!AB46</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BF46">
-        <f>'12_Fire_ModSeverity'!AC46</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BG46">
         <f>'13_Fire_HighSeverity'!AA46</f>
         <v>1</v>
       </c>
       <c r="BH46">
-        <f>'13_Fire_HighSeverity'!AB46</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BI46">
-        <f>'13_Fire_HighSeverity'!AC46</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="str">
         <f>'1_Fire_Script'!A47</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -45966,9 +45729,8 @@
         <f>'13_Fire_HighSeverity'!P47</f>
         <v>70</v>
       </c>
-      <c r="AE47">
-        <f>'13_Fire_HighSeverity'!Q47</f>
-        <v>70</v>
+      <c r="AE47" t="s">
+        <v>438</v>
       </c>
       <c r="AF47">
         <f>'11_Fire_LowSeverity'!R47</f>
@@ -46007,7 +45769,6 @@
         <v>90</v>
       </c>
       <c r="AO47">
-        <f>'13_Fire_HighSeverity'!U47</f>
         <v>90</v>
       </c>
       <c r="AP47">
@@ -46091,7 +45852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="str">
         <f>'1_Fire_Script'!A48</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
@@ -46253,7 +46014,6 @@
         <v>3.7500000000000006E-2</v>
       </c>
       <c r="AO48">
-        <f>'13_Fire_HighSeverity'!U48</f>
         <v>0.16500000000000001</v>
       </c>
       <c r="AP48">
@@ -46337,7 +46097,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="str">
         <f>'1_Fire_Script'!A49</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
@@ -46499,8 +46259,7 @@
         <v>2.25</v>
       </c>
       <c r="AO49">
-        <f>'13_Fire_HighSeverity'!U49</f>
-        <v>9.8999999999999986</v>
+        <v>9.9</v>
       </c>
       <c r="AP49">
         <f>'11_Fire_LowSeverity'!V49</f>
@@ -46583,7 +46342,7 @@
         <v>4.9499999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="str">
         <f>'1_Fire_Script'!A50</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
@@ -46745,7 +46504,6 @@
         <v>3.7500000000000006E-2</v>
       </c>
       <c r="AO50">
-        <f>'13_Fire_HighSeverity'!U50</f>
         <v>0.16500000000000001</v>
       </c>
       <c r="AP50">
@@ -46829,7 +46587,7 @@
         <v>9.8999999999999991E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="str">
         <f>'1_Fire_Script'!A51</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
@@ -46991,7 +46749,6 @@
         <v>1.5000000000000003E-2</v>
       </c>
       <c r="AO51">
-        <f>'13_Fire_HighSeverity'!U51</f>
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="AP51">
@@ -47075,7 +46832,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="str">
         <f>'1_Fire_Script'!A52</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
@@ -47237,7 +46994,6 @@
         <v>7.5000000000000015E-3</v>
       </c>
       <c r="AO52">
-        <f>'13_Fire_HighSeverity'!U52</f>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="AP52">
@@ -47321,7 +47077,7 @@
         <v>6.5999999999999991E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="str">
         <f>'1_Fire_Script'!A53</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -47483,7 +47239,6 @@
         <v>0.375</v>
       </c>
       <c r="AO53">
-        <f>'13_Fire_HighSeverity'!U53</f>
         <v>0.1875</v>
       </c>
       <c r="AP53">
@@ -47567,7 +47322,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="str">
         <f>'1_Fire_Script'!A54</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -47729,7 +47484,6 @@
         <v>0</v>
       </c>
       <c r="AO54">
-        <f>'13_Fire_HighSeverity'!U54</f>
         <v>0</v>
       </c>
       <c r="AP54">
@@ -47813,7 +47567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="str">
         <f>'1_Fire_Script'!A55</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -47975,7 +47729,6 @@
         <v>0</v>
       </c>
       <c r="AO55">
-        <f>'13_Fire_HighSeverity'!U55</f>
         <v>0</v>
       </c>
       <c r="AP55">
@@ -48059,7 +47812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="str">
         <f>'1_Fire_Script'!A56</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -48221,7 +47974,6 @@
         <v>0.375</v>
       </c>
       <c r="AO56">
-        <f>'13_Fire_HighSeverity'!U56</f>
         <v>0.5625</v>
       </c>
       <c r="AP56">
@@ -48305,7 +48057,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="str">
         <f>'1_Fire_Script'!A57</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -48467,7 +48219,6 @@
         <v>0</v>
       </c>
       <c r="AO57">
-        <f>'13_Fire_HighSeverity'!U57</f>
         <v>0</v>
       </c>
       <c r="AP57">
@@ -48551,7 +48302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="str">
         <f>'1_Fire_Script'!A58</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -48713,7 +48464,6 @@
         <v>0</v>
       </c>
       <c r="AO58">
-        <f>'13_Fire_HighSeverity'!U58</f>
         <v>0</v>
       </c>
       <c r="AP58">
@@ -48797,7 +48547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="str">
         <f>'1_Fire_Script'!A59</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
@@ -48959,7 +48709,6 @@
         <v>3.5</v>
       </c>
       <c r="AO59">
-        <f>'13_Fire_HighSeverity'!U59</f>
         <v>3.5</v>
       </c>
       <c r="AP59">
@@ -49043,7 +48792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="str">
         <f>'1_Fire_Script'!A60</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
@@ -49205,7 +48954,6 @@
         <v>2</v>
       </c>
       <c r="AO60">
-        <f>'13_Fire_HighSeverity'!U60</f>
         <v>2</v>
       </c>
       <c r="AP60">
@@ -49289,7 +49037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="str">
         <f>'1_Fire_Script'!A61</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
@@ -49451,7 +49199,6 @@
         <v>50</v>
       </c>
       <c r="AO61">
-        <f>'13_Fire_HighSeverity'!U61</f>
         <v>50</v>
       </c>
       <c r="AP61">
@@ -49535,7 +49282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="str">
         <f>'1_Fire_Script'!A62</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
@@ -49697,7 +49444,6 @@
         <v>1.75</v>
       </c>
       <c r="AO62">
-        <f>'13_Fire_HighSeverity'!U62</f>
         <v>1.75</v>
       </c>
       <c r="AP62">
@@ -49781,7 +49527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="str">
         <f>'1_Fire_Script'!A63</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
@@ -49943,7 +49689,6 @@
         <v>1</v>
       </c>
       <c r="AO63">
-        <f>'13_Fire_HighSeverity'!U63</f>
         <v>1</v>
       </c>
       <c r="AP63">
@@ -50027,7 +49772,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="str">
         <f>'1_Fire_Script'!A64</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
@@ -50189,7 +49934,6 @@
         <v>25</v>
       </c>
       <c r="AO64">
-        <f>'13_Fire_HighSeverity'!U64</f>
         <v>25</v>
       </c>
       <c r="AP64">
@@ -50273,7 +50017,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="65" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="str">
         <f>'1_Fire_Script'!A65</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
@@ -50435,7 +50179,6 @@
         <v>0</v>
       </c>
       <c r="AO65">
-        <f>'13_Fire_HighSeverity'!U65</f>
         <v>0</v>
       </c>
       <c r="AP65">
@@ -50519,7 +50262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="str">
         <f>'1_Fire_Script'!A66</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
@@ -50681,7 +50424,6 @@
         <v>0</v>
       </c>
       <c r="AO66">
-        <f>'13_Fire_HighSeverity'!U66</f>
         <v>0</v>
       </c>
       <c r="AP66">
@@ -50765,7 +50507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="str">
         <f>'1_Fire_Script'!A67</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
@@ -50927,7 +50669,6 @@
         <v>0</v>
       </c>
       <c r="AO67">
-        <f>'13_Fire_HighSeverity'!U67</f>
         <v>0</v>
       </c>
       <c r="AP67">
@@ -51011,7 +50752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="str">
         <f>'1_Fire_Script'!A68</f>
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
@@ -51173,7 +50914,6 @@
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="AO68">
-        <f>'13_Fire_HighSeverity'!U68</f>
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="AP68">
@@ -51257,7 +50997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="str">
         <f>'1_Fire_Script'!A69</f>
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
@@ -51419,7 +51159,6 @@
         <v>0</v>
       </c>
       <c r="AO69">
-        <f>'13_Fire_HighSeverity'!U69</f>
         <v>0</v>
       </c>
       <c r="AP69">
@@ -51503,7 +51242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="str">
         <f>'1_Fire_Script'!A70</f>
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
@@ -51665,7 +51404,6 @@
         <v>0</v>
       </c>
       <c r="AO70">
-        <f>'13_Fire_HighSeverity'!U70</f>
         <v>0</v>
       </c>
       <c r="AP70">
@@ -51749,7 +51487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="str">
         <f>'1_Fire_Script'!A71</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
@@ -51911,7 +51649,6 @@
         <v>0</v>
       </c>
       <c r="AO71">
-        <f>'13_Fire_HighSeverity'!U71</f>
         <v>0</v>
       </c>
       <c r="AP71">
@@ -51995,7 +51732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="str">
         <f>'1_Fire_Script'!A72</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
@@ -52157,7 +51894,6 @@
         <v>0</v>
       </c>
       <c r="AO72">
-        <f>'13_Fire_HighSeverity'!U72</f>
         <v>0</v>
       </c>
       <c r="AP72">
@@ -52241,7 +51977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="str">
         <f>'1_Fire_Script'!A73</f>
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
@@ -52403,7 +52139,6 @@
         <v>0</v>
       </c>
       <c r="AO73">
-        <f>'13_Fire_HighSeverity'!U73</f>
         <v>0</v>
       </c>
       <c r="AP73">
@@ -52487,7 +52222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="str">
         <f>'1_Fire_Script'!A74</f>
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -52649,7 +52384,6 @@
         <v>0</v>
       </c>
       <c r="AO74">
-        <f>'13_Fire_HighSeverity'!U74</f>
         <v>0</v>
       </c>
       <c r="AP74">
@@ -52733,7 +52467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="str">
         <f>'1_Fire_Script'!A75</f>
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
@@ -52895,7 +52629,6 @@
         <v>100</v>
       </c>
       <c r="AO75">
-        <f>'13_Fire_HighSeverity'!U75</f>
         <v>100</v>
       </c>
       <c r="AP75">
@@ -52979,7 +52712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="str">
         <f>'1_Fire_Script'!A76</f>
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
@@ -53141,7 +52874,6 @@
         <v>0</v>
       </c>
       <c r="AO76">
-        <f>'13_Fire_HighSeverity'!U76</f>
         <v>0</v>
       </c>
       <c r="AP76">
@@ -53225,7 +52957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="str">
         <f>'1_Fire_Script'!A77</f>
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -53387,7 +53119,6 @@
         <v>0</v>
       </c>
       <c r="AO77">
-        <f>'13_Fire_HighSeverity'!U77</f>
         <v>0</v>
       </c>
       <c r="AP77">
@@ -53471,7 +53202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="str">
         <f>'1_Fire_Script'!A78</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
@@ -53633,7 +53364,6 @@
         <v>1</v>
       </c>
       <c r="AO78">
-        <f>'13_Fire_HighSeverity'!U78</f>
         <v>2</v>
       </c>
       <c r="AP78">
@@ -53717,7 +53447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="str">
         <f>'1_Fire_Script'!A79</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
@@ -53879,7 +53609,6 @@
         <v>2.5</v>
       </c>
       <c r="AO79">
-        <f>'13_Fire_HighSeverity'!U79</f>
         <v>5</v>
       </c>
       <c r="AP79">
@@ -53963,7 +53692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="str">
         <f>'1_Fire_Script'!A80</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
@@ -54125,7 +53854,6 @@
         <v>0.5</v>
       </c>
       <c r="AO80">
-        <f>'13_Fire_HighSeverity'!U80</f>
         <v>1</v>
       </c>
       <c r="AP80">
@@ -54209,7 +53937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="str">
         <f>'1_Fire_Script'!A81</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
@@ -54371,7 +54099,6 @@
         <v>7.5</v>
       </c>
       <c r="AO81">
-        <f>'13_Fire_HighSeverity'!U81</f>
         <v>15</v>
       </c>
       <c r="AP81">
@@ -54455,7 +54182,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="str">
         <f>'1_Fire_Script'!A82</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
@@ -54617,7 +54344,6 @@
         <v>1.25</v>
       </c>
       <c r="AO82">
-        <f>'13_Fire_HighSeverity'!U82</f>
         <v>2.5</v>
       </c>
       <c r="AP82">
@@ -54701,7 +54427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="str">
         <f>'1_Fire_Script'!A83</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
@@ -54863,7 +54589,6 @@
         <v>40</v>
       </c>
       <c r="AO83">
-        <f>'13_Fire_HighSeverity'!U83</f>
         <v>80</v>
       </c>
       <c r="AP83">
@@ -54947,7 +54672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="str">
         <f>'1_Fire_Script'!A84</f>
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
@@ -55109,7 +54834,6 @@
         <v>0.1</v>
       </c>
       <c r="AO84">
-        <f>'13_Fire_HighSeverity'!U84</f>
         <v>0.1</v>
       </c>
       <c r="AP84">
@@ -55193,7 +54917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="str">
         <f>'1_Fire_Script'!A85</f>
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
@@ -55355,7 +55079,6 @@
         <v>4.5</v>
       </c>
       <c r="AO85">
-        <f>'13_Fire_HighSeverity'!U85</f>
         <v>4.5</v>
       </c>
       <c r="AP85">
@@ -55439,7 +55162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="str">
         <f>'1_Fire_Script'!A86</f>
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
@@ -55601,7 +55324,6 @@
         <v>0.2</v>
       </c>
       <c r="AO86">
-        <f>'13_Fire_HighSeverity'!U86</f>
         <v>0.2</v>
       </c>
       <c r="AP86">
@@ -55685,7 +55407,7 @@
         <v>7.5000000000000011E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="str">
         <f>'1_Fire_Script'!A87</f>
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
@@ -55847,7 +55569,6 @@
         <v>5</v>
       </c>
       <c r="AO87">
-        <f>'13_Fire_HighSeverity'!U87</f>
         <v>5</v>
       </c>
       <c r="AP87">
@@ -55931,7 +55652,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="88" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="str">
         <f>'1_Fire_Script'!A88</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
@@ -56093,7 +55814,6 @@
         <v>0</v>
       </c>
       <c r="AO88">
-        <f>'13_Fire_HighSeverity'!U88</f>
         <v>0</v>
       </c>
       <c r="AP88">
@@ -56177,7 +55897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="str">
         <f>'1_Fire_Script'!A89</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
@@ -56339,7 +56059,6 @@
         <v>0</v>
       </c>
       <c r="AO89">
-        <f>'13_Fire_HighSeverity'!U89</f>
         <v>0</v>
       </c>
       <c r="AP89">
@@ -56423,7 +56142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="str">
         <f>'1_Fire_Script'!A90</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
@@ -56585,7 +56304,6 @@
         <v>0</v>
       </c>
       <c r="AO90">
-        <f>'13_Fire_HighSeverity'!U90</f>
         <v>0</v>
       </c>
       <c r="AP90">
@@ -56669,7 +56387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="str">
         <f>'1_Fire_Script'!A91</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
@@ -56831,7 +56549,6 @@
         <v>0.9</v>
       </c>
       <c r="AO91">
-        <f>'13_Fire_HighSeverity'!U91</f>
         <v>0.9</v>
       </c>
       <c r="AP91">
@@ -56915,7 +56632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="str">
         <f>'1_Fire_Script'!A92</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
@@ -57077,7 +56794,6 @@
         <v>0.05</v>
       </c>
       <c r="AO92">
-        <f>'13_Fire_HighSeverity'!U92</f>
         <v>0.05</v>
       </c>
       <c r="AP92">
@@ -57161,7 +56877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="str">
         <f>'1_Fire_Script'!A93</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
@@ -57323,7 +57039,6 @@
         <v>0.25</v>
       </c>
       <c r="AO93">
-        <f>'13_Fire_HighSeverity'!U93</f>
         <v>0.25</v>
       </c>
       <c r="AP93">
